--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B658"/>
+  <dimension ref="A1:B659"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5402,7 +5402,7 @@
         <v>44562</v>
       </c>
       <c r="B627">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5578,7 +5578,7 @@
         <v>44584</v>
       </c>
       <c r="B649">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5586,7 +5586,7 @@
         <v>44585</v>
       </c>
       <c r="B650">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5594,7 +5594,7 @@
         <v>44586</v>
       </c>
       <c r="B651">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5602,7 +5602,7 @@
         <v>44587</v>
       </c>
       <c r="B652">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5610,7 +5610,7 @@
         <v>44588</v>
       </c>
       <c r="B653">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5634,7 +5634,7 @@
         <v>44591</v>
       </c>
       <c r="B656">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5642,7 +5642,7 @@
         <v>44592</v>
       </c>
       <c r="B657">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5650,7 +5650,15 @@
         <v>44593</v>
       </c>
       <c r="B658">
-        <v>252</v>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B659">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B662"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5418,7 +5418,7 @@
         <v>44564</v>
       </c>
       <c r="B629">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5450,7 +5450,7 @@
         <v>44568</v>
       </c>
       <c r="B633">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5482,7 +5482,7 @@
         <v>44572</v>
       </c>
       <c r="B637">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5490,7 +5490,7 @@
         <v>44573</v>
       </c>
       <c r="B638">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5554,7 +5554,7 @@
         <v>44581</v>
       </c>
       <c r="B646">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5570,7 +5570,7 @@
         <v>44583</v>
       </c>
       <c r="B648">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5578,7 +5578,7 @@
         <v>44584</v>
       </c>
       <c r="B649">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5586,7 +5586,7 @@
         <v>44585</v>
       </c>
       <c r="B650">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5594,7 +5594,7 @@
         <v>44586</v>
       </c>
       <c r="B651">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5618,7 +5618,7 @@
         <v>44589</v>
       </c>
       <c r="B654">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5642,7 +5642,7 @@
         <v>44592</v>
       </c>
       <c r="B657">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5650,7 +5650,7 @@
         <v>44593</v>
       </c>
       <c r="B658">
-        <v>429</v>
+        <v>443</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5658,7 +5658,31 @@
         <v>44594</v>
       </c>
       <c r="B659">
-        <v>249</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="2">
+        <v>44595</v>
+      </c>
+      <c r="B660">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B661">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B662">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B662"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5658,7 +5658,7 @@
         <v>44594</v>
       </c>
       <c r="B659">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5666,7 +5666,7 @@
         <v>44595</v>
       </c>
       <c r="B660">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5674,7 +5674,7 @@
         <v>44596</v>
       </c>
       <c r="B661">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5682,7 +5682,15 @@
         <v>44597</v>
       </c>
       <c r="B662">
-        <v>69</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B663">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5426,7 +5426,7 @@
         <v>44565</v>
       </c>
       <c r="B630">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5674,7 +5674,7 @@
         <v>44596</v>
       </c>
       <c r="B661">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5682,7 +5682,7 @@
         <v>44597</v>
       </c>
       <c r="B662">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5690,7 +5690,15 @@
         <v>44598</v>
       </c>
       <c r="B663">
-        <v>12</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B664">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B664"/>
+  <dimension ref="A1:B665"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5482,7 +5482,7 @@
         <v>44572</v>
       </c>
       <c r="B637">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5562,7 +5562,7 @@
         <v>44582</v>
       </c>
       <c r="B647">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5618,7 +5618,7 @@
         <v>44589</v>
       </c>
       <c r="B654">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5658,7 +5658,7 @@
         <v>44594</v>
       </c>
       <c r="B659">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5666,7 +5666,7 @@
         <v>44595</v>
       </c>
       <c r="B660">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5682,7 +5682,7 @@
         <v>44597</v>
       </c>
       <c r="B662">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5690,7 +5690,7 @@
         <v>44598</v>
       </c>
       <c r="B663">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5698,7 +5698,15 @@
         <v>44599</v>
       </c>
       <c r="B664">
-        <v>195</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B665">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B665"/>
+  <dimension ref="A1:B666"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5498,7 +5498,7 @@
         <v>44574</v>
       </c>
       <c r="B639">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5506,7 +5506,7 @@
         <v>44575</v>
       </c>
       <c r="B640">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5538,7 +5538,7 @@
         <v>44579</v>
       </c>
       <c r="B644">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5698,7 +5698,7 @@
         <v>44599</v>
       </c>
       <c r="B664">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5706,7 +5706,15 @@
         <v>44600</v>
       </c>
       <c r="B665">
-        <v>142</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B666">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B666"/>
+  <dimension ref="A1:B640"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -906,7 +906,7 @@
         <v>43993</v>
       </c>
       <c r="B65">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>43994</v>
       </c>
       <c r="B66">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2087,47 +2087,47 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B213">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B214">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B215">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B216">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B217">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B218">
         <v>21</v>
@@ -2135,738 +2135,738 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B219">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B220">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="B221">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="B222">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B223">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B224">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B225">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B226">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B227">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B228">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="B229">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B230">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B231">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B232">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B233">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B234">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B235">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B236">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B237">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B238">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="B239">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="B240">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B241">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44172</v>
+        <v>44170</v>
       </c>
       <c r="B242">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44173</v>
+        <v>44171</v>
       </c>
       <c r="B243">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B244">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44175</v>
+        <v>44173</v>
       </c>
       <c r="B245">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44176</v>
+        <v>44174</v>
       </c>
       <c r="B246">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B247">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44178</v>
+        <v>44176</v>
       </c>
       <c r="B248">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44179</v>
+        <v>44177</v>
       </c>
       <c r="B249">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44180</v>
+        <v>44178</v>
       </c>
       <c r="B250">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B251">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="B252">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B253">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="B254">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B255">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="B256">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="B257">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44189</v>
+        <v>44186</v>
       </c>
       <c r="B258">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="B259">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="B260">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="B261">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="B262">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B263">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="B264">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="B265">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44197</v>
+        <v>44195</v>
       </c>
       <c r="B266">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B267">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="B268">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B269">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44201</v>
+        <v>44199</v>
       </c>
       <c r="B270">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44202</v>
+        <v>44200</v>
       </c>
       <c r="B271">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="B272">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="B273">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44205</v>
+        <v>44203</v>
       </c>
       <c r="B274">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="B275">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="B276">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44208</v>
+        <v>44206</v>
       </c>
       <c r="B277">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B278">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="B279">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="B280">
-        <v>100</v>
+        <v>34</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44212</v>
+        <v>44210</v>
       </c>
       <c r="B281">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44213</v>
+        <v>44211</v>
       </c>
       <c r="B282">
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44214</v>
+        <v>44212</v>
       </c>
       <c r="B283">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="B284">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="B285">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="B286">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="B287">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="B288">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44220</v>
+        <v>44218</v>
       </c>
       <c r="B289">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="B290">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44222</v>
+        <v>44220</v>
       </c>
       <c r="B291">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="B292">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="B293">
-        <v>115</v>
+        <v>64</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44225</v>
+        <v>44223</v>
       </c>
       <c r="B294">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44226</v>
+        <v>44224</v>
       </c>
       <c r="B295">
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44227</v>
+        <v>44225</v>
       </c>
       <c r="B296">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44228</v>
+        <v>44226</v>
       </c>
       <c r="B297">
-        <v>97</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B298">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B299">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B300">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B301">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B302">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B304">
-        <v>101</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B305">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B306">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B307">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B308">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B309">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B310">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2874,7 +2874,7 @@
         <v>44242</v>
       </c>
       <c r="B311">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2882,7 +2882,7 @@
         <v>44243</v>
       </c>
       <c r="B312">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2890,7 +2890,7 @@
         <v>44244</v>
       </c>
       <c r="B313">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2898,7 +2898,7 @@
         <v>44245</v>
       </c>
       <c r="B314">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2906,7 +2906,7 @@
         <v>44246</v>
       </c>
       <c r="B315">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2914,7 +2914,7 @@
         <v>44247</v>
       </c>
       <c r="B316">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2922,7 +2922,7 @@
         <v>44248</v>
       </c>
       <c r="B317">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>44249</v>
       </c>
       <c r="B318">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>44250</v>
       </c>
       <c r="B319">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2946,7 +2946,7 @@
         <v>44251</v>
       </c>
       <c r="B320">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>44252</v>
       </c>
       <c r="B321">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2962,7 +2962,7 @@
         <v>44253</v>
       </c>
       <c r="B322">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2970,76 +2970,76 @@
         <v>44254</v>
       </c>
       <c r="B323">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B324">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B325">
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B326">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B327">
-        <v>117</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B328">
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B329">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B330">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B331">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B332">
         <v>46</v>
@@ -3047,1215 +3047,1215 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B333">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B334">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B335">
-        <v>110</v>
+        <v>62</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B336">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B337">
-        <v>73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B338">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B339">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B340">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B341">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B342">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B343">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44275</v>
+        <v>44277</v>
       </c>
       <c r="B344">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44276</v>
+        <v>44278</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="B346">
-        <v>152</v>
+        <v>45</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44278</v>
+        <v>44280</v>
       </c>
       <c r="B347">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44279</v>
+        <v>44281</v>
       </c>
       <c r="B348">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44280</v>
+        <v>44282</v>
       </c>
       <c r="B349">
-        <v>99</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44281</v>
+        <v>44283</v>
       </c>
       <c r="B350">
-        <v>147</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44282</v>
+        <v>44284</v>
       </c>
       <c r="B351">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44283</v>
+        <v>44285</v>
       </c>
       <c r="B352">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44284</v>
+        <v>44286</v>
       </c>
       <c r="B353">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44285</v>
+        <v>44287</v>
       </c>
       <c r="B354">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44286</v>
+        <v>44288</v>
       </c>
       <c r="B355">
-        <v>93</v>
+        <v>8</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44287</v>
+        <v>44289</v>
       </c>
       <c r="B356">
-        <v>77</v>
+        <v>15</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44288</v>
+        <v>44290</v>
       </c>
       <c r="B357">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44289</v>
+        <v>44291</v>
       </c>
       <c r="B358">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44290</v>
+        <v>44292</v>
       </c>
       <c r="B359">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44291</v>
+        <v>44293</v>
       </c>
       <c r="B360">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44292</v>
+        <v>44294</v>
       </c>
       <c r="B361">
-        <v>126</v>
+        <v>18</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44293</v>
+        <v>44295</v>
       </c>
       <c r="B362">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44294</v>
+        <v>44296</v>
       </c>
       <c r="B363">
-        <v>126</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44295</v>
+        <v>44297</v>
       </c>
       <c r="B364">
-        <v>131</v>
+        <v>9</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44296</v>
+        <v>44298</v>
       </c>
       <c r="B365">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44297</v>
+        <v>44299</v>
       </c>
       <c r="B366">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44298</v>
+        <v>44300</v>
       </c>
       <c r="B367">
-        <v>127</v>
+        <v>8</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44299</v>
+        <v>44301</v>
       </c>
       <c r="B368">
-        <v>140</v>
+        <v>63</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44300</v>
+        <v>44302</v>
       </c>
       <c r="B369">
-        <v>110</v>
+        <v>59</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44301</v>
+        <v>44303</v>
       </c>
       <c r="B370">
-        <v>150</v>
+        <v>27</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44302</v>
+        <v>44304</v>
       </c>
       <c r="B371">
-        <v>144</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44303</v>
+        <v>44305</v>
       </c>
       <c r="B372">
-        <v>121</v>
+        <v>50</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44304</v>
+        <v>44306</v>
       </c>
       <c r="B373">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44305</v>
+        <v>44307</v>
       </c>
       <c r="B374">
-        <v>190</v>
+        <v>21</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44306</v>
+        <v>44308</v>
       </c>
       <c r="B375">
-        <v>151</v>
+        <v>71</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44307</v>
+        <v>44309</v>
       </c>
       <c r="B376">
-        <v>127</v>
+        <v>43</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44308</v>
+        <v>44310</v>
       </c>
       <c r="B377">
-        <v>188</v>
+        <v>29</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44309</v>
+        <v>44311</v>
       </c>
       <c r="B378">
-        <v>149</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44310</v>
+        <v>44312</v>
       </c>
       <c r="B379">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44311</v>
+        <v>44313</v>
       </c>
       <c r="B380">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44312</v>
+        <v>44314</v>
       </c>
       <c r="B381">
-        <v>143</v>
+        <v>23</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44313</v>
+        <v>44315</v>
       </c>
       <c r="B382">
-        <v>119</v>
+        <v>31</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44314</v>
+        <v>44316</v>
       </c>
       <c r="B383">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44315</v>
+        <v>44317</v>
       </c>
       <c r="B384">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44316</v>
+        <v>44318</v>
       </c>
       <c r="B385">
-        <v>116</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44317</v>
+        <v>44319</v>
       </c>
       <c r="B386">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44318</v>
+        <v>44320</v>
       </c>
       <c r="B387">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44319</v>
+        <v>44321</v>
       </c>
       <c r="B388">
-        <v>105</v>
+        <v>11</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44320</v>
+        <v>44322</v>
       </c>
       <c r="B389">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44321</v>
+        <v>44323</v>
       </c>
       <c r="B390">
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44322</v>
+        <v>44324</v>
       </c>
       <c r="B391">
-        <v>127</v>
+        <v>8</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44323</v>
+        <v>44325</v>
       </c>
       <c r="B392">
-        <v>75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44324</v>
+        <v>44326</v>
       </c>
       <c r="B393">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44325</v>
+        <v>44327</v>
       </c>
       <c r="B394">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44326</v>
+        <v>44328</v>
       </c>
       <c r="B395">
-        <v>127</v>
+        <v>37</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44327</v>
+        <v>44329</v>
       </c>
       <c r="B396">
-        <v>100</v>
+        <v>22</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44328</v>
+        <v>44330</v>
       </c>
       <c r="B397">
-        <v>110</v>
+        <v>19</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44329</v>
+        <v>44331</v>
       </c>
       <c r="B398">
-        <v>103</v>
+        <v>11</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44330</v>
+        <v>44332</v>
       </c>
       <c r="B399">
-        <v>76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44331</v>
+        <v>44333</v>
       </c>
       <c r="B400">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44332</v>
+        <v>44334</v>
       </c>
       <c r="B401">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44333</v>
+        <v>44335</v>
       </c>
       <c r="B402">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44334</v>
+        <v>44336</v>
       </c>
       <c r="B403">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44335</v>
+        <v>44337</v>
       </c>
       <c r="B404">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44336</v>
+        <v>44338</v>
       </c>
       <c r="B405">
-        <v>90</v>
+        <v>6</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44337</v>
+        <v>44339</v>
       </c>
       <c r="B406">
-        <v>81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44338</v>
+        <v>44340</v>
       </c>
       <c r="B407">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44339</v>
+        <v>44341</v>
       </c>
       <c r="B408">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44340</v>
+        <v>44342</v>
       </c>
       <c r="B409">
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44341</v>
+        <v>44343</v>
       </c>
       <c r="B410">
-        <v>84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44342</v>
+        <v>44344</v>
       </c>
       <c r="B411">
-        <v>85</v>
+        <v>22</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44343</v>
+        <v>44345</v>
       </c>
       <c r="B412">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44344</v>
+        <v>44346</v>
       </c>
       <c r="B413">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44345</v>
+        <v>44347</v>
       </c>
       <c r="B414">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44346</v>
+        <v>44348</v>
       </c>
       <c r="B415">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44347</v>
+        <v>44349</v>
       </c>
       <c r="B416">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="B417">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44349</v>
+        <v>44351</v>
       </c>
       <c r="B418">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44350</v>
+        <v>44352</v>
       </c>
       <c r="B419">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44351</v>
+        <v>44353</v>
       </c>
       <c r="B420">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44352</v>
+        <v>44354</v>
       </c>
       <c r="B421">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44353</v>
+        <v>44355</v>
       </c>
       <c r="B422">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44354</v>
+        <v>44356</v>
       </c>
       <c r="B423">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="B424">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44356</v>
+        <v>44358</v>
       </c>
       <c r="B425">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44357</v>
+        <v>44359</v>
       </c>
       <c r="B426">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44358</v>
+        <v>44361</v>
       </c>
       <c r="B427">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44359</v>
+        <v>44362</v>
       </c>
       <c r="B428">
-        <v>38</v>
+        <v>110</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44360</v>
+        <v>44363</v>
       </c>
       <c r="B429">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="B430">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="B431">
-        <v>142</v>
+        <v>22</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44363</v>
+        <v>44366</v>
       </c>
       <c r="B432">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44364</v>
+        <v>44367</v>
       </c>
       <c r="B433">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44365</v>
+        <v>44368</v>
       </c>
       <c r="B434">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44366</v>
+        <v>44369</v>
       </c>
       <c r="B435">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44367</v>
+        <v>44370</v>
       </c>
       <c r="B436">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="B437">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="B438">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44370</v>
+        <v>44373</v>
       </c>
       <c r="B439">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44371</v>
+        <v>44374</v>
       </c>
       <c r="B440">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44372</v>
+        <v>44375</v>
       </c>
       <c r="B441">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44373</v>
+        <v>44376</v>
       </c>
       <c r="B442">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44374</v>
+        <v>44377</v>
       </c>
       <c r="B443">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44375</v>
+        <v>44378</v>
       </c>
       <c r="B444">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="B445">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44377</v>
+        <v>44380</v>
       </c>
       <c r="B446">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44378</v>
+        <v>44382</v>
       </c>
       <c r="B447">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44379</v>
+        <v>44383</v>
       </c>
       <c r="B448">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44380</v>
+        <v>44384</v>
       </c>
       <c r="B449">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44381</v>
+        <v>44385</v>
       </c>
       <c r="B450">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44382</v>
+        <v>44386</v>
       </c>
       <c r="B451">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44383</v>
+        <v>44387</v>
       </c>
       <c r="B452">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44384</v>
+        <v>44388</v>
       </c>
       <c r="B453">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44385</v>
+        <v>44389</v>
       </c>
       <c r="B454">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="B455">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44387</v>
+        <v>44391</v>
       </c>
       <c r="B456">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44388</v>
+        <v>44392</v>
       </c>
       <c r="B457">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44389</v>
+        <v>44393</v>
       </c>
       <c r="B458">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44390</v>
+        <v>44394</v>
       </c>
       <c r="B459">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44391</v>
+        <v>44395</v>
       </c>
       <c r="B460">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44392</v>
+        <v>44396</v>
       </c>
       <c r="B461">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="B462">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44394</v>
+        <v>44398</v>
       </c>
       <c r="B463">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44395</v>
+        <v>44399</v>
       </c>
       <c r="B464">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44396</v>
+        <v>44400</v>
       </c>
       <c r="B465">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44397</v>
+        <v>44401</v>
       </c>
       <c r="B466">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44398</v>
+        <v>44402</v>
       </c>
       <c r="B467">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44399</v>
+        <v>44403</v>
       </c>
       <c r="B468">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44400</v>
+        <v>44404</v>
       </c>
       <c r="B469">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44401</v>
+        <v>44405</v>
       </c>
       <c r="B470">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44402</v>
+        <v>44407</v>
       </c>
       <c r="B471">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44403</v>
+        <v>44408</v>
       </c>
       <c r="B472">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44404</v>
+        <v>44409</v>
       </c>
       <c r="B473">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44405</v>
+        <v>44411</v>
       </c>
       <c r="B474">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44406</v>
+        <v>44412</v>
       </c>
       <c r="B475">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44407</v>
+        <v>44413</v>
       </c>
       <c r="B476">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44408</v>
+        <v>44414</v>
       </c>
       <c r="B477">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44409</v>
+        <v>44415</v>
       </c>
       <c r="B478">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44410</v>
+        <v>44416</v>
       </c>
       <c r="B479">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44411</v>
+        <v>44417</v>
       </c>
       <c r="B480">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44412</v>
+        <v>44418</v>
       </c>
       <c r="B481">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44413</v>
+        <v>44419</v>
       </c>
       <c r="B482">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44414</v>
+        <v>44420</v>
       </c>
       <c r="B483">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44415</v>
+        <v>44421</v>
       </c>
       <c r="B484">
         <v>12</v>
@@ -4263,175 +4263,175 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44416</v>
+        <v>44422</v>
       </c>
       <c r="B485">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44417</v>
+        <v>44423</v>
       </c>
       <c r="B486">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44418</v>
+        <v>44424</v>
       </c>
       <c r="B487">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44419</v>
+        <v>44425</v>
       </c>
       <c r="B488">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44420</v>
+        <v>44426</v>
       </c>
       <c r="B489">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44421</v>
+        <v>44427</v>
       </c>
       <c r="B490">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44422</v>
+        <v>44428</v>
       </c>
       <c r="B491">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44423</v>
+        <v>44431</v>
       </c>
       <c r="B492">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44424</v>
+        <v>44432</v>
       </c>
       <c r="B493">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44425</v>
+        <v>44433</v>
       </c>
       <c r="B494">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44426</v>
+        <v>44434</v>
       </c>
       <c r="B495">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44427</v>
+        <v>44435</v>
       </c>
       <c r="B496">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44428</v>
+        <v>44440</v>
       </c>
       <c r="B497">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44429</v>
+        <v>44441</v>
       </c>
       <c r="B498">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44430</v>
+        <v>44442</v>
       </c>
       <c r="B499">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44431</v>
+        <v>44445</v>
       </c>
       <c r="B500">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44432</v>
+        <v>44446</v>
       </c>
       <c r="B501">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44433</v>
+        <v>44447</v>
       </c>
       <c r="B502">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44434</v>
+        <v>44448</v>
       </c>
       <c r="B503">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44435</v>
+        <v>44449</v>
       </c>
       <c r="B504">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44436</v>
+        <v>44450</v>
       </c>
       <c r="B505">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44437</v>
+        <v>44451</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -4439,239 +4439,239 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44438</v>
+        <v>44453</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44439</v>
+        <v>44454</v>
       </c>
       <c r="B508">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44440</v>
+        <v>44455</v>
       </c>
       <c r="B509">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44441</v>
+        <v>44456</v>
       </c>
       <c r="B510">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44442</v>
+        <v>44457</v>
       </c>
       <c r="B511">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44443</v>
+        <v>44458</v>
       </c>
       <c r="B512">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44445</v>
+        <v>44459</v>
       </c>
       <c r="B513">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44446</v>
+        <v>44460</v>
       </c>
       <c r="B514">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44447</v>
+        <v>44461</v>
       </c>
       <c r="B515">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44448</v>
+        <v>44462</v>
       </c>
       <c r="B516">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44449</v>
+        <v>44463</v>
       </c>
       <c r="B517">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44450</v>
+        <v>44464</v>
       </c>
       <c r="B518">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44451</v>
+        <v>44465</v>
       </c>
       <c r="B519">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44452</v>
+        <v>44466</v>
       </c>
       <c r="B520">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44453</v>
+        <v>44467</v>
       </c>
       <c r="B521">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44454</v>
+        <v>44468</v>
       </c>
       <c r="B522">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44455</v>
+        <v>44469</v>
       </c>
       <c r="B523">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="B524">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44457</v>
+        <v>44471</v>
       </c>
       <c r="B525">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44458</v>
+        <v>44473</v>
       </c>
       <c r="B526">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44459</v>
+        <v>44474</v>
       </c>
       <c r="B527">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44460</v>
+        <v>44475</v>
       </c>
       <c r="B528">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44461</v>
+        <v>44476</v>
       </c>
       <c r="B529">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44462</v>
+        <v>44477</v>
       </c>
       <c r="B530">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44463</v>
+        <v>44478</v>
       </c>
       <c r="B531">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44464</v>
+        <v>44479</v>
       </c>
       <c r="B532">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44465</v>
+        <v>44480</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44466</v>
+        <v>44481</v>
       </c>
       <c r="B534">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44467</v>
+        <v>44482</v>
       </c>
       <c r="B535">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44468</v>
+        <v>44483</v>
       </c>
       <c r="B536">
         <v>7</v>
@@ -4679,295 +4679,295 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44469</v>
+        <v>44484</v>
       </c>
       <c r="B537">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44470</v>
+        <v>44485</v>
       </c>
       <c r="B538">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44471</v>
+        <v>44486</v>
       </c>
       <c r="B539">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44473</v>
+        <v>44487</v>
       </c>
       <c r="B540">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44474</v>
+        <v>44488</v>
       </c>
       <c r="B541">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44475</v>
+        <v>44489</v>
       </c>
       <c r="B542">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44476</v>
+        <v>44490</v>
       </c>
       <c r="B543">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44477</v>
+        <v>44491</v>
       </c>
       <c r="B544">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44478</v>
+        <v>44492</v>
       </c>
       <c r="B545">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44479</v>
+        <v>44493</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44480</v>
+        <v>44494</v>
       </c>
       <c r="B547">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44481</v>
+        <v>44495</v>
       </c>
       <c r="B548">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44482</v>
+        <v>44497</v>
       </c>
       <c r="B549">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44483</v>
+        <v>44498</v>
       </c>
       <c r="B550">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44484</v>
+        <v>44499</v>
       </c>
       <c r="B551">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44485</v>
+        <v>44501</v>
       </c>
       <c r="B552">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44486</v>
+        <v>44502</v>
       </c>
       <c r="B553">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44487</v>
+        <v>44503</v>
       </c>
       <c r="B554">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44488</v>
+        <v>44504</v>
       </c>
       <c r="B555">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44489</v>
+        <v>44505</v>
       </c>
       <c r="B556">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44490</v>
+        <v>44508</v>
       </c>
       <c r="B557">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44491</v>
+        <v>44509</v>
       </c>
       <c r="B558">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44492</v>
+        <v>44510</v>
       </c>
       <c r="B559">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44493</v>
+        <v>44511</v>
       </c>
       <c r="B560">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44494</v>
+        <v>44512</v>
       </c>
       <c r="B561">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44495</v>
+        <v>44515</v>
       </c>
       <c r="B562">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44496</v>
+        <v>44516</v>
       </c>
       <c r="B563">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44497</v>
+        <v>44517</v>
       </c>
       <c r="B564">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44498</v>
+        <v>44518</v>
       </c>
       <c r="B565">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44499</v>
+        <v>44519</v>
       </c>
       <c r="B566">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44500</v>
+        <v>44522</v>
       </c>
       <c r="B567">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44501</v>
+        <v>44523</v>
       </c>
       <c r="B568">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44502</v>
+        <v>44524</v>
       </c>
       <c r="B569">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44503</v>
+        <v>44525</v>
       </c>
       <c r="B570">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44504</v>
+        <v>44526</v>
       </c>
       <c r="B571">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44505</v>
+        <v>44529</v>
       </c>
       <c r="B572">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44506</v>
+        <v>44530</v>
       </c>
       <c r="B573">
         <v>6</v>
@@ -4975,746 +4975,538 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44508</v>
+        <v>44531</v>
       </c>
       <c r="B574">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44509</v>
+        <v>44533</v>
       </c>
       <c r="B575">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44510</v>
+        <v>44535</v>
       </c>
       <c r="B576">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="B577">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44512</v>
+        <v>44537</v>
       </c>
       <c r="B578">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44513</v>
+        <v>44539</v>
       </c>
       <c r="B579">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44514</v>
+        <v>44540</v>
       </c>
       <c r="B580">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44515</v>
+        <v>44541</v>
       </c>
       <c r="B581">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44516</v>
+        <v>44542</v>
       </c>
       <c r="B582">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44517</v>
+        <v>44543</v>
       </c>
       <c r="B583">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44518</v>
+        <v>44544</v>
       </c>
       <c r="B584">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44519</v>
+        <v>44545</v>
       </c>
       <c r="B585">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44520</v>
+        <v>44546</v>
       </c>
       <c r="B586">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44522</v>
+        <v>44547</v>
       </c>
       <c r="B587">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44523</v>
+        <v>44548</v>
       </c>
       <c r="B588">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44524</v>
+        <v>44550</v>
       </c>
       <c r="B589">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44525</v>
+        <v>44551</v>
       </c>
       <c r="B590">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44526</v>
+        <v>44552</v>
       </c>
       <c r="B591">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44527</v>
+        <v>44553</v>
       </c>
       <c r="B592">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44528</v>
+        <v>44557</v>
       </c>
       <c r="B593">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44529</v>
+        <v>44558</v>
       </c>
       <c r="B594">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44530</v>
+        <v>44559</v>
       </c>
       <c r="B595">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44531</v>
+        <v>44560</v>
       </c>
       <c r="B596">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44532</v>
+        <v>44561</v>
       </c>
       <c r="B597">
-        <v>6</v>
+        <v>10388</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44533</v>
+        <v>44562</v>
       </c>
       <c r="B598">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44534</v>
+        <v>44563</v>
       </c>
       <c r="B599">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44535</v>
+        <v>44564</v>
       </c>
       <c r="B600">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44536</v>
+        <v>44565</v>
       </c>
       <c r="B601">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44537</v>
+        <v>44566</v>
       </c>
       <c r="B602">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44538</v>
+        <v>44567</v>
       </c>
       <c r="B603">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44539</v>
+        <v>44568</v>
       </c>
       <c r="B604">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44540</v>
+        <v>44569</v>
       </c>
       <c r="B605">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44541</v>
+        <v>44570</v>
       </c>
       <c r="B606">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44542</v>
+        <v>44571</v>
       </c>
       <c r="B607">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44543</v>
+        <v>44572</v>
       </c>
       <c r="B608">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44544</v>
+        <v>44573</v>
       </c>
       <c r="B609">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44545</v>
+        <v>44574</v>
       </c>
       <c r="B610">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44546</v>
+        <v>44575</v>
       </c>
       <c r="B611">
-        <v>17</v>
+        <v>115</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44547</v>
+        <v>44576</v>
       </c>
       <c r="B612">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44548</v>
+        <v>44577</v>
       </c>
       <c r="B613">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44549</v>
+        <v>44578</v>
       </c>
       <c r="B614">
-        <v>8</v>
+        <v>148</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44550</v>
+        <v>44579</v>
       </c>
       <c r="B615">
-        <v>75</v>
+        <v>166</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44551</v>
+        <v>44580</v>
       </c>
       <c r="B616">
-        <v>32</v>
+        <v>330</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44552</v>
+        <v>44581</v>
       </c>
       <c r="B617">
-        <v>23</v>
+        <v>402</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44553</v>
+        <v>44582</v>
       </c>
       <c r="B618">
-        <v>15</v>
+        <v>355</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44554</v>
+        <v>44583</v>
       </c>
       <c r="B619">
-        <v>11</v>
+        <v>290</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44555</v>
+        <v>44584</v>
       </c>
       <c r="B620">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44556</v>
+        <v>44585</v>
       </c>
       <c r="B621">
-        <v>3</v>
+        <v>459</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44557</v>
+        <v>44586</v>
       </c>
       <c r="B622">
-        <v>29</v>
+        <v>500</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44558</v>
+        <v>44587</v>
       </c>
       <c r="B623">
-        <v>47</v>
+        <v>484</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44559</v>
+        <v>44588</v>
       </c>
       <c r="B624">
-        <v>78</v>
+        <v>485</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44560</v>
+        <v>44589</v>
       </c>
       <c r="B625">
-        <v>84</v>
+        <v>482</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44561</v>
+        <v>44590</v>
       </c>
       <c r="B626">
-        <v>47</v>
+        <v>215</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44562</v>
+        <v>44591</v>
       </c>
       <c r="B627">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44563</v>
+        <v>44592</v>
       </c>
       <c r="B628">
-        <v>14</v>
+        <v>476</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44564</v>
+        <v>44593</v>
       </c>
       <c r="B629">
-        <v>68</v>
+        <v>444</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44565</v>
+        <v>44594</v>
       </c>
       <c r="B630">
-        <v>58</v>
+        <v>345</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44566</v>
+        <v>44595</v>
       </c>
       <c r="B631">
-        <v>75</v>
+        <v>320</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44567</v>
+        <v>44596</v>
       </c>
       <c r="B632">
-        <v>112</v>
+        <v>271</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44568</v>
+        <v>44597</v>
       </c>
       <c r="B633">
-        <v>104</v>
+        <v>150</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44569</v>
+        <v>44598</v>
       </c>
       <c r="B634">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44570</v>
+        <v>44599</v>
       </c>
       <c r="B635">
-        <v>23</v>
+        <v>272</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44571</v>
+        <v>44600</v>
       </c>
       <c r="B636">
-        <v>129</v>
+        <v>240</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44572</v>
+        <v>44601</v>
       </c>
       <c r="B637">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44573</v>
+        <v>44602</v>
       </c>
       <c r="B638">
-        <v>177</v>
+        <v>141</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44574</v>
+        <v>44603</v>
       </c>
       <c r="B639">
-        <v>278</v>
+        <v>95</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44575</v>
+        <v>44604</v>
       </c>
       <c r="B640">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2">
-      <c r="A641" s="2">
-        <v>44576</v>
-      </c>
-      <c r="B641">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2">
-      <c r="A642" s="2">
-        <v>44577</v>
-      </c>
-      <c r="B642">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2">
-      <c r="A643" s="2">
-        <v>44578</v>
-      </c>
-      <c r="B643">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2">
-      <c r="A644" s="2">
-        <v>44579</v>
-      </c>
-      <c r="B644">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2">
-      <c r="A645" s="2">
-        <v>44580</v>
-      </c>
-      <c r="B645">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2">
-      <c r="A646" s="2">
-        <v>44581</v>
-      </c>
-      <c r="B646">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2">
-      <c r="A647" s="2">
-        <v>44582</v>
-      </c>
-      <c r="B647">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2">
-      <c r="A648" s="2">
-        <v>44583</v>
-      </c>
-      <c r="B648">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2">
-      <c r="A649" s="2">
-        <v>44584</v>
-      </c>
-      <c r="B649">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2">
-      <c r="A650" s="2">
-        <v>44585</v>
-      </c>
-      <c r="B650">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2">
-      <c r="A651" s="2">
-        <v>44586</v>
-      </c>
-      <c r="B651">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2">
-      <c r="A652" s="2">
-        <v>44587</v>
-      </c>
-      <c r="B652">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2">
-      <c r="A653" s="2">
-        <v>44588</v>
-      </c>
-      <c r="B653">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2">
-      <c r="A654" s="2">
-        <v>44589</v>
-      </c>
-      <c r="B654">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2">
-      <c r="A655" s="2">
-        <v>44590</v>
-      </c>
-      <c r="B655">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2">
-      <c r="A656" s="2">
-        <v>44591</v>
-      </c>
-      <c r="B656">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2">
-      <c r="A657" s="2">
-        <v>44592</v>
-      </c>
-      <c r="B657">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2">
-      <c r="A658" s="2">
-        <v>44593</v>
-      </c>
-      <c r="B658">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2">
-      <c r="A659" s="2">
-        <v>44594</v>
-      </c>
-      <c r="B659">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2">
-      <c r="A660" s="2">
-        <v>44595</v>
-      </c>
-      <c r="B660">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2">
-      <c r="A661" s="2">
-        <v>44596</v>
-      </c>
-      <c r="B661">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2">
-      <c r="A662" s="2">
-        <v>44597</v>
-      </c>
-      <c r="B662">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2">
-      <c r="A663" s="2">
-        <v>44598</v>
-      </c>
-      <c r="B663">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2">
-      <c r="A664" s="2">
-        <v>44599</v>
-      </c>
-      <c r="B664">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2">
-      <c r="A665" s="2">
-        <v>44600</v>
-      </c>
-      <c r="B665">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2">
-      <c r="A666" s="2">
-        <v>44601</v>
-      </c>
-      <c r="B666">
-        <v>96</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B640"/>
+  <dimension ref="A1:B642"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5434,7 +5434,7 @@
         <v>44595</v>
       </c>
       <c r="B631">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5466,7 +5466,7 @@
         <v>44599</v>
       </c>
       <c r="B635">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5482,7 +5482,7 @@
         <v>44601</v>
       </c>
       <c r="B637">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5498,7 +5498,7 @@
         <v>44603</v>
       </c>
       <c r="B639">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5506,7 +5506,23 @@
         <v>44604</v>
       </c>
       <c r="B640">
-        <v>20</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B641">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B642">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B642"/>
+  <dimension ref="A1:B643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5322,7 +5322,7 @@
         <v>44581</v>
       </c>
       <c r="B617">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5386,7 +5386,7 @@
         <v>44589</v>
       </c>
       <c r="B625">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5474,7 +5474,7 @@
         <v>44600</v>
       </c>
       <c r="B636">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5482,7 +5482,7 @@
         <v>44601</v>
       </c>
       <c r="B637">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5506,7 +5506,7 @@
         <v>44604</v>
       </c>
       <c r="B640">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5522,7 +5522,15 @@
         <v>44606</v>
       </c>
       <c r="B642">
-        <v>105</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B643">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B643"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -906,7 +906,7 @@
         <v>43993</v>
       </c>
       <c r="B65">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>43994</v>
       </c>
       <c r="B66">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2087,47 +2087,47 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B213">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B214">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="B215">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="B216">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="B217">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B218">
         <v>21</v>
@@ -2135,738 +2135,738 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B219">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="B220">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44149</v>
+        <v>44150</v>
       </c>
       <c r="B221">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44150</v>
+        <v>44151</v>
       </c>
       <c r="B222">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B223">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="B224">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="B225">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="B226">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="B227">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="B228">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44157</v>
+        <v>44158</v>
       </c>
       <c r="B229">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44158</v>
+        <v>44159</v>
       </c>
       <c r="B230">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B231">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B232">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="B233">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B234">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B235">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B236">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B237">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B238">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="B239">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="B240">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B241">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44170</v>
+        <v>44172</v>
       </c>
       <c r="B242">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44171</v>
+        <v>44173</v>
       </c>
       <c r="B243">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="B244">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="B245">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44174</v>
+        <v>44176</v>
       </c>
       <c r="B246">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44175</v>
+        <v>44177</v>
       </c>
       <c r="B247">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44176</v>
+        <v>44178</v>
       </c>
       <c r="B248">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44177</v>
+        <v>44179</v>
       </c>
       <c r="B249">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44178</v>
+        <v>44180</v>
       </c>
       <c r="B250">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B251">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44180</v>
+        <v>44182</v>
       </c>
       <c r="B252">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44181</v>
+        <v>44183</v>
       </c>
       <c r="B253">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44182</v>
+        <v>44184</v>
       </c>
       <c r="B254">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B255">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44184</v>
+        <v>44186</v>
       </c>
       <c r="B256">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="B257">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44186</v>
+        <v>44189</v>
       </c>
       <c r="B258">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44187</v>
+        <v>44190</v>
       </c>
       <c r="B259">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44189</v>
+        <v>44191</v>
       </c>
       <c r="B260">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44190</v>
+        <v>44192</v>
       </c>
       <c r="B261">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44191</v>
+        <v>44193</v>
       </c>
       <c r="B262">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="B263">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44193</v>
+        <v>44195</v>
       </c>
       <c r="B264">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44194</v>
+        <v>44196</v>
       </c>
       <c r="B265">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44195</v>
+        <v>44197</v>
       </c>
       <c r="B266">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44196</v>
+        <v>44198</v>
       </c>
       <c r="B267">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44197</v>
+        <v>44199</v>
       </c>
       <c r="B268">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44198</v>
+        <v>44200</v>
       </c>
       <c r="B269">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44199</v>
+        <v>44201</v>
       </c>
       <c r="B270">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44200</v>
+        <v>44202</v>
       </c>
       <c r="B271">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="B272">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44202</v>
+        <v>44204</v>
       </c>
       <c r="B273">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44203</v>
+        <v>44205</v>
       </c>
       <c r="B274">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44204</v>
+        <v>44206</v>
       </c>
       <c r="B275">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44205</v>
+        <v>44207</v>
       </c>
       <c r="B276">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44206</v>
+        <v>44208</v>
       </c>
       <c r="B277">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B278">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44208</v>
+        <v>44210</v>
       </c>
       <c r="B279">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="B280">
-        <v>34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44210</v>
+        <v>44212</v>
       </c>
       <c r="B281">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44211</v>
+        <v>44213</v>
       </c>
       <c r="B282">
-        <v>96</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44212</v>
+        <v>44214</v>
       </c>
       <c r="B283">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44214</v>
+        <v>44216</v>
       </c>
       <c r="B285">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44215</v>
+        <v>44217</v>
       </c>
       <c r="B286">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44216</v>
+        <v>44218</v>
       </c>
       <c r="B287">
-        <v>57</v>
+        <v>88</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="B288">
-        <v>74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44218</v>
+        <v>44220</v>
       </c>
       <c r="B289">
-        <v>78</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44219</v>
+        <v>44221</v>
       </c>
       <c r="B290">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44220</v>
+        <v>44222</v>
       </c>
       <c r="B291">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44221</v>
+        <v>44223</v>
       </c>
       <c r="B292">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="B293">
-        <v>64</v>
+        <v>115</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44223</v>
+        <v>44225</v>
       </c>
       <c r="B294">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44224</v>
+        <v>44226</v>
       </c>
       <c r="B295">
-        <v>98</v>
+        <v>19</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44225</v>
+        <v>44227</v>
       </c>
       <c r="B296">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44226</v>
+        <v>44228</v>
       </c>
       <c r="B297">
-        <v>10</v>
+        <v>97</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B298">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B299">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B300">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B301">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B303">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B304">
-        <v>2</v>
+        <v>101</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B305">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B306">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B307">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B308">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B309">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B310">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2874,7 +2874,7 @@
         <v>44242</v>
       </c>
       <c r="B311">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2882,7 +2882,7 @@
         <v>44243</v>
       </c>
       <c r="B312">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2890,7 +2890,7 @@
         <v>44244</v>
       </c>
       <c r="B313">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2898,7 +2898,7 @@
         <v>44245</v>
       </c>
       <c r="B314">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2906,7 +2906,7 @@
         <v>44246</v>
       </c>
       <c r="B315">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2914,7 +2914,7 @@
         <v>44247</v>
       </c>
       <c r="B316">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2922,7 +2922,7 @@
         <v>44248</v>
       </c>
       <c r="B317">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>44249</v>
       </c>
       <c r="B318">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>44250</v>
       </c>
       <c r="B319">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2946,7 +2946,7 @@
         <v>44251</v>
       </c>
       <c r="B320">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>44252</v>
       </c>
       <c r="B321">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2962,7 +2962,7 @@
         <v>44253</v>
       </c>
       <c r="B322">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2970,76 +2970,76 @@
         <v>44254</v>
       </c>
       <c r="B323">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B324">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B325">
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B326">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B327">
-        <v>5</v>
+        <v>117</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B328">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B329">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B330">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B331">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B332">
         <v>46</v>
@@ -3047,1215 +3047,1215 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B333">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B334">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B335">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B336">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B338">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B339">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B340">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B341">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B342">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B343">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44277</v>
+        <v>44275</v>
       </c>
       <c r="B344">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44278</v>
+        <v>44276</v>
       </c>
       <c r="B345">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44279</v>
+        <v>44277</v>
       </c>
       <c r="B346">
-        <v>45</v>
+        <v>152</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44280</v>
+        <v>44278</v>
       </c>
       <c r="B347">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44281</v>
+        <v>44279</v>
       </c>
       <c r="B348">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44282</v>
+        <v>44280</v>
       </c>
       <c r="B349">
-        <v>10</v>
+        <v>99</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44283</v>
+        <v>44281</v>
       </c>
       <c r="B350">
-        <v>6</v>
+        <v>147</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44284</v>
+        <v>44282</v>
       </c>
       <c r="B351">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44285</v>
+        <v>44283</v>
       </c>
       <c r="B352">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44286</v>
+        <v>44284</v>
       </c>
       <c r="B353">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44287</v>
+        <v>44285</v>
       </c>
       <c r="B354">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44288</v>
+        <v>44286</v>
       </c>
       <c r="B355">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44289</v>
+        <v>44287</v>
       </c>
       <c r="B356">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44290</v>
+        <v>44288</v>
       </c>
       <c r="B357">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44291</v>
+        <v>44289</v>
       </c>
       <c r="B358">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44292</v>
+        <v>44290</v>
       </c>
       <c r="B359">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44293</v>
+        <v>44291</v>
       </c>
       <c r="B360">
-        <v>32</v>
+        <v>142</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="B361">
-        <v>18</v>
+        <v>126</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44295</v>
+        <v>44293</v>
       </c>
       <c r="B362">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44296</v>
+        <v>44294</v>
       </c>
       <c r="B363">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44297</v>
+        <v>44295</v>
       </c>
       <c r="B364">
-        <v>9</v>
+        <v>131</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44298</v>
+        <v>44296</v>
       </c>
       <c r="B365">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44299</v>
+        <v>44297</v>
       </c>
       <c r="B366">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44300</v>
+        <v>44298</v>
       </c>
       <c r="B367">
-        <v>8</v>
+        <v>127</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44301</v>
+        <v>44299</v>
       </c>
       <c r="B368">
-        <v>63</v>
+        <v>140</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44302</v>
+        <v>44300</v>
       </c>
       <c r="B369">
-        <v>59</v>
+        <v>110</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44303</v>
+        <v>44301</v>
       </c>
       <c r="B370">
-        <v>27</v>
+        <v>150</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44304</v>
+        <v>44302</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>144</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44305</v>
+        <v>44303</v>
       </c>
       <c r="B372">
-        <v>50</v>
+        <v>121</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44306</v>
+        <v>44304</v>
       </c>
       <c r="B373">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44307</v>
+        <v>44305</v>
       </c>
       <c r="B374">
-        <v>21</v>
+        <v>190</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44308</v>
+        <v>44306</v>
       </c>
       <c r="B375">
-        <v>71</v>
+        <v>151</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="B376">
-        <v>43</v>
+        <v>127</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44310</v>
+        <v>44308</v>
       </c>
       <c r="B377">
-        <v>29</v>
+        <v>188</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44311</v>
+        <v>44309</v>
       </c>
       <c r="B378">
-        <v>3</v>
+        <v>149</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44312</v>
+        <v>44310</v>
       </c>
       <c r="B379">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44313</v>
+        <v>44311</v>
       </c>
       <c r="B380">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44314</v>
+        <v>44312</v>
       </c>
       <c r="B381">
-        <v>23</v>
+        <v>143</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44315</v>
+        <v>44313</v>
       </c>
       <c r="B382">
-        <v>31</v>
+        <v>119</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44316</v>
+        <v>44314</v>
       </c>
       <c r="B383">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44317</v>
+        <v>44315</v>
       </c>
       <c r="B384">
-        <v>14</v>
+        <v>126</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44318</v>
+        <v>44316</v>
       </c>
       <c r="B385">
-        <v>4</v>
+        <v>116</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44319</v>
+        <v>44317</v>
       </c>
       <c r="B386">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44320</v>
+        <v>44318</v>
       </c>
       <c r="B387">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44321</v>
+        <v>44319</v>
       </c>
       <c r="B388">
-        <v>11</v>
+        <v>105</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44322</v>
+        <v>44320</v>
       </c>
       <c r="B389">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44323</v>
+        <v>44321</v>
       </c>
       <c r="B390">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44324</v>
+        <v>44322</v>
       </c>
       <c r="B391">
-        <v>8</v>
+        <v>127</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44325</v>
+        <v>44323</v>
       </c>
       <c r="B392">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44326</v>
+        <v>44324</v>
       </c>
       <c r="B393">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44327</v>
+        <v>44325</v>
       </c>
       <c r="B394">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44328</v>
+        <v>44326</v>
       </c>
       <c r="B395">
-        <v>37</v>
+        <v>127</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44329</v>
+        <v>44327</v>
       </c>
       <c r="B396">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="B397">
-        <v>19</v>
+        <v>110</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44331</v>
+        <v>44329</v>
       </c>
       <c r="B398">
-        <v>11</v>
+        <v>103</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44332</v>
+        <v>44330</v>
       </c>
       <c r="B399">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44333</v>
+        <v>44331</v>
       </c>
       <c r="B400">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44334</v>
+        <v>44332</v>
       </c>
       <c r="B401">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44335</v>
+        <v>44333</v>
       </c>
       <c r="B402">
-        <v>19</v>
+        <v>92</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44336</v>
+        <v>44334</v>
       </c>
       <c r="B403">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44337</v>
+        <v>44335</v>
       </c>
       <c r="B404">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44338</v>
+        <v>44336</v>
       </c>
       <c r="B405">
-        <v>6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44339</v>
+        <v>44337</v>
       </c>
       <c r="B406">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44340</v>
+        <v>44338</v>
       </c>
       <c r="B407">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44341</v>
+        <v>44339</v>
       </c>
       <c r="B408">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44342</v>
+        <v>44340</v>
       </c>
       <c r="B409">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44343</v>
+        <v>44341</v>
       </c>
       <c r="B410">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44344</v>
+        <v>44342</v>
       </c>
       <c r="B411">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44345</v>
+        <v>44343</v>
       </c>
       <c r="B412">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44346</v>
+        <v>44344</v>
       </c>
       <c r="B413">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44347</v>
+        <v>44345</v>
       </c>
       <c r="B414">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44348</v>
+        <v>44346</v>
       </c>
       <c r="B415">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44349</v>
+        <v>44347</v>
       </c>
       <c r="B416">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="B417">
-        <v>13</v>
+        <v>91</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44351</v>
+        <v>44349</v>
       </c>
       <c r="B418">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44352</v>
+        <v>44350</v>
       </c>
       <c r="B419">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44353</v>
+        <v>44351</v>
       </c>
       <c r="B420">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B421">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44355</v>
+        <v>44353</v>
       </c>
       <c r="B422">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44356</v>
+        <v>44354</v>
       </c>
       <c r="B423">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44357</v>
+        <v>44355</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44358</v>
+        <v>44356</v>
       </c>
       <c r="B425">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44359</v>
+        <v>44357</v>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44361</v>
+        <v>44358</v>
       </c>
       <c r="B427">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44362</v>
+        <v>44359</v>
       </c>
       <c r="B428">
-        <v>110</v>
+        <v>38</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44363</v>
+        <v>44360</v>
       </c>
       <c r="B429">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44364</v>
+        <v>44361</v>
       </c>
       <c r="B430">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44365</v>
+        <v>44362</v>
       </c>
       <c r="B431">
-        <v>22</v>
+        <v>142</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44366</v>
+        <v>44363</v>
       </c>
       <c r="B432">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44367</v>
+        <v>44364</v>
       </c>
       <c r="B433">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44368</v>
+        <v>44365</v>
       </c>
       <c r="B434">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44369</v>
+        <v>44366</v>
       </c>
       <c r="B435">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44370</v>
+        <v>44367</v>
       </c>
       <c r="B436">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44371</v>
+        <v>44368</v>
       </c>
       <c r="B437">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44372</v>
+        <v>44369</v>
       </c>
       <c r="B438">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44373</v>
+        <v>44370</v>
       </c>
       <c r="B439">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44374</v>
+        <v>44371</v>
       </c>
       <c r="B440">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44375</v>
+        <v>44372</v>
       </c>
       <c r="B441">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44376</v>
+        <v>44373</v>
       </c>
       <c r="B442">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44377</v>
+        <v>44374</v>
       </c>
       <c r="B443">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44378</v>
+        <v>44375</v>
       </c>
       <c r="B444">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44379</v>
+        <v>44376</v>
       </c>
       <c r="B445">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44380</v>
+        <v>44377</v>
       </c>
       <c r="B446">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44382</v>
+        <v>44378</v>
       </c>
       <c r="B447">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44383</v>
+        <v>44379</v>
       </c>
       <c r="B448">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44384</v>
+        <v>44380</v>
       </c>
       <c r="B449">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44385</v>
+        <v>44381</v>
       </c>
       <c r="B450">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44386</v>
+        <v>44382</v>
       </c>
       <c r="B451">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44387</v>
+        <v>44383</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44388</v>
+        <v>44384</v>
       </c>
       <c r="B453">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44389</v>
+        <v>44385</v>
       </c>
       <c r="B454">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44390</v>
+        <v>44386</v>
       </c>
       <c r="B455">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44391</v>
+        <v>44387</v>
       </c>
       <c r="B456">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44392</v>
+        <v>44388</v>
       </c>
       <c r="B457">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44393</v>
+        <v>44389</v>
       </c>
       <c r="B458">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44394</v>
+        <v>44390</v>
       </c>
       <c r="B459">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44395</v>
+        <v>44391</v>
       </c>
       <c r="B460">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44396</v>
+        <v>44392</v>
       </c>
       <c r="B461">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44397</v>
+        <v>44393</v>
       </c>
       <c r="B462">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44398</v>
+        <v>44394</v>
       </c>
       <c r="B463">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44399</v>
+        <v>44395</v>
       </c>
       <c r="B464">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44400</v>
+        <v>44396</v>
       </c>
       <c r="B465">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44401</v>
+        <v>44397</v>
       </c>
       <c r="B466">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44402</v>
+        <v>44398</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44403</v>
+        <v>44399</v>
       </c>
       <c r="B468">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44404</v>
+        <v>44400</v>
       </c>
       <c r="B469">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44405</v>
+        <v>44401</v>
       </c>
       <c r="B470">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44407</v>
+        <v>44402</v>
       </c>
       <c r="B471">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44408</v>
+        <v>44403</v>
       </c>
       <c r="B472">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44409</v>
+        <v>44404</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44411</v>
+        <v>44405</v>
       </c>
       <c r="B474">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44412</v>
+        <v>44406</v>
       </c>
       <c r="B475">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44413</v>
+        <v>44407</v>
       </c>
       <c r="B476">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44414</v>
+        <v>44408</v>
       </c>
       <c r="B477">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44415</v>
+        <v>44409</v>
       </c>
       <c r="B478">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44416</v>
+        <v>44410</v>
       </c>
       <c r="B479">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44417</v>
+        <v>44411</v>
       </c>
       <c r="B480">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44418</v>
+        <v>44412</v>
       </c>
       <c r="B481">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44419</v>
+        <v>44413</v>
       </c>
       <c r="B482">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44420</v>
+        <v>44414</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44421</v>
+        <v>44415</v>
       </c>
       <c r="B484">
         <v>12</v>
@@ -4263,175 +4263,175 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44422</v>
+        <v>44416</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44423</v>
+        <v>44417</v>
       </c>
       <c r="B486">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44424</v>
+        <v>44418</v>
       </c>
       <c r="B487">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44425</v>
+        <v>44419</v>
       </c>
       <c r="B488">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44426</v>
+        <v>44420</v>
       </c>
       <c r="B489">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44427</v>
+        <v>44421</v>
       </c>
       <c r="B490">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44428</v>
+        <v>44422</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44431</v>
+        <v>44423</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44432</v>
+        <v>44424</v>
       </c>
       <c r="B493">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44433</v>
+        <v>44425</v>
       </c>
       <c r="B494">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="B495">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44435</v>
+        <v>44427</v>
       </c>
       <c r="B496">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44440</v>
+        <v>44428</v>
       </c>
       <c r="B497">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44441</v>
+        <v>44429</v>
       </c>
       <c r="B498">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44442</v>
+        <v>44430</v>
       </c>
       <c r="B499">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44445</v>
+        <v>44431</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44446</v>
+        <v>44432</v>
       </c>
       <c r="B501">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44447</v>
+        <v>44433</v>
       </c>
       <c r="B502">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44448</v>
+        <v>44434</v>
       </c>
       <c r="B503">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44449</v>
+        <v>44435</v>
       </c>
       <c r="B504">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44450</v>
+        <v>44436</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44451</v>
+        <v>44437</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -4439,239 +4439,239 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44453</v>
+        <v>44438</v>
       </c>
       <c r="B507">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44454</v>
+        <v>44439</v>
       </c>
       <c r="B508">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44455</v>
+        <v>44440</v>
       </c>
       <c r="B509">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44456</v>
+        <v>44441</v>
       </c>
       <c r="B510">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44457</v>
+        <v>44442</v>
       </c>
       <c r="B511">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44458</v>
+        <v>44443</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44459</v>
+        <v>44445</v>
       </c>
       <c r="B513">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44460</v>
+        <v>44446</v>
       </c>
       <c r="B514">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44461</v>
+        <v>44447</v>
       </c>
       <c r="B515">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44462</v>
+        <v>44448</v>
       </c>
       <c r="B516">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44463</v>
+        <v>44449</v>
       </c>
       <c r="B517">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44464</v>
+        <v>44450</v>
       </c>
       <c r="B518">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44465</v>
+        <v>44451</v>
       </c>
       <c r="B519">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44466</v>
+        <v>44452</v>
       </c>
       <c r="B520">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44467</v>
+        <v>44453</v>
       </c>
       <c r="B521">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44468</v>
+        <v>44454</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44469</v>
+        <v>44455</v>
       </c>
       <c r="B523">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44470</v>
+        <v>44456</v>
       </c>
       <c r="B524">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44471</v>
+        <v>44457</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44473</v>
+        <v>44458</v>
       </c>
       <c r="B526">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44474</v>
+        <v>44459</v>
       </c>
       <c r="B527">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44475</v>
+        <v>44460</v>
       </c>
       <c r="B528">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44476</v>
+        <v>44461</v>
       </c>
       <c r="B529">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44477</v>
+        <v>44462</v>
       </c>
       <c r="B530">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44478</v>
+        <v>44463</v>
       </c>
       <c r="B531">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44479</v>
+        <v>44464</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44480</v>
+        <v>44465</v>
       </c>
       <c r="B533">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44481</v>
+        <v>44466</v>
       </c>
       <c r="B534">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44482</v>
+        <v>44467</v>
       </c>
       <c r="B535">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44483</v>
+        <v>44468</v>
       </c>
       <c r="B536">
         <v>7</v>
@@ -4679,295 +4679,295 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44484</v>
+        <v>44469</v>
       </c>
       <c r="B537">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44485</v>
+        <v>44470</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44486</v>
+        <v>44471</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44487</v>
+        <v>44473</v>
       </c>
       <c r="B540">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44488</v>
+        <v>44474</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44489</v>
+        <v>44475</v>
       </c>
       <c r="B542">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44490</v>
+        <v>44476</v>
       </c>
       <c r="B543">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44491</v>
+        <v>44477</v>
       </c>
       <c r="B544">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44492</v>
+        <v>44478</v>
       </c>
       <c r="B545">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44493</v>
+        <v>44479</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44494</v>
+        <v>44480</v>
       </c>
       <c r="B547">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44495</v>
+        <v>44481</v>
       </c>
       <c r="B548">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44497</v>
+        <v>44482</v>
       </c>
       <c r="B549">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44498</v>
+        <v>44483</v>
       </c>
       <c r="B550">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44499</v>
+        <v>44484</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44501</v>
+        <v>44485</v>
       </c>
       <c r="B552">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44502</v>
+        <v>44486</v>
       </c>
       <c r="B553">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44503</v>
+        <v>44487</v>
       </c>
       <c r="B554">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44504</v>
+        <v>44488</v>
       </c>
       <c r="B555">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44505</v>
+        <v>44489</v>
       </c>
       <c r="B556">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44508</v>
+        <v>44490</v>
       </c>
       <c r="B557">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44509</v>
+        <v>44491</v>
       </c>
       <c r="B558">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44510</v>
+        <v>44492</v>
       </c>
       <c r="B559">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44511</v>
+        <v>44493</v>
       </c>
       <c r="B560">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44512</v>
+        <v>44494</v>
       </c>
       <c r="B561">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44515</v>
+        <v>44495</v>
       </c>
       <c r="B562">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44516</v>
+        <v>44496</v>
       </c>
       <c r="B563">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44517</v>
+        <v>44497</v>
       </c>
       <c r="B564">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44518</v>
+        <v>44498</v>
       </c>
       <c r="B565">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44519</v>
+        <v>44499</v>
       </c>
       <c r="B566">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44522</v>
+        <v>44500</v>
       </c>
       <c r="B567">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44523</v>
+        <v>44501</v>
       </c>
       <c r="B568">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44524</v>
+        <v>44502</v>
       </c>
       <c r="B569">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44525</v>
+        <v>44503</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44526</v>
+        <v>44504</v>
       </c>
       <c r="B571">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44529</v>
+        <v>44505</v>
       </c>
       <c r="B572">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44530</v>
+        <v>44506</v>
       </c>
       <c r="B573">
         <v>6</v>
@@ -4975,562 +4975,802 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44531</v>
+        <v>44508</v>
       </c>
       <c r="B574">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44533</v>
+        <v>44509</v>
       </c>
       <c r="B575">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44535</v>
+        <v>44510</v>
       </c>
       <c r="B576">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44536</v>
+        <v>44511</v>
       </c>
       <c r="B577">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44537</v>
+        <v>44512</v>
       </c>
       <c r="B578">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44539</v>
+        <v>44513</v>
       </c>
       <c r="B579">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44540</v>
+        <v>44514</v>
       </c>
       <c r="B580">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44541</v>
+        <v>44515</v>
       </c>
       <c r="B581">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44542</v>
+        <v>44516</v>
       </c>
       <c r="B582">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44543</v>
+        <v>44517</v>
       </c>
       <c r="B583">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44544</v>
+        <v>44518</v>
       </c>
       <c r="B584">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44545</v>
+        <v>44519</v>
       </c>
       <c r="B585">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44546</v>
+        <v>44520</v>
       </c>
       <c r="B586">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44547</v>
+        <v>44522</v>
       </c>
       <c r="B587">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44548</v>
+        <v>44523</v>
       </c>
       <c r="B588">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44550</v>
+        <v>44524</v>
       </c>
       <c r="B589">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44551</v>
+        <v>44525</v>
       </c>
       <c r="B590">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44552</v>
+        <v>44526</v>
       </c>
       <c r="B591">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44553</v>
+        <v>44527</v>
       </c>
       <c r="B592">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44557</v>
+        <v>44528</v>
       </c>
       <c r="B593">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44558</v>
+        <v>44529</v>
       </c>
       <c r="B594">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44559</v>
+        <v>44530</v>
       </c>
       <c r="B595">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44560</v>
+        <v>44531</v>
       </c>
       <c r="B596">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44561</v>
+        <v>44532</v>
       </c>
       <c r="B597">
-        <v>10388</v>
+        <v>6</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44562</v>
+        <v>44533</v>
       </c>
       <c r="B598">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44563</v>
+        <v>44534</v>
       </c>
       <c r="B599">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44564</v>
+        <v>44535</v>
       </c>
       <c r="B600">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44565</v>
+        <v>44536</v>
       </c>
       <c r="B601">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44566</v>
+        <v>44537</v>
       </c>
       <c r="B602">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44567</v>
+        <v>44538</v>
       </c>
       <c r="B603">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44568</v>
+        <v>44539</v>
       </c>
       <c r="B604">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44569</v>
+        <v>44540</v>
       </c>
       <c r="B605">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44570</v>
+        <v>44541</v>
       </c>
       <c r="B606">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44571</v>
+        <v>44542</v>
       </c>
       <c r="B607">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44572</v>
+        <v>44543</v>
       </c>
       <c r="B608">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44573</v>
+        <v>44544</v>
       </c>
       <c r="B609">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44574</v>
+        <v>44545</v>
       </c>
       <c r="B610">
-        <v>89</v>
+        <v>18</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44575</v>
+        <v>44546</v>
       </c>
       <c r="B611">
-        <v>115</v>
+        <v>17</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44576</v>
+        <v>44547</v>
       </c>
       <c r="B612">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44577</v>
+        <v>44548</v>
       </c>
       <c r="B613">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44578</v>
+        <v>44549</v>
       </c>
       <c r="B614">
-        <v>148</v>
+        <v>8</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44579</v>
+        <v>44550</v>
       </c>
       <c r="B615">
-        <v>166</v>
+        <v>75</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44580</v>
+        <v>44551</v>
       </c>
       <c r="B616">
-        <v>330</v>
+        <v>32</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44581</v>
+        <v>44552</v>
       </c>
       <c r="B617">
-        <v>403</v>
+        <v>23</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44582</v>
+        <v>44553</v>
       </c>
       <c r="B618">
-        <v>355</v>
+        <v>15</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44583</v>
+        <v>44554</v>
       </c>
       <c r="B619">
-        <v>290</v>
+        <v>11</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44584</v>
+        <v>44555</v>
       </c>
       <c r="B620">
-        <v>76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44585</v>
+        <v>44556</v>
       </c>
       <c r="B621">
-        <v>459</v>
+        <v>3</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44586</v>
+        <v>44557</v>
       </c>
       <c r="B622">
-        <v>500</v>
+        <v>29</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44587</v>
+        <v>44558</v>
       </c>
       <c r="B623">
-        <v>484</v>
+        <v>47</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44588</v>
+        <v>44559</v>
       </c>
       <c r="B624">
-        <v>485</v>
+        <v>78</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44589</v>
+        <v>44560</v>
       </c>
       <c r="B625">
-        <v>483</v>
+        <v>84</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44590</v>
+        <v>44561</v>
       </c>
       <c r="B626">
-        <v>215</v>
+        <v>47</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44591</v>
+        <v>44562</v>
       </c>
       <c r="B627">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44592</v>
+        <v>44563</v>
       </c>
       <c r="B628">
-        <v>476</v>
+        <v>14</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44593</v>
+        <v>44564</v>
       </c>
       <c r="B629">
-        <v>444</v>
+        <v>68</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44594</v>
+        <v>44565</v>
       </c>
       <c r="B630">
-        <v>345</v>
+        <v>58</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44595</v>
+        <v>44566</v>
       </c>
       <c r="B631">
-        <v>322</v>
+        <v>75</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44596</v>
+        <v>44567</v>
       </c>
       <c r="B632">
-        <v>271</v>
+        <v>112</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44597</v>
+        <v>44568</v>
       </c>
       <c r="B633">
-        <v>150</v>
+        <v>104</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44598</v>
+        <v>44569</v>
       </c>
       <c r="B634">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44599</v>
+        <v>44570</v>
       </c>
       <c r="B635">
-        <v>274</v>
+        <v>23</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44600</v>
+        <v>44571</v>
       </c>
       <c r="B636">
-        <v>241</v>
+        <v>130</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44601</v>
+        <v>44572</v>
       </c>
       <c r="B637">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44602</v>
+        <v>44573</v>
       </c>
       <c r="B638">
-        <v>141</v>
+        <v>177</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44603</v>
+        <v>44574</v>
       </c>
       <c r="B639">
-        <v>97</v>
+        <v>278</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44604</v>
+        <v>44575</v>
       </c>
       <c r="B640">
-        <v>41</v>
+        <v>238</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44605</v>
+        <v>44576</v>
       </c>
       <c r="B641">
-        <v>14</v>
+        <v>176</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44606</v>
+        <v>44577</v>
       </c>
       <c r="B642">
-        <v>129</v>
+        <v>26</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
+        <v>44578</v>
+      </c>
+      <c r="B643">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="2">
+        <v>44579</v>
+      </c>
+      <c r="B644">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="2">
+        <v>44580</v>
+      </c>
+      <c r="B645">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="2">
+        <v>44581</v>
+      </c>
+      <c r="B646">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="2">
+        <v>44582</v>
+      </c>
+      <c r="B647">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="2">
+        <v>44583</v>
+      </c>
+      <c r="B648">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="2">
+        <v>44584</v>
+      </c>
+      <c r="B649">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="2">
+        <v>44585</v>
+      </c>
+      <c r="B650">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="2">
+        <v>44586</v>
+      </c>
+      <c r="B651">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="2">
+        <v>44587</v>
+      </c>
+      <c r="B652">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="2">
+        <v>44588</v>
+      </c>
+      <c r="B653">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="2">
+        <v>44589</v>
+      </c>
+      <c r="B654">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="2">
+        <v>44590</v>
+      </c>
+      <c r="B655">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="2">
+        <v>44591</v>
+      </c>
+      <c r="B656">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="2">
+        <v>44592</v>
+      </c>
+      <c r="B657">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B658">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B659">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="2">
+        <v>44595</v>
+      </c>
+      <c r="B660">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B661">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B662">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B663">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B664">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B665">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B666">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B667">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B668">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="2">
+        <v>44604</v>
+      </c>
+      <c r="B669">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B670">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B671">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="2">
         <v>44607</v>
       </c>
-      <c r="B643">
-        <v>67</v>
+      <c r="B672">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B673">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B673"/>
+  <dimension ref="A1:B674"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5546,7 +5546,7 @@
         <v>44580</v>
       </c>
       <c r="B645">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5738,7 +5738,7 @@
         <v>44604</v>
       </c>
       <c r="B669">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5754,7 +5754,7 @@
         <v>44606</v>
       </c>
       <c r="B671">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5762,7 +5762,7 @@
         <v>44607</v>
       </c>
       <c r="B672">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5770,7 +5770,15 @@
         <v>44608</v>
       </c>
       <c r="B673">
-        <v>56</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B674">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B674"/>
+  <dimension ref="A1:B676"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5546,7 +5546,7 @@
         <v>44580</v>
       </c>
       <c r="B645">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5594,7 +5594,7 @@
         <v>44586</v>
       </c>
       <c r="B651">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5714,7 +5714,7 @@
         <v>44601</v>
       </c>
       <c r="B666">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5730,7 +5730,7 @@
         <v>44603</v>
       </c>
       <c r="B668">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5762,7 +5762,7 @@
         <v>44607</v>
       </c>
       <c r="B672">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5770,7 +5770,7 @@
         <v>44608</v>
       </c>
       <c r="B673">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5778,7 +5778,23 @@
         <v>44609</v>
       </c>
       <c r="B674">
-        <v>63</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="2">
+        <v>44610</v>
+      </c>
+      <c r="B675">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="2">
+        <v>44611</v>
+      </c>
+      <c r="B676">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B676"/>
+  <dimension ref="A1:B677"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5786,7 +5786,7 @@
         <v>44610</v>
       </c>
       <c r="B675">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5794,7 +5794,15 @@
         <v>44611</v>
       </c>
       <c r="B676">
-        <v>22</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="2">
+        <v>44612</v>
+      </c>
+      <c r="B677">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B677"/>
+  <dimension ref="A1:B678"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5722,7 +5722,7 @@
         <v>44602</v>
       </c>
       <c r="B667">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5786,7 +5786,7 @@
         <v>44610</v>
       </c>
       <c r="B675">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5802,7 +5802,15 @@
         <v>44612</v>
       </c>
       <c r="B677">
-        <v>5</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="2">
+        <v>44613</v>
+      </c>
+      <c r="B678">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B678"/>
+  <dimension ref="A1:B683"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5722,7 +5722,7 @@
         <v>44602</v>
       </c>
       <c r="B667">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5770,7 +5770,7 @@
         <v>44608</v>
       </c>
       <c r="B673">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5810,7 +5810,47 @@
         <v>44613</v>
       </c>
       <c r="B678">
-        <v>42</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="2">
+        <v>44614</v>
+      </c>
+      <c r="B679">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="2">
+        <v>44615</v>
+      </c>
+      <c r="B680">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="2">
+        <v>44616</v>
+      </c>
+      <c r="B681">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B682">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B683">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B683"/>
+  <dimension ref="A1:B684"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5850,7 +5850,15 @@
         <v>44618</v>
       </c>
       <c r="B683">
-        <v>9</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="2">
+        <v>44619</v>
+      </c>
+      <c r="B684">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B684"/>
+  <dimension ref="A1:B686"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5810,7 +5810,7 @@
         <v>44613</v>
       </c>
       <c r="B678">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5858,7 +5858,23 @@
         <v>44619</v>
       </c>
       <c r="B684">
-        <v>3</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B685">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B686">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B686"/>
+  <dimension ref="A1:B688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5786,7 +5786,7 @@
         <v>44610</v>
       </c>
       <c r="B675">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5874,7 +5874,23 @@
         <v>44621</v>
       </c>
       <c r="B686">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="2">
+        <v>44622</v>
+      </c>
+      <c r="B687">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="2">
+        <v>44623</v>
+      </c>
+      <c r="B688">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B688"/>
+  <dimension ref="A1:B690"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5730,7 +5730,7 @@
         <v>44603</v>
       </c>
       <c r="B668">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5818,7 +5818,7 @@
         <v>44614</v>
       </c>
       <c r="B679">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5890,7 +5890,23 @@
         <v>44623</v>
       </c>
       <c r="B688">
-        <v>7</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="2">
+        <v>44624</v>
+      </c>
+      <c r="B689">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="2">
+        <v>44625</v>
+      </c>
+      <c r="B690">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B690"/>
+  <dimension ref="A1:B693"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5906,7 +5906,31 @@
         <v>44625</v>
       </c>
       <c r="B690">
-        <v>17</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="2">
+        <v>44626</v>
+      </c>
+      <c r="B691">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="2">
+        <v>44627</v>
+      </c>
+      <c r="B692">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="2">
+        <v>44628</v>
+      </c>
+      <c r="B693">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B693"/>
+  <dimension ref="A1:B694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5914,7 +5914,7 @@
         <v>44626</v>
       </c>
       <c r="B691">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5930,7 +5930,15 @@
         <v>44628</v>
       </c>
       <c r="B693">
-        <v>7</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="2">
+        <v>44629</v>
+      </c>
+      <c r="B694">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B694"/>
+  <dimension ref="A1:B703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5442,7 +5442,7 @@
         <v>44567</v>
       </c>
       <c r="B632">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5634,7 +5634,7 @@
         <v>44591</v>
       </c>
       <c r="B656">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5650,7 +5650,7 @@
         <v>44593</v>
       </c>
       <c r="B658">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5666,7 +5666,7 @@
         <v>44595</v>
       </c>
       <c r="B660">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5674,7 +5674,7 @@
         <v>44596</v>
       </c>
       <c r="B661">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5682,7 +5682,7 @@
         <v>44597</v>
       </c>
       <c r="B662">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5698,7 +5698,7 @@
         <v>44599</v>
       </c>
       <c r="B664">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5706,7 +5706,7 @@
         <v>44600</v>
       </c>
       <c r="B665">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5714,7 +5714,7 @@
         <v>44601</v>
       </c>
       <c r="B666">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5722,7 +5722,7 @@
         <v>44602</v>
       </c>
       <c r="B667">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5730,7 +5730,7 @@
         <v>44603</v>
       </c>
       <c r="B668">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5738,7 +5738,7 @@
         <v>44604</v>
       </c>
       <c r="B669">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5754,7 +5754,7 @@
         <v>44606</v>
       </c>
       <c r="B671">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5762,7 +5762,7 @@
         <v>44607</v>
       </c>
       <c r="B672">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5770,7 +5770,7 @@
         <v>44608</v>
       </c>
       <c r="B673">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5778,7 +5778,7 @@
         <v>44609</v>
       </c>
       <c r="B674">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5794,7 +5794,7 @@
         <v>44611</v>
       </c>
       <c r="B676">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5826,7 +5826,7 @@
         <v>44615</v>
       </c>
       <c r="B680">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5834,7 +5834,7 @@
         <v>44616</v>
       </c>
       <c r="B681">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5922,7 +5922,7 @@
         <v>44627</v>
       </c>
       <c r="B692">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5930,7 +5930,7 @@
         <v>44628</v>
       </c>
       <c r="B693">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5938,7 +5938,79 @@
         <v>44629</v>
       </c>
       <c r="B694">
-        <v>8</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="2">
+        <v>44630</v>
+      </c>
+      <c r="B695">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="2">
+        <v>44631</v>
+      </c>
+      <c r="B696">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="2">
+        <v>44632</v>
+      </c>
+      <c r="B697">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="2">
+        <v>44633</v>
+      </c>
+      <c r="B698">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="2">
+        <v>44634</v>
+      </c>
+      <c r="B699">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="2">
+        <v>44635</v>
+      </c>
+      <c r="B700">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="2">
+        <v>44636</v>
+      </c>
+      <c r="B701">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="2">
+        <v>44637</v>
+      </c>
+      <c r="B702">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="2">
+        <v>44638</v>
+      </c>
+      <c r="B703">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B703"/>
+  <dimension ref="A1:B713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6002,7 +6002,7 @@
         <v>44637</v>
       </c>
       <c r="B702">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -6011,6 +6011,86 @@
       </c>
       <c r="B703">
         <v>10</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="2">
+        <v>44639</v>
+      </c>
+      <c r="B704">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="2">
+        <v>44640</v>
+      </c>
+      <c r="B705">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="2">
+        <v>44641</v>
+      </c>
+      <c r="B706">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="2">
+        <v>44642</v>
+      </c>
+      <c r="B707">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="2">
+        <v>44643</v>
+      </c>
+      <c r="B708">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="2">
+        <v>44644</v>
+      </c>
+      <c r="B709">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="2">
+        <v>44645</v>
+      </c>
+      <c r="B710">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="2">
+        <v>44646</v>
+      </c>
+      <c r="B711">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="2">
+        <v>44647</v>
+      </c>
+      <c r="B712">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="2">
+        <v>44648</v>
+      </c>
+      <c r="B713">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B713"/>
+  <dimension ref="A1:B717"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6082,7 +6082,7 @@
         <v>44647</v>
       </c>
       <c r="B712">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6090,7 +6090,39 @@
         <v>44648</v>
       </c>
       <c r="B713">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="2">
+        <v>44649</v>
+      </c>
+      <c r="B714">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="2">
+        <v>44650</v>
+      </c>
+      <c r="B715">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B716">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B717">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B717"/>
+  <dimension ref="A1:B719"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6122,7 +6122,23 @@
         <v>44652</v>
       </c>
       <c r="B717">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="2">
+        <v>44655</v>
+      </c>
+      <c r="B718">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="2">
+        <v>44656</v>
+      </c>
+      <c r="B719">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B719"/>
+  <dimension ref="A1:B722"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6138,6 +6138,30 @@
         <v>44656</v>
       </c>
       <c r="B719">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="2">
+        <v>44657</v>
+      </c>
+      <c r="B720">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="2">
+        <v>44658</v>
+      </c>
+      <c r="B721">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="2">
+        <v>44659</v>
+      </c>
+      <c r="B722">
         <v>6</v>
       </c>
     </row>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B722"/>
+  <dimension ref="A1:B732"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5674,7 +5674,7 @@
         <v>44596</v>
       </c>
       <c r="B661">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5698,7 +5698,7 @@
         <v>44599</v>
       </c>
       <c r="B664">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5722,7 +5722,7 @@
         <v>44602</v>
       </c>
       <c r="B667">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5754,7 +5754,7 @@
         <v>44606</v>
       </c>
       <c r="B671">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5762,7 +5762,7 @@
         <v>44607</v>
       </c>
       <c r="B672">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5770,7 +5770,7 @@
         <v>44608</v>
       </c>
       <c r="B673">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5778,7 +5778,7 @@
         <v>44609</v>
       </c>
       <c r="B674">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5786,7 +5786,7 @@
         <v>44610</v>
       </c>
       <c r="B675">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5810,7 +5810,7 @@
         <v>44613</v>
       </c>
       <c r="B678">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5818,7 +5818,7 @@
         <v>44614</v>
       </c>
       <c r="B679">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5826,7 +5826,7 @@
         <v>44615</v>
       </c>
       <c r="B680">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5834,7 +5834,7 @@
         <v>44616</v>
       </c>
       <c r="B681">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5866,7 +5866,7 @@
         <v>44620</v>
       </c>
       <c r="B685">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5882,7 +5882,7 @@
         <v>44622</v>
       </c>
       <c r="B687">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5890,7 +5890,7 @@
         <v>44623</v>
       </c>
       <c r="B688">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5922,7 +5922,7 @@
         <v>44627</v>
       </c>
       <c r="B692">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5954,7 +5954,7 @@
         <v>44631</v>
       </c>
       <c r="B696">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5978,7 +5978,7 @@
         <v>44634</v>
       </c>
       <c r="B699">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5986,7 +5986,7 @@
         <v>44635</v>
       </c>
       <c r="B700">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -6002,7 +6002,7 @@
         <v>44637</v>
       </c>
       <c r="B702">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -6034,7 +6034,7 @@
         <v>44641</v>
       </c>
       <c r="B706">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6066,7 +6066,7 @@
         <v>44645</v>
       </c>
       <c r="B710">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6090,7 +6090,7 @@
         <v>44648</v>
       </c>
       <c r="B713">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6122,47 +6122,127 @@
         <v>44652</v>
       </c>
       <c r="B717">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2">
-        <v>44655</v>
+        <v>44653</v>
       </c>
       <c r="B718">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2">
-        <v>44656</v>
+        <v>44655</v>
       </c>
       <c r="B719">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2">
-        <v>44657</v>
+        <v>44656</v>
       </c>
       <c r="B720">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2">
-        <v>44658</v>
+        <v>44657</v>
       </c>
       <c r="B721">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2">
+        <v>44658</v>
+      </c>
+      <c r="B722">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="2">
         <v>44659</v>
       </c>
-      <c r="B722">
-        <v>6</v>
+      <c r="B723">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="2">
+        <v>44662</v>
+      </c>
+      <c r="B724">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="2">
+        <v>44663</v>
+      </c>
+      <c r="B725">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="2">
+        <v>44664</v>
+      </c>
+      <c r="B726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="2">
+        <v>44666</v>
+      </c>
+      <c r="B727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="2">
+        <v>44669</v>
+      </c>
+      <c r="B728">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="2">
+        <v>44670</v>
+      </c>
+      <c r="B729">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="2">
+        <v>44671</v>
+      </c>
+      <c r="B730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="2">
+        <v>44672</v>
+      </c>
+      <c r="B731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="2">
+        <v>44673</v>
+      </c>
+      <c r="B732">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B732"/>
+  <dimension ref="A1:B750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5650,7 +5650,7 @@
         <v>44593</v>
       </c>
       <c r="B658">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5658,7 +5658,7 @@
         <v>44594</v>
       </c>
       <c r="B659">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5666,7 +5666,7 @@
         <v>44595</v>
       </c>
       <c r="B660">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5674,7 +5674,7 @@
         <v>44596</v>
       </c>
       <c r="B661">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5698,7 +5698,7 @@
         <v>44599</v>
       </c>
       <c r="B664">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5706,7 +5706,7 @@
         <v>44600</v>
       </c>
       <c r="B665">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5714,7 +5714,7 @@
         <v>44601</v>
       </c>
       <c r="B666">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5722,7 +5722,7 @@
         <v>44602</v>
       </c>
       <c r="B667">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5730,7 +5730,7 @@
         <v>44603</v>
       </c>
       <c r="B668">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -6066,7 +6066,7 @@
         <v>44645</v>
       </c>
       <c r="B710">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6178,7 +6178,7 @@
         <v>44662</v>
       </c>
       <c r="B724">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6194,7 +6194,7 @@
         <v>44664</v>
       </c>
       <c r="B726">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6243,6 +6243,150 @@
       </c>
       <c r="B732">
         <v>8</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="2">
+        <v>44676</v>
+      </c>
+      <c r="B733">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="2">
+        <v>44678</v>
+      </c>
+      <c r="B734">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="2">
+        <v>44679</v>
+      </c>
+      <c r="B735">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B736">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="2">
+        <v>44684</v>
+      </c>
+      <c r="B737">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="2">
+        <v>44685</v>
+      </c>
+      <c r="B738">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="2">
+        <v>44686</v>
+      </c>
+      <c r="B739">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="2">
+        <v>44693</v>
+      </c>
+      <c r="B740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="2">
+        <v>44694</v>
+      </c>
+      <c r="B741">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="2">
+        <v>44695</v>
+      </c>
+      <c r="B742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="2">
+        <v>44697</v>
+      </c>
+      <c r="B743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="2">
+        <v>44699</v>
+      </c>
+      <c r="B744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="2">
+        <v>44702</v>
+      </c>
+      <c r="B745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="2">
+        <v>44705</v>
+      </c>
+      <c r="B746">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B747">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="2">
+        <v>44707</v>
+      </c>
+      <c r="B748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="2">
+        <v>44711</v>
+      </c>
+      <c r="B749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="2">
+        <v>44713</v>
+      </c>
+      <c r="B750">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B750"/>
+  <dimension ref="A1:B766"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5698,7 +5698,7 @@
         <v>44599</v>
       </c>
       <c r="B664">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5778,7 +5778,7 @@
         <v>44609</v>
       </c>
       <c r="B674">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5810,7 +5810,7 @@
         <v>44613</v>
       </c>
       <c r="B678">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5818,7 +5818,7 @@
         <v>44614</v>
       </c>
       <c r="B679">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5826,7 +5826,7 @@
         <v>44615</v>
       </c>
       <c r="B680">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5834,7 +5834,7 @@
         <v>44616</v>
       </c>
       <c r="B681">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -6274,7 +6274,7 @@
         <v>44680</v>
       </c>
       <c r="B736">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6314,7 +6314,7 @@
         <v>44694</v>
       </c>
       <c r="B741">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6386,7 +6386,135 @@
         <v>44713</v>
       </c>
       <c r="B750">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="2">
+        <v>44714</v>
+      </c>
+      <c r="B751">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="2">
+        <v>44715</v>
+      </c>
+      <c r="B752">
         <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="2">
+        <v>44719</v>
+      </c>
+      <c r="B753">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="2">
+        <v>44720</v>
+      </c>
+      <c r="B754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="2">
+        <v>44722</v>
+      </c>
+      <c r="B755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="2">
+        <v>44723</v>
+      </c>
+      <c r="B756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="2">
+        <v>44725</v>
+      </c>
+      <c r="B757">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="2">
+        <v>44726</v>
+      </c>
+      <c r="B758">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="2">
+        <v>44727</v>
+      </c>
+      <c r="B759">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="2">
+        <v>44728</v>
+      </c>
+      <c r="B760">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="2">
+        <v>44729</v>
+      </c>
+      <c r="B761">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="2">
+        <v>44730</v>
+      </c>
+      <c r="B762">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="2">
+        <v>44732</v>
+      </c>
+      <c r="B763">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="2">
+        <v>44733</v>
+      </c>
+      <c r="B764">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="2">
+        <v>44734</v>
+      </c>
+      <c r="B765">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="2">
+        <v>44735</v>
+      </c>
+      <c r="B766">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B766"/>
+  <dimension ref="A1:B772"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6506,7 +6506,7 @@
         <v>44734</v>
       </c>
       <c r="B765">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6514,7 +6514,55 @@
         <v>44735</v>
       </c>
       <c r="B766">
-        <v>9</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="2">
+        <v>44736</v>
+      </c>
+      <c r="B767">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="2">
+        <v>44737</v>
+      </c>
+      <c r="B768">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="2">
+        <v>44739</v>
+      </c>
+      <c r="B769">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="2">
+        <v>44740</v>
+      </c>
+      <c r="B770">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="2">
+        <v>44741</v>
+      </c>
+      <c r="B771">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B772">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B772"/>
+  <dimension ref="A1:B774"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6546,7 +6546,7 @@
         <v>44740</v>
       </c>
       <c r="B770">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6562,7 +6562,23 @@
         <v>44742</v>
       </c>
       <c r="B772">
-        <v>13</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B773">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="2">
+        <v>44744</v>
+      </c>
+      <c r="B774">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -6578,7 +6578,7 @@
         <v>44744</v>
       </c>
       <c r="B774">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B774"/>
+  <dimension ref="A1:B776"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6570,7 +6570,7 @@
         <v>44743</v>
       </c>
       <c r="B773">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6578,7 +6578,23 @@
         <v>44744</v>
       </c>
       <c r="B774">
-        <v>22</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="2">
+        <v>44745</v>
+      </c>
+      <c r="B775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="2">
+        <v>44746</v>
+      </c>
+      <c r="B776">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B776"/>
+  <dimension ref="A1:B777"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6586,7 +6586,7 @@
         <v>44745</v>
       </c>
       <c r="B775">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6594,7 +6594,15 @@
         <v>44746</v>
       </c>
       <c r="B776">
-        <v>40</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="2">
+        <v>44747</v>
+      </c>
+      <c r="B777">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B777"/>
+  <dimension ref="A1:B782"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6474,7 +6474,7 @@
         <v>44729</v>
       </c>
       <c r="B761">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6546,7 +6546,7 @@
         <v>44740</v>
       </c>
       <c r="B770">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6562,7 +6562,7 @@
         <v>44742</v>
       </c>
       <c r="B772">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6570,7 +6570,7 @@
         <v>44743</v>
       </c>
       <c r="B773">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6594,7 +6594,7 @@
         <v>44746</v>
       </c>
       <c r="B776">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6602,7 +6602,47 @@
         <v>44747</v>
       </c>
       <c r="B777">
-        <v>30</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="2">
+        <v>44748</v>
+      </c>
+      <c r="B778">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="2">
+        <v>44749</v>
+      </c>
+      <c r="B779">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="2">
+        <v>44750</v>
+      </c>
+      <c r="B780">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="2">
+        <v>44751</v>
+      </c>
+      <c r="B781">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="2">
+        <v>44752</v>
+      </c>
+      <c r="B782">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -6474,7 +6474,7 @@
         <v>44729</v>
       </c>
       <c r="B761">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6546,7 +6546,7 @@
         <v>44740</v>
       </c>
       <c r="B770">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6562,7 +6562,7 @@
         <v>44742</v>
       </c>
       <c r="B772">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6570,7 +6570,7 @@
         <v>44743</v>
       </c>
       <c r="B773">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6594,7 +6594,7 @@
         <v>44746</v>
       </c>
       <c r="B776">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6610,7 +6610,7 @@
         <v>44748</v>
       </c>
       <c r="B778">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6618,7 +6618,7 @@
         <v>44749</v>
       </c>
       <c r="B779">
-        <v>78</v>
+        <v>151</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6626,7 +6626,7 @@
         <v>44750</v>
       </c>
       <c r="B780">
-        <v>50</v>
+        <v>145</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6634,7 +6634,7 @@
         <v>44751</v>
       </c>
       <c r="B781">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="782" spans="1:2">

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B782"/>
+  <dimension ref="A1:B784"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6474,7 +6474,7 @@
         <v>44729</v>
       </c>
       <c r="B761">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6546,7 +6546,7 @@
         <v>44740</v>
       </c>
       <c r="B770">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6562,7 +6562,7 @@
         <v>44742</v>
       </c>
       <c r="B772">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6570,7 +6570,7 @@
         <v>44743</v>
       </c>
       <c r="B773">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6594,7 +6594,7 @@
         <v>44746</v>
       </c>
       <c r="B776">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6618,7 +6618,7 @@
         <v>44749</v>
       </c>
       <c r="B779">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6626,7 +6626,7 @@
         <v>44750</v>
       </c>
       <c r="B780">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6634,7 +6634,7 @@
         <v>44751</v>
       </c>
       <c r="B781">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6642,7 +6642,23 @@
         <v>44752</v>
       </c>
       <c r="B782">
-        <v>6</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="2">
+        <v>44753</v>
+      </c>
+      <c r="B783">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="2">
+        <v>44754</v>
+      </c>
+      <c r="B784">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B784"/>
+  <dimension ref="A1:B792"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6602,7 +6602,7 @@
         <v>44747</v>
       </c>
       <c r="B777">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6618,7 +6618,7 @@
         <v>44749</v>
       </c>
       <c r="B779">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6626,7 +6626,7 @@
         <v>44750</v>
       </c>
       <c r="B780">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6634,7 +6634,7 @@
         <v>44751</v>
       </c>
       <c r="B781">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6642,7 +6642,7 @@
         <v>44752</v>
       </c>
       <c r="B782">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6650,7 +6650,7 @@
         <v>44753</v>
       </c>
       <c r="B783">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6658,7 +6658,71 @@
         <v>44754</v>
       </c>
       <c r="B784">
-        <v>50</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B785">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="2">
+        <v>44756</v>
+      </c>
+      <c r="B786">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="2">
+        <v>44757</v>
+      </c>
+      <c r="B787">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="2">
+        <v>44758</v>
+      </c>
+      <c r="B788">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="2">
+        <v>44759</v>
+      </c>
+      <c r="B789">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="2">
+        <v>44760</v>
+      </c>
+      <c r="B790">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="2">
+        <v>44761</v>
+      </c>
+      <c r="B791">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="2">
+        <v>44762</v>
+      </c>
+      <c r="B792">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B792"/>
+  <dimension ref="A1:B796"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6674,7 +6674,7 @@
         <v>44756</v>
       </c>
       <c r="B786">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6682,7 +6682,7 @@
         <v>44757</v>
       </c>
       <c r="B787">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6690,7 +6690,7 @@
         <v>44758</v>
       </c>
       <c r="B788">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6698,7 +6698,7 @@
         <v>44759</v>
       </c>
       <c r="B789">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6706,7 +6706,7 @@
         <v>44760</v>
       </c>
       <c r="B790">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6714,7 +6714,7 @@
         <v>44761</v>
       </c>
       <c r="B791">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6722,7 +6722,39 @@
         <v>44762</v>
       </c>
       <c r="B792">
-        <v>104</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="2">
+        <v>44763</v>
+      </c>
+      <c r="B793">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B794">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="2">
+        <v>44765</v>
+      </c>
+      <c r="B795">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="2">
+        <v>44766</v>
+      </c>
+      <c r="B796">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B796"/>
+  <dimension ref="A1:B797"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6690,7 +6690,7 @@
         <v>44758</v>
       </c>
       <c r="B788">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6706,7 +6706,7 @@
         <v>44760</v>
       </c>
       <c r="B790">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6714,7 +6714,7 @@
         <v>44761</v>
       </c>
       <c r="B791">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6722,7 +6722,7 @@
         <v>44762</v>
       </c>
       <c r="B792">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6730,7 +6730,7 @@
         <v>44763</v>
       </c>
       <c r="B793">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6746,7 +6746,7 @@
         <v>44765</v>
       </c>
       <c r="B795">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6754,7 +6754,15 @@
         <v>44766</v>
       </c>
       <c r="B796">
-        <v>9</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="2">
+        <v>44767</v>
+      </c>
+      <c r="B797">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B797"/>
+  <dimension ref="A1:B803"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6714,7 +6714,7 @@
         <v>44761</v>
       </c>
       <c r="B791">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6730,7 +6730,7 @@
         <v>44763</v>
       </c>
       <c r="B793">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6738,7 +6738,7 @@
         <v>44764</v>
       </c>
       <c r="B794">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6746,7 +6746,7 @@
         <v>44765</v>
       </c>
       <c r="B795">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6754,7 +6754,7 @@
         <v>44766</v>
       </c>
       <c r="B796">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6762,7 +6762,55 @@
         <v>44767</v>
       </c>
       <c r="B797">
-        <v>87</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="2">
+        <v>44768</v>
+      </c>
+      <c r="B798">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B799">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B800">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B801">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="2">
+        <v>44772</v>
+      </c>
+      <c r="B802">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="2">
+        <v>44773</v>
+      </c>
+      <c r="B803">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B803"/>
+  <dimension ref="A1:B804"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6778,7 +6778,7 @@
         <v>44769</v>
       </c>
       <c r="B799">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6794,7 +6794,7 @@
         <v>44771</v>
       </c>
       <c r="B801">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6802,7 +6802,7 @@
         <v>44772</v>
       </c>
       <c r="B802">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6810,7 +6810,15 @@
         <v>44773</v>
       </c>
       <c r="B803">
-        <v>1</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B804">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B804"/>
+  <dimension ref="A1:B805"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6490,7 +6490,7 @@
         <v>44732</v>
       </c>
       <c r="B763">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6762,7 +6762,7 @@
         <v>44767</v>
       </c>
       <c r="B797">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6802,7 +6802,7 @@
         <v>44772</v>
       </c>
       <c r="B802">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6818,7 +6818,15 @@
         <v>44774</v>
       </c>
       <c r="B804">
-        <v>72</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B805">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B805"/>
+  <dimension ref="A1:B808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6706,7 +6706,7 @@
         <v>44760</v>
       </c>
       <c r="B790">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6778,7 +6778,7 @@
         <v>44769</v>
       </c>
       <c r="B799">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6786,7 +6786,7 @@
         <v>44770</v>
       </c>
       <c r="B800">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6794,7 +6794,7 @@
         <v>44771</v>
       </c>
       <c r="B801">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6810,7 +6810,7 @@
         <v>44773</v>
       </c>
       <c r="B803">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6818,7 +6818,7 @@
         <v>44774</v>
       </c>
       <c r="B804">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6826,7 +6826,31 @@
         <v>44775</v>
       </c>
       <c r="B805">
-        <v>28</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="2">
+        <v>44776</v>
+      </c>
+      <c r="B806">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="2">
+        <v>44777</v>
+      </c>
+      <c r="B807">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="2">
+        <v>44778</v>
+      </c>
+      <c r="B808">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B808"/>
+  <dimension ref="A1:B811"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6586,7 +6586,7 @@
         <v>44745</v>
       </c>
       <c r="B775">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6602,7 +6602,7 @@
         <v>44747</v>
       </c>
       <c r="B777">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6618,7 +6618,7 @@
         <v>44749</v>
       </c>
       <c r="B779">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6826,7 +6826,7 @@
         <v>44775</v>
       </c>
       <c r="B805">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6842,7 +6842,7 @@
         <v>44777</v>
       </c>
       <c r="B807">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6850,7 +6850,31 @@
         <v>44778</v>
       </c>
       <c r="B808">
-        <v>29</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="2">
+        <v>44779</v>
+      </c>
+      <c r="B809">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="2">
+        <v>44780</v>
+      </c>
+      <c r="B810">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B811">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B811"/>
+  <dimension ref="A1:B816"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3730,7 +3730,7 @@
         <v>44349</v>
       </c>
       <c r="B418">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3746,7 +3746,7 @@
         <v>44351</v>
       </c>
       <c r="B420">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3794,7 +3794,7 @@
         <v>44357</v>
       </c>
       <c r="B426">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3826,7 +3826,7 @@
         <v>44361</v>
       </c>
       <c r="B430">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>44365</v>
       </c>
       <c r="B434">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>44366</v>
       </c>
       <c r="B435">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>44368</v>
       </c>
       <c r="B437">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>44369</v>
       </c>
       <c r="B438">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>44370</v>
       </c>
       <c r="B439">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>44371</v>
       </c>
       <c r="B440">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>44372</v>
       </c>
       <c r="B441">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>44373</v>
       </c>
       <c r="B442">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -6546,7 +6546,7 @@
         <v>44740</v>
       </c>
       <c r="B770">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6682,7 +6682,7 @@
         <v>44757</v>
       </c>
       <c r="B787">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6706,7 +6706,7 @@
         <v>44760</v>
       </c>
       <c r="B790">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6778,7 +6778,7 @@
         <v>44769</v>
       </c>
       <c r="B799">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6826,7 +6826,7 @@
         <v>44775</v>
       </c>
       <c r="B805">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6834,7 +6834,7 @@
         <v>44776</v>
       </c>
       <c r="B806">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6842,7 +6842,7 @@
         <v>44777</v>
       </c>
       <c r="B807">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6850,7 +6850,7 @@
         <v>44778</v>
       </c>
       <c r="B808">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6874,7 +6874,47 @@
         <v>44781</v>
       </c>
       <c r="B811">
-        <v>69</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="2">
+        <v>44782</v>
+      </c>
+      <c r="B812">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="2">
+        <v>44783</v>
+      </c>
+      <c r="B813">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="2">
+        <v>44784</v>
+      </c>
+      <c r="B814">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="2">
+        <v>44785</v>
+      </c>
+      <c r="B815">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="2">
+        <v>44786</v>
+      </c>
+      <c r="B816">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B816"/>
+  <dimension ref="A1:B818"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6898,7 +6898,7 @@
         <v>44784</v>
       </c>
       <c r="B814">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6906,7 +6906,7 @@
         <v>44785</v>
       </c>
       <c r="B815">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6914,7 +6914,23 @@
         <v>44786</v>
       </c>
       <c r="B816">
-        <v>13</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="2">
+        <v>44787</v>
+      </c>
+      <c r="B817">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B818">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B818"/>
+  <dimension ref="A1:B826"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3858,7 +3858,7 @@
         <v>44365</v>
       </c>
       <c r="B434">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>44366</v>
       </c>
       <c r="B435">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>44369</v>
       </c>
       <c r="B438">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>44371</v>
       </c>
       <c r="B440">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>44372</v>
       </c>
       <c r="B441">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>44373</v>
       </c>
       <c r="B442">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44375</v>
       </c>
       <c r="B444">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>44376</v>
       </c>
       <c r="B445">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>44377</v>
       </c>
       <c r="B446">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>44378</v>
       </c>
       <c r="B447">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>44379</v>
       </c>
       <c r="B448">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>44380</v>
       </c>
       <c r="B449">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3986,7 +3986,7 @@
         <v>44381</v>
       </c>
       <c r="B450">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3994,7 +3994,7 @@
         <v>44382</v>
       </c>
       <c r="B451">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -4002,7 +4002,7 @@
         <v>44383</v>
       </c>
       <c r="B452">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>44384</v>
       </c>
       <c r="B453">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>44385</v>
       </c>
       <c r="B454">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -6658,7 +6658,7 @@
         <v>44754</v>
       </c>
       <c r="B784">
-        <v>343</v>
+        <v>289</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6666,7 +6666,7 @@
         <v>44755</v>
       </c>
       <c r="B785">
-        <v>148</v>
+        <v>93</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6674,7 +6674,7 @@
         <v>44756</v>
       </c>
       <c r="B786">
-        <v>289</v>
+        <v>243</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6682,7 +6682,7 @@
         <v>44757</v>
       </c>
       <c r="B787">
-        <v>613</v>
+        <v>567</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6690,7 +6690,7 @@
         <v>44758</v>
       </c>
       <c r="B788">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6698,7 +6698,7 @@
         <v>44759</v>
       </c>
       <c r="B789">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6706,7 +6706,7 @@
         <v>44760</v>
       </c>
       <c r="B790">
-        <v>325</v>
+        <v>299</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6714,7 +6714,7 @@
         <v>44761</v>
       </c>
       <c r="B791">
-        <v>260</v>
+        <v>228</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6722,7 +6722,7 @@
         <v>44762</v>
       </c>
       <c r="B792">
-        <v>167</v>
+        <v>142</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6730,7 +6730,7 @@
         <v>44763</v>
       </c>
       <c r="B793">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6738,7 +6738,7 @@
         <v>44764</v>
       </c>
       <c r="B794">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6746,7 +6746,7 @@
         <v>44765</v>
       </c>
       <c r="B795">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6754,7 +6754,7 @@
         <v>44766</v>
       </c>
       <c r="B796">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6762,7 +6762,7 @@
         <v>44767</v>
       </c>
       <c r="B797">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6770,7 +6770,7 @@
         <v>44768</v>
       </c>
       <c r="B798">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6778,7 +6778,7 @@
         <v>44769</v>
       </c>
       <c r="B799">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6786,7 +6786,7 @@
         <v>44770</v>
       </c>
       <c r="B800">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6802,7 +6802,7 @@
         <v>44772</v>
       </c>
       <c r="B802">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6810,7 +6810,7 @@
         <v>44773</v>
       </c>
       <c r="B803">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6818,7 +6818,7 @@
         <v>44774</v>
       </c>
       <c r="B804">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6826,7 +6826,7 @@
         <v>44775</v>
       </c>
       <c r="B805">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6834,7 +6834,7 @@
         <v>44776</v>
       </c>
       <c r="B806">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6842,7 +6842,7 @@
         <v>44777</v>
       </c>
       <c r="B807">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6850,7 +6850,7 @@
         <v>44778</v>
       </c>
       <c r="B808">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6866,7 +6866,7 @@
         <v>44780</v>
       </c>
       <c r="B810">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6882,7 +6882,7 @@
         <v>44782</v>
       </c>
       <c r="B812">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6890,7 +6890,7 @@
         <v>44783</v>
       </c>
       <c r="B813">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6898,7 +6898,7 @@
         <v>44784</v>
       </c>
       <c r="B814">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6914,7 +6914,7 @@
         <v>44786</v>
       </c>
       <c r="B816">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6922,7 +6922,7 @@
         <v>44787</v>
       </c>
       <c r="B817">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6930,7 +6930,71 @@
         <v>44788</v>
       </c>
       <c r="B818">
-        <v>10</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="2">
+        <v>44789</v>
+      </c>
+      <c r="B819">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="2">
+        <v>44790</v>
+      </c>
+      <c r="B820">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="2">
+        <v>44791</v>
+      </c>
+      <c r="B821">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="2">
+        <v>44792</v>
+      </c>
+      <c r="B822">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="2">
+        <v>44793</v>
+      </c>
+      <c r="B823">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="2">
+        <v>44794</v>
+      </c>
+      <c r="B824">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B825">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="2">
+        <v>44796</v>
+      </c>
+      <c r="B826">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B826"/>
+  <dimension ref="A1:B831"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4002,7 +4002,7 @@
         <v>44383</v>
       </c>
       <c r="B452">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>44384</v>
       </c>
       <c r="B453">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>44385</v>
       </c>
       <c r="B454">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4026,7 +4026,7 @@
         <v>44386</v>
       </c>
       <c r="B455">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -6762,7 +6762,7 @@
         <v>44767</v>
       </c>
       <c r="B797">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6946,7 +6946,7 @@
         <v>44790</v>
       </c>
       <c r="B820">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6986,7 +6986,7 @@
         <v>44795</v>
       </c>
       <c r="B825">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6994,7 +6994,47 @@
         <v>44796</v>
       </c>
       <c r="B826">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" s="2">
+        <v>44797</v>
+      </c>
+      <c r="B827">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" s="2">
+        <v>44798</v>
+      </c>
+      <c r="B828">
         <v>13</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" s="2">
+        <v>44799</v>
+      </c>
+      <c r="B829">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" s="2">
+        <v>44800</v>
+      </c>
+      <c r="B830">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" s="2">
+        <v>44802</v>
+      </c>
+      <c r="B831">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B831"/>
+  <dimension ref="A1:B835"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3890,7 +3890,7 @@
         <v>44369</v>
       </c>
       <c r="B438">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>44372</v>
       </c>
       <c r="B441">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -4034,7 +4034,7 @@
         <v>44387</v>
       </c>
       <c r="B456">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4050,7 +4050,7 @@
         <v>44389</v>
       </c>
       <c r="B458">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4058,7 +4058,7 @@
         <v>44390</v>
       </c>
       <c r="B459">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4066,7 +4066,7 @@
         <v>44391</v>
       </c>
       <c r="B460">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>44394</v>
       </c>
       <c r="B463">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -6818,7 +6818,7 @@
         <v>44774</v>
       </c>
       <c r="B804">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6914,7 +6914,7 @@
         <v>44786</v>
       </c>
       <c r="B816">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -7026,7 +7026,7 @@
         <v>44800</v>
       </c>
       <c r="B830">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7034,7 +7034,39 @@
         <v>44802</v>
       </c>
       <c r="B831">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" s="2">
+        <v>44804</v>
+      </c>
+      <c r="B832">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B833">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" s="2">
+        <v>44806</v>
+      </c>
+      <c r="B834">
         <v>2</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="2">
+        <v>44807</v>
+      </c>
+      <c r="B835">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B835"/>
+  <dimension ref="A1:B842"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4090,7 +4090,7 @@
         <v>44394</v>
       </c>
       <c r="B463">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>44395</v>
       </c>
       <c r="B464">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4114,7 +4114,7 @@
         <v>44397</v>
       </c>
       <c r="B466">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4122,7 +4122,7 @@
         <v>44398</v>
       </c>
       <c r="B467">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>44399</v>
       </c>
       <c r="B468">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -6850,7 +6850,7 @@
         <v>44778</v>
       </c>
       <c r="B808">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6890,7 +6890,7 @@
         <v>44783</v>
       </c>
       <c r="B813">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -7058,7 +7058,7 @@
         <v>44806</v>
       </c>
       <c r="B834">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7067,6 +7067,62 @@
       </c>
       <c r="B835">
         <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="2">
+        <v>44809</v>
+      </c>
+      <c r="B836">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="2">
+        <v>44810</v>
+      </c>
+      <c r="B837">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" s="2">
+        <v>44811</v>
+      </c>
+      <c r="B838">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" s="2">
+        <v>44812</v>
+      </c>
+      <c r="B839">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="2">
+        <v>44813</v>
+      </c>
+      <c r="B840">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="A841" s="2">
+        <v>44814</v>
+      </c>
+      <c r="B841">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" s="2">
+        <v>44816</v>
+      </c>
+      <c r="B842">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B842"/>
+  <dimension ref="A1:B846"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6818,7 +6818,7 @@
         <v>44774</v>
       </c>
       <c r="B804">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -7106,7 +7106,7 @@
         <v>44813</v>
       </c>
       <c r="B840">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7114,7 +7114,7 @@
         <v>44814</v>
       </c>
       <c r="B841">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7122,7 +7122,39 @@
         <v>44816</v>
       </c>
       <c r="B842">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" s="2">
+        <v>44817</v>
+      </c>
+      <c r="B843">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" s="2">
+        <v>44818</v>
+      </c>
+      <c r="B844">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" s="2">
+        <v>44819</v>
+      </c>
+      <c r="B845">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" s="2">
+        <v>44820</v>
+      </c>
+      <c r="B846">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B846"/>
+  <dimension ref="A1:B852"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4146,7 +4146,7 @@
         <v>44401</v>
       </c>
       <c r="B470">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>44402</v>
       </c>
       <c r="B471">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>44403</v>
       </c>
       <c r="B472">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>44404</v>
       </c>
       <c r="B473">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>44405</v>
       </c>
       <c r="B474">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>44406</v>
       </c>
       <c r="B475">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>44407</v>
       </c>
       <c r="B476">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>44408</v>
       </c>
       <c r="B477">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>44409</v>
       </c>
       <c r="B478">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>44414</v>
       </c>
       <c r="B483">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4394,7 +4394,7 @@
         <v>44432</v>
       </c>
       <c r="B501">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4402,7 +4402,7 @@
         <v>44433</v>
       </c>
       <c r="B502">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4410,7 +4410,7 @@
         <v>44434</v>
       </c>
       <c r="B503">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4418,7 +4418,7 @@
         <v>44435</v>
       </c>
       <c r="B504">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4426,7 +4426,7 @@
         <v>44436</v>
       </c>
       <c r="B505">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4442,7 +4442,7 @@
         <v>44438</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4450,7 +4450,7 @@
         <v>44439</v>
       </c>
       <c r="B508">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4458,7 +4458,7 @@
         <v>44440</v>
       </c>
       <c r="B509">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4466,7 +4466,7 @@
         <v>44441</v>
       </c>
       <c r="B510">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4474,7 +4474,7 @@
         <v>44442</v>
       </c>
       <c r="B511">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4482,20 +4482,20 @@
         <v>44443</v>
       </c>
       <c r="B512">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44445</v>
+        <v>44444</v>
       </c>
       <c r="B513">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44446</v>
+        <v>44445</v>
       </c>
       <c r="B514">
         <v>14</v>
@@ -4503,231 +4503,231 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44447</v>
+        <v>44446</v>
       </c>
       <c r="B515">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44448</v>
+        <v>44447</v>
       </c>
       <c r="B516">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44449</v>
+        <v>44448</v>
       </c>
       <c r="B517">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44450</v>
+        <v>44449</v>
       </c>
       <c r="B518">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44451</v>
+        <v>44450</v>
       </c>
       <c r="B519">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44452</v>
+        <v>44451</v>
       </c>
       <c r="B520">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="B521">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B522">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B523">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="B524">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44457</v>
+        <v>44456</v>
       </c>
       <c r="B525">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B526">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44459</v>
+        <v>44458</v>
       </c>
       <c r="B527">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="B528">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="B529">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44462</v>
+        <v>44461</v>
       </c>
       <c r="B530">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44463</v>
+        <v>44462</v>
       </c>
       <c r="B531">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44464</v>
+        <v>44463</v>
       </c>
       <c r="B532">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44465</v>
+        <v>44464</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44466</v>
+        <v>44465</v>
       </c>
       <c r="B534">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="B535">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B536">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="B537">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44470</v>
+        <v>44469</v>
       </c>
       <c r="B538">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B539">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44473</v>
+        <v>44471</v>
       </c>
       <c r="B540">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B541">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B542">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44476</v>
+        <v>44475</v>
       </c>
       <c r="B543">
         <v>13</v>
@@ -4735,63 +4735,63 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44477</v>
+        <v>44476</v>
       </c>
       <c r="B544">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44478</v>
+        <v>44477</v>
       </c>
       <c r="B545">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44479</v>
+        <v>44478</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44480</v>
+        <v>44479</v>
       </c>
       <c r="B547">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="B548">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44482</v>
+        <v>44481</v>
       </c>
       <c r="B549">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="B550">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="B551">
         <v>15</v>
@@ -4799,1199 +4799,1199 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44485</v>
+        <v>44484</v>
       </c>
       <c r="B552">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="B553">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B554">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="B555">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="B556">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B557">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44491</v>
+        <v>44490</v>
       </c>
       <c r="B558">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B559">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B560">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B561">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B562">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44496</v>
+        <v>44495</v>
       </c>
       <c r="B563">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="B564">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44498</v>
+        <v>44497</v>
       </c>
       <c r="B565">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B566">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B567">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44501</v>
+        <v>44500</v>
       </c>
       <c r="B568">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44502</v>
+        <v>44501</v>
       </c>
       <c r="B569">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44503</v>
+        <v>44502</v>
       </c>
       <c r="B570">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44504</v>
+        <v>44503</v>
       </c>
       <c r="B571">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="B572">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44506</v>
+        <v>44505</v>
       </c>
       <c r="B573">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44508</v>
+        <v>44506</v>
       </c>
       <c r="B574">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="B575">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B576">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44511</v>
+        <v>44510</v>
       </c>
       <c r="B577">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44512</v>
+        <v>44511</v>
       </c>
       <c r="B578">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B579">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="B580">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44515</v>
+        <v>44514</v>
       </c>
       <c r="B581">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44516</v>
+        <v>44515</v>
       </c>
       <c r="B582">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44517</v>
+        <v>44516</v>
       </c>
       <c r="B583">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44518</v>
+        <v>44517</v>
       </c>
       <c r="B584">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44519</v>
+        <v>44518</v>
       </c>
       <c r="B585">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44520</v>
+        <v>44519</v>
       </c>
       <c r="B586">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44522</v>
+        <v>44520</v>
       </c>
       <c r="B587">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44523</v>
+        <v>44522</v>
       </c>
       <c r="B588">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="B589">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B590">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44526</v>
+        <v>44525</v>
       </c>
       <c r="B591">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44527</v>
+        <v>44526</v>
       </c>
       <c r="B592">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B593">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B594">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B595">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B596">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B597">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44533</v>
+        <v>44532</v>
       </c>
       <c r="B598">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44534</v>
+        <v>44533</v>
       </c>
       <c r="B599">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44535</v>
+        <v>44534</v>
       </c>
       <c r="B600">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44536</v>
+        <v>44535</v>
       </c>
       <c r="B601">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B602">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B603">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B604">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44540</v>
+        <v>44539</v>
       </c>
       <c r="B605">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44541</v>
+        <v>44540</v>
       </c>
       <c r="B606">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44542</v>
+        <v>44541</v>
       </c>
       <c r="B607">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B608">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B609">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44545</v>
+        <v>44544</v>
       </c>
       <c r="B610">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B611">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="B612">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44548</v>
+        <v>44547</v>
       </c>
       <c r="B613">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44549</v>
+        <v>44548</v>
       </c>
       <c r="B614">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44550</v>
+        <v>44549</v>
       </c>
       <c r="B615">
-        <v>75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B616">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B617">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B618">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44554</v>
+        <v>44553</v>
       </c>
       <c r="B619">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44555</v>
+        <v>44554</v>
       </c>
       <c r="B620">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44556</v>
+        <v>44555</v>
       </c>
       <c r="B621">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B622">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44558</v>
+        <v>44557</v>
       </c>
       <c r="B623">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44559</v>
+        <v>44558</v>
       </c>
       <c r="B624">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B625">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B626">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44562</v>
+        <v>44561</v>
       </c>
       <c r="B627">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B628">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B629">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44565</v>
+        <v>44564</v>
       </c>
       <c r="B630">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44566</v>
+        <v>44565</v>
       </c>
       <c r="B631">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="B632">
-        <v>121</v>
+        <v>75</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B633">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44569</v>
+        <v>44568</v>
       </c>
       <c r="B634">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44570</v>
+        <v>44569</v>
       </c>
       <c r="B635">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B636">
-        <v>130</v>
+        <v>23</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B637">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B638">
-        <v>177</v>
+        <v>129</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B639">
-        <v>278</v>
+        <v>177</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B640">
-        <v>238</v>
+        <v>278</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B641">
-        <v>176</v>
+        <v>238</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B642">
-        <v>26</v>
+        <v>176</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B643">
-        <v>382</v>
+        <v>26</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B644">
-        <v>364</v>
+        <v>382</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B645">
-        <v>429</v>
+        <v>364</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B646">
-        <v>403</v>
+        <v>429</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B647">
-        <v>355</v>
+        <v>403</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B648">
-        <v>290</v>
+        <v>355</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B649">
-        <v>76</v>
+        <v>290</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B650">
-        <v>459</v>
+        <v>76</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B651">
-        <v>501</v>
+        <v>459</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B652">
-        <v>484</v>
+        <v>501</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B653">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B654">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B655">
-        <v>216</v>
+        <v>483</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B656">
-        <v>74</v>
+        <v>216</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B657">
-        <v>476</v>
+        <v>74</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B658">
-        <v>452</v>
+        <v>476</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B659">
-        <v>357</v>
+        <v>452</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B660">
-        <v>328</v>
+        <v>357</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B661">
-        <v>285</v>
+        <v>328</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B662">
-        <v>160</v>
+        <v>285</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B663">
-        <v>28</v>
+        <v>160</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B664">
-        <v>285</v>
+        <v>28</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B665">
-        <v>248</v>
+        <v>285</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B666">
-        <v>165</v>
+        <v>248</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B667">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B668">
-        <v>106</v>
+        <v>152</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B669">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B670">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B671">
-        <v>134</v>
+        <v>14</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B672">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B673">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B674">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B675">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B676">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B677">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B678">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B679">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B680">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B681">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="B682">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B683">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B684">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B685">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="B686">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B687">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B688">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B689">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B690">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B691">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B692">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B693">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44629</v>
+        <v>44628</v>
       </c>
       <c r="B694">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B695">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B696">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44632</v>
+        <v>44631</v>
       </c>
       <c r="B697">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44633</v>
+        <v>44632</v>
       </c>
       <c r="B698">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44634</v>
+        <v>44633</v>
       </c>
       <c r="B699">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B700">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="B701">
         <v>15</v>
@@ -5999,103 +5999,103 @@
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B702">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B703">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B704">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44640</v>
+        <v>44639</v>
       </c>
       <c r="B705">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44641</v>
+        <v>44640</v>
       </c>
       <c r="B706">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44642</v>
+        <v>44641</v>
       </c>
       <c r="B707">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="B708">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B709">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B710">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44646</v>
+        <v>44645</v>
       </c>
       <c r="B711">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>44647</v>
+        <v>44646</v>
       </c>
       <c r="B712">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>44648</v>
+        <v>44647</v>
       </c>
       <c r="B713">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B714">
         <v>14</v>
@@ -6103,119 +6103,119 @@
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2">
-        <v>44650</v>
+        <v>44649</v>
       </c>
       <c r="B715">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="B716">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="B717">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2">
-        <v>44653</v>
+        <v>44652</v>
       </c>
       <c r="B718">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2">
-        <v>44655</v>
+        <v>44653</v>
       </c>
       <c r="B719">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2">
-        <v>44656</v>
+        <v>44655</v>
       </c>
       <c r="B720">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2">
-        <v>44657</v>
+        <v>44656</v>
       </c>
       <c r="B721">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2">
-        <v>44658</v>
+        <v>44657</v>
       </c>
       <c r="B722">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="2">
-        <v>44659</v>
+        <v>44658</v>
       </c>
       <c r="B723">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="2">
-        <v>44662</v>
+        <v>44659</v>
       </c>
       <c r="B724">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="2">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="B725">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="2">
-        <v>44664</v>
+        <v>44663</v>
       </c>
       <c r="B726">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="2">
-        <v>44666</v>
+        <v>44664</v>
       </c>
       <c r="B727">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2">
-        <v>44669</v>
+        <v>44666</v>
       </c>
       <c r="B728">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2">
-        <v>44670</v>
+        <v>44669</v>
       </c>
       <c r="B729">
         <v>2</v>
@@ -6223,15 +6223,15 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2">
-        <v>44671</v>
+        <v>44670</v>
       </c>
       <c r="B730">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2">
-        <v>44672</v>
+        <v>44671</v>
       </c>
       <c r="B731">
         <v>1</v>
@@ -6239,31 +6239,31 @@
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="2">
-        <v>44673</v>
+        <v>44672</v>
       </c>
       <c r="B732">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="2">
-        <v>44676</v>
+        <v>44673</v>
       </c>
       <c r="B733">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="2">
-        <v>44678</v>
+        <v>44676</v>
       </c>
       <c r="B734">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="2">
-        <v>44679</v>
+        <v>44678</v>
       </c>
       <c r="B735">
         <v>4</v>
@@ -6271,23 +6271,23 @@
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="2">
-        <v>44680</v>
+        <v>44679</v>
       </c>
       <c r="B736">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="2">
-        <v>44684</v>
+        <v>44680</v>
       </c>
       <c r="B737">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2">
-        <v>44685</v>
+        <v>44684</v>
       </c>
       <c r="B738">
         <v>3</v>
@@ -6295,39 +6295,39 @@
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="2">
-        <v>44686</v>
+        <v>44685</v>
       </c>
       <c r="B739">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="2">
-        <v>44693</v>
+        <v>44686</v>
       </c>
       <c r="B740">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="2">
-        <v>44694</v>
+        <v>44693</v>
       </c>
       <c r="B741">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="2">
-        <v>44695</v>
+        <v>44694</v>
       </c>
       <c r="B742">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="2">
-        <v>44697</v>
+        <v>44695</v>
       </c>
       <c r="B743">
         <v>1</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="2">
-        <v>44699</v>
+        <v>44697</v>
       </c>
       <c r="B744">
         <v>1</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="2">
-        <v>44702</v>
+        <v>44699</v>
       </c>
       <c r="B745">
         <v>1</v>
@@ -6351,15 +6351,15 @@
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="2">
-        <v>44705</v>
+        <v>44702</v>
       </c>
       <c r="B746">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="2">
-        <v>44706</v>
+        <v>44705</v>
       </c>
       <c r="B747">
         <v>2</v>
@@ -6367,15 +6367,15 @@
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="2">
-        <v>44707</v>
+        <v>44706</v>
       </c>
       <c r="B748">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="2">
-        <v>44711</v>
+        <v>44707</v>
       </c>
       <c r="B749">
         <v>1</v>
@@ -6383,47 +6383,47 @@
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="2">
-        <v>44713</v>
+        <v>44711</v>
       </c>
       <c r="B750">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="2">
-        <v>44714</v>
+        <v>44713</v>
       </c>
       <c r="B751">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="2">
-        <v>44715</v>
+        <v>44714</v>
       </c>
       <c r="B752">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="2">
-        <v>44719</v>
+        <v>44715</v>
       </c>
       <c r="B753">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="2">
-        <v>44720</v>
+        <v>44719</v>
       </c>
       <c r="B754">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="2">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="B755">
         <v>1</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="2">
-        <v>44723</v>
+        <v>44722</v>
       </c>
       <c r="B756">
         <v>1</v>
@@ -6439,23 +6439,23 @@
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="2">
-        <v>44725</v>
+        <v>44723</v>
       </c>
       <c r="B757">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="2">
-        <v>44726</v>
+        <v>44725</v>
       </c>
       <c r="B758">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="2">
-        <v>44727</v>
+        <v>44726</v>
       </c>
       <c r="B759">
         <v>2</v>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="2">
-        <v>44728</v>
+        <v>44727</v>
       </c>
       <c r="B760">
         <v>2</v>
@@ -6471,231 +6471,231 @@
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="2">
-        <v>44729</v>
+        <v>44728</v>
       </c>
       <c r="B761">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="2">
-        <v>44730</v>
+        <v>44729</v>
       </c>
       <c r="B762">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="2">
-        <v>44732</v>
+        <v>44730</v>
       </c>
       <c r="B763">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="2">
-        <v>44733</v>
+        <v>44732</v>
       </c>
       <c r="B764">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="2">
-        <v>44734</v>
+        <v>44733</v>
       </c>
       <c r="B765">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="2">
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="B766">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="2">
-        <v>44736</v>
+        <v>44735</v>
       </c>
       <c r="B767">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="2">
-        <v>44737</v>
+        <v>44736</v>
       </c>
       <c r="B768">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" s="2">
-        <v>44739</v>
+        <v>44737</v>
       </c>
       <c r="B769">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" s="2">
-        <v>44740</v>
+        <v>44739</v>
       </c>
       <c r="B770">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="2">
-        <v>44741</v>
+        <v>44740</v>
       </c>
       <c r="B771">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" s="2">
-        <v>44742</v>
+        <v>44741</v>
       </c>
       <c r="B772">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="2">
-        <v>44743</v>
+        <v>44742</v>
       </c>
       <c r="B773">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" s="2">
-        <v>44744</v>
+        <v>44743</v>
       </c>
       <c r="B774">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" s="2">
-        <v>44745</v>
+        <v>44744</v>
       </c>
       <c r="B775">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" s="2">
-        <v>44746</v>
+        <v>44745</v>
       </c>
       <c r="B776">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="2">
-        <v>44747</v>
+        <v>44746</v>
       </c>
       <c r="B777">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" s="2">
-        <v>44748</v>
+        <v>44747</v>
       </c>
       <c r="B778">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" s="2">
-        <v>44749</v>
+        <v>44748</v>
       </c>
       <c r="B779">
-        <v>156</v>
+        <v>110</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="2">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="B780">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" s="2">
-        <v>44751</v>
+        <v>44750</v>
       </c>
       <c r="B781">
-        <v>44</v>
+        <v>149</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" s="2">
-        <v>44752</v>
+        <v>44751</v>
       </c>
       <c r="B782">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" s="2">
-        <v>44753</v>
+        <v>44752</v>
       </c>
       <c r="B783">
-        <v>235</v>
+        <v>27</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" s="2">
-        <v>44754</v>
+        <v>44753</v>
       </c>
       <c r="B784">
-        <v>289</v>
+        <v>235</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" s="2">
-        <v>44755</v>
+        <v>44754</v>
       </c>
       <c r="B785">
-        <v>93</v>
+        <v>289</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="2">
-        <v>44756</v>
+        <v>44755</v>
       </c>
       <c r="B786">
-        <v>243</v>
+        <v>93</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" s="2">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="B787">
-        <v>567</v>
+        <v>243</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" s="2">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="B788">
-        <v>40</v>
+        <v>567</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" s="2">
-        <v>44759</v>
+        <v>44758</v>
       </c>
       <c r="B789">
         <v>40</v>
@@ -6703,247 +6703,247 @@
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="2">
-        <v>44760</v>
+        <v>44759</v>
       </c>
       <c r="B790">
-        <v>299</v>
+        <v>40</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" s="2">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="B791">
-        <v>228</v>
+        <v>299</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="2">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B792">
-        <v>142</v>
+        <v>228</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" s="2">
-        <v>44763</v>
+        <v>44762</v>
       </c>
       <c r="B793">
-        <v>238</v>
+        <v>142</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" s="2">
-        <v>44764</v>
+        <v>44763</v>
       </c>
       <c r="B794">
-        <v>185</v>
+        <v>238</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" s="2">
-        <v>44765</v>
+        <v>44764</v>
       </c>
       <c r="B795">
-        <v>61</v>
+        <v>185</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" s="2">
-        <v>44766</v>
+        <v>44765</v>
       </c>
       <c r="B796">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" s="2">
-        <v>44767</v>
+        <v>44766</v>
       </c>
       <c r="B797">
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" s="2">
-        <v>44768</v>
+        <v>44767</v>
       </c>
       <c r="B798">
-        <v>171</v>
+        <v>138</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" s="2">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="B799">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" s="2">
-        <v>44770</v>
+        <v>44769</v>
       </c>
       <c r="B800">
-        <v>21</v>
+        <v>150</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" s="2">
-        <v>44771</v>
+        <v>44770</v>
       </c>
       <c r="B801">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" s="2">
-        <v>44772</v>
+        <v>44771</v>
       </c>
       <c r="B802">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" s="2">
-        <v>44773</v>
+        <v>44772</v>
       </c>
       <c r="B803">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" s="2">
-        <v>44774</v>
+        <v>44773</v>
       </c>
       <c r="B804">
-        <v>120</v>
+        <v>11</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" s="2">
-        <v>44775</v>
+        <v>44774</v>
       </c>
       <c r="B805">
-        <v>54</v>
+        <v>120</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" s="2">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="B806">
-        <v>120</v>
+        <v>54</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" s="2">
-        <v>44777</v>
+        <v>44776</v>
       </c>
       <c r="B807">
-        <v>51</v>
+        <v>120</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" s="2">
-        <v>44778</v>
+        <v>44777</v>
       </c>
       <c r="B808">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" s="2">
-        <v>44779</v>
+        <v>44778</v>
       </c>
       <c r="B809">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" s="2">
-        <v>44780</v>
+        <v>44779</v>
       </c>
       <c r="B810">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" s="2">
-        <v>44781</v>
+        <v>44780</v>
       </c>
       <c r="B811">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" s="2">
-        <v>44782</v>
+        <v>44781</v>
       </c>
       <c r="B812">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" s="2">
-        <v>44783</v>
+        <v>44782</v>
       </c>
       <c r="B813">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" s="2">
-        <v>44784</v>
+        <v>44783</v>
       </c>
       <c r="B814">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" s="2">
-        <v>44785</v>
+        <v>44784</v>
       </c>
       <c r="B815">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" s="2">
-        <v>44786</v>
+        <v>44785</v>
       </c>
       <c r="B816">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" s="2">
-        <v>44787</v>
+        <v>44786</v>
       </c>
       <c r="B817">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" s="2">
-        <v>44788</v>
+        <v>44787</v>
       </c>
       <c r="B818">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" s="2">
-        <v>44789</v>
+        <v>44788</v>
       </c>
       <c r="B819">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" s="2">
-        <v>44790</v>
+        <v>44789</v>
       </c>
       <c r="B820">
         <v>37</v>
@@ -6951,7 +6951,7 @@
     </row>
     <row r="821" spans="1:2">
       <c r="A821" s="2">
-        <v>44791</v>
+        <v>44790</v>
       </c>
       <c r="B821">
         <v>37</v>
@@ -6959,127 +6959,127 @@
     </row>
     <row r="822" spans="1:2">
       <c r="A822" s="2">
-        <v>44792</v>
+        <v>44791</v>
       </c>
       <c r="B822">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" s="2">
-        <v>44793</v>
+        <v>44792</v>
       </c>
       <c r="B823">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" s="2">
-        <v>44794</v>
+        <v>44793</v>
       </c>
       <c r="B824">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" s="2">
-        <v>44795</v>
+        <v>44794</v>
       </c>
       <c r="B825">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" s="2">
-        <v>44796</v>
+        <v>44795</v>
       </c>
       <c r="B826">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" s="2">
-        <v>44797</v>
+        <v>44796</v>
       </c>
       <c r="B827">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" s="2">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="B828">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" s="2">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="B829">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" s="2">
-        <v>44800</v>
+        <v>44799</v>
       </c>
       <c r="B830">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" s="2">
-        <v>44802</v>
+        <v>44800</v>
       </c>
       <c r="B831">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" s="2">
-        <v>44804</v>
+        <v>44802</v>
       </c>
       <c r="B832">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" s="2">
-        <v>44805</v>
+        <v>44804</v>
       </c>
       <c r="B833">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" s="2">
-        <v>44806</v>
+        <v>44805</v>
       </c>
       <c r="B834">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" s="2">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="B835">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" s="2">
-        <v>44809</v>
+        <v>44807</v>
       </c>
       <c r="B836">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" s="2">
-        <v>44810</v>
+        <v>44809</v>
       </c>
       <c r="B837">
         <v>6</v>
@@ -7087,63 +7087,63 @@
     </row>
     <row r="838" spans="1:2">
       <c r="A838" s="2">
-        <v>44811</v>
+        <v>44810</v>
       </c>
       <c r="B838">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" s="2">
-        <v>44812</v>
+        <v>44811</v>
       </c>
       <c r="B839">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" s="2">
-        <v>44813</v>
+        <v>44812</v>
       </c>
       <c r="B840">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" s="2">
-        <v>44814</v>
+        <v>44813</v>
       </c>
       <c r="B841">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" s="2">
-        <v>44816</v>
+        <v>44814</v>
       </c>
       <c r="B842">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" s="2">
-        <v>44817</v>
+        <v>44816</v>
       </c>
       <c r="B843">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" s="2">
-        <v>44818</v>
+        <v>44817</v>
       </c>
       <c r="B844">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" s="2">
-        <v>44819</v>
+        <v>44818</v>
       </c>
       <c r="B845">
         <v>2</v>
@@ -7151,9 +7151,57 @@
     </row>
     <row r="846" spans="1:2">
       <c r="A846" s="2">
+        <v>44819</v>
+      </c>
+      <c r="B846">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" s="2">
         <v>44820</v>
       </c>
-      <c r="B846">
+      <c r="B847">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" s="2">
+        <v>44821</v>
+      </c>
+      <c r="B848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B849">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B850">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B851">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B852">
         <v>1</v>
       </c>
     </row>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B852"/>
+  <dimension ref="A1:B857"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4514,7 +4514,7 @@
         <v>44447</v>
       </c>
       <c r="B516">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4522,7 +4522,7 @@
         <v>44448</v>
       </c>
       <c r="B517">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4530,7 +4530,7 @@
         <v>44449</v>
       </c>
       <c r="B518">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4538,7 +4538,7 @@
         <v>44450</v>
       </c>
       <c r="B519">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4546,7 +4546,7 @@
         <v>44451</v>
       </c>
       <c r="B520">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4554,7 +4554,7 @@
         <v>44452</v>
       </c>
       <c r="B521">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -7194,7 +7194,7 @@
         <v>44825</v>
       </c>
       <c r="B851">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7202,6 +7202,46 @@
         <v>44826</v>
       </c>
       <c r="B852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B853">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B854">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B855">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B856">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B857">
         <v>1</v>
       </c>
     </row>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca2b4d56148715ad/Projects/Covid-19/regiones/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FD1B812E13A9500EC0FF31D2F87AE380088488FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{835A5B6B-224F-4B9E-BF65-B68BE77CBDEB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-23148" yWindow="-6612" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -25,11 +31,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +101,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,9 +187,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,6 +239,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,14 +432,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B857"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B864"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A838" workbookViewId="0">
+      <selection activeCell="B864" sqref="B864"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -397,7 +452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>43926</v>
       </c>
@@ -405,7 +460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>43927</v>
       </c>
@@ -413,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>43928</v>
       </c>
@@ -421,7 +476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>43929</v>
       </c>
@@ -429,7 +484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>43930</v>
       </c>
@@ -437,7 +492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>43933</v>
       </c>
@@ -445,7 +500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>43935</v>
       </c>
@@ -453,7 +508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>43936</v>
       </c>
@@ -461,7 +516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>43937</v>
       </c>
@@ -469,7 +524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>43938</v>
       </c>
@@ -477,7 +532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>43939</v>
       </c>
@@ -485,7 +540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>43940</v>
       </c>
@@ -493,7 +548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>43941</v>
       </c>
@@ -501,7 +556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>43942</v>
       </c>
@@ -509,7 +564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>43943</v>
       </c>
@@ -517,7 +572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>43944</v>
       </c>
@@ -525,7 +580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>43945</v>
       </c>
@@ -533,7 +588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>43946</v>
       </c>
@@ -541,7 +596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>43947</v>
       </c>
@@ -549,7 +604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>43948</v>
       </c>
@@ -557,7 +612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>43949</v>
       </c>
@@ -565,7 +620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>43950</v>
       </c>
@@ -573,7 +628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>43951</v>
       </c>
@@ -581,7 +636,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>43952</v>
       </c>
@@ -589,7 +644,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>43953</v>
       </c>
@@ -597,7 +652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>43954</v>
       </c>
@@ -605,7 +660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>43955</v>
       </c>
@@ -613,7 +668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>43956</v>
       </c>
@@ -621,7 +676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>43957</v>
       </c>
@@ -629,7 +684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>43958</v>
       </c>
@@ -637,7 +692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>43959</v>
       </c>
@@ -645,7 +700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>43960</v>
       </c>
@@ -653,7 +708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>43962</v>
       </c>
@@ -661,7 +716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>43963</v>
       </c>
@@ -669,7 +724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>43964</v>
       </c>
@@ -677,7 +732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>43965</v>
       </c>
@@ -685,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>43966</v>
       </c>
@@ -693,7 +748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>43967</v>
       </c>
@@ -701,7 +756,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>43968</v>
       </c>
@@ -709,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>43969</v>
       </c>
@@ -717,7 +772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>43970</v>
       </c>
@@ -725,7 +780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>43971</v>
       </c>
@@ -733,7 +788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>43972</v>
       </c>
@@ -741,7 +796,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>43973</v>
       </c>
@@ -749,7 +804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>43974</v>
       </c>
@@ -757,7 +812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>43975</v>
       </c>
@@ -765,7 +820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>43976</v>
       </c>
@@ -773,7 +828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>43977</v>
       </c>
@@ -781,7 +836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>43978</v>
       </c>
@@ -789,7 +844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>43979</v>
       </c>
@@ -797,7 +852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>43980</v>
       </c>
@@ -805,7 +860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>43981</v>
       </c>
@@ -813,7 +868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>43982</v>
       </c>
@@ -821,7 +876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>43983</v>
       </c>
@@ -829,7 +884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>43984</v>
       </c>
@@ -837,7 +892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>43985</v>
       </c>
@@ -845,7 +900,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>43986</v>
       </c>
@@ -853,7 +908,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>43987</v>
       </c>
@@ -861,7 +916,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>43988</v>
       </c>
@@ -869,7 +924,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>43989</v>
       </c>
@@ -877,7 +932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>43990</v>
       </c>
@@ -885,7 +940,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>43991</v>
       </c>
@@ -893,7 +948,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>43992</v>
       </c>
@@ -901,7 +956,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>43993</v>
       </c>
@@ -909,7 +964,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>43994</v>
       </c>
@@ -917,7 +972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>43995</v>
       </c>
@@ -925,7 +980,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>43996</v>
       </c>
@@ -933,7 +988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>43997</v>
       </c>
@@ -941,7 +996,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>43998</v>
       </c>
@@ -949,7 +1004,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>43999</v>
       </c>
@@ -957,7 +1012,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>44000</v>
       </c>
@@ -965,7 +1020,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>44001</v>
       </c>
@@ -973,7 +1028,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>44002</v>
       </c>
@@ -981,7 +1036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>44003</v>
       </c>
@@ -989,7 +1044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>44004</v>
       </c>
@@ -997,7 +1052,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>44005</v>
       </c>
@@ -1005,7 +1060,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>44006</v>
       </c>
@@ -1013,7 +1068,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>44007</v>
       </c>
@@ -1021,7 +1076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>44008</v>
       </c>
@@ -1029,7 +1084,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>44009</v>
       </c>
@@ -1037,7 +1092,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>44010</v>
       </c>
@@ -1045,7 +1100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>44011</v>
       </c>
@@ -1053,7 +1108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>44012</v>
       </c>
@@ -1061,7 +1116,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>44013</v>
       </c>
@@ -1069,7 +1124,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>44014</v>
       </c>
@@ -1077,7 +1132,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>44015</v>
       </c>
@@ -1085,7 +1140,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>44016</v>
       </c>
@@ -1093,7 +1148,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>44017</v>
       </c>
@@ -1101,7 +1156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>44018</v>
       </c>
@@ -1109,7 +1164,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>44019</v>
       </c>
@@ -1117,7 +1172,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>44020</v>
       </c>
@@ -1125,7 +1180,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>44021</v>
       </c>
@@ -1133,7 +1188,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>44022</v>
       </c>
@@ -1141,7 +1196,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>44023</v>
       </c>
@@ -1149,7 +1204,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>44024</v>
       </c>
@@ -1157,7 +1212,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>44025</v>
       </c>
@@ -1165,7 +1220,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>44026</v>
       </c>
@@ -1173,7 +1228,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>44027</v>
       </c>
@@ -1181,7 +1236,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>44028</v>
       </c>
@@ -1189,7 +1244,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>44029</v>
       </c>
@@ -1197,7 +1252,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>44030</v>
       </c>
@@ -1205,7 +1260,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>44031</v>
       </c>
@@ -1213,7 +1268,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>44032</v>
       </c>
@@ -1221,7 +1276,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>44033</v>
       </c>
@@ -1229,7 +1284,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>44034</v>
       </c>
@@ -1237,7 +1292,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>44035</v>
       </c>
@@ -1245,7 +1300,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>44036</v>
       </c>
@@ -1253,7 +1308,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>44037</v>
       </c>
@@ -1261,7 +1316,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>44038</v>
       </c>
@@ -1269,7 +1324,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>44039</v>
       </c>
@@ -1277,7 +1332,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>44040</v>
       </c>
@@ -1285,7 +1340,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>44041</v>
       </c>
@@ -1293,7 +1348,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>44042</v>
       </c>
@@ -1301,7 +1356,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>44043</v>
       </c>
@@ -1309,7 +1364,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>44044</v>
       </c>
@@ -1317,7 +1372,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <v>44045</v>
       </c>
@@ -1325,7 +1380,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>44046</v>
       </c>
@@ -1333,7 +1388,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>44047</v>
       </c>
@@ -1341,7 +1396,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>44048</v>
       </c>
@@ -1349,7 +1404,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>44049</v>
       </c>
@@ -1357,7 +1412,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>44050</v>
       </c>
@@ -1365,7 +1420,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>44051</v>
       </c>
@@ -1373,7 +1428,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>44052</v>
       </c>
@@ -1381,7 +1436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>44053</v>
       </c>
@@ -1389,7 +1444,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>44054</v>
       </c>
@@ -1397,7 +1452,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>44055</v>
       </c>
@@ -1405,7 +1460,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>44056</v>
       </c>
@@ -1413,7 +1468,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>44057</v>
       </c>
@@ -1421,7 +1476,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>44058</v>
       </c>
@@ -1429,7 +1484,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>44059</v>
       </c>
@@ -1437,7 +1492,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>44060</v>
       </c>
@@ -1445,7 +1500,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>44061</v>
       </c>
@@ -1453,7 +1508,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>44062</v>
       </c>
@@ -1461,7 +1516,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>44063</v>
       </c>
@@ -1469,7 +1524,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <v>44064</v>
       </c>
@@ -1477,7 +1532,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <v>44065</v>
       </c>
@@ -1485,7 +1540,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <v>44066</v>
       </c>
@@ -1493,7 +1548,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <v>44067</v>
       </c>
@@ -1501,7 +1556,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>44068</v>
       </c>
@@ -1509,7 +1564,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <v>44069</v>
       </c>
@@ -1517,7 +1572,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>44070</v>
       </c>
@@ -1525,7 +1580,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>44071</v>
       </c>
@@ -1533,7 +1588,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>44072</v>
       </c>
@@ -1541,7 +1596,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <v>44073</v>
       </c>
@@ -1549,7 +1604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>44074</v>
       </c>
@@ -1557,7 +1612,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
         <v>44075</v>
       </c>
@@ -1565,7 +1620,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <v>44076</v>
       </c>
@@ -1573,7 +1628,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <v>44077</v>
       </c>
@@ -1581,7 +1636,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>44078</v>
       </c>
@@ -1589,7 +1644,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <v>44079</v>
       </c>
@@ -1597,7 +1652,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>44080</v>
       </c>
@@ -1605,7 +1660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>44081</v>
       </c>
@@ -1613,7 +1668,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>44082</v>
       </c>
@@ -1621,7 +1676,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <v>44083</v>
       </c>
@@ -1629,7 +1684,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>44084</v>
       </c>
@@ -1637,7 +1692,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <v>44085</v>
       </c>
@@ -1645,7 +1700,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>44086</v>
       </c>
@@ -1653,7 +1708,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>44087</v>
       </c>
@@ -1661,7 +1716,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>44088</v>
       </c>
@@ -1669,7 +1724,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>44089</v>
       </c>
@@ -1677,7 +1732,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <v>44090</v>
       </c>
@@ -1685,7 +1740,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <v>44091</v>
       </c>
@@ -1693,7 +1748,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>44092</v>
       </c>
@@ -1701,7 +1756,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>44093</v>
       </c>
@@ -1709,7 +1764,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>44094</v>
       </c>
@@ -1717,7 +1772,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <v>44095</v>
       </c>
@@ -1725,7 +1780,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>44096</v>
       </c>
@@ -1733,7 +1788,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <v>44097</v>
       </c>
@@ -1741,7 +1796,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>44098</v>
       </c>
@@ -1749,7 +1804,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <v>44099</v>
       </c>
@@ -1757,7 +1812,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <v>44100</v>
       </c>
@@ -1765,7 +1820,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>44101</v>
       </c>
@@ -1773,7 +1828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>44102</v>
       </c>
@@ -1781,7 +1836,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <v>44103</v>
       </c>
@@ -1789,7 +1844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>44104</v>
       </c>
@@ -1797,7 +1852,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <v>44105</v>
       </c>
@@ -1805,7 +1860,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <v>44106</v>
       </c>
@@ -1813,7 +1868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A179" s="2">
         <v>44107</v>
       </c>
@@ -1821,7 +1876,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <v>44108</v>
       </c>
@@ -1829,7 +1884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A181" s="2">
         <v>44109</v>
       </c>
@@ -1837,7 +1892,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A182" s="2">
         <v>44110</v>
       </c>
@@ -1845,7 +1900,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A183" s="2">
         <v>44111</v>
       </c>
@@ -1853,7 +1908,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A184" s="2">
         <v>44112</v>
       </c>
@@ -1861,7 +1916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A185" s="2">
         <v>44113</v>
       </c>
@@ -1869,7 +1924,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A186" s="2">
         <v>44114</v>
       </c>
@@ -1877,7 +1932,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
         <v>44115</v>
       </c>
@@ -1885,7 +1940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
         <v>44116</v>
       </c>
@@ -1893,7 +1948,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
         <v>44117</v>
       </c>
@@ -1901,7 +1956,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <v>44118</v>
       </c>
@@ -1909,7 +1964,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A191" s="2">
         <v>44119</v>
       </c>
@@ -1917,7 +1972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
         <v>44120</v>
       </c>
@@ -1925,7 +1980,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
         <v>44121</v>
       </c>
@@ -1933,7 +1988,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
         <v>44122</v>
       </c>
@@ -1941,7 +1996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A195" s="2">
         <v>44123</v>
       </c>
@@ -1949,7 +2004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
         <v>44124</v>
       </c>
@@ -1957,7 +2012,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A197" s="2">
         <v>44125</v>
       </c>
@@ -1965,7 +2020,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
         <v>44126</v>
       </c>
@@ -1973,7 +2028,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A199" s="2">
         <v>44127</v>
       </c>
@@ -1981,7 +2036,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
         <v>44128</v>
       </c>
@@ -1989,7 +2044,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
         <v>44129</v>
       </c>
@@ -1997,7 +2052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <v>44130</v>
       </c>
@@ -2005,7 +2060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
         <v>44131</v>
       </c>
@@ -2013,7 +2068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
         <v>44132</v>
       </c>
@@ -2021,7 +2076,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A205" s="2">
         <v>44133</v>
       </c>
@@ -2029,7 +2084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
         <v>44134</v>
       </c>
@@ -2037,7 +2092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A207" s="2">
         <v>44135</v>
       </c>
@@ -2045,7 +2100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
         <v>44136</v>
       </c>
@@ -2053,7 +2108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A209" s="2">
         <v>44137</v>
       </c>
@@ -2061,7 +2116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
         <v>44138</v>
       </c>
@@ -2069,7 +2124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
         <v>44139</v>
       </c>
@@ -2077,7 +2132,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
         <v>44140</v>
       </c>
@@ -2085,7 +2140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A213" s="2">
         <v>44142</v>
       </c>
@@ -2093,7 +2148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
         <v>44143</v>
       </c>
@@ -2101,7 +2156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
         <v>44144</v>
       </c>
@@ -2109,7 +2164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
         <v>44145</v>
       </c>
@@ -2117,7 +2172,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A217" s="2">
         <v>44146</v>
       </c>
@@ -2125,7 +2180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
         <v>44147</v>
       </c>
@@ -2133,7 +2188,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
         <v>44148</v>
       </c>
@@ -2141,7 +2196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
         <v>44149</v>
       </c>
@@ -2149,7 +2204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A221" s="2">
         <v>44150</v>
       </c>
@@ -2157,7 +2212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A222" s="2">
         <v>44151</v>
       </c>
@@ -2165,7 +2220,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A223" s="2">
         <v>44152</v>
       </c>
@@ -2173,7 +2228,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A224" s="2">
         <v>44153</v>
       </c>
@@ -2181,7 +2236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A225" s="2">
         <v>44154</v>
       </c>
@@ -2189,7 +2244,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A226" s="2">
         <v>44155</v>
       </c>
@@ -2197,7 +2252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A227" s="2">
         <v>44156</v>
       </c>
@@ -2205,7 +2260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A228" s="2">
         <v>44157</v>
       </c>
@@ -2213,7 +2268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A229" s="2">
         <v>44158</v>
       </c>
@@ -2221,7 +2276,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A230" s="2">
         <v>44159</v>
       </c>
@@ -2229,7 +2284,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A231" s="2">
         <v>44160</v>
       </c>
@@ -2237,7 +2292,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A232" s="2">
         <v>44161</v>
       </c>
@@ -2245,7 +2300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A233" s="2">
         <v>44162</v>
       </c>
@@ -2253,7 +2308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A234" s="2">
         <v>44163</v>
       </c>
@@ -2261,7 +2316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A235" s="2">
         <v>44164</v>
       </c>
@@ -2269,7 +2324,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A236" s="2">
         <v>44165</v>
       </c>
@@ -2277,7 +2332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A237" s="2">
         <v>44166</v>
       </c>
@@ -2285,7 +2340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A238" s="2">
         <v>44167</v>
       </c>
@@ -2293,7 +2348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
         <v>44168</v>
       </c>
@@ -2301,7 +2356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <v>44169</v>
       </c>
@@ -2309,7 +2364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
         <v>44170</v>
       </c>
@@ -2317,7 +2372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <v>44172</v>
       </c>
@@ -2325,7 +2380,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A243" s="2">
         <v>44173</v>
       </c>
@@ -2333,7 +2388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A244" s="2">
         <v>44174</v>
       </c>
@@ -2341,7 +2396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A245" s="2">
         <v>44175</v>
       </c>
@@ -2349,7 +2404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A246" s="2">
         <v>44176</v>
       </c>
@@ -2357,7 +2412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A247" s="2">
         <v>44177</v>
       </c>
@@ -2365,7 +2420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A248" s="2">
         <v>44178</v>
       </c>
@@ -2373,7 +2428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A249" s="2">
         <v>44179</v>
       </c>
@@ -2381,7 +2436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A250" s="2">
         <v>44180</v>
       </c>
@@ -2389,7 +2444,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A251" s="2">
         <v>44181</v>
       </c>
@@ -2397,7 +2452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A252" s="2">
         <v>44182</v>
       </c>
@@ -2405,7 +2460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A253" s="2">
         <v>44183</v>
       </c>
@@ -2413,7 +2468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A254" s="2">
         <v>44184</v>
       </c>
@@ -2421,7 +2476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A255" s="2">
         <v>44185</v>
       </c>
@@ -2429,7 +2484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A256" s="2">
         <v>44186</v>
       </c>
@@ -2437,7 +2492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A257" s="2">
         <v>44187</v>
       </c>
@@ -2445,7 +2500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A258" s="2">
         <v>44189</v>
       </c>
@@ -2453,7 +2508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A259" s="2">
         <v>44190</v>
       </c>
@@ -2461,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A260" s="2">
         <v>44191</v>
       </c>
@@ -2469,7 +2524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A261" s="2">
         <v>44192</v>
       </c>
@@ -2477,7 +2532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A262" s="2">
         <v>44193</v>
       </c>
@@ -2485,7 +2540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A263" s="2">
         <v>44194</v>
       </c>
@@ -2493,7 +2548,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A264" s="2">
         <v>44195</v>
       </c>
@@ -2501,7 +2556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A265" s="2">
         <v>44196</v>
       </c>
@@ -2509,7 +2564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A266" s="2">
         <v>44197</v>
       </c>
@@ -2517,7 +2572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A267" s="2">
         <v>44198</v>
       </c>
@@ -2525,7 +2580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A268" s="2">
         <v>44199</v>
       </c>
@@ -2533,7 +2588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A269" s="2">
         <v>44200</v>
       </c>
@@ -2541,7 +2596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A270" s="2">
         <v>44201</v>
       </c>
@@ -2549,7 +2604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A271" s="2">
         <v>44202</v>
       </c>
@@ -2557,7 +2612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A272" s="2">
         <v>44203</v>
       </c>
@@ -2565,7 +2620,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
         <v>44204</v>
       </c>
@@ -2573,7 +2628,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A274" s="2">
         <v>44205</v>
       </c>
@@ -2581,7 +2636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A275" s="2">
         <v>44206</v>
       </c>
@@ -2589,7 +2644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A276" s="2">
         <v>44207</v>
       </c>
@@ -2597,7 +2652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A277" s="2">
         <v>44208</v>
       </c>
@@ -2605,7 +2660,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A278" s="2">
         <v>44209</v>
       </c>
@@ -2613,7 +2668,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A279" s="2">
         <v>44210</v>
       </c>
@@ -2621,7 +2676,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A280" s="2">
         <v>44211</v>
       </c>
@@ -2629,7 +2684,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A281" s="2">
         <v>44212</v>
       </c>
@@ -2637,7 +2692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A282" s="2">
         <v>44213</v>
       </c>
@@ -2645,7 +2700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A283" s="2">
         <v>44214</v>
       </c>
@@ -2653,7 +2708,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A284" s="2">
         <v>44215</v>
       </c>
@@ -2661,7 +2716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A285" s="2">
         <v>44216</v>
       </c>
@@ -2669,7 +2724,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A286" s="2">
         <v>44217</v>
       </c>
@@ -2677,7 +2732,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A287" s="2">
         <v>44218</v>
       </c>
@@ -2685,7 +2740,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A288" s="2">
         <v>44219</v>
       </c>
@@ -2693,7 +2748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A289" s="2">
         <v>44220</v>
       </c>
@@ -2701,7 +2756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A290" s="2">
         <v>44221</v>
       </c>
@@ -2709,7 +2764,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A291" s="2">
         <v>44222</v>
       </c>
@@ -2717,7 +2772,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A292" s="2">
         <v>44223</v>
       </c>
@@ -2725,7 +2780,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A293" s="2">
         <v>44224</v>
       </c>
@@ -2733,7 +2788,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A294" s="2">
         <v>44225</v>
       </c>
@@ -2741,7 +2796,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A295" s="2">
         <v>44226</v>
       </c>
@@ -2749,7 +2804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A296" s="2">
         <v>44227</v>
       </c>
@@ -2757,7 +2812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A297" s="2">
         <v>44228</v>
       </c>
@@ -2765,7 +2820,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A298" s="2">
         <v>44229</v>
       </c>
@@ -2773,7 +2828,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A299" s="2">
         <v>44230</v>
       </c>
@@ -2781,7 +2836,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A300" s="2">
         <v>44231</v>
       </c>
@@ -2789,7 +2844,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A301" s="2">
         <v>44232</v>
       </c>
@@ -2797,7 +2852,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A302" s="2">
         <v>44233</v>
       </c>
@@ -2805,7 +2860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A303" s="2">
         <v>44234</v>
       </c>
@@ -2813,7 +2868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A304" s="2">
         <v>44235</v>
       </c>
@@ -2821,7 +2876,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A305" s="2">
         <v>44236</v>
       </c>
@@ -2829,7 +2884,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A306" s="2">
         <v>44237</v>
       </c>
@@ -2837,7 +2892,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A307" s="2">
         <v>44238</v>
       </c>
@@ -2845,7 +2900,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A308" s="2">
         <v>44239</v>
       </c>
@@ -2853,7 +2908,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A309" s="2">
         <v>44240</v>
       </c>
@@ -2861,7 +2916,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A310" s="2">
         <v>44241</v>
       </c>
@@ -2869,7 +2924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A311" s="2">
         <v>44242</v>
       </c>
@@ -2877,7 +2932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A312" s="2">
         <v>44243</v>
       </c>
@@ -2885,7 +2940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A313" s="2">
         <v>44244</v>
       </c>
@@ -2893,7 +2948,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A314" s="2">
         <v>44245</v>
       </c>
@@ -2901,7 +2956,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A315" s="2">
         <v>44246</v>
       </c>
@@ -2909,7 +2964,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A316" s="2">
         <v>44247</v>
       </c>
@@ -2917,7 +2972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A317" s="2">
         <v>44248</v>
       </c>
@@ -2925,7 +2980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A318" s="2">
         <v>44249</v>
       </c>
@@ -2933,7 +2988,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A319" s="2">
         <v>44250</v>
       </c>
@@ -2941,7 +2996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A320" s="2">
         <v>44251</v>
       </c>
@@ -2949,7 +3004,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A321" s="2">
         <v>44252</v>
       </c>
@@ -2957,7 +3012,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A322" s="2">
         <v>44253</v>
       </c>
@@ -2965,7 +3020,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A323" s="2">
         <v>44254</v>
       </c>
@@ -2973,7 +3028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A324" s="2">
         <v>44255</v>
       </c>
@@ -2981,7 +3036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A325" s="2">
         <v>44256</v>
       </c>
@@ -2989,7 +3044,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A326" s="2">
         <v>44257</v>
       </c>
@@ -2997,7 +3052,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A327" s="2">
         <v>44258</v>
       </c>
@@ -3005,7 +3060,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A328" s="2">
         <v>44259</v>
       </c>
@@ -3013,7 +3068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A329" s="2">
         <v>44260</v>
       </c>
@@ -3021,7 +3076,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A330" s="2">
         <v>44261</v>
       </c>
@@ -3029,7 +3084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A331" s="2">
         <v>44262</v>
       </c>
@@ -3037,7 +3092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A332" s="2">
         <v>44263</v>
       </c>
@@ -3045,7 +3100,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A333" s="2">
         <v>44264</v>
       </c>
@@ -3053,7 +3108,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A334" s="2">
         <v>44265</v>
       </c>
@@ -3061,7 +3116,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A335" s="2">
         <v>44266</v>
       </c>
@@ -3069,7 +3124,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A336" s="2">
         <v>44267</v>
       </c>
@@ -3077,7 +3132,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A337" s="2">
         <v>44268</v>
       </c>
@@ -3085,7 +3140,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A338" s="2">
         <v>44269</v>
       </c>
@@ -3093,7 +3148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A339" s="2">
         <v>44270</v>
       </c>
@@ -3101,7 +3156,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A340" s="2">
         <v>44271</v>
       </c>
@@ -3109,7 +3164,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A341" s="2">
         <v>44272</v>
       </c>
@@ -3117,7 +3172,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A342" s="2">
         <v>44273</v>
       </c>
@@ -3125,7 +3180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A343" s="2">
         <v>44274</v>
       </c>
@@ -3133,7 +3188,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A344" s="2">
         <v>44275</v>
       </c>
@@ -3141,7 +3196,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A345" s="2">
         <v>44276</v>
       </c>
@@ -3149,7 +3204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A346" s="2">
         <v>44277</v>
       </c>
@@ -3157,7 +3212,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A347" s="2">
         <v>44278</v>
       </c>
@@ -3165,7 +3220,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A348" s="2">
         <v>44279</v>
       </c>
@@ -3173,7 +3228,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A349" s="2">
         <v>44280</v>
       </c>
@@ -3181,7 +3236,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A350" s="2">
         <v>44281</v>
       </c>
@@ -3189,7 +3244,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A351" s="2">
         <v>44282</v>
       </c>
@@ -3197,7 +3252,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A352" s="2">
         <v>44283</v>
       </c>
@@ -3205,7 +3260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A353" s="2">
         <v>44284</v>
       </c>
@@ -3213,7 +3268,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A354" s="2">
         <v>44285</v>
       </c>
@@ -3221,7 +3276,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A355" s="2">
         <v>44286</v>
       </c>
@@ -3229,7 +3284,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A356" s="2">
         <v>44287</v>
       </c>
@@ -3237,7 +3292,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A357" s="2">
         <v>44288</v>
       </c>
@@ -3245,7 +3300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A358" s="2">
         <v>44289</v>
       </c>
@@ -3253,7 +3308,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A359" s="2">
         <v>44290</v>
       </c>
@@ -3261,7 +3316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A360" s="2">
         <v>44291</v>
       </c>
@@ -3269,7 +3324,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A361" s="2">
         <v>44292</v>
       </c>
@@ -3277,7 +3332,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A362" s="2">
         <v>44293</v>
       </c>
@@ -3285,7 +3340,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A363" s="2">
         <v>44294</v>
       </c>
@@ -3293,7 +3348,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A364" s="2">
         <v>44295</v>
       </c>
@@ -3301,7 +3356,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A365" s="2">
         <v>44296</v>
       </c>
@@ -3309,7 +3364,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A366" s="2">
         <v>44297</v>
       </c>
@@ -3317,7 +3372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A367" s="2">
         <v>44298</v>
       </c>
@@ -3325,7 +3380,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A368" s="2">
         <v>44299</v>
       </c>
@@ -3333,7 +3388,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A369" s="2">
         <v>44300</v>
       </c>
@@ -3341,7 +3396,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A370" s="2">
         <v>44301</v>
       </c>
@@ -3349,7 +3404,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A371" s="2">
         <v>44302</v>
       </c>
@@ -3357,7 +3412,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A372" s="2">
         <v>44303</v>
       </c>
@@ -3365,7 +3420,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A373" s="2">
         <v>44304</v>
       </c>
@@ -3373,7 +3428,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A374" s="2">
         <v>44305</v>
       </c>
@@ -3381,7 +3436,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A375" s="2">
         <v>44306</v>
       </c>
@@ -3389,7 +3444,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A376" s="2">
         <v>44307</v>
       </c>
@@ -3397,7 +3452,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A377" s="2">
         <v>44308</v>
       </c>
@@ -3405,7 +3460,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A378" s="2">
         <v>44309</v>
       </c>
@@ -3413,7 +3468,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A379" s="2">
         <v>44310</v>
       </c>
@@ -3421,7 +3476,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A380" s="2">
         <v>44311</v>
       </c>
@@ -3429,7 +3484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A381" s="2">
         <v>44312</v>
       </c>
@@ -3437,7 +3492,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A382" s="2">
         <v>44313</v>
       </c>
@@ -3445,7 +3500,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A383" s="2">
         <v>44314</v>
       </c>
@@ -3453,7 +3508,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A384" s="2">
         <v>44315</v>
       </c>
@@ -3461,7 +3516,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A385" s="2">
         <v>44316</v>
       </c>
@@ -3469,7 +3524,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A386" s="2">
         <v>44317</v>
       </c>
@@ -3477,7 +3532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A387" s="2">
         <v>44318</v>
       </c>
@@ -3485,7 +3540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A388" s="2">
         <v>44319</v>
       </c>
@@ -3493,7 +3548,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A389" s="2">
         <v>44320</v>
       </c>
@@ -3501,7 +3556,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A390" s="2">
         <v>44321</v>
       </c>
@@ -3509,7 +3564,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A391" s="2">
         <v>44322</v>
       </c>
@@ -3517,7 +3572,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A392" s="2">
         <v>44323</v>
       </c>
@@ -3525,7 +3580,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A393" s="2">
         <v>44324</v>
       </c>
@@ -3533,7 +3588,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A394" s="2">
         <v>44325</v>
       </c>
@@ -3541,7 +3596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A395" s="2">
         <v>44326</v>
       </c>
@@ -3549,7 +3604,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A396" s="2">
         <v>44327</v>
       </c>
@@ -3557,7 +3612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A397" s="2">
         <v>44328</v>
       </c>
@@ -3565,7 +3620,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A398" s="2">
         <v>44329</v>
       </c>
@@ -3573,7 +3628,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A399" s="2">
         <v>44330</v>
       </c>
@@ -3581,7 +3636,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A400" s="2">
         <v>44331</v>
       </c>
@@ -3589,7 +3644,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A401" s="2">
         <v>44332</v>
       </c>
@@ -3597,7 +3652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A402" s="2">
         <v>44333</v>
       </c>
@@ -3605,7 +3660,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A403" s="2">
         <v>44334</v>
       </c>
@@ -3613,7 +3668,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A404" s="2">
         <v>44335</v>
       </c>
@@ -3621,7 +3676,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A405" s="2">
         <v>44336</v>
       </c>
@@ -3629,7 +3684,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A406" s="2">
         <v>44337</v>
       </c>
@@ -3637,7 +3692,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A407" s="2">
         <v>44338</v>
       </c>
@@ -3645,7 +3700,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A408" s="2">
         <v>44339</v>
       </c>
@@ -3653,7 +3708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A409" s="2">
         <v>44340</v>
       </c>
@@ -3661,7 +3716,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A410" s="2">
         <v>44341</v>
       </c>
@@ -3669,7 +3724,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A411" s="2">
         <v>44342</v>
       </c>
@@ -3677,7 +3732,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A412" s="2">
         <v>44343</v>
       </c>
@@ -3685,7 +3740,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A413" s="2">
         <v>44344</v>
       </c>
@@ -3693,7 +3748,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A414" s="2">
         <v>44345</v>
       </c>
@@ -3701,7 +3756,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A415" s="2">
         <v>44346</v>
       </c>
@@ -3709,7 +3764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A416" s="2">
         <v>44347</v>
       </c>
@@ -3717,7 +3772,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A417" s="2">
         <v>44348</v>
       </c>
@@ -3725,7 +3780,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A418" s="2">
         <v>44349</v>
       </c>
@@ -3733,7 +3788,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A419" s="2">
         <v>44350</v>
       </c>
@@ -3741,7 +3796,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A420" s="2">
         <v>44351</v>
       </c>
@@ -3749,7 +3804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A421" s="2">
         <v>44352</v>
       </c>
@@ -3757,7 +3812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A422" s="2">
         <v>44353</v>
       </c>
@@ -3765,7 +3820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A423" s="2">
         <v>44354</v>
       </c>
@@ -3773,7 +3828,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A424" s="2">
         <v>44355</v>
       </c>
@@ -3781,7 +3836,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A425" s="2">
         <v>44356</v>
       </c>
@@ -3789,7 +3844,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A426" s="2">
         <v>44357</v>
       </c>
@@ -3797,7 +3852,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A427" s="2">
         <v>44358</v>
       </c>
@@ -3805,7 +3860,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A428" s="2">
         <v>44359</v>
       </c>
@@ -3813,7 +3868,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A429" s="2">
         <v>44360</v>
       </c>
@@ -3821,7 +3876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A430" s="2">
         <v>44361</v>
       </c>
@@ -3829,7 +3884,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A431" s="2">
         <v>44362</v>
       </c>
@@ -3837,7 +3892,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A432" s="2">
         <v>44363</v>
       </c>
@@ -3845,7 +3900,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A433" s="2">
         <v>44364</v>
       </c>
@@ -3853,7 +3908,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A434" s="2">
         <v>44365</v>
       </c>
@@ -3861,7 +3916,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A435" s="2">
         <v>44366</v>
       </c>
@@ -3869,7 +3924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A436" s="2">
         <v>44367</v>
       </c>
@@ -3877,7 +3932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A437" s="2">
         <v>44368</v>
       </c>
@@ -3885,7 +3940,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A438" s="2">
         <v>44369</v>
       </c>
@@ -3893,7 +3948,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A439" s="2">
         <v>44370</v>
       </c>
@@ -3901,7 +3956,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A440" s="2">
         <v>44371</v>
       </c>
@@ -3909,7 +3964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A441" s="2">
         <v>44372</v>
       </c>
@@ -3917,7 +3972,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A442" s="2">
         <v>44373</v>
       </c>
@@ -3925,7 +3980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A443" s="2">
         <v>44374</v>
       </c>
@@ -3933,7 +3988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A444" s="2">
         <v>44375</v>
       </c>
@@ -3941,7 +3996,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A445" s="2">
         <v>44376</v>
       </c>
@@ -3949,7 +4004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A446" s="2">
         <v>44377</v>
       </c>
@@ -3957,7 +4012,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A447" s="2">
         <v>44378</v>
       </c>
@@ -3965,7 +4020,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="448" spans="1:2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A448" s="2">
         <v>44379</v>
       </c>
@@ -3973,7 +4028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A449" s="2">
         <v>44380</v>
       </c>
@@ -3981,7 +4036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A450" s="2">
         <v>44381</v>
       </c>
@@ -3989,7 +4044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A451" s="2">
         <v>44382</v>
       </c>
@@ -3997,7 +4052,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A452" s="2">
         <v>44383</v>
       </c>
@@ -4005,7 +4060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A453" s="2">
         <v>44384</v>
       </c>
@@ -4013,7 +4068,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A454" s="2">
         <v>44385</v>
       </c>
@@ -4021,7 +4076,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A455" s="2">
         <v>44386</v>
       </c>
@@ -4029,7 +4084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A456" s="2">
         <v>44387</v>
       </c>
@@ -4037,7 +4092,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="457" spans="1:2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A457" s="2">
         <v>44388</v>
       </c>
@@ -4045,7 +4100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A458" s="2">
         <v>44389</v>
       </c>
@@ -4053,7 +4108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A459" s="2">
         <v>44390</v>
       </c>
@@ -4061,7 +4116,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A460" s="2">
         <v>44391</v>
       </c>
@@ -4069,7 +4124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A461" s="2">
         <v>44392</v>
       </c>
@@ -4077,7 +4132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A462" s="2">
         <v>44393</v>
       </c>
@@ -4085,7 +4140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A463" s="2">
         <v>44394</v>
       </c>
@@ -4093,7 +4148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A464" s="2">
         <v>44395</v>
       </c>
@@ -4101,7 +4156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A465" s="2">
         <v>44396</v>
       </c>
@@ -4109,7 +4164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A466" s="2">
         <v>44397</v>
       </c>
@@ -4117,7 +4172,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A467" s="2">
         <v>44398</v>
       </c>
@@ -4125,7 +4180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A468" s="2">
         <v>44399</v>
       </c>
@@ -4133,7 +4188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A469" s="2">
         <v>44400</v>
       </c>
@@ -4141,7 +4196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A470" s="2">
         <v>44401</v>
       </c>
@@ -4149,7 +4204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A471" s="2">
         <v>44402</v>
       </c>
@@ -4157,7 +4212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="472" spans="1:2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A472" s="2">
         <v>44403</v>
       </c>
@@ -4165,7 +4220,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A473" s="2">
         <v>44404</v>
       </c>
@@ -4173,7 +4228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A474" s="2">
         <v>44405</v>
       </c>
@@ -4181,7 +4236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A475" s="2">
         <v>44406</v>
       </c>
@@ -4189,7 +4244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A476" s="2">
         <v>44407</v>
       </c>
@@ -4197,7 +4252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A477" s="2">
         <v>44408</v>
       </c>
@@ -4205,7 +4260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A478" s="2">
         <v>44409</v>
       </c>
@@ -4213,7 +4268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A479" s="2">
         <v>44410</v>
       </c>
@@ -4221,7 +4276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A480" s="2">
         <v>44411</v>
       </c>
@@ -4229,7 +4284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A481" s="2">
         <v>44412</v>
       </c>
@@ -4237,7 +4292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A482" s="2">
         <v>44413</v>
       </c>
@@ -4245,7 +4300,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A483" s="2">
         <v>44414</v>
       </c>
@@ -4253,7 +4308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A484" s="2">
         <v>44415</v>
       </c>
@@ -4261,7 +4316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A485" s="2">
         <v>44416</v>
       </c>
@@ -4269,7 +4324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A486" s="2">
         <v>44417</v>
       </c>
@@ -4277,7 +4332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A487" s="2">
         <v>44418</v>
       </c>
@@ -4285,7 +4340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A488" s="2">
         <v>44419</v>
       </c>
@@ -4293,7 +4348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A489" s="2">
         <v>44420</v>
       </c>
@@ -4301,7 +4356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="490" spans="1:2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A490" s="2">
         <v>44421</v>
       </c>
@@ -4309,7 +4364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="491" spans="1:2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A491" s="2">
         <v>44422</v>
       </c>
@@ -4317,7 +4372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A492" s="2">
         <v>44423</v>
       </c>
@@ -4325,7 +4380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A493" s="2">
         <v>44424</v>
       </c>
@@ -4333,7 +4388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A494" s="2">
         <v>44425</v>
       </c>
@@ -4341,7 +4396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A495" s="2">
         <v>44426</v>
       </c>
@@ -4349,7 +4404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A496" s="2">
         <v>44427</v>
       </c>
@@ -4357,7 +4412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="497" spans="1:2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A497" s="2">
         <v>44428</v>
       </c>
@@ -4365,7 +4420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A498" s="2">
         <v>44429</v>
       </c>
@@ -4373,7 +4428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A499" s="2">
         <v>44430</v>
       </c>
@@ -4381,7 +4436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A500" s="2">
         <v>44431</v>
       </c>
@@ -4389,7 +4444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A501" s="2">
         <v>44432</v>
       </c>
@@ -4397,7 +4452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A502" s="2">
         <v>44433</v>
       </c>
@@ -4405,7 +4460,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="503" spans="1:2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A503" s="2">
         <v>44434</v>
       </c>
@@ -4413,7 +4468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A504" s="2">
         <v>44435</v>
       </c>
@@ -4421,7 +4476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="505" spans="1:2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A505" s="2">
         <v>44436</v>
       </c>
@@ -4429,7 +4484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A506" s="2">
         <v>44437</v>
       </c>
@@ -4437,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A507" s="2">
         <v>44438</v>
       </c>
@@ -4445,7 +4500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A508" s="2">
         <v>44439</v>
       </c>
@@ -4453,7 +4508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A509" s="2">
         <v>44440</v>
       </c>
@@ -4461,7 +4516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="510" spans="1:2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A510" s="2">
         <v>44441</v>
       </c>
@@ -4469,7 +4524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="511" spans="1:2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A511" s="2">
         <v>44442</v>
       </c>
@@ -4477,7 +4532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="512" spans="1:2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A512" s="2">
         <v>44443</v>
       </c>
@@ -4485,7 +4540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="513" spans="1:2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A513" s="2">
         <v>44444</v>
       </c>
@@ -4493,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A514" s="2">
         <v>44445</v>
       </c>
@@ -4501,7 +4556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="515" spans="1:2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A515" s="2">
         <v>44446</v>
       </c>
@@ -4509,7 +4564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="516" spans="1:2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A516" s="2">
         <v>44447</v>
       </c>
@@ -4517,7 +4572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A517" s="2">
         <v>44448</v>
       </c>
@@ -4525,7 +4580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="518" spans="1:2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A518" s="2">
         <v>44449</v>
       </c>
@@ -4533,7 +4588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="519" spans="1:2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A519" s="2">
         <v>44450</v>
       </c>
@@ -4541,7 +4596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="520" spans="1:2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A520" s="2">
         <v>44451</v>
       </c>
@@ -4549,39 +4604,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="521" spans="1:2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A521" s="2">
         <v>44452</v>
       </c>
       <c r="B521">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A522" s="2">
         <v>44453</v>
       </c>
       <c r="B522">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A523" s="2">
         <v>44454</v>
       </c>
       <c r="B523">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A524" s="2">
         <v>44455</v>
       </c>
       <c r="B524">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A525" s="2">
         <v>44456</v>
       </c>
@@ -4589,31 +4644,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="526" spans="1:2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A526" s="2">
         <v>44457</v>
       </c>
       <c r="B526">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A527" s="2">
         <v>44458</v>
       </c>
       <c r="B527">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A528" s="2">
         <v>44459</v>
       </c>
       <c r="B528">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A529" s="2">
         <v>44460</v>
       </c>
@@ -4621,7 +4676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="530" spans="1:2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A530" s="2">
         <v>44461</v>
       </c>
@@ -4629,7 +4684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="531" spans="1:2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A531" s="2">
         <v>44462</v>
       </c>
@@ -4637,7 +4692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="532" spans="1:2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A532" s="2">
         <v>44463</v>
       </c>
@@ -4645,7 +4700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="533" spans="1:2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A533" s="2">
         <v>44464</v>
       </c>
@@ -4653,7 +4708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="534" spans="1:2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A534" s="2">
         <v>44465</v>
       </c>
@@ -4661,7 +4716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A535" s="2">
         <v>44466</v>
       </c>
@@ -4669,7 +4724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A536" s="2">
         <v>44467</v>
       </c>
@@ -4677,7 +4732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="537" spans="1:2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A537" s="2">
         <v>44468</v>
       </c>
@@ -4685,7 +4740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="538" spans="1:2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A538" s="2">
         <v>44469</v>
       </c>
@@ -4693,7 +4748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A539" s="2">
         <v>44470</v>
       </c>
@@ -4701,7 +4756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="540" spans="1:2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A540" s="2">
         <v>44471</v>
       </c>
@@ -4709,7 +4764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A541" s="2">
         <v>44473</v>
       </c>
@@ -4717,7 +4772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="542" spans="1:2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A542" s="2">
         <v>44474</v>
       </c>
@@ -4725,7 +4780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="543" spans="1:2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A543" s="2">
         <v>44475</v>
       </c>
@@ -4733,7 +4788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" spans="1:2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A544" s="2">
         <v>44476</v>
       </c>
@@ -4741,7 +4796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A545" s="2">
         <v>44477</v>
       </c>
@@ -4749,7 +4804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="546" spans="1:2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A546" s="2">
         <v>44478</v>
       </c>
@@ -4757,7 +4812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A547" s="2">
         <v>44479</v>
       </c>
@@ -4765,7 +4820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="548" spans="1:2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A548" s="2">
         <v>44480</v>
       </c>
@@ -4773,7 +4828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="549" spans="1:2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A549" s="2">
         <v>44481</v>
       </c>
@@ -4781,7 +4836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A550" s="2">
         <v>44482</v>
       </c>
@@ -4789,7 +4844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="551" spans="1:2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A551" s="2">
         <v>44483</v>
       </c>
@@ -4797,7 +4852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="552" spans="1:2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A552" s="2">
         <v>44484</v>
       </c>
@@ -4805,7 +4860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="553" spans="1:2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A553" s="2">
         <v>44485</v>
       </c>
@@ -4813,7 +4868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="554" spans="1:2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A554" s="2">
         <v>44486</v>
       </c>
@@ -4821,7 +4876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="555" spans="1:2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A555" s="2">
         <v>44487</v>
       </c>
@@ -4829,7 +4884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="556" spans="1:2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A556" s="2">
         <v>44488</v>
       </c>
@@ -4837,7 +4892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="557" spans="1:2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A557" s="2">
         <v>44489</v>
       </c>
@@ -4845,7 +4900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="558" spans="1:2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A558" s="2">
         <v>44490</v>
       </c>
@@ -4853,7 +4908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="559" spans="1:2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A559" s="2">
         <v>44491</v>
       </c>
@@ -4861,7 +4916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="560" spans="1:2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A560" s="2">
         <v>44492</v>
       </c>
@@ -4869,7 +4924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="561" spans="1:2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A561" s="2">
         <v>44493</v>
       </c>
@@ -4877,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A562" s="2">
         <v>44494</v>
       </c>
@@ -4885,7 +4940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="563" spans="1:2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A563" s="2">
         <v>44495</v>
       </c>
@@ -4893,7 +4948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="564" spans="1:2">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A564" s="2">
         <v>44496</v>
       </c>
@@ -4901,7 +4956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="565" spans="1:2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A565" s="2">
         <v>44497</v>
       </c>
@@ -4909,7 +4964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="566" spans="1:2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A566" s="2">
         <v>44498</v>
       </c>
@@ -4917,7 +4972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="567" spans="1:2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A567" s="2">
         <v>44499</v>
       </c>
@@ -4925,7 +4980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="568" spans="1:2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A568" s="2">
         <v>44500</v>
       </c>
@@ -4933,7 +4988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:2">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A569" s="2">
         <v>44501</v>
       </c>
@@ -4941,7 +4996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="570" spans="1:2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A570" s="2">
         <v>44502</v>
       </c>
@@ -4949,7 +5004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A571" s="2">
         <v>44503</v>
       </c>
@@ -4957,7 +5012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="572" spans="1:2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A572" s="2">
         <v>44504</v>
       </c>
@@ -4965,7 +5020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="573" spans="1:2">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A573" s="2">
         <v>44505</v>
       </c>
@@ -4973,7 +5028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="574" spans="1:2">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A574" s="2">
         <v>44506</v>
       </c>
@@ -4981,7 +5036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="575" spans="1:2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A575" s="2">
         <v>44508</v>
       </c>
@@ -4989,7 +5044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="576" spans="1:2">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A576" s="2">
         <v>44509</v>
       </c>
@@ -4997,7 +5052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="577" spans="1:2">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A577" s="2">
         <v>44510</v>
       </c>
@@ -5005,7 +5060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="578" spans="1:2">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A578" s="2">
         <v>44511</v>
       </c>
@@ -5013,7 +5068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="579" spans="1:2">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A579" s="2">
         <v>44512</v>
       </c>
@@ -5021,7 +5076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:2">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A580" s="2">
         <v>44513</v>
       </c>
@@ -5029,7 +5084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="581" spans="1:2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A581" s="2">
         <v>44514</v>
       </c>
@@ -5037,7 +5092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="582" spans="1:2">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A582" s="2">
         <v>44515</v>
       </c>
@@ -5045,7 +5100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="583" spans="1:2">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A583" s="2">
         <v>44516</v>
       </c>
@@ -5053,7 +5108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="1:2">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A584" s="2">
         <v>44517</v>
       </c>
@@ -5061,7 +5116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="585" spans="1:2">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A585" s="2">
         <v>44518</v>
       </c>
@@ -5069,7 +5124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="586" spans="1:2">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A586" s="2">
         <v>44519</v>
       </c>
@@ -5077,7 +5132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="587" spans="1:2">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A587" s="2">
         <v>44520</v>
       </c>
@@ -5085,7 +5140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="588" spans="1:2">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A588" s="2">
         <v>44522</v>
       </c>
@@ -5093,7 +5148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="589" spans="1:2">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A589" s="2">
         <v>44523</v>
       </c>
@@ -5101,7 +5156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="590" spans="1:2">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A590" s="2">
         <v>44524</v>
       </c>
@@ -5109,7 +5164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="591" spans="1:2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A591" s="2">
         <v>44525</v>
       </c>
@@ -5117,7 +5172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="592" spans="1:2">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A592" s="2">
         <v>44526</v>
       </c>
@@ -5125,7 +5180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="593" spans="1:2">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A593" s="2">
         <v>44527</v>
       </c>
@@ -5133,7 +5188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="594" spans="1:2">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A594" s="2">
         <v>44528</v>
       </c>
@@ -5141,7 +5196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:2">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A595" s="2">
         <v>44529</v>
       </c>
@@ -5149,7 +5204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="596" spans="1:2">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A596" s="2">
         <v>44530</v>
       </c>
@@ -5157,7 +5212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="597" spans="1:2">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A597" s="2">
         <v>44531</v>
       </c>
@@ -5165,7 +5220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="598" spans="1:2">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A598" s="2">
         <v>44532</v>
       </c>
@@ -5173,7 +5228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:2">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A599" s="2">
         <v>44533</v>
       </c>
@@ -5181,7 +5236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="600" spans="1:2">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A600" s="2">
         <v>44534</v>
       </c>
@@ -5189,7 +5244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="601" spans="1:2">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A601" s="2">
         <v>44535</v>
       </c>
@@ -5197,7 +5252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="602" spans="1:2">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A602" s="2">
         <v>44536</v>
       </c>
@@ -5205,7 +5260,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="603" spans="1:2">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A603" s="2">
         <v>44537</v>
       </c>
@@ -5213,7 +5268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="604" spans="1:2">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A604" s="2">
         <v>44538</v>
       </c>
@@ -5221,7 +5276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="605" spans="1:2">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A605" s="2">
         <v>44539</v>
       </c>
@@ -5229,7 +5284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="606" spans="1:2">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A606" s="2">
         <v>44540</v>
       </c>
@@ -5237,7 +5292,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="607" spans="1:2">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A607" s="2">
         <v>44541</v>
       </c>
@@ -5245,7 +5300,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="608" spans="1:2">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A608" s="2">
         <v>44542</v>
       </c>
@@ -5253,7 +5308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="609" spans="1:2">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A609" s="2">
         <v>44543</v>
       </c>
@@ -5261,7 +5316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="610" spans="1:2">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A610" s="2">
         <v>44544</v>
       </c>
@@ -5269,7 +5324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="611" spans="1:2">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A611" s="2">
         <v>44545</v>
       </c>
@@ -5277,7 +5332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="612" spans="1:2">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A612" s="2">
         <v>44546</v>
       </c>
@@ -5285,7 +5340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="613" spans="1:2">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A613" s="2">
         <v>44547</v>
       </c>
@@ -5293,7 +5348,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="614" spans="1:2">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A614" s="2">
         <v>44548</v>
       </c>
@@ -5301,7 +5356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="615" spans="1:2">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A615" s="2">
         <v>44549</v>
       </c>
@@ -5309,7 +5364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="1:2">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A616" s="2">
         <v>44550</v>
       </c>
@@ -5317,7 +5372,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="617" spans="1:2">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A617" s="2">
         <v>44551</v>
       </c>
@@ -5325,7 +5380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="618" spans="1:2">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A618" s="2">
         <v>44552</v>
       </c>
@@ -5333,7 +5388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="619" spans="1:2">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A619" s="2">
         <v>44553</v>
       </c>
@@ -5341,7 +5396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="620" spans="1:2">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A620" s="2">
         <v>44554</v>
       </c>
@@ -5349,7 +5404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="621" spans="1:2">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A621" s="2">
         <v>44555</v>
       </c>
@@ -5357,7 +5412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="622" spans="1:2">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A622" s="2">
         <v>44556</v>
       </c>
@@ -5365,7 +5420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="623" spans="1:2">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A623" s="2">
         <v>44557</v>
       </c>
@@ -5373,7 +5428,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="624" spans="1:2">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A624" s="2">
         <v>44558</v>
       </c>
@@ -5381,7 +5436,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="625" spans="1:2">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A625" s="2">
         <v>44559</v>
       </c>
@@ -5389,7 +5444,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="626" spans="1:2">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A626" s="2">
         <v>44560</v>
       </c>
@@ -5397,7 +5452,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="627" spans="1:2">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A627" s="2">
         <v>44561</v>
       </c>
@@ -5405,7 +5460,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="628" spans="1:2">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A628" s="2">
         <v>44562</v>
       </c>
@@ -5413,7 +5468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="629" spans="1:2">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A629" s="2">
         <v>44563</v>
       </c>
@@ -5421,7 +5476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="630" spans="1:2">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A630" s="2">
         <v>44564</v>
       </c>
@@ -5429,7 +5484,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="631" spans="1:2">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A631" s="2">
         <v>44565</v>
       </c>
@@ -5437,7 +5492,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="632" spans="1:2">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A632" s="2">
         <v>44566</v>
       </c>
@@ -5445,7 +5500,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="633" spans="1:2">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A633" s="2">
         <v>44567</v>
       </c>
@@ -5453,7 +5508,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="634" spans="1:2">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A634" s="2">
         <v>44568</v>
       </c>
@@ -5461,7 +5516,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="635" spans="1:2">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A635" s="2">
         <v>44569</v>
       </c>
@@ -5469,7 +5524,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="636" spans="1:2">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A636" s="2">
         <v>44570</v>
       </c>
@@ -5477,7 +5532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="637" spans="1:2">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A637" s="2">
         <v>44571</v>
       </c>
@@ -5485,7 +5540,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="638" spans="1:2">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A638" s="2">
         <v>44572</v>
       </c>
@@ -5493,7 +5548,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="639" spans="1:2">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A639" s="2">
         <v>44573</v>
       </c>
@@ -5501,7 +5556,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="640" spans="1:2">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A640" s="2">
         <v>44574</v>
       </c>
@@ -5509,7 +5564,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="641" spans="1:2">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A641" s="2">
         <v>44575</v>
       </c>
@@ -5517,7 +5572,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="642" spans="1:2">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A642" s="2">
         <v>44576</v>
       </c>
@@ -5525,7 +5580,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="643" spans="1:2">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A643" s="2">
         <v>44577</v>
       </c>
@@ -5533,7 +5588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="644" spans="1:2">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A644" s="2">
         <v>44578</v>
       </c>
@@ -5541,7 +5596,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="645" spans="1:2">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A645" s="2">
         <v>44579</v>
       </c>
@@ -5549,7 +5604,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="646" spans="1:2">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A646" s="2">
         <v>44580</v>
       </c>
@@ -5557,7 +5612,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="647" spans="1:2">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A647" s="2">
         <v>44581</v>
       </c>
@@ -5565,7 +5620,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="648" spans="1:2">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A648" s="2">
         <v>44582</v>
       </c>
@@ -5573,7 +5628,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="649" spans="1:2">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A649" s="2">
         <v>44583</v>
       </c>
@@ -5581,7 +5636,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="650" spans="1:2">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A650" s="2">
         <v>44584</v>
       </c>
@@ -5589,7 +5644,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="651" spans="1:2">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A651" s="2">
         <v>44585</v>
       </c>
@@ -5597,7 +5652,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="652" spans="1:2">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A652" s="2">
         <v>44586</v>
       </c>
@@ -5605,7 +5660,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="653" spans="1:2">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A653" s="2">
         <v>44587</v>
       </c>
@@ -5613,7 +5668,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="654" spans="1:2">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A654" s="2">
         <v>44588</v>
       </c>
@@ -5621,7 +5676,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="655" spans="1:2">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A655" s="2">
         <v>44589</v>
       </c>
@@ -5629,7 +5684,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="656" spans="1:2">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A656" s="2">
         <v>44590</v>
       </c>
@@ -5637,7 +5692,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="657" spans="1:2">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A657" s="2">
         <v>44591</v>
       </c>
@@ -5645,7 +5700,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="658" spans="1:2">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A658" s="2">
         <v>44592</v>
       </c>
@@ -5653,7 +5708,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="659" spans="1:2">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A659" s="2">
         <v>44593</v>
       </c>
@@ -5661,7 +5716,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="660" spans="1:2">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A660" s="2">
         <v>44594</v>
       </c>
@@ -5669,7 +5724,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="661" spans="1:2">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A661" s="2">
         <v>44595</v>
       </c>
@@ -5677,7 +5732,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="662" spans="1:2">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A662" s="2">
         <v>44596</v>
       </c>
@@ -5685,7 +5740,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="663" spans="1:2">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A663" s="2">
         <v>44597</v>
       </c>
@@ -5693,7 +5748,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="664" spans="1:2">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A664" s="2">
         <v>44598</v>
       </c>
@@ -5701,7 +5756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="665" spans="1:2">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A665" s="2">
         <v>44599</v>
       </c>
@@ -5709,7 +5764,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="666" spans="1:2">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A666" s="2">
         <v>44600</v>
       </c>
@@ -5717,7 +5772,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="667" spans="1:2">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A667" s="2">
         <v>44601</v>
       </c>
@@ -5725,7 +5780,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="668" spans="1:2">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A668" s="2">
         <v>44602</v>
       </c>
@@ -5733,7 +5788,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="669" spans="1:2">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A669" s="2">
         <v>44603</v>
       </c>
@@ -5741,7 +5796,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="670" spans="1:2">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A670" s="2">
         <v>44604</v>
       </c>
@@ -5749,7 +5804,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="671" spans="1:2">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A671" s="2">
         <v>44605</v>
       </c>
@@ -5757,7 +5812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="672" spans="1:2">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A672" s="2">
         <v>44606</v>
       </c>
@@ -5765,7 +5820,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="673" spans="1:2">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A673" s="2">
         <v>44607</v>
       </c>
@@ -5773,7 +5828,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="674" spans="1:2">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A674" s="2">
         <v>44608</v>
       </c>
@@ -5781,7 +5836,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="675" spans="1:2">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A675" s="2">
         <v>44609</v>
       </c>
@@ -5789,7 +5844,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="676" spans="1:2">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A676" s="2">
         <v>44610</v>
       </c>
@@ -5797,7 +5852,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="677" spans="1:2">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A677" s="2">
         <v>44611</v>
       </c>
@@ -5805,7 +5860,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="678" spans="1:2">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A678" s="2">
         <v>44612</v>
       </c>
@@ -5813,7 +5868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="679" spans="1:2">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A679" s="2">
         <v>44613</v>
       </c>
@@ -5821,7 +5876,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="680" spans="1:2">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A680" s="2">
         <v>44614</v>
       </c>
@@ -5829,7 +5884,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="681" spans="1:2">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A681" s="2">
         <v>44615</v>
       </c>
@@ -5837,7 +5892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="682" spans="1:2">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A682" s="2">
         <v>44616</v>
       </c>
@@ -5845,7 +5900,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="683" spans="1:2">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A683" s="2">
         <v>44617</v>
       </c>
@@ -5853,7 +5908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="684" spans="1:2">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A684" s="2">
         <v>44618</v>
       </c>
@@ -5861,7 +5916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="685" spans="1:2">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A685" s="2">
         <v>44619</v>
       </c>
@@ -5869,7 +5924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="686" spans="1:2">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A686" s="2">
         <v>44620</v>
       </c>
@@ -5877,7 +5932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="687" spans="1:2">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A687" s="2">
         <v>44621</v>
       </c>
@@ -5885,7 +5940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="688" spans="1:2">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A688" s="2">
         <v>44622</v>
       </c>
@@ -5893,7 +5948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="689" spans="1:2">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A689" s="2">
         <v>44623</v>
       </c>
@@ -5901,7 +5956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="690" spans="1:2">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A690" s="2">
         <v>44624</v>
       </c>
@@ -5909,7 +5964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="691" spans="1:2">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A691" s="2">
         <v>44625</v>
       </c>
@@ -5917,7 +5972,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="692" spans="1:2">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A692" s="2">
         <v>44626</v>
       </c>
@@ -5925,7 +5980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="693" spans="1:2">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A693" s="2">
         <v>44627</v>
       </c>
@@ -5933,7 +5988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="694" spans="1:2">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A694" s="2">
         <v>44628</v>
       </c>
@@ -5941,7 +5996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="695" spans="1:2">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A695" s="2">
         <v>44629</v>
       </c>
@@ -5949,7 +6004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="696" spans="1:2">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A696" s="2">
         <v>44630</v>
       </c>
@@ -5957,7 +6012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="697" spans="1:2">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A697" s="2">
         <v>44631</v>
       </c>
@@ -5965,7 +6020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="698" spans="1:2">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A698" s="2">
         <v>44632</v>
       </c>
@@ -5973,7 +6028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="699" spans="1:2">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A699" s="2">
         <v>44633</v>
       </c>
@@ -5981,7 +6036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="700" spans="1:2">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A700" s="2">
         <v>44634</v>
       </c>
@@ -5989,7 +6044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="701" spans="1:2">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A701" s="2">
         <v>44635</v>
       </c>
@@ -5997,7 +6052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="702" spans="1:2">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A702" s="2">
         <v>44636</v>
       </c>
@@ -6005,7 +6060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="703" spans="1:2">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A703" s="2">
         <v>44637</v>
       </c>
@@ -6013,7 +6068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="704" spans="1:2">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A704" s="2">
         <v>44638</v>
       </c>
@@ -6021,7 +6076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="1:2">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A705" s="2">
         <v>44639</v>
       </c>
@@ -6029,7 +6084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="706" spans="1:2">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A706" s="2">
         <v>44640</v>
       </c>
@@ -6037,7 +6092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="707" spans="1:2">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A707" s="2">
         <v>44641</v>
       </c>
@@ -6045,7 +6100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="708" spans="1:2">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A708" s="2">
         <v>44642</v>
       </c>
@@ -6053,7 +6108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="709" spans="1:2">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A709" s="2">
         <v>44643</v>
       </c>
@@ -6061,7 +6116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="710" spans="1:2">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A710" s="2">
         <v>44644</v>
       </c>
@@ -6069,7 +6124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="711" spans="1:2">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A711" s="2">
         <v>44645</v>
       </c>
@@ -6077,7 +6132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="712" spans="1:2">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A712" s="2">
         <v>44646</v>
       </c>
@@ -6085,7 +6140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="713" spans="1:2">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A713" s="2">
         <v>44647</v>
       </c>
@@ -6093,7 +6148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="714" spans="1:2">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A714" s="2">
         <v>44648</v>
       </c>
@@ -6101,7 +6156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="715" spans="1:2">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A715" s="2">
         <v>44649</v>
       </c>
@@ -6109,7 +6164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="716" spans="1:2">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A716" s="2">
         <v>44650</v>
       </c>
@@ -6117,7 +6172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="717" spans="1:2">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A717" s="2">
         <v>44651</v>
       </c>
@@ -6125,7 +6180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="718" spans="1:2">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A718" s="2">
         <v>44652</v>
       </c>
@@ -6133,7 +6188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="719" spans="1:2">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A719" s="2">
         <v>44653</v>
       </c>
@@ -6141,7 +6196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:2">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A720" s="2">
         <v>44655</v>
       </c>
@@ -6149,7 +6204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="721" spans="1:2">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A721" s="2">
         <v>44656</v>
       </c>
@@ -6157,7 +6212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="722" spans="1:2">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A722" s="2">
         <v>44657</v>
       </c>
@@ -6165,7 +6220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="723" spans="1:2">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A723" s="2">
         <v>44658</v>
       </c>
@@ -6173,7 +6228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="724" spans="1:2">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A724" s="2">
         <v>44659</v>
       </c>
@@ -6181,7 +6236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="725" spans="1:2">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A725" s="2">
         <v>44662</v>
       </c>
@@ -6189,7 +6244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="726" spans="1:2">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A726" s="2">
         <v>44663</v>
       </c>
@@ -6197,7 +6252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="727" spans="1:2">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A727" s="2">
         <v>44664</v>
       </c>
@@ -6205,7 +6260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="728" spans="1:2">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A728" s="2">
         <v>44666</v>
       </c>
@@ -6213,7 +6268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:2">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A729" s="2">
         <v>44669</v>
       </c>
@@ -6221,7 +6276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="730" spans="1:2">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A730" s="2">
         <v>44670</v>
       </c>
@@ -6229,7 +6284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="731" spans="1:2">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A731" s="2">
         <v>44671</v>
       </c>
@@ -6237,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:2">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A732" s="2">
         <v>44672</v>
       </c>
@@ -6245,7 +6300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:2">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A733" s="2">
         <v>44673</v>
       </c>
@@ -6253,7 +6308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="734" spans="1:2">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A734" s="2">
         <v>44676</v>
       </c>
@@ -6261,7 +6316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="735" spans="1:2">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A735" s="2">
         <v>44678</v>
       </c>
@@ -6269,7 +6324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="736" spans="1:2">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A736" s="2">
         <v>44679</v>
       </c>
@@ -6277,7 +6332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="737" spans="1:2">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A737" s="2">
         <v>44680</v>
       </c>
@@ -6285,7 +6340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:2">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A738" s="2">
         <v>44684</v>
       </c>
@@ -6293,7 +6348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="739" spans="1:2">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A739" s="2">
         <v>44685</v>
       </c>
@@ -6301,7 +6356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="740" spans="1:2">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A740" s="2">
         <v>44686</v>
       </c>
@@ -6309,7 +6364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="741" spans="1:2">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A741" s="2">
         <v>44693</v>
       </c>
@@ -6317,7 +6372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:2">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A742" s="2">
         <v>44694</v>
       </c>
@@ -6325,7 +6380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="743" spans="1:2">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A743" s="2">
         <v>44695</v>
       </c>
@@ -6333,7 +6388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:2">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A744" s="2">
         <v>44697</v>
       </c>
@@ -6341,7 +6396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:2">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A745" s="2">
         <v>44699</v>
       </c>
@@ -6349,7 +6404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:2">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A746" s="2">
         <v>44702</v>
       </c>
@@ -6357,7 +6412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:2">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A747" s="2">
         <v>44705</v>
       </c>
@@ -6365,7 +6420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="748" spans="1:2">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A748" s="2">
         <v>44706</v>
       </c>
@@ -6373,7 +6428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="749" spans="1:2">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A749" s="2">
         <v>44707</v>
       </c>
@@ -6381,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:2">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A750" s="2">
         <v>44711</v>
       </c>
@@ -6389,7 +6444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:2">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A751" s="2">
         <v>44713</v>
       </c>
@@ -6397,7 +6452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="752" spans="1:2">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A752" s="2">
         <v>44714</v>
       </c>
@@ -6405,7 +6460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="753" spans="1:2">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A753" s="2">
         <v>44715</v>
       </c>
@@ -6413,7 +6468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:2">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A754" s="2">
         <v>44719</v>
       </c>
@@ -6421,7 +6476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="755" spans="1:2">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A755" s="2">
         <v>44720</v>
       </c>
@@ -6429,7 +6484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:2">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A756" s="2">
         <v>44722</v>
       </c>
@@ -6437,7 +6492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:2">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A757" s="2">
         <v>44723</v>
       </c>
@@ -6445,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:2">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A758" s="2">
         <v>44725</v>
       </c>
@@ -6453,7 +6508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="759" spans="1:2">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A759" s="2">
         <v>44726</v>
       </c>
@@ -6461,7 +6516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="760" spans="1:2">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A760" s="2">
         <v>44727</v>
       </c>
@@ -6469,7 +6524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="761" spans="1:2">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A761" s="2">
         <v>44728</v>
       </c>
@@ -6477,7 +6532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="762" spans="1:2">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A762" s="2">
         <v>44729</v>
       </c>
@@ -6485,7 +6540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="763" spans="1:2">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A763" s="2">
         <v>44730</v>
       </c>
@@ -6493,7 +6548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="764" spans="1:2">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A764" s="2">
         <v>44732</v>
       </c>
@@ -6501,7 +6556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="765" spans="1:2">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A765" s="2">
         <v>44733</v>
       </c>
@@ -6509,7 +6564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="766" spans="1:2">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A766" s="2">
         <v>44734</v>
       </c>
@@ -6517,7 +6572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="767" spans="1:2">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A767" s="2">
         <v>44735</v>
       </c>
@@ -6525,7 +6580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="768" spans="1:2">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A768" s="2">
         <v>44736</v>
       </c>
@@ -6533,7 +6588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="769" spans="1:2">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A769" s="2">
         <v>44737</v>
       </c>
@@ -6541,7 +6596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="770" spans="1:2">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A770" s="2">
         <v>44739</v>
       </c>
@@ -6549,7 +6604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="771" spans="1:2">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A771" s="2">
         <v>44740</v>
       </c>
@@ -6557,7 +6612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="772" spans="1:2">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A772" s="2">
         <v>44741</v>
       </c>
@@ -6565,7 +6620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="773" spans="1:2">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A773" s="2">
         <v>44742</v>
       </c>
@@ -6573,7 +6628,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="774" spans="1:2">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A774" s="2">
         <v>44743</v>
       </c>
@@ -6581,7 +6636,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="775" spans="1:2">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A775" s="2">
         <v>44744</v>
       </c>
@@ -6589,7 +6644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="776" spans="1:2">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A776" s="2">
         <v>44745</v>
       </c>
@@ -6597,7 +6652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="777" spans="1:2">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A777" s="2">
         <v>44746</v>
       </c>
@@ -6605,7 +6660,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="778" spans="1:2">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A778" s="2">
         <v>44747</v>
       </c>
@@ -6613,7 +6668,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="779" spans="1:2">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A779" s="2">
         <v>44748</v>
       </c>
@@ -6621,7 +6676,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="780" spans="1:2">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A780" s="2">
         <v>44749</v>
       </c>
@@ -6629,7 +6684,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="781" spans="1:2">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A781" s="2">
         <v>44750</v>
       </c>
@@ -6637,7 +6692,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="782" spans="1:2">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A782" s="2">
         <v>44751</v>
       </c>
@@ -6645,7 +6700,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="783" spans="1:2">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A783" s="2">
         <v>44752</v>
       </c>
@@ -6653,7 +6708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="784" spans="1:2">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A784" s="2">
         <v>44753</v>
       </c>
@@ -6661,7 +6716,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="785" spans="1:2">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A785" s="2">
         <v>44754</v>
       </c>
@@ -6669,7 +6724,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="786" spans="1:2">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A786" s="2">
         <v>44755</v>
       </c>
@@ -6677,7 +6732,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="787" spans="1:2">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A787" s="2">
         <v>44756</v>
       </c>
@@ -6685,7 +6740,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="788" spans="1:2">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A788" s="2">
         <v>44757</v>
       </c>
@@ -6693,7 +6748,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="789" spans="1:2">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A789" s="2">
         <v>44758</v>
       </c>
@@ -6701,7 +6756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="790" spans="1:2">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A790" s="2">
         <v>44759</v>
       </c>
@@ -6709,7 +6764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="791" spans="1:2">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A791" s="2">
         <v>44760</v>
       </c>
@@ -6717,7 +6772,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="792" spans="1:2">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A792" s="2">
         <v>44761</v>
       </c>
@@ -6725,7 +6780,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="793" spans="1:2">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A793" s="2">
         <v>44762</v>
       </c>
@@ -6733,7 +6788,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="794" spans="1:2">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A794" s="2">
         <v>44763</v>
       </c>
@@ -6741,7 +6796,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="795" spans="1:2">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A795" s="2">
         <v>44764</v>
       </c>
@@ -6749,7 +6804,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="796" spans="1:2">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A796" s="2">
         <v>44765</v>
       </c>
@@ -6757,7 +6812,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="797" spans="1:2">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A797" s="2">
         <v>44766</v>
       </c>
@@ -6765,7 +6820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="798" spans="1:2">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A798" s="2">
         <v>44767</v>
       </c>
@@ -6773,7 +6828,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="799" spans="1:2">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A799" s="2">
         <v>44768</v>
       </c>
@@ -6781,7 +6836,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="800" spans="1:2">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A800" s="2">
         <v>44769</v>
       </c>
@@ -6789,7 +6844,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="801" spans="1:2">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A801" s="2">
         <v>44770</v>
       </c>
@@ -6797,7 +6852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="802" spans="1:2">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A802" s="2">
         <v>44771</v>
       </c>
@@ -6805,7 +6860,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="803" spans="1:2">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A803" s="2">
         <v>44772</v>
       </c>
@@ -6813,7 +6868,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="804" spans="1:2">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A804" s="2">
         <v>44773</v>
       </c>
@@ -6821,7 +6876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="805" spans="1:2">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A805" s="2">
         <v>44774</v>
       </c>
@@ -6829,7 +6884,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="806" spans="1:2">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A806" s="2">
         <v>44775</v>
       </c>
@@ -6837,7 +6892,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="807" spans="1:2">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A807" s="2">
         <v>44776</v>
       </c>
@@ -6845,7 +6900,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="808" spans="1:2">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A808" s="2">
         <v>44777</v>
       </c>
@@ -6853,7 +6908,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="809" spans="1:2">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A809" s="2">
         <v>44778</v>
       </c>
@@ -6861,7 +6916,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="810" spans="1:2">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A810" s="2">
         <v>44779</v>
       </c>
@@ -6869,7 +6924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="811" spans="1:2">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A811" s="2">
         <v>44780</v>
       </c>
@@ -6877,7 +6932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="812" spans="1:2">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A812" s="2">
         <v>44781</v>
       </c>
@@ -6885,7 +6940,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="813" spans="1:2">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A813" s="2">
         <v>44782</v>
       </c>
@@ -6893,7 +6948,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="814" spans="1:2">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A814" s="2">
         <v>44783</v>
       </c>
@@ -6901,7 +6956,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="815" spans="1:2">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A815" s="2">
         <v>44784</v>
       </c>
@@ -6909,7 +6964,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="816" spans="1:2">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A816" s="2">
         <v>44785</v>
       </c>
@@ -6917,7 +6972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="817" spans="1:2">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A817" s="2">
         <v>44786</v>
       </c>
@@ -6925,7 +6980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="818" spans="1:2">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A818" s="2">
         <v>44787</v>
       </c>
@@ -6933,7 +6988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="819" spans="1:2">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A819" s="2">
         <v>44788</v>
       </c>
@@ -6941,7 +6996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="820" spans="1:2">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A820" s="2">
         <v>44789</v>
       </c>
@@ -6949,7 +7004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="821" spans="1:2">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A821" s="2">
         <v>44790</v>
       </c>
@@ -6957,7 +7012,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="822" spans="1:2">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A822" s="2">
         <v>44791</v>
       </c>
@@ -6965,7 +7020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="823" spans="1:2">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A823" s="2">
         <v>44792</v>
       </c>
@@ -6973,7 +7028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="824" spans="1:2">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A824" s="2">
         <v>44793</v>
       </c>
@@ -6981,7 +7036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="825" spans="1:2">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A825" s="2">
         <v>44794</v>
       </c>
@@ -6989,7 +7044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="826" spans="1:2">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A826" s="2">
         <v>44795</v>
       </c>
@@ -6997,7 +7052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="827" spans="1:2">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A827" s="2">
         <v>44796</v>
       </c>
@@ -7005,7 +7060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="828" spans="1:2">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A828" s="2">
         <v>44797</v>
       </c>
@@ -7013,7 +7068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="829" spans="1:2">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A829" s="2">
         <v>44798</v>
       </c>
@@ -7021,7 +7076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="830" spans="1:2">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A830" s="2">
         <v>44799</v>
       </c>
@@ -7029,7 +7084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="831" spans="1:2">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A831" s="2">
         <v>44800</v>
       </c>
@@ -7037,7 +7092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="832" spans="1:2">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A832" s="2">
         <v>44802</v>
       </c>
@@ -7045,7 +7100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="833" spans="1:2">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A833" s="2">
         <v>44804</v>
       </c>
@@ -7053,7 +7108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="834" spans="1:2">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A834" s="2">
         <v>44805</v>
       </c>
@@ -7061,7 +7116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="835" spans="1:2">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A835" s="2">
         <v>44806</v>
       </c>
@@ -7069,7 +7124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="836" spans="1:2">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A836" s="2">
         <v>44807</v>
       </c>
@@ -7077,7 +7132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:2">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A837" s="2">
         <v>44809</v>
       </c>
@@ -7085,7 +7140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="838" spans="1:2">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A838" s="2">
         <v>44810</v>
       </c>
@@ -7093,7 +7148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="839" spans="1:2">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A839" s="2">
         <v>44811</v>
       </c>
@@ -7101,7 +7156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="840" spans="1:2">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A840" s="2">
         <v>44812</v>
       </c>
@@ -7109,7 +7164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="841" spans="1:2">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A841" s="2">
         <v>44813</v>
       </c>
@@ -7117,7 +7172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="842" spans="1:2">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A842" s="2">
         <v>44814</v>
       </c>
@@ -7125,7 +7180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="843" spans="1:2">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A843" s="2">
         <v>44816</v>
       </c>
@@ -7133,7 +7188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="844" spans="1:2">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A844" s="2">
         <v>44817</v>
       </c>
@@ -7141,7 +7196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="845" spans="1:2">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A845" s="2">
         <v>44818</v>
       </c>
@@ -7149,7 +7204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="846" spans="1:2">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A846" s="2">
         <v>44819</v>
       </c>
@@ -7157,7 +7212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="847" spans="1:2">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A847" s="2">
         <v>44820</v>
       </c>
@@ -7165,7 +7220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:2">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A848" s="2">
         <v>44821</v>
       </c>
@@ -7173,7 +7228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:2">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A849" s="2">
         <v>44823</v>
       </c>
@@ -7181,7 +7236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="850" spans="1:2">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A850" s="2">
         <v>44824</v>
       </c>
@@ -7189,7 +7244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="851" spans="1:2">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A851" s="2">
         <v>44825</v>
       </c>
@@ -7197,7 +7252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="852" spans="1:2">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A852" s="2">
         <v>44826</v>
       </c>
@@ -7205,7 +7260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="1:2">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A853" s="2">
         <v>44830</v>
       </c>
@@ -7213,7 +7268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:2">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A854" s="2">
         <v>44831</v>
       </c>
@@ -7221,15 +7276,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:2">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A855" s="2">
         <v>44832</v>
       </c>
       <c r="B855">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="856" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A856" s="2">
         <v>44833</v>
       </c>
@@ -7237,11 +7292,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:2">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A857" s="2">
         <v>44834</v>
       </c>
       <c r="B857">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A858" s="2">
+        <v>44836</v>
+      </c>
+      <c r="B858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A859" s="2">
+        <v>44837</v>
+      </c>
+      <c r="B859">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A860" s="2">
+        <v>44838</v>
+      </c>
+      <c r="B860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A861" s="2">
+        <v>44840</v>
+      </c>
+      <c r="B861">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A862" s="2">
+        <v>44844</v>
+      </c>
+      <c r="B862">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A863" s="2">
+        <v>44845</v>
+      </c>
+      <c r="B863">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A864" s="2">
+        <v>44849</v>
+      </c>
+      <c r="B864">
         <v>1</v>
       </c>
     </row>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca2b4d56148715ad/Projects/Covid-19/regiones/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_FD1B812E13A9500EC0FF31D2F87AE380088488FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{835A5B6B-224F-4B9E-BF65-B68BE77CBDEB}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-6612" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -31,11 +25,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,14 +95,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -155,7 +141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,27 +173,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,24 +207,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,19 +382,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B864"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A838" workbookViewId="0">
-      <selection activeCell="B864" sqref="B864"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.765625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -452,7 +397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43926</v>
       </c>
@@ -460,7 +405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43927</v>
       </c>
@@ -468,7 +413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43928</v>
       </c>
@@ -476,7 +421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43929</v>
       </c>
@@ -484,7 +429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43930</v>
       </c>
@@ -492,7 +437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43933</v>
       </c>
@@ -500,7 +445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43935</v>
       </c>
@@ -508,7 +453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43936</v>
       </c>
@@ -516,7 +461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43937</v>
       </c>
@@ -524,7 +469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43938</v>
       </c>
@@ -532,7 +477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43939</v>
       </c>
@@ -540,7 +485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43940</v>
       </c>
@@ -548,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43941</v>
       </c>
@@ -556,7 +501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43942</v>
       </c>
@@ -564,7 +509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43943</v>
       </c>
@@ -572,7 +517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43944</v>
       </c>
@@ -580,7 +525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43945</v>
       </c>
@@ -588,7 +533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43946</v>
       </c>
@@ -596,7 +541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43947</v>
       </c>
@@ -604,7 +549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43948</v>
       </c>
@@ -612,7 +557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43949</v>
       </c>
@@ -620,7 +565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43950</v>
       </c>
@@ -628,7 +573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43951</v>
       </c>
@@ -636,7 +581,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43952</v>
       </c>
@@ -644,7 +589,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43953</v>
       </c>
@@ -652,7 +597,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43954</v>
       </c>
@@ -660,7 +605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43955</v>
       </c>
@@ -668,7 +613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43956</v>
       </c>
@@ -676,7 +621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43957</v>
       </c>
@@ -684,7 +629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43958</v>
       </c>
@@ -692,7 +637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43959</v>
       </c>
@@ -700,7 +645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43960</v>
       </c>
@@ -708,7 +653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43962</v>
       </c>
@@ -716,7 +661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43963</v>
       </c>
@@ -724,7 +669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43964</v>
       </c>
@@ -732,7 +677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43965</v>
       </c>
@@ -740,7 +685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43966</v>
       </c>
@@ -748,7 +693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43967</v>
       </c>
@@ -756,7 +701,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43968</v>
       </c>
@@ -764,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43969</v>
       </c>
@@ -772,7 +717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43970</v>
       </c>
@@ -780,7 +725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43971</v>
       </c>
@@ -788,7 +733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43972</v>
       </c>
@@ -796,7 +741,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43973</v>
       </c>
@@ -804,7 +749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43974</v>
       </c>
@@ -812,7 +757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43975</v>
       </c>
@@ -820,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43976</v>
       </c>
@@ -828,7 +773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43977</v>
       </c>
@@ -836,7 +781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43978</v>
       </c>
@@ -844,7 +789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43979</v>
       </c>
@@ -852,7 +797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43980</v>
       </c>
@@ -860,7 +805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43981</v>
       </c>
@@ -868,7 +813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43982</v>
       </c>
@@ -876,7 +821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43983</v>
       </c>
@@ -884,7 +829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43984</v>
       </c>
@@ -892,7 +837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43985</v>
       </c>
@@ -900,7 +845,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43986</v>
       </c>
@@ -908,7 +853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43987</v>
       </c>
@@ -916,7 +861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43988</v>
       </c>
@@ -924,7 +869,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43989</v>
       </c>
@@ -932,7 +877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43990</v>
       </c>
@@ -940,7 +885,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43991</v>
       </c>
@@ -948,7 +893,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43992</v>
       </c>
@@ -956,7 +901,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43993</v>
       </c>
@@ -964,7 +909,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43994</v>
       </c>
@@ -972,7 +917,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43995</v>
       </c>
@@ -980,7 +925,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43996</v>
       </c>
@@ -988,7 +933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43997</v>
       </c>
@@ -996,7 +941,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43998</v>
       </c>
@@ -1004,7 +949,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43999</v>
       </c>
@@ -1012,7 +957,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>44000</v>
       </c>
@@ -1020,7 +965,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>44001</v>
       </c>
@@ -1028,7 +973,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>44002</v>
       </c>
@@ -1036,7 +981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>44003</v>
       </c>
@@ -1044,7 +989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>44004</v>
       </c>
@@ -1052,7 +997,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>44005</v>
       </c>
@@ -1060,7 +1005,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>44006</v>
       </c>
@@ -1068,7 +1013,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>44007</v>
       </c>
@@ -1076,7 +1021,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>44008</v>
       </c>
@@ -1084,7 +1029,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>44009</v>
       </c>
@@ -1092,7 +1037,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>44010</v>
       </c>
@@ -1100,7 +1045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>44011</v>
       </c>
@@ -1108,7 +1053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>44012</v>
       </c>
@@ -1116,7 +1061,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>44013</v>
       </c>
@@ -1124,7 +1069,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>44014</v>
       </c>
@@ -1132,7 +1077,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>44015</v>
       </c>
@@ -1140,7 +1085,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>44016</v>
       </c>
@@ -1148,7 +1093,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>44017</v>
       </c>
@@ -1156,7 +1101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>44018</v>
       </c>
@@ -1164,7 +1109,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>44019</v>
       </c>
@@ -1172,7 +1117,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>44020</v>
       </c>
@@ -1180,7 +1125,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>44021</v>
       </c>
@@ -1188,7 +1133,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>44022</v>
       </c>
@@ -1196,7 +1141,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>44023</v>
       </c>
@@ -1204,7 +1149,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>44024</v>
       </c>
@@ -1212,7 +1157,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>44025</v>
       </c>
@@ -1220,7 +1165,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>44026</v>
       </c>
@@ -1228,7 +1173,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>44027</v>
       </c>
@@ -1236,7 +1181,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>44028</v>
       </c>
@@ -1244,7 +1189,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>44029</v>
       </c>
@@ -1252,7 +1197,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>44030</v>
       </c>
@@ -1260,7 +1205,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>44031</v>
       </c>
@@ -1268,7 +1213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>44032</v>
       </c>
@@ -1276,7 +1221,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>44033</v>
       </c>
@@ -1284,7 +1229,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>44034</v>
       </c>
@@ -1292,7 +1237,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>44035</v>
       </c>
@@ -1300,7 +1245,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>44036</v>
       </c>
@@ -1308,7 +1253,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>44037</v>
       </c>
@@ -1316,7 +1261,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>44038</v>
       </c>
@@ -1324,7 +1269,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>44039</v>
       </c>
@@ -1332,7 +1277,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>44040</v>
       </c>
@@ -1340,7 +1285,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>44041</v>
       </c>
@@ -1348,7 +1293,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>44042</v>
       </c>
@@ -1356,7 +1301,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>44043</v>
       </c>
@@ -1364,7 +1309,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>44044</v>
       </c>
@@ -1372,7 +1317,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>44045</v>
       </c>
@@ -1380,7 +1325,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>44046</v>
       </c>
@@ -1388,7 +1333,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>44047</v>
       </c>
@@ -1396,7 +1341,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>44048</v>
       </c>
@@ -1404,7 +1349,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>44049</v>
       </c>
@@ -1412,7 +1357,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>44050</v>
       </c>
@@ -1420,7 +1365,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>44051</v>
       </c>
@@ -1428,7 +1373,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>44052</v>
       </c>
@@ -1436,7 +1381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>44053</v>
       </c>
@@ -1444,7 +1389,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>44054</v>
       </c>
@@ -1452,7 +1397,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>44055</v>
       </c>
@@ -1460,7 +1405,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>44056</v>
       </c>
@@ -1468,7 +1413,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>44057</v>
       </c>
@@ -1476,7 +1421,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>44058</v>
       </c>
@@ -1484,7 +1429,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>44059</v>
       </c>
@@ -1492,7 +1437,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>44060</v>
       </c>
@@ -1500,7 +1445,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>44061</v>
       </c>
@@ -1508,7 +1453,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>44062</v>
       </c>
@@ -1516,7 +1461,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>44063</v>
       </c>
@@ -1524,7 +1469,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>44064</v>
       </c>
@@ -1532,7 +1477,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>44065</v>
       </c>
@@ -1540,7 +1485,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>44066</v>
       </c>
@@ -1548,7 +1493,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>44067</v>
       </c>
@@ -1556,7 +1501,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>44068</v>
       </c>
@@ -1564,7 +1509,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>44069</v>
       </c>
@@ -1572,7 +1517,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>44070</v>
       </c>
@@ -1580,7 +1525,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>44071</v>
       </c>
@@ -1588,7 +1533,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>44072</v>
       </c>
@@ -1596,7 +1541,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>44073</v>
       </c>
@@ -1604,7 +1549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>44074</v>
       </c>
@@ -1612,7 +1557,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>44075</v>
       </c>
@@ -1620,7 +1565,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>44076</v>
       </c>
@@ -1628,7 +1573,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>44077</v>
       </c>
@@ -1636,7 +1581,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>44078</v>
       </c>
@@ -1644,7 +1589,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>44079</v>
       </c>
@@ -1652,7 +1597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>44080</v>
       </c>
@@ -1660,7 +1605,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>44081</v>
       </c>
@@ -1668,7 +1613,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>44082</v>
       </c>
@@ -1676,7 +1621,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>44083</v>
       </c>
@@ -1684,7 +1629,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>44084</v>
       </c>
@@ -1692,7 +1637,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>44085</v>
       </c>
@@ -1700,7 +1645,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>44086</v>
       </c>
@@ -1708,7 +1653,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>44087</v>
       </c>
@@ -1716,7 +1661,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>44088</v>
       </c>
@@ -1724,7 +1669,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>44089</v>
       </c>
@@ -1732,7 +1677,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>44090</v>
       </c>
@@ -1740,7 +1685,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>44091</v>
       </c>
@@ -1748,7 +1693,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>44092</v>
       </c>
@@ -1756,7 +1701,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>44093</v>
       </c>
@@ -1764,7 +1709,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>44094</v>
       </c>
@@ -1772,7 +1717,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>44095</v>
       </c>
@@ -1780,7 +1725,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>44096</v>
       </c>
@@ -1788,7 +1733,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>44097</v>
       </c>
@@ -1796,7 +1741,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>44098</v>
       </c>
@@ -1804,7 +1749,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>44099</v>
       </c>
@@ -1812,7 +1757,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>44100</v>
       </c>
@@ -1820,7 +1765,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>44101</v>
       </c>
@@ -1828,7 +1773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>44102</v>
       </c>
@@ -1836,7 +1781,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>44103</v>
       </c>
@@ -1844,7 +1789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>44104</v>
       </c>
@@ -1852,7 +1797,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>44105</v>
       </c>
@@ -1860,7 +1805,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>44106</v>
       </c>
@@ -1868,7 +1813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>44107</v>
       </c>
@@ -1876,7 +1821,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>44108</v>
       </c>
@@ -1884,7 +1829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>44109</v>
       </c>
@@ -1892,7 +1837,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:2">
       <c r="A182" s="2">
         <v>44110</v>
       </c>
@@ -1900,7 +1845,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:2">
       <c r="A183" s="2">
         <v>44111</v>
       </c>
@@ -1908,7 +1853,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:2">
       <c r="A184" s="2">
         <v>44112</v>
       </c>
@@ -1916,7 +1861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:2">
       <c r="A185" s="2">
         <v>44113</v>
       </c>
@@ -1924,7 +1869,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:2">
       <c r="A186" s="2">
         <v>44114</v>
       </c>
@@ -1932,7 +1877,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:2">
       <c r="A187" s="2">
         <v>44115</v>
       </c>
@@ -1940,7 +1885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:2">
       <c r="A188" s="2">
         <v>44116</v>
       </c>
@@ -1948,7 +1893,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:2">
       <c r="A189" s="2">
         <v>44117</v>
       </c>
@@ -1956,7 +1901,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:2">
       <c r="A190" s="2">
         <v>44118</v>
       </c>
@@ -1964,7 +1909,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:2">
       <c r="A191" s="2">
         <v>44119</v>
       </c>
@@ -1972,7 +1917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:2">
       <c r="A192" s="2">
         <v>44120</v>
       </c>
@@ -1980,7 +1925,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:2">
       <c r="A193" s="2">
         <v>44121</v>
       </c>
@@ -1988,7 +1933,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:2">
       <c r="A194" s="2">
         <v>44122</v>
       </c>
@@ -1996,7 +1941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:2">
       <c r="A195" s="2">
         <v>44123</v>
       </c>
@@ -2004,7 +1949,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:2">
       <c r="A196" s="2">
         <v>44124</v>
       </c>
@@ -2012,7 +1957,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:2">
       <c r="A197" s="2">
         <v>44125</v>
       </c>
@@ -2020,7 +1965,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:2">
       <c r="A198" s="2">
         <v>44126</v>
       </c>
@@ -2028,7 +1973,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:2">
       <c r="A199" s="2">
         <v>44127</v>
       </c>
@@ -2036,7 +1981,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:2">
       <c r="A200" s="2">
         <v>44128</v>
       </c>
@@ -2044,7 +1989,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:2">
       <c r="A201" s="2">
         <v>44129</v>
       </c>
@@ -2052,7 +1997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:2">
       <c r="A202" s="2">
         <v>44130</v>
       </c>
@@ -2060,7 +2005,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:2">
       <c r="A203" s="2">
         <v>44131</v>
       </c>
@@ -2068,7 +2013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:2">
       <c r="A204" s="2">
         <v>44132</v>
       </c>
@@ -2076,7 +2021,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:2">
       <c r="A205" s="2">
         <v>44133</v>
       </c>
@@ -2084,7 +2029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:2">
       <c r="A206" s="2">
         <v>44134</v>
       </c>
@@ -2092,7 +2037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:2">
       <c r="A207" s="2">
         <v>44135</v>
       </c>
@@ -2100,7 +2045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:2">
       <c r="A208" s="2">
         <v>44136</v>
       </c>
@@ -2108,7 +2053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:2">
       <c r="A209" s="2">
         <v>44137</v>
       </c>
@@ -2116,7 +2061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:2">
       <c r="A210" s="2">
         <v>44138</v>
       </c>
@@ -2124,7 +2069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:2">
       <c r="A211" s="2">
         <v>44139</v>
       </c>
@@ -2132,7 +2077,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:2">
       <c r="A212" s="2">
         <v>44140</v>
       </c>
@@ -2140,7 +2085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:2">
       <c r="A213" s="2">
         <v>44142</v>
       </c>
@@ -2148,7 +2093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:2">
       <c r="A214" s="2">
         <v>44143</v>
       </c>
@@ -2156,7 +2101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:2">
       <c r="A215" s="2">
         <v>44144</v>
       </c>
@@ -2164,7 +2109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:2">
       <c r="A216" s="2">
         <v>44145</v>
       </c>
@@ -2172,7 +2117,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:2">
       <c r="A217" s="2">
         <v>44146</v>
       </c>
@@ -2180,7 +2125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:2">
       <c r="A218" s="2">
         <v>44147</v>
       </c>
@@ -2188,7 +2133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:2">
       <c r="A219" s="2">
         <v>44148</v>
       </c>
@@ -2196,7 +2141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:2">
       <c r="A220" s="2">
         <v>44149</v>
       </c>
@@ -2204,7 +2149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:2">
       <c r="A221" s="2">
         <v>44150</v>
       </c>
@@ -2212,7 +2157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:2">
       <c r="A222" s="2">
         <v>44151</v>
       </c>
@@ -2220,7 +2165,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:2">
       <c r="A223" s="2">
         <v>44152</v>
       </c>
@@ -2228,7 +2173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:2">
       <c r="A224" s="2">
         <v>44153</v>
       </c>
@@ -2236,7 +2181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:2">
       <c r="A225" s="2">
         <v>44154</v>
       </c>
@@ -2244,7 +2189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:2">
       <c r="A226" s="2">
         <v>44155</v>
       </c>
@@ -2252,7 +2197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:2">
       <c r="A227" s="2">
         <v>44156</v>
       </c>
@@ -2260,7 +2205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:2">
       <c r="A228" s="2">
         <v>44157</v>
       </c>
@@ -2268,7 +2213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:2">
       <c r="A229" s="2">
         <v>44158</v>
       </c>
@@ -2276,7 +2221,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:2">
       <c r="A230" s="2">
         <v>44159</v>
       </c>
@@ -2284,7 +2229,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:2">
       <c r="A231" s="2">
         <v>44160</v>
       </c>
@@ -2292,7 +2237,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:2">
       <c r="A232" s="2">
         <v>44161</v>
       </c>
@@ -2300,7 +2245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:2">
       <c r="A233" s="2">
         <v>44162</v>
       </c>
@@ -2308,7 +2253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:2">
       <c r="A234" s="2">
         <v>44163</v>
       </c>
@@ -2316,7 +2261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:2">
       <c r="A235" s="2">
         <v>44164</v>
       </c>
@@ -2324,7 +2269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:2">
       <c r="A236" s="2">
         <v>44165</v>
       </c>
@@ -2332,7 +2277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:2">
       <c r="A237" s="2">
         <v>44166</v>
       </c>
@@ -2340,7 +2285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:2">
       <c r="A238" s="2">
         <v>44167</v>
       </c>
@@ -2348,7 +2293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:2">
       <c r="A239" s="2">
         <v>44168</v>
       </c>
@@ -2356,7 +2301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:2">
       <c r="A240" s="2">
         <v>44169</v>
       </c>
@@ -2364,7 +2309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:2">
       <c r="A241" s="2">
         <v>44170</v>
       </c>
@@ -2372,7 +2317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:2">
       <c r="A242" s="2">
         <v>44172</v>
       </c>
@@ -2380,7 +2325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:2">
       <c r="A243" s="2">
         <v>44173</v>
       </c>
@@ -2388,7 +2333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:2">
       <c r="A244" s="2">
         <v>44174</v>
       </c>
@@ -2396,7 +2341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:2">
       <c r="A245" s="2">
         <v>44175</v>
       </c>
@@ -2404,7 +2349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:2">
       <c r="A246" s="2">
         <v>44176</v>
       </c>
@@ -2412,7 +2357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:2">
       <c r="A247" s="2">
         <v>44177</v>
       </c>
@@ -2420,7 +2365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:2">
       <c r="A248" s="2">
         <v>44178</v>
       </c>
@@ -2428,7 +2373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:2">
       <c r="A249" s="2">
         <v>44179</v>
       </c>
@@ -2436,7 +2381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:2">
       <c r="A250" s="2">
         <v>44180</v>
       </c>
@@ -2444,7 +2389,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:2">
       <c r="A251" s="2">
         <v>44181</v>
       </c>
@@ -2452,7 +2397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:2">
       <c r="A252" s="2">
         <v>44182</v>
       </c>
@@ -2460,7 +2405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:2">
       <c r="A253" s="2">
         <v>44183</v>
       </c>
@@ -2468,7 +2413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:2">
       <c r="A254" s="2">
         <v>44184</v>
       </c>
@@ -2476,7 +2421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:2">
       <c r="A255" s="2">
         <v>44185</v>
       </c>
@@ -2484,7 +2429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:2">
       <c r="A256" s="2">
         <v>44186</v>
       </c>
@@ -2492,7 +2437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:2">
       <c r="A257" s="2">
         <v>44187</v>
       </c>
@@ -2500,7 +2445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:2">
       <c r="A258" s="2">
         <v>44189</v>
       </c>
@@ -2508,7 +2453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:2">
       <c r="A259" s="2">
         <v>44190</v>
       </c>
@@ -2516,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:2">
       <c r="A260" s="2">
         <v>44191</v>
       </c>
@@ -2524,7 +2469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:2">
       <c r="A261" s="2">
         <v>44192</v>
       </c>
@@ -2532,7 +2477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:2">
       <c r="A262" s="2">
         <v>44193</v>
       </c>
@@ -2540,7 +2485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:2">
       <c r="A263" s="2">
         <v>44194</v>
       </c>
@@ -2548,7 +2493,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:2">
       <c r="A264" s="2">
         <v>44195</v>
       </c>
@@ -2556,7 +2501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:2">
       <c r="A265" s="2">
         <v>44196</v>
       </c>
@@ -2564,7 +2509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:2">
       <c r="A266" s="2">
         <v>44197</v>
       </c>
@@ -2572,7 +2517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:2">
       <c r="A267" s="2">
         <v>44198</v>
       </c>
@@ -2580,7 +2525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:2">
       <c r="A268" s="2">
         <v>44199</v>
       </c>
@@ -2588,7 +2533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:2">
       <c r="A269" s="2">
         <v>44200</v>
       </c>
@@ -2596,7 +2541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:2">
       <c r="A270" s="2">
         <v>44201</v>
       </c>
@@ -2604,7 +2549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:2">
       <c r="A271" s="2">
         <v>44202</v>
       </c>
@@ -2612,7 +2557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:2">
       <c r="A272" s="2">
         <v>44203</v>
       </c>
@@ -2620,7 +2565,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:2">
       <c r="A273" s="2">
         <v>44204</v>
       </c>
@@ -2628,7 +2573,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:2">
       <c r="A274" s="2">
         <v>44205</v>
       </c>
@@ -2636,7 +2581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:2">
       <c r="A275" s="2">
         <v>44206</v>
       </c>
@@ -2644,7 +2589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:2">
       <c r="A276" s="2">
         <v>44207</v>
       </c>
@@ -2652,7 +2597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:2">
       <c r="A277" s="2">
         <v>44208</v>
       </c>
@@ -2660,7 +2605,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:2">
       <c r="A278" s="2">
         <v>44209</v>
       </c>
@@ -2668,7 +2613,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:2">
       <c r="A279" s="2">
         <v>44210</v>
       </c>
@@ -2676,7 +2621,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:2">
       <c r="A280" s="2">
         <v>44211</v>
       </c>
@@ -2684,7 +2629,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:2">
       <c r="A281" s="2">
         <v>44212</v>
       </c>
@@ -2692,7 +2637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:2">
       <c r="A282" s="2">
         <v>44213</v>
       </c>
@@ -2700,7 +2645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:2">
       <c r="A283" s="2">
         <v>44214</v>
       </c>
@@ -2708,7 +2653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:2">
       <c r="A284" s="2">
         <v>44215</v>
       </c>
@@ -2716,7 +2661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:2">
       <c r="A285" s="2">
         <v>44216</v>
       </c>
@@ -2724,7 +2669,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:2">
       <c r="A286" s="2">
         <v>44217</v>
       </c>
@@ -2732,7 +2677,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:2">
       <c r="A287" s="2">
         <v>44218</v>
       </c>
@@ -2740,7 +2685,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:2">
       <c r="A288" s="2">
         <v>44219</v>
       </c>
@@ -2748,7 +2693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:2">
       <c r="A289" s="2">
         <v>44220</v>
       </c>
@@ -2756,7 +2701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:2">
       <c r="A290" s="2">
         <v>44221</v>
       </c>
@@ -2764,7 +2709,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:2">
       <c r="A291" s="2">
         <v>44222</v>
       </c>
@@ -2772,7 +2717,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:2">
       <c r="A292" s="2">
         <v>44223</v>
       </c>
@@ -2780,7 +2725,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:2">
       <c r="A293" s="2">
         <v>44224</v>
       </c>
@@ -2788,7 +2733,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:2">
       <c r="A294" s="2">
         <v>44225</v>
       </c>
@@ -2796,7 +2741,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:2">
       <c r="A295" s="2">
         <v>44226</v>
       </c>
@@ -2804,7 +2749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:2">
       <c r="A296" s="2">
         <v>44227</v>
       </c>
@@ -2812,7 +2757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:2">
       <c r="A297" s="2">
         <v>44228</v>
       </c>
@@ -2820,7 +2765,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:2">
       <c r="A298" s="2">
         <v>44229</v>
       </c>
@@ -2828,7 +2773,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:2">
       <c r="A299" s="2">
         <v>44230</v>
       </c>
@@ -2836,7 +2781,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:2">
       <c r="A300" s="2">
         <v>44231</v>
       </c>
@@ -2844,7 +2789,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:2">
       <c r="A301" s="2">
         <v>44232</v>
       </c>
@@ -2852,7 +2797,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:2">
       <c r="A302" s="2">
         <v>44233</v>
       </c>
@@ -2860,7 +2805,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:2">
       <c r="A303" s="2">
         <v>44234</v>
       </c>
@@ -2868,7 +2813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:2">
       <c r="A304" s="2">
         <v>44235</v>
       </c>
@@ -2876,7 +2821,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:2">
       <c r="A305" s="2">
         <v>44236</v>
       </c>
@@ -2884,7 +2829,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:2">
       <c r="A306" s="2">
         <v>44237</v>
       </c>
@@ -2892,7 +2837,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:2">
       <c r="A307" s="2">
         <v>44238</v>
       </c>
@@ -2900,7 +2845,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:2">
       <c r="A308" s="2">
         <v>44239</v>
       </c>
@@ -2908,7 +2853,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:2">
       <c r="A309" s="2">
         <v>44240</v>
       </c>
@@ -2916,7 +2861,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:2">
       <c r="A310" s="2">
         <v>44241</v>
       </c>
@@ -2924,7 +2869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:2">
       <c r="A311" s="2">
         <v>44242</v>
       </c>
@@ -2932,7 +2877,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:2">
       <c r="A312" s="2">
         <v>44243</v>
       </c>
@@ -2940,7 +2885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:2">
       <c r="A313" s="2">
         <v>44244</v>
       </c>
@@ -2948,7 +2893,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:2">
       <c r="A314" s="2">
         <v>44245</v>
       </c>
@@ -2956,7 +2901,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:2">
       <c r="A315" s="2">
         <v>44246</v>
       </c>
@@ -2964,7 +2909,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:2">
       <c r="A316" s="2">
         <v>44247</v>
       </c>
@@ -2972,7 +2917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:2">
       <c r="A317" s="2">
         <v>44248</v>
       </c>
@@ -2980,7 +2925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:2">
       <c r="A318" s="2">
         <v>44249</v>
       </c>
@@ -2988,7 +2933,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:2">
       <c r="A319" s="2">
         <v>44250</v>
       </c>
@@ -2996,7 +2941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:2">
       <c r="A320" s="2">
         <v>44251</v>
       </c>
@@ -3004,7 +2949,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:2">
       <c r="A321" s="2">
         <v>44252</v>
       </c>
@@ -3012,7 +2957,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:2">
       <c r="A322" s="2">
         <v>44253</v>
       </c>
@@ -3020,7 +2965,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:2">
       <c r="A323" s="2">
         <v>44254</v>
       </c>
@@ -3028,7 +2973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:2">
       <c r="A324" s="2">
         <v>44255</v>
       </c>
@@ -3036,7 +2981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:2">
       <c r="A325" s="2">
         <v>44256</v>
       </c>
@@ -3044,7 +2989,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:2">
       <c r="A326" s="2">
         <v>44257</v>
       </c>
@@ -3052,7 +2997,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:2">
       <c r="A327" s="2">
         <v>44258</v>
       </c>
@@ -3060,7 +3005,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:2">
       <c r="A328" s="2">
         <v>44259</v>
       </c>
@@ -3068,7 +3013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:2">
       <c r="A329" s="2">
         <v>44260</v>
       </c>
@@ -3076,7 +3021,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:2">
       <c r="A330" s="2">
         <v>44261</v>
       </c>
@@ -3084,7 +3029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:2">
       <c r="A331" s="2">
         <v>44262</v>
       </c>
@@ -3092,7 +3037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:2">
       <c r="A332" s="2">
         <v>44263</v>
       </c>
@@ -3100,7 +3045,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:2">
       <c r="A333" s="2">
         <v>44264</v>
       </c>
@@ -3108,7 +3053,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:2">
       <c r="A334" s="2">
         <v>44265</v>
       </c>
@@ -3116,7 +3061,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:2">
       <c r="A335" s="2">
         <v>44266</v>
       </c>
@@ -3124,7 +3069,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:2">
       <c r="A336" s="2">
         <v>44267</v>
       </c>
@@ -3132,7 +3077,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:2">
       <c r="A337" s="2">
         <v>44268</v>
       </c>
@@ -3140,7 +3085,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:2">
       <c r="A338" s="2">
         <v>44269</v>
       </c>
@@ -3148,7 +3093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:2">
       <c r="A339" s="2">
         <v>44270</v>
       </c>
@@ -3156,7 +3101,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:2">
       <c r="A340" s="2">
         <v>44271</v>
       </c>
@@ -3164,7 +3109,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:2">
       <c r="A341" s="2">
         <v>44272</v>
       </c>
@@ -3172,7 +3117,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:2">
       <c r="A342" s="2">
         <v>44273</v>
       </c>
@@ -3180,7 +3125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:2">
       <c r="A343" s="2">
         <v>44274</v>
       </c>
@@ -3188,7 +3133,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:2">
       <c r="A344" s="2">
         <v>44275</v>
       </c>
@@ -3196,7 +3141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:2">
       <c r="A345" s="2">
         <v>44276</v>
       </c>
@@ -3204,7 +3149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:2">
       <c r="A346" s="2">
         <v>44277</v>
       </c>
@@ -3212,7 +3157,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:2">
       <c r="A347" s="2">
         <v>44278</v>
       </c>
@@ -3220,7 +3165,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:2">
       <c r="A348" s="2">
         <v>44279</v>
       </c>
@@ -3228,7 +3173,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:2">
       <c r="A349" s="2">
         <v>44280</v>
       </c>
@@ -3236,7 +3181,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:2">
       <c r="A350" s="2">
         <v>44281</v>
       </c>
@@ -3244,7 +3189,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:2">
       <c r="A351" s="2">
         <v>44282</v>
       </c>
@@ -3252,7 +3197,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:2">
       <c r="A352" s="2">
         <v>44283</v>
       </c>
@@ -3260,7 +3205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:2">
       <c r="A353" s="2">
         <v>44284</v>
       </c>
@@ -3268,7 +3213,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:2">
       <c r="A354" s="2">
         <v>44285</v>
       </c>
@@ -3276,7 +3221,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:2">
       <c r="A355" s="2">
         <v>44286</v>
       </c>
@@ -3284,7 +3229,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:2">
       <c r="A356" s="2">
         <v>44287</v>
       </c>
@@ -3292,7 +3237,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:2">
       <c r="A357" s="2">
         <v>44288</v>
       </c>
@@ -3300,7 +3245,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:2">
       <c r="A358" s="2">
         <v>44289</v>
       </c>
@@ -3308,7 +3253,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:2">
       <c r="A359" s="2">
         <v>44290</v>
       </c>
@@ -3316,7 +3261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:2">
       <c r="A360" s="2">
         <v>44291</v>
       </c>
@@ -3324,7 +3269,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:2">
       <c r="A361" s="2">
         <v>44292</v>
       </c>
@@ -3332,7 +3277,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:2">
       <c r="A362" s="2">
         <v>44293</v>
       </c>
@@ -3340,7 +3285,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:2">
       <c r="A363" s="2">
         <v>44294</v>
       </c>
@@ -3348,7 +3293,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:2">
       <c r="A364" s="2">
         <v>44295</v>
       </c>
@@ -3356,7 +3301,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:2">
       <c r="A365" s="2">
         <v>44296</v>
       </c>
@@ -3364,7 +3309,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:2">
       <c r="A366" s="2">
         <v>44297</v>
       </c>
@@ -3372,7 +3317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:2">
       <c r="A367" s="2">
         <v>44298</v>
       </c>
@@ -3380,7 +3325,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:2">
       <c r="A368" s="2">
         <v>44299</v>
       </c>
@@ -3388,7 +3333,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:2">
       <c r="A369" s="2">
         <v>44300</v>
       </c>
@@ -3396,7 +3341,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:2">
       <c r="A370" s="2">
         <v>44301</v>
       </c>
@@ -3404,7 +3349,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:2">
       <c r="A371" s="2">
         <v>44302</v>
       </c>
@@ -3412,7 +3357,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:2">
       <c r="A372" s="2">
         <v>44303</v>
       </c>
@@ -3420,7 +3365,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:2">
       <c r="A373" s="2">
         <v>44304</v>
       </c>
@@ -3428,7 +3373,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:2">
       <c r="A374" s="2">
         <v>44305</v>
       </c>
@@ -3436,7 +3381,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:2">
       <c r="A375" s="2">
         <v>44306</v>
       </c>
@@ -3444,7 +3389,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:2">
       <c r="A376" s="2">
         <v>44307</v>
       </c>
@@ -3452,7 +3397,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:2">
       <c r="A377" s="2">
         <v>44308</v>
       </c>
@@ -3460,7 +3405,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:2">
       <c r="A378" s="2">
         <v>44309</v>
       </c>
@@ -3468,7 +3413,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:2">
       <c r="A379" s="2">
         <v>44310</v>
       </c>
@@ -3476,7 +3421,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:2">
       <c r="A380" s="2">
         <v>44311</v>
       </c>
@@ -3484,7 +3429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:2">
       <c r="A381" s="2">
         <v>44312</v>
       </c>
@@ -3492,7 +3437,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:2">
       <c r="A382" s="2">
         <v>44313</v>
       </c>
@@ -3500,7 +3445,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:2">
       <c r="A383" s="2">
         <v>44314</v>
       </c>
@@ -3508,7 +3453,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:2">
       <c r="A384" s="2">
         <v>44315</v>
       </c>
@@ -3516,7 +3461,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:2">
       <c r="A385" s="2">
         <v>44316</v>
       </c>
@@ -3524,7 +3469,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:2">
       <c r="A386" s="2">
         <v>44317</v>
       </c>
@@ -3532,7 +3477,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:2">
       <c r="A387" s="2">
         <v>44318</v>
       </c>
@@ -3540,7 +3485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:2">
       <c r="A388" s="2">
         <v>44319</v>
       </c>
@@ -3548,7 +3493,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:2">
       <c r="A389" s="2">
         <v>44320</v>
       </c>
@@ -3556,7 +3501,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:2">
       <c r="A390" s="2">
         <v>44321</v>
       </c>
@@ -3564,7 +3509,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:2">
       <c r="A391" s="2">
         <v>44322</v>
       </c>
@@ -3572,7 +3517,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:2">
       <c r="A392" s="2">
         <v>44323</v>
       </c>
@@ -3580,7 +3525,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:2">
       <c r="A393" s="2">
         <v>44324</v>
       </c>
@@ -3588,7 +3533,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:2">
       <c r="A394" s="2">
         <v>44325</v>
       </c>
@@ -3596,7 +3541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:2">
       <c r="A395" s="2">
         <v>44326</v>
       </c>
@@ -3604,7 +3549,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:2">
       <c r="A396" s="2">
         <v>44327</v>
       </c>
@@ -3612,7 +3557,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:2">
       <c r="A397" s="2">
         <v>44328</v>
       </c>
@@ -3620,7 +3565,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:2">
       <c r="A398" s="2">
         <v>44329</v>
       </c>
@@ -3628,7 +3573,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:2">
       <c r="A399" s="2">
         <v>44330</v>
       </c>
@@ -3636,7 +3581,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:2">
       <c r="A400" s="2">
         <v>44331</v>
       </c>
@@ -3644,7 +3589,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:2">
       <c r="A401" s="2">
         <v>44332</v>
       </c>
@@ -3652,7 +3597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:2">
       <c r="A402" s="2">
         <v>44333</v>
       </c>
@@ -3660,7 +3605,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:2">
       <c r="A403" s="2">
         <v>44334</v>
       </c>
@@ -3668,7 +3613,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:2">
       <c r="A404" s="2">
         <v>44335</v>
       </c>
@@ -3676,7 +3621,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:2">
       <c r="A405" s="2">
         <v>44336</v>
       </c>
@@ -3684,7 +3629,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:2">
       <c r="A406" s="2">
         <v>44337</v>
       </c>
@@ -3692,7 +3637,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:2">
       <c r="A407" s="2">
         <v>44338</v>
       </c>
@@ -3700,7 +3645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:2">
       <c r="A408" s="2">
         <v>44339</v>
       </c>
@@ -3708,7 +3653,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:2">
       <c r="A409" s="2">
         <v>44340</v>
       </c>
@@ -3716,7 +3661,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:2">
       <c r="A410" s="2">
         <v>44341</v>
       </c>
@@ -3724,7 +3669,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:2">
       <c r="A411" s="2">
         <v>44342</v>
       </c>
@@ -3732,7 +3677,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:2">
       <c r="A412" s="2">
         <v>44343</v>
       </c>
@@ -3740,7 +3685,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:2">
       <c r="A413" s="2">
         <v>44344</v>
       </c>
@@ -3748,7 +3693,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:2">
       <c r="A414" s="2">
         <v>44345</v>
       </c>
@@ -3756,7 +3701,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:2">
       <c r="A415" s="2">
         <v>44346</v>
       </c>
@@ -3764,7 +3709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:2">
       <c r="A416" s="2">
         <v>44347</v>
       </c>
@@ -3772,7 +3717,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:2">
       <c r="A417" s="2">
         <v>44348</v>
       </c>
@@ -3780,7 +3725,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:2">
       <c r="A418" s="2">
         <v>44349</v>
       </c>
@@ -3788,7 +3733,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:2">
       <c r="A419" s="2">
         <v>44350</v>
       </c>
@@ -3796,7 +3741,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:2">
       <c r="A420" s="2">
         <v>44351</v>
       </c>
@@ -3804,7 +3749,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:2">
       <c r="A421" s="2">
         <v>44352</v>
       </c>
@@ -3812,7 +3757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:2">
       <c r="A422" s="2">
         <v>44353</v>
       </c>
@@ -3820,7 +3765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:2">
       <c r="A423" s="2">
         <v>44354</v>
       </c>
@@ -3828,7 +3773,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:2">
       <c r="A424" s="2">
         <v>44355</v>
       </c>
@@ -3836,7 +3781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:2">
       <c r="A425" s="2">
         <v>44356</v>
       </c>
@@ -3844,7 +3789,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:2">
       <c r="A426" s="2">
         <v>44357</v>
       </c>
@@ -3852,7 +3797,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:2">
       <c r="A427" s="2">
         <v>44358</v>
       </c>
@@ -3860,7 +3805,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:2">
       <c r="A428" s="2">
         <v>44359</v>
       </c>
@@ -3868,7 +3813,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:2">
       <c r="A429" s="2">
         <v>44360</v>
       </c>
@@ -3876,7 +3821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:2">
       <c r="A430" s="2">
         <v>44361</v>
       </c>
@@ -3884,7 +3829,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:2">
       <c r="A431" s="2">
         <v>44362</v>
       </c>
@@ -3892,7 +3837,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:2">
       <c r="A432" s="2">
         <v>44363</v>
       </c>
@@ -3900,7 +3845,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:2">
       <c r="A433" s="2">
         <v>44364</v>
       </c>
@@ -3908,7 +3853,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:2">
       <c r="A434" s="2">
         <v>44365</v>
       </c>
@@ -3916,7 +3861,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:2">
       <c r="A435" s="2">
         <v>44366</v>
       </c>
@@ -3924,7 +3869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:2">
       <c r="A436" s="2">
         <v>44367</v>
       </c>
@@ -3932,7 +3877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:2">
       <c r="A437" s="2">
         <v>44368</v>
       </c>
@@ -3940,7 +3885,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:2">
       <c r="A438" s="2">
         <v>44369</v>
       </c>
@@ -3948,7 +3893,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:2">
       <c r="A439" s="2">
         <v>44370</v>
       </c>
@@ -3956,7 +3901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:2">
       <c r="A440" s="2">
         <v>44371</v>
       </c>
@@ -3964,7 +3909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:2">
       <c r="A441" s="2">
         <v>44372</v>
       </c>
@@ -3972,7 +3917,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:2">
       <c r="A442" s="2">
         <v>44373</v>
       </c>
@@ -3980,7 +3925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:2">
       <c r="A443" s="2">
         <v>44374</v>
       </c>
@@ -3988,7 +3933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:2">
       <c r="A444" s="2">
         <v>44375</v>
       </c>
@@ -3996,7 +3941,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:2">
       <c r="A445" s="2">
         <v>44376</v>
       </c>
@@ -4004,7 +3949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:2">
       <c r="A446" s="2">
         <v>44377</v>
       </c>
@@ -4012,7 +3957,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:2">
       <c r="A447" s="2">
         <v>44378</v>
       </c>
@@ -4020,7 +3965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:2">
       <c r="A448" s="2">
         <v>44379</v>
       </c>
@@ -4028,7 +3973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:2">
       <c r="A449" s="2">
         <v>44380</v>
       </c>
@@ -4036,7 +3981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:2">
       <c r="A450" s="2">
         <v>44381</v>
       </c>
@@ -4044,7 +3989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:2">
       <c r="A451" s="2">
         <v>44382</v>
       </c>
@@ -4052,7 +3997,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:2">
       <c r="A452" s="2">
         <v>44383</v>
       </c>
@@ -4060,7 +4005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:2">
       <c r="A453" s="2">
         <v>44384</v>
       </c>
@@ -4068,7 +4013,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:2">
       <c r="A454" s="2">
         <v>44385</v>
       </c>
@@ -4076,7 +4021,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:2">
       <c r="A455" s="2">
         <v>44386</v>
       </c>
@@ -4084,7 +4029,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:2">
       <c r="A456" s="2">
         <v>44387</v>
       </c>
@@ -4092,7 +4037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:2">
       <c r="A457" s="2">
         <v>44388</v>
       </c>
@@ -4100,7 +4045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:2">
       <c r="A458" s="2">
         <v>44389</v>
       </c>
@@ -4108,7 +4053,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:2">
       <c r="A459" s="2">
         <v>44390</v>
       </c>
@@ -4116,7 +4061,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:2">
       <c r="A460" s="2">
         <v>44391</v>
       </c>
@@ -4124,7 +4069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:2">
       <c r="A461" s="2">
         <v>44392</v>
       </c>
@@ -4132,7 +4077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:2">
       <c r="A462" s="2">
         <v>44393</v>
       </c>
@@ -4140,7 +4085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:2">
       <c r="A463" s="2">
         <v>44394</v>
       </c>
@@ -4148,7 +4093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:2">
       <c r="A464" s="2">
         <v>44395</v>
       </c>
@@ -4156,7 +4101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:2">
       <c r="A465" s="2">
         <v>44396</v>
       </c>
@@ -4164,7 +4109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:2">
       <c r="A466" s="2">
         <v>44397</v>
       </c>
@@ -4172,7 +4117,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:2">
       <c r="A467" s="2">
         <v>44398</v>
       </c>
@@ -4180,7 +4125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:2">
       <c r="A468" s="2">
         <v>44399</v>
       </c>
@@ -4188,7 +4133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:2">
       <c r="A469" s="2">
         <v>44400</v>
       </c>
@@ -4196,7 +4141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:2">
       <c r="A470" s="2">
         <v>44401</v>
       </c>
@@ -4204,7 +4149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:2">
       <c r="A471" s="2">
         <v>44402</v>
       </c>
@@ -4212,7 +4157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:2">
       <c r="A472" s="2">
         <v>44403</v>
       </c>
@@ -4220,7 +4165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:2">
       <c r="A473" s="2">
         <v>44404</v>
       </c>
@@ -4228,7 +4173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:2">
       <c r="A474" s="2">
         <v>44405</v>
       </c>
@@ -4236,7 +4181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:2">
       <c r="A475" s="2">
         <v>44406</v>
       </c>
@@ -4244,7 +4189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:2">
       <c r="A476" s="2">
         <v>44407</v>
       </c>
@@ -4252,7 +4197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:2">
       <c r="A477" s="2">
         <v>44408</v>
       </c>
@@ -4260,7 +4205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:2">
       <c r="A478" s="2">
         <v>44409</v>
       </c>
@@ -4268,7 +4213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:2">
       <c r="A479" s="2">
         <v>44410</v>
       </c>
@@ -4276,7 +4221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:2">
       <c r="A480" s="2">
         <v>44411</v>
       </c>
@@ -4284,7 +4229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:2">
       <c r="A481" s="2">
         <v>44412</v>
       </c>
@@ -4292,7 +4237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:2">
       <c r="A482" s="2">
         <v>44413</v>
       </c>
@@ -4300,7 +4245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:2">
       <c r="A483" s="2">
         <v>44414</v>
       </c>
@@ -4308,7 +4253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:2">
       <c r="A484" s="2">
         <v>44415</v>
       </c>
@@ -4316,7 +4261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:2">
       <c r="A485" s="2">
         <v>44416</v>
       </c>
@@ -4324,7 +4269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:2">
       <c r="A486" s="2">
         <v>44417</v>
       </c>
@@ -4332,7 +4277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:2">
       <c r="A487" s="2">
         <v>44418</v>
       </c>
@@ -4340,7 +4285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:2">
       <c r="A488" s="2">
         <v>44419</v>
       </c>
@@ -4348,7 +4293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:2">
       <c r="A489" s="2">
         <v>44420</v>
       </c>
@@ -4356,7 +4301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:2">
       <c r="A490" s="2">
         <v>44421</v>
       </c>
@@ -4364,7 +4309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:2">
       <c r="A491" s="2">
         <v>44422</v>
       </c>
@@ -4372,7 +4317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:2">
       <c r="A492" s="2">
         <v>44423</v>
       </c>
@@ -4380,7 +4325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:2">
       <c r="A493" s="2">
         <v>44424</v>
       </c>
@@ -4388,7 +4333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:2">
       <c r="A494" s="2">
         <v>44425</v>
       </c>
@@ -4396,7 +4341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:2">
       <c r="A495" s="2">
         <v>44426</v>
       </c>
@@ -4404,7 +4349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:2">
       <c r="A496" s="2">
         <v>44427</v>
       </c>
@@ -4412,7 +4357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:2">
       <c r="A497" s="2">
         <v>44428</v>
       </c>
@@ -4420,7 +4365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:2">
       <c r="A498" s="2">
         <v>44429</v>
       </c>
@@ -4428,7 +4373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:2">
       <c r="A499" s="2">
         <v>44430</v>
       </c>
@@ -4436,7 +4381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:2">
       <c r="A500" s="2">
         <v>44431</v>
       </c>
@@ -4444,7 +4389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:2">
       <c r="A501" s="2">
         <v>44432</v>
       </c>
@@ -4452,7 +4397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:2">
       <c r="A502" s="2">
         <v>44433</v>
       </c>
@@ -4460,7 +4405,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:2">
       <c r="A503" s="2">
         <v>44434</v>
       </c>
@@ -4468,7 +4413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:2">
       <c r="A504" s="2">
         <v>44435</v>
       </c>
@@ -4476,7 +4421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:2">
       <c r="A505" s="2">
         <v>44436</v>
       </c>
@@ -4484,7 +4429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:2">
       <c r="A506" s="2">
         <v>44437</v>
       </c>
@@ -4492,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:2">
       <c r="A507" s="2">
         <v>44438</v>
       </c>
@@ -4500,7 +4445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:2">
       <c r="A508" s="2">
         <v>44439</v>
       </c>
@@ -4508,7 +4453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:2">
       <c r="A509" s="2">
         <v>44440</v>
       </c>
@@ -4516,7 +4461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:2">
       <c r="A510" s="2">
         <v>44441</v>
       </c>
@@ -4524,7 +4469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:2">
       <c r="A511" s="2">
         <v>44442</v>
       </c>
@@ -4532,7 +4477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:2">
       <c r="A512" s="2">
         <v>44443</v>
       </c>
@@ -4540,7 +4485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:2">
       <c r="A513" s="2">
         <v>44444</v>
       </c>
@@ -4548,7 +4493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:2">
       <c r="A514" s="2">
         <v>44445</v>
       </c>
@@ -4556,7 +4501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:2">
       <c r="A515" s="2">
         <v>44446</v>
       </c>
@@ -4564,7 +4509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:2">
       <c r="A516" s="2">
         <v>44447</v>
       </c>
@@ -4572,7 +4517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:2">
       <c r="A517" s="2">
         <v>44448</v>
       </c>
@@ -4580,7 +4525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:2">
       <c r="A518" s="2">
         <v>44449</v>
       </c>
@@ -4588,7 +4533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:2">
       <c r="A519" s="2">
         <v>44450</v>
       </c>
@@ -4596,7 +4541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:2">
       <c r="A520" s="2">
         <v>44451</v>
       </c>
@@ -4604,7 +4549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:2">
       <c r="A521" s="2">
         <v>44452</v>
       </c>
@@ -4612,7 +4557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:2">
       <c r="A522" s="2">
         <v>44453</v>
       </c>
@@ -4620,7 +4565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:2">
       <c r="A523" s="2">
         <v>44454</v>
       </c>
@@ -4628,7 +4573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:2">
       <c r="A524" s="2">
         <v>44455</v>
       </c>
@@ -4636,7 +4581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:2">
       <c r="A525" s="2">
         <v>44456</v>
       </c>
@@ -4644,7 +4589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:2">
       <c r="A526" s="2">
         <v>44457</v>
       </c>
@@ -4652,7 +4597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:2">
       <c r="A527" s="2">
         <v>44458</v>
       </c>
@@ -4660,7 +4605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:2">
       <c r="A528" s="2">
         <v>44459</v>
       </c>
@@ -4668,7 +4613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:2">
       <c r="A529" s="2">
         <v>44460</v>
       </c>
@@ -4676,7 +4621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:2">
       <c r="A530" s="2">
         <v>44461</v>
       </c>
@@ -4684,7 +4629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:2">
       <c r="A531" s="2">
         <v>44462</v>
       </c>
@@ -4692,7 +4637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:2">
       <c r="A532" s="2">
         <v>44463</v>
       </c>
@@ -4700,7 +4645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:2">
       <c r="A533" s="2">
         <v>44464</v>
       </c>
@@ -4708,7 +4653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:2">
       <c r="A534" s="2">
         <v>44465</v>
       </c>
@@ -4716,7 +4661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:2">
       <c r="A535" s="2">
         <v>44466</v>
       </c>
@@ -4724,7 +4669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:2">
       <c r="A536" s="2">
         <v>44467</v>
       </c>
@@ -4732,7 +4677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:2">
       <c r="A537" s="2">
         <v>44468</v>
       </c>
@@ -4740,7 +4685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:2">
       <c r="A538" s="2">
         <v>44469</v>
       </c>
@@ -4748,7 +4693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:2">
       <c r="A539" s="2">
         <v>44470</v>
       </c>
@@ -4756,7 +4701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:2">
       <c r="A540" s="2">
         <v>44471</v>
       </c>
@@ -4764,7 +4709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:2">
       <c r="A541" s="2">
         <v>44473</v>
       </c>
@@ -4772,7 +4717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:2">
       <c r="A542" s="2">
         <v>44474</v>
       </c>
@@ -4780,7 +4725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:2">
       <c r="A543" s="2">
         <v>44475</v>
       </c>
@@ -4788,7 +4733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:2">
       <c r="A544" s="2">
         <v>44476</v>
       </c>
@@ -4796,7 +4741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:2">
       <c r="A545" s="2">
         <v>44477</v>
       </c>
@@ -4804,7 +4749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:2">
       <c r="A546" s="2">
         <v>44478</v>
       </c>
@@ -4812,7 +4757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:2">
       <c r="A547" s="2">
         <v>44479</v>
       </c>
@@ -4820,7 +4765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:2">
       <c r="A548" s="2">
         <v>44480</v>
       </c>
@@ -4828,7 +4773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:2">
       <c r="A549" s="2">
         <v>44481</v>
       </c>
@@ -4836,7 +4781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:2">
       <c r="A550" s="2">
         <v>44482</v>
       </c>
@@ -4844,7 +4789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:2">
       <c r="A551" s="2">
         <v>44483</v>
       </c>
@@ -4852,7 +4797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:2">
       <c r="A552" s="2">
         <v>44484</v>
       </c>
@@ -4860,7 +4805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:2">
       <c r="A553" s="2">
         <v>44485</v>
       </c>
@@ -4868,7 +4813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:2">
       <c r="A554" s="2">
         <v>44486</v>
       </c>
@@ -4876,7 +4821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:2">
       <c r="A555" s="2">
         <v>44487</v>
       </c>
@@ -4884,7 +4829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:2">
       <c r="A556" s="2">
         <v>44488</v>
       </c>
@@ -4892,7 +4837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:2">
       <c r="A557" s="2">
         <v>44489</v>
       </c>
@@ -4900,7 +4845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:2">
       <c r="A558" s="2">
         <v>44490</v>
       </c>
@@ -4908,7 +4853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:2">
       <c r="A559" s="2">
         <v>44491</v>
       </c>
@@ -4916,7 +4861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:2">
       <c r="A560" s="2">
         <v>44492</v>
       </c>
@@ -4924,7 +4869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:2">
       <c r="A561" s="2">
         <v>44493</v>
       </c>
@@ -4932,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:2">
       <c r="A562" s="2">
         <v>44494</v>
       </c>
@@ -4940,7 +4885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:2">
       <c r="A563" s="2">
         <v>44495</v>
       </c>
@@ -4948,7 +4893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:2">
       <c r="A564" s="2">
         <v>44496</v>
       </c>
@@ -4956,7 +4901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:2">
       <c r="A565" s="2">
         <v>44497</v>
       </c>
@@ -4964,7 +4909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:2">
       <c r="A566" s="2">
         <v>44498</v>
       </c>
@@ -4972,7 +4917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:2">
       <c r="A567" s="2">
         <v>44499</v>
       </c>
@@ -4980,7 +4925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:2">
       <c r="A568" s="2">
         <v>44500</v>
       </c>
@@ -4988,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:2">
       <c r="A569" s="2">
         <v>44501</v>
       </c>
@@ -4996,7 +4941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:2">
       <c r="A570" s="2">
         <v>44502</v>
       </c>
@@ -5004,7 +4949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:2">
       <c r="A571" s="2">
         <v>44503</v>
       </c>
@@ -5012,7 +4957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:2">
       <c r="A572" s="2">
         <v>44504</v>
       </c>
@@ -5020,7 +4965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:2">
       <c r="A573" s="2">
         <v>44505</v>
       </c>
@@ -5028,7 +4973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:2">
       <c r="A574" s="2">
         <v>44506</v>
       </c>
@@ -5036,7 +4981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:2">
       <c r="A575" s="2">
         <v>44508</v>
       </c>
@@ -5044,7 +4989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:2">
       <c r="A576" s="2">
         <v>44509</v>
       </c>
@@ -5052,7 +4997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:2">
       <c r="A577" s="2">
         <v>44510</v>
       </c>
@@ -5060,7 +5005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:2">
       <c r="A578" s="2">
         <v>44511</v>
       </c>
@@ -5068,7 +5013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:2">
       <c r="A579" s="2">
         <v>44512</v>
       </c>
@@ -5076,7 +5021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:2">
       <c r="A580" s="2">
         <v>44513</v>
       </c>
@@ -5084,7 +5029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:2">
       <c r="A581" s="2">
         <v>44514</v>
       </c>
@@ -5092,7 +5037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:2">
       <c r="A582" s="2">
         <v>44515</v>
       </c>
@@ -5100,7 +5045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:2">
       <c r="A583" s="2">
         <v>44516</v>
       </c>
@@ -5108,7 +5053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:2">
       <c r="A584" s="2">
         <v>44517</v>
       </c>
@@ -5116,7 +5061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:2">
       <c r="A585" s="2">
         <v>44518</v>
       </c>
@@ -5124,7 +5069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:2">
       <c r="A586" s="2">
         <v>44519</v>
       </c>
@@ -5132,7 +5077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:2">
       <c r="A587" s="2">
         <v>44520</v>
       </c>
@@ -5140,7 +5085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:2">
       <c r="A588" s="2">
         <v>44522</v>
       </c>
@@ -5148,7 +5093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:2">
       <c r="A589" s="2">
         <v>44523</v>
       </c>
@@ -5156,7 +5101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:2">
       <c r="A590" s="2">
         <v>44524</v>
       </c>
@@ -5164,7 +5109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:2">
       <c r="A591" s="2">
         <v>44525</v>
       </c>
@@ -5172,7 +5117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:2">
       <c r="A592" s="2">
         <v>44526</v>
       </c>
@@ -5180,7 +5125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:2">
       <c r="A593" s="2">
         <v>44527</v>
       </c>
@@ -5188,7 +5133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:2">
       <c r="A594" s="2">
         <v>44528</v>
       </c>
@@ -5196,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:2">
       <c r="A595" s="2">
         <v>44529</v>
       </c>
@@ -5204,7 +5149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:2">
       <c r="A596" s="2">
         <v>44530</v>
       </c>
@@ -5212,7 +5157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:2">
       <c r="A597" s="2">
         <v>44531</v>
       </c>
@@ -5220,7 +5165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:2">
       <c r="A598" s="2">
         <v>44532</v>
       </c>
@@ -5228,7 +5173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:2">
       <c r="A599" s="2">
         <v>44533</v>
       </c>
@@ -5236,7 +5181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:2">
       <c r="A600" s="2">
         <v>44534</v>
       </c>
@@ -5244,7 +5189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:2">
       <c r="A601" s="2">
         <v>44535</v>
       </c>
@@ -5252,7 +5197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:2">
       <c r="A602" s="2">
         <v>44536</v>
       </c>
@@ -5260,7 +5205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:2">
       <c r="A603" s="2">
         <v>44537</v>
       </c>
@@ -5268,7 +5213,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:2">
       <c r="A604" s="2">
         <v>44538</v>
       </c>
@@ -5276,7 +5221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:2">
       <c r="A605" s="2">
         <v>44539</v>
       </c>
@@ -5284,7 +5229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:2">
       <c r="A606" s="2">
         <v>44540</v>
       </c>
@@ -5292,7 +5237,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:2">
       <c r="A607" s="2">
         <v>44541</v>
       </c>
@@ -5300,7 +5245,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:2">
       <c r="A608" s="2">
         <v>44542</v>
       </c>
@@ -5308,7 +5253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:2">
       <c r="A609" s="2">
         <v>44543</v>
       </c>
@@ -5316,7 +5261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:2">
       <c r="A610" s="2">
         <v>44544</v>
       </c>
@@ -5324,7 +5269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:2">
       <c r="A611" s="2">
         <v>44545</v>
       </c>
@@ -5332,7 +5277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:2">
       <c r="A612" s="2">
         <v>44546</v>
       </c>
@@ -5340,7 +5285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:2">
       <c r="A613" s="2">
         <v>44547</v>
       </c>
@@ -5348,7 +5293,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:2">
       <c r="A614" s="2">
         <v>44548</v>
       </c>
@@ -5356,7 +5301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:2">
       <c r="A615" s="2">
         <v>44549</v>
       </c>
@@ -5364,7 +5309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:2">
       <c r="A616" s="2">
         <v>44550</v>
       </c>
@@ -5372,7 +5317,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:2">
       <c r="A617" s="2">
         <v>44551</v>
       </c>
@@ -5380,7 +5325,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:2">
       <c r="A618" s="2">
         <v>44552</v>
       </c>
@@ -5388,7 +5333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:2">
       <c r="A619" s="2">
         <v>44553</v>
       </c>
@@ -5396,7 +5341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:2">
       <c r="A620" s="2">
         <v>44554</v>
       </c>
@@ -5404,7 +5349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:2">
       <c r="A621" s="2">
         <v>44555</v>
       </c>
@@ -5412,7 +5357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:2">
       <c r="A622" s="2">
         <v>44556</v>
       </c>
@@ -5420,7 +5365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:2">
       <c r="A623" s="2">
         <v>44557</v>
       </c>
@@ -5428,7 +5373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:2">
       <c r="A624" s="2">
         <v>44558</v>
       </c>
@@ -5436,7 +5381,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:2">
       <c r="A625" s="2">
         <v>44559</v>
       </c>
@@ -5444,7 +5389,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:2">
       <c r="A626" s="2">
         <v>44560</v>
       </c>
@@ -5452,7 +5397,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:2">
       <c r="A627" s="2">
         <v>44561</v>
       </c>
@@ -5460,7 +5405,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:2">
       <c r="A628" s="2">
         <v>44562</v>
       </c>
@@ -5468,7 +5413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:2">
       <c r="A629" s="2">
         <v>44563</v>
       </c>
@@ -5476,7 +5421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:2">
       <c r="A630" s="2">
         <v>44564</v>
       </c>
@@ -5484,7 +5429,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:2">
       <c r="A631" s="2">
         <v>44565</v>
       </c>
@@ -5492,7 +5437,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:2">
       <c r="A632" s="2">
         <v>44566</v>
       </c>
@@ -5500,7 +5445,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:2">
       <c r="A633" s="2">
         <v>44567</v>
       </c>
@@ -5508,7 +5453,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:2">
       <c r="A634" s="2">
         <v>44568</v>
       </c>
@@ -5516,7 +5461,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:2">
       <c r="A635" s="2">
         <v>44569</v>
       </c>
@@ -5524,7 +5469,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:2">
       <c r="A636" s="2">
         <v>44570</v>
       </c>
@@ -5532,7 +5477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:2">
       <c r="A637" s="2">
         <v>44571</v>
       </c>
@@ -5540,7 +5485,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:2">
       <c r="A638" s="2">
         <v>44572</v>
       </c>
@@ -5548,7 +5493,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:2">
       <c r="A639" s="2">
         <v>44573</v>
       </c>
@@ -5556,7 +5501,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:2">
       <c r="A640" s="2">
         <v>44574</v>
       </c>
@@ -5564,7 +5509,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:2">
       <c r="A641" s="2">
         <v>44575</v>
       </c>
@@ -5572,7 +5517,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:2">
       <c r="A642" s="2">
         <v>44576</v>
       </c>
@@ -5580,7 +5525,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:2">
       <c r="A643" s="2">
         <v>44577</v>
       </c>
@@ -5588,7 +5533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:2">
       <c r="A644" s="2">
         <v>44578</v>
       </c>
@@ -5596,7 +5541,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:2">
       <c r="A645" s="2">
         <v>44579</v>
       </c>
@@ -5604,7 +5549,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:2">
       <c r="A646" s="2">
         <v>44580</v>
       </c>
@@ -5612,7 +5557,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:2">
       <c r="A647" s="2">
         <v>44581</v>
       </c>
@@ -5620,7 +5565,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:2">
       <c r="A648" s="2">
         <v>44582</v>
       </c>
@@ -5628,7 +5573,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:2">
       <c r="A649" s="2">
         <v>44583</v>
       </c>
@@ -5636,7 +5581,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:2">
       <c r="A650" s="2">
         <v>44584</v>
       </c>
@@ -5644,7 +5589,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:2">
       <c r="A651" s="2">
         <v>44585</v>
       </c>
@@ -5652,7 +5597,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:2">
       <c r="A652" s="2">
         <v>44586</v>
       </c>
@@ -5660,7 +5605,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:2">
       <c r="A653" s="2">
         <v>44587</v>
       </c>
@@ -5668,7 +5613,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:2">
       <c r="A654" s="2">
         <v>44588</v>
       </c>
@@ -5676,7 +5621,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:2">
       <c r="A655" s="2">
         <v>44589</v>
       </c>
@@ -5684,7 +5629,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:2">
       <c r="A656" s="2">
         <v>44590</v>
       </c>
@@ -5692,7 +5637,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:2">
       <c r="A657" s="2">
         <v>44591</v>
       </c>
@@ -5700,7 +5645,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:2">
       <c r="A658" s="2">
         <v>44592</v>
       </c>
@@ -5708,7 +5653,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:2">
       <c r="A659" s="2">
         <v>44593</v>
       </c>
@@ -5716,7 +5661,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:2">
       <c r="A660" s="2">
         <v>44594</v>
       </c>
@@ -5724,7 +5669,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:2">
       <c r="A661" s="2">
         <v>44595</v>
       </c>
@@ -5732,7 +5677,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:2">
       <c r="A662" s="2">
         <v>44596</v>
       </c>
@@ -5740,7 +5685,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:2">
       <c r="A663" s="2">
         <v>44597</v>
       </c>
@@ -5748,7 +5693,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:2">
       <c r="A664" s="2">
         <v>44598</v>
       </c>
@@ -5756,7 +5701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:2">
       <c r="A665" s="2">
         <v>44599</v>
       </c>
@@ -5764,7 +5709,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:2">
       <c r="A666" s="2">
         <v>44600</v>
       </c>
@@ -5772,7 +5717,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:2">
       <c r="A667" s="2">
         <v>44601</v>
       </c>
@@ -5780,7 +5725,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:2">
       <c r="A668" s="2">
         <v>44602</v>
       </c>
@@ -5788,7 +5733,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:2">
       <c r="A669" s="2">
         <v>44603</v>
       </c>
@@ -5796,7 +5741,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:2">
       <c r="A670" s="2">
         <v>44604</v>
       </c>
@@ -5804,7 +5749,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:2">
       <c r="A671" s="2">
         <v>44605</v>
       </c>
@@ -5812,7 +5757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:2">
       <c r="A672" s="2">
         <v>44606</v>
       </c>
@@ -5820,7 +5765,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:2">
       <c r="A673" s="2">
         <v>44607</v>
       </c>
@@ -5828,7 +5773,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:2">
       <c r="A674" s="2">
         <v>44608</v>
       </c>
@@ -5836,7 +5781,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:2">
       <c r="A675" s="2">
         <v>44609</v>
       </c>
@@ -5844,7 +5789,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:2">
       <c r="A676" s="2">
         <v>44610</v>
       </c>
@@ -5852,7 +5797,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:2">
       <c r="A677" s="2">
         <v>44611</v>
       </c>
@@ -5860,7 +5805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:2">
       <c r="A678" s="2">
         <v>44612</v>
       </c>
@@ -5868,7 +5813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:2">
       <c r="A679" s="2">
         <v>44613</v>
       </c>
@@ -5876,7 +5821,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:2">
       <c r="A680" s="2">
         <v>44614</v>
       </c>
@@ -5884,7 +5829,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:2">
       <c r="A681" s="2">
         <v>44615</v>
       </c>
@@ -5892,7 +5837,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:2">
       <c r="A682" s="2">
         <v>44616</v>
       </c>
@@ -5900,7 +5845,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:2">
       <c r="A683" s="2">
         <v>44617</v>
       </c>
@@ -5908,7 +5853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:2">
       <c r="A684" s="2">
         <v>44618</v>
       </c>
@@ -5916,7 +5861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:2">
       <c r="A685" s="2">
         <v>44619</v>
       </c>
@@ -5924,7 +5869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:2">
       <c r="A686" s="2">
         <v>44620</v>
       </c>
@@ -5932,7 +5877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:2">
       <c r="A687" s="2">
         <v>44621</v>
       </c>
@@ -5940,7 +5885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:2">
       <c r="A688" s="2">
         <v>44622</v>
       </c>
@@ -5948,7 +5893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:2">
       <c r="A689" s="2">
         <v>44623</v>
       </c>
@@ -5956,7 +5901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:2">
       <c r="A690" s="2">
         <v>44624</v>
       </c>
@@ -5964,7 +5909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:2">
       <c r="A691" s="2">
         <v>44625</v>
       </c>
@@ -5972,7 +5917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:2">
       <c r="A692" s="2">
         <v>44626</v>
       </c>
@@ -5980,7 +5925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:2">
       <c r="A693" s="2">
         <v>44627</v>
       </c>
@@ -5988,7 +5933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:2">
       <c r="A694" s="2">
         <v>44628</v>
       </c>
@@ -5996,7 +5941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:2">
       <c r="A695" s="2">
         <v>44629</v>
       </c>
@@ -6004,7 +5949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:2">
       <c r="A696" s="2">
         <v>44630</v>
       </c>
@@ -6012,7 +5957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:2">
       <c r="A697" s="2">
         <v>44631</v>
       </c>
@@ -6020,7 +5965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:2">
       <c r="A698" s="2">
         <v>44632</v>
       </c>
@@ -6028,7 +5973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:2">
       <c r="A699" s="2">
         <v>44633</v>
       </c>
@@ -6036,7 +5981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:2">
       <c r="A700" s="2">
         <v>44634</v>
       </c>
@@ -6044,7 +5989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:2">
       <c r="A701" s="2">
         <v>44635</v>
       </c>
@@ -6052,7 +5997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:2">
       <c r="A702" s="2">
         <v>44636</v>
       </c>
@@ -6060,7 +6005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:2">
       <c r="A703" s="2">
         <v>44637</v>
       </c>
@@ -6068,7 +6013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:2">
       <c r="A704" s="2">
         <v>44638</v>
       </c>
@@ -6076,7 +6021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:2">
       <c r="A705" s="2">
         <v>44639</v>
       </c>
@@ -6084,7 +6029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:2">
       <c r="A706" s="2">
         <v>44640</v>
       </c>
@@ -6092,7 +6037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:2">
       <c r="A707" s="2">
         <v>44641</v>
       </c>
@@ -6100,7 +6045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:2">
       <c r="A708" s="2">
         <v>44642</v>
       </c>
@@ -6108,7 +6053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:2">
       <c r="A709" s="2">
         <v>44643</v>
       </c>
@@ -6116,7 +6061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:2">
       <c r="A710" s="2">
         <v>44644</v>
       </c>
@@ -6124,7 +6069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:2">
       <c r="A711" s="2">
         <v>44645</v>
       </c>
@@ -6132,7 +6077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:2">
       <c r="A712" s="2">
         <v>44646</v>
       </c>
@@ -6140,7 +6085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:2">
       <c r="A713" s="2">
         <v>44647</v>
       </c>
@@ -6148,7 +6093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:2">
       <c r="A714" s="2">
         <v>44648</v>
       </c>
@@ -6156,7 +6101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:2">
       <c r="A715" s="2">
         <v>44649</v>
       </c>
@@ -6164,7 +6109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:2">
       <c r="A716" s="2">
         <v>44650</v>
       </c>
@@ -6172,7 +6117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:2">
       <c r="A717" s="2">
         <v>44651</v>
       </c>
@@ -6180,7 +6125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:2">
       <c r="A718" s="2">
         <v>44652</v>
       </c>
@@ -6188,7 +6133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:2">
       <c r="A719" s="2">
         <v>44653</v>
       </c>
@@ -6196,7 +6141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:2">
       <c r="A720" s="2">
         <v>44655</v>
       </c>
@@ -6204,7 +6149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:2">
       <c r="A721" s="2">
         <v>44656</v>
       </c>
@@ -6212,7 +6157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:2">
       <c r="A722" s="2">
         <v>44657</v>
       </c>
@@ -6220,7 +6165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:2">
       <c r="A723" s="2">
         <v>44658</v>
       </c>
@@ -6228,7 +6173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:2">
       <c r="A724" s="2">
         <v>44659</v>
       </c>
@@ -6236,7 +6181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:2">
       <c r="A725" s="2">
         <v>44662</v>
       </c>
@@ -6244,7 +6189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:2">
       <c r="A726" s="2">
         <v>44663</v>
       </c>
@@ -6252,7 +6197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:2">
       <c r="A727" s="2">
         <v>44664</v>
       </c>
@@ -6260,7 +6205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:2">
       <c r="A728" s="2">
         <v>44666</v>
       </c>
@@ -6268,7 +6213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:2">
       <c r="A729" s="2">
         <v>44669</v>
       </c>
@@ -6276,7 +6221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:2">
       <c r="A730" s="2">
         <v>44670</v>
       </c>
@@ -6284,7 +6229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:2">
       <c r="A731" s="2">
         <v>44671</v>
       </c>
@@ -6292,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:2">
       <c r="A732" s="2">
         <v>44672</v>
       </c>
@@ -6300,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:2">
       <c r="A733" s="2">
         <v>44673</v>
       </c>
@@ -6308,7 +6253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:2">
       <c r="A734" s="2">
         <v>44676</v>
       </c>
@@ -6316,7 +6261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:2">
       <c r="A735" s="2">
         <v>44678</v>
       </c>
@@ -6324,7 +6269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:2">
       <c r="A736" s="2">
         <v>44679</v>
       </c>
@@ -6332,7 +6277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:2">
       <c r="A737" s="2">
         <v>44680</v>
       </c>
@@ -6340,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:2">
       <c r="A738" s="2">
         <v>44684</v>
       </c>
@@ -6348,7 +6293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:2">
       <c r="A739" s="2">
         <v>44685</v>
       </c>
@@ -6356,7 +6301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:2">
       <c r="A740" s="2">
         <v>44686</v>
       </c>
@@ -6364,7 +6309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:2">
       <c r="A741" s="2">
         <v>44693</v>
       </c>
@@ -6372,7 +6317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:2">
       <c r="A742" s="2">
         <v>44694</v>
       </c>
@@ -6380,7 +6325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:2">
       <c r="A743" s="2">
         <v>44695</v>
       </c>
@@ -6388,7 +6333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:2">
       <c r="A744" s="2">
         <v>44697</v>
       </c>
@@ -6396,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:2">
       <c r="A745" s="2">
         <v>44699</v>
       </c>
@@ -6404,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:2">
       <c r="A746" s="2">
         <v>44702</v>
       </c>
@@ -6412,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:2">
       <c r="A747" s="2">
         <v>44705</v>
       </c>
@@ -6420,7 +6365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:2">
       <c r="A748" s="2">
         <v>44706</v>
       </c>
@@ -6428,7 +6373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:2">
       <c r="A749" s="2">
         <v>44707</v>
       </c>
@@ -6436,7 +6381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:2">
       <c r="A750" s="2">
         <v>44711</v>
       </c>
@@ -6444,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:2">
       <c r="A751" s="2">
         <v>44713</v>
       </c>
@@ -6452,7 +6397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:2">
       <c r="A752" s="2">
         <v>44714</v>
       </c>
@@ -6460,7 +6405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:2">
       <c r="A753" s="2">
         <v>44715</v>
       </c>
@@ -6468,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:2">
       <c r="A754" s="2">
         <v>44719</v>
       </c>
@@ -6476,7 +6421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:2">
       <c r="A755" s="2">
         <v>44720</v>
       </c>
@@ -6484,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:2">
       <c r="A756" s="2">
         <v>44722</v>
       </c>
@@ -6492,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:2">
       <c r="A757" s="2">
         <v>44723</v>
       </c>
@@ -6500,7 +6445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:2">
       <c r="A758" s="2">
         <v>44725</v>
       </c>
@@ -6508,7 +6453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:2">
       <c r="A759" s="2">
         <v>44726</v>
       </c>
@@ -6516,7 +6461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:2">
       <c r="A760" s="2">
         <v>44727</v>
       </c>
@@ -6524,7 +6469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:2">
       <c r="A761" s="2">
         <v>44728</v>
       </c>
@@ -6532,7 +6477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:2">
       <c r="A762" s="2">
         <v>44729</v>
       </c>
@@ -6540,7 +6485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:2">
       <c r="A763" s="2">
         <v>44730</v>
       </c>
@@ -6548,7 +6493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:2">
       <c r="A764" s="2">
         <v>44732</v>
       </c>
@@ -6556,7 +6501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:2">
       <c r="A765" s="2">
         <v>44733</v>
       </c>
@@ -6564,7 +6509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:2">
       <c r="A766" s="2">
         <v>44734</v>
       </c>
@@ -6572,7 +6517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:2">
       <c r="A767" s="2">
         <v>44735</v>
       </c>
@@ -6580,7 +6525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:2">
       <c r="A768" s="2">
         <v>44736</v>
       </c>
@@ -6588,7 +6533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:2">
       <c r="A769" s="2">
         <v>44737</v>
       </c>
@@ -6596,7 +6541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:2">
       <c r="A770" s="2">
         <v>44739</v>
       </c>
@@ -6604,7 +6549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:2">
       <c r="A771" s="2">
         <v>44740</v>
       </c>
@@ -6612,7 +6557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:2">
       <c r="A772" s="2">
         <v>44741</v>
       </c>
@@ -6620,7 +6565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:2">
       <c r="A773" s="2">
         <v>44742</v>
       </c>
@@ -6628,7 +6573,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:2">
       <c r="A774" s="2">
         <v>44743</v>
       </c>
@@ -6636,7 +6581,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:2">
       <c r="A775" s="2">
         <v>44744</v>
       </c>
@@ -6644,7 +6589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:2">
       <c r="A776" s="2">
         <v>44745</v>
       </c>
@@ -6652,7 +6597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:2">
       <c r="A777" s="2">
         <v>44746</v>
       </c>
@@ -6660,7 +6605,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:2">
       <c r="A778" s="2">
         <v>44747</v>
       </c>
@@ -6668,7 +6613,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:2">
       <c r="A779" s="2">
         <v>44748</v>
       </c>
@@ -6676,7 +6621,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:2">
       <c r="A780" s="2">
         <v>44749</v>
       </c>
@@ -6684,7 +6629,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:2">
       <c r="A781" s="2">
         <v>44750</v>
       </c>
@@ -6692,7 +6637,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:2">
       <c r="A782" s="2">
         <v>44751</v>
       </c>
@@ -6700,7 +6645,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:2">
       <c r="A783" s="2">
         <v>44752</v>
       </c>
@@ -6708,7 +6653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:2">
       <c r="A784" s="2">
         <v>44753</v>
       </c>
@@ -6716,7 +6661,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:2">
       <c r="A785" s="2">
         <v>44754</v>
       </c>
@@ -6724,7 +6669,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:2">
       <c r="A786" s="2">
         <v>44755</v>
       </c>
@@ -6732,7 +6677,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:2">
       <c r="A787" s="2">
         <v>44756</v>
       </c>
@@ -6740,7 +6685,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:2">
       <c r="A788" s="2">
         <v>44757</v>
       </c>
@@ -6748,7 +6693,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:2">
       <c r="A789" s="2">
         <v>44758</v>
       </c>
@@ -6756,7 +6701,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:2">
       <c r="A790" s="2">
         <v>44759</v>
       </c>
@@ -6764,7 +6709,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:2">
       <c r="A791" s="2">
         <v>44760</v>
       </c>
@@ -6772,7 +6717,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:2">
       <c r="A792" s="2">
         <v>44761</v>
       </c>
@@ -6780,7 +6725,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:2">
       <c r="A793" s="2">
         <v>44762</v>
       </c>
@@ -6788,7 +6733,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:2">
       <c r="A794" s="2">
         <v>44763</v>
       </c>
@@ -6796,7 +6741,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:2">
       <c r="A795" s="2">
         <v>44764</v>
       </c>
@@ -6804,7 +6749,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:2">
       <c r="A796" s="2">
         <v>44765</v>
       </c>
@@ -6812,7 +6757,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:2">
       <c r="A797" s="2">
         <v>44766</v>
       </c>
@@ -6820,7 +6765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:2">
       <c r="A798" s="2">
         <v>44767</v>
       </c>
@@ -6828,7 +6773,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:2">
       <c r="A799" s="2">
         <v>44768</v>
       </c>
@@ -6836,7 +6781,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:2">
       <c r="A800" s="2">
         <v>44769</v>
       </c>
@@ -6844,7 +6789,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:2">
       <c r="A801" s="2">
         <v>44770</v>
       </c>
@@ -6852,7 +6797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:2">
       <c r="A802" s="2">
         <v>44771</v>
       </c>
@@ -6860,7 +6805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:2">
       <c r="A803" s="2">
         <v>44772</v>
       </c>
@@ -6868,7 +6813,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:2">
       <c r="A804" s="2">
         <v>44773</v>
       </c>
@@ -6876,7 +6821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:2">
       <c r="A805" s="2">
         <v>44774</v>
       </c>
@@ -6884,7 +6829,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:2">
       <c r="A806" s="2">
         <v>44775</v>
       </c>
@@ -6892,7 +6837,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:2">
       <c r="A807" s="2">
         <v>44776</v>
       </c>
@@ -6900,7 +6845,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:2">
       <c r="A808" s="2">
         <v>44777</v>
       </c>
@@ -6908,7 +6853,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:2">
       <c r="A809" s="2">
         <v>44778</v>
       </c>
@@ -6916,7 +6861,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:2">
       <c r="A810" s="2">
         <v>44779</v>
       </c>
@@ -6924,7 +6869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:2">
       <c r="A811" s="2">
         <v>44780</v>
       </c>
@@ -6932,7 +6877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:2">
       <c r="A812" s="2">
         <v>44781</v>
       </c>
@@ -6940,7 +6885,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:2">
       <c r="A813" s="2">
         <v>44782</v>
       </c>
@@ -6948,7 +6893,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:2">
       <c r="A814" s="2">
         <v>44783</v>
       </c>
@@ -6956,7 +6901,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:2">
       <c r="A815" s="2">
         <v>44784</v>
       </c>
@@ -6964,7 +6909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:2">
       <c r="A816" s="2">
         <v>44785</v>
       </c>
@@ -6972,7 +6917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:2">
       <c r="A817" s="2">
         <v>44786</v>
       </c>
@@ -6980,7 +6925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:2">
       <c r="A818" s="2">
         <v>44787</v>
       </c>
@@ -6988,7 +6933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:2">
       <c r="A819" s="2">
         <v>44788</v>
       </c>
@@ -6996,7 +6941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:2">
       <c r="A820" s="2">
         <v>44789</v>
       </c>
@@ -7004,7 +6949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:2">
       <c r="A821" s="2">
         <v>44790</v>
       </c>
@@ -7012,7 +6957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:2">
       <c r="A822" s="2">
         <v>44791</v>
       </c>
@@ -7020,7 +6965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:2">
       <c r="A823" s="2">
         <v>44792</v>
       </c>
@@ -7028,7 +6973,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:2">
       <c r="A824" s="2">
         <v>44793</v>
       </c>
@@ -7036,7 +6981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:2">
       <c r="A825" s="2">
         <v>44794</v>
       </c>
@@ -7044,7 +6989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:2">
       <c r="A826" s="2">
         <v>44795</v>
       </c>
@@ -7052,7 +6997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:2">
       <c r="A827" s="2">
         <v>44796</v>
       </c>
@@ -7060,7 +7005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:2">
       <c r="A828" s="2">
         <v>44797</v>
       </c>
@@ -7068,7 +7013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:2">
       <c r="A829" s="2">
         <v>44798</v>
       </c>
@@ -7076,7 +7021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:2">
       <c r="A830" s="2">
         <v>44799</v>
       </c>
@@ -7084,7 +7029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:2">
       <c r="A831" s="2">
         <v>44800</v>
       </c>
@@ -7092,7 +7037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:2">
       <c r="A832" s="2">
         <v>44802</v>
       </c>
@@ -7100,7 +7045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:2">
       <c r="A833" s="2">
         <v>44804</v>
       </c>
@@ -7108,7 +7053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:2">
       <c r="A834" s="2">
         <v>44805</v>
       </c>
@@ -7116,7 +7061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:2">
       <c r="A835" s="2">
         <v>44806</v>
       </c>
@@ -7124,7 +7069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:2">
       <c r="A836" s="2">
         <v>44807</v>
       </c>
@@ -7132,7 +7077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:2">
       <c r="A837" s="2">
         <v>44809</v>
       </c>
@@ -7140,7 +7085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:2">
       <c r="A838" s="2">
         <v>44810</v>
       </c>
@@ -7148,7 +7093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:2">
       <c r="A839" s="2">
         <v>44811</v>
       </c>
@@ -7156,7 +7101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:2">
       <c r="A840" s="2">
         <v>44812</v>
       </c>
@@ -7164,7 +7109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:2">
       <c r="A841" s="2">
         <v>44813</v>
       </c>
@@ -7172,7 +7117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:2">
       <c r="A842" s="2">
         <v>44814</v>
       </c>
@@ -7180,7 +7125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:2">
       <c r="A843" s="2">
         <v>44816</v>
       </c>
@@ -7188,7 +7133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="844" spans="1:2">
       <c r="A844" s="2">
         <v>44817</v>
       </c>
@@ -7196,7 +7141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="845" spans="1:2">
       <c r="A845" s="2">
         <v>44818</v>
       </c>
@@ -7204,7 +7149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="846" spans="1:2">
       <c r="A846" s="2">
         <v>44819</v>
       </c>
@@ -7212,7 +7157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="847" spans="1:2">
       <c r="A847" s="2">
         <v>44820</v>
       </c>
@@ -7220,7 +7165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="848" spans="1:2">
       <c r="A848" s="2">
         <v>44821</v>
       </c>
@@ -7228,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:2">
       <c r="A849" s="2">
         <v>44823</v>
       </c>
@@ -7236,7 +7181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:2">
       <c r="A850" s="2">
         <v>44824</v>
       </c>
@@ -7244,7 +7189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="851" spans="1:2">
       <c r="A851" s="2">
         <v>44825</v>
       </c>
@@ -7252,7 +7197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="852" spans="1:2">
       <c r="A852" s="2">
         <v>44826</v>
       </c>
@@ -7260,7 +7205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:2">
       <c r="A853" s="2">
         <v>44830</v>
       </c>
@@ -7268,7 +7213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:2">
       <c r="A854" s="2">
         <v>44831</v>
       </c>
@@ -7276,7 +7221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="855" spans="1:2">
       <c r="A855" s="2">
         <v>44832</v>
       </c>
@@ -7284,7 +7229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="856" spans="1:2">
       <c r="A856" s="2">
         <v>44833</v>
       </c>
@@ -7292,7 +7237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="857" spans="1:2">
       <c r="A857" s="2">
         <v>44834</v>
       </c>
@@ -7300,59 +7245,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="858" spans="1:2">
       <c r="A858" s="2">
-        <v>44836</v>
+        <v>44835</v>
       </c>
       <c r="B858">
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="859" spans="1:2">
       <c r="A859" s="2">
+        <v>44836</v>
+      </c>
+      <c r="B859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" s="2">
         <v>44837</v>
       </c>
-      <c r="B859">
+      <c r="B860">
         <v>2</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A860" s="2">
+    <row r="861" spans="1:2">
+      <c r="A861" s="2">
         <v>44838</v>
       </c>
-      <c r="B860">
+      <c r="B861">
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A861" s="2">
+    <row r="862" spans="1:2">
+      <c r="A862" s="2">
         <v>44840</v>
-      </c>
-      <c r="B861">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A862" s="2">
-        <v>44844</v>
       </c>
       <c r="B862">
         <v>2</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:2">
       <c r="A863" s="2">
+        <v>44844</v>
+      </c>
+      <c r="B863">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" s="2">
         <v>44845</v>
       </c>
-      <c r="B863">
+      <c r="B864">
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A864" s="2">
+    <row r="865" spans="1:2">
+      <c r="A865" s="2">
         <v>44849</v>
       </c>
-      <c r="B864">
+      <c r="B865">
         <v>1</v>
       </c>
     </row>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B865"/>
+  <dimension ref="A1:B866"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7309,6 +7309,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="866" spans="1:2">
+      <c r="A866" s="2">
+        <v>44852</v>
+      </c>
+      <c r="B866">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B866"/>
+  <dimension ref="A1:B873"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4658,7 +4658,7 @@
         <v>44465</v>
       </c>
       <c r="B534">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4666,7 +4666,7 @@
         <v>44466</v>
       </c>
       <c r="B535">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>44467</v>
       </c>
       <c r="B536">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>44468</v>
       </c>
       <c r="B537">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>44469</v>
       </c>
       <c r="B538">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>44470</v>
       </c>
       <c r="B539">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4706,36 +4706,36 @@
         <v>44471</v>
       </c>
       <c r="B540">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B541">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B542">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B543">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44476</v>
+        <v>44475</v>
       </c>
       <c r="B544">
         <v>13</v>
@@ -4743,15 +4743,15 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44477</v>
+        <v>44476</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44478</v>
+        <v>44477</v>
       </c>
       <c r="B546">
         <v>3</v>
@@ -4759,47 +4759,47 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44479</v>
+        <v>44478</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44480</v>
+        <v>44479</v>
       </c>
       <c r="B548">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="B549">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44482</v>
+        <v>44481</v>
       </c>
       <c r="B550">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="B551">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="B552">
         <v>15</v>
@@ -4807,1199 +4807,1199 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44485</v>
+        <v>44484</v>
       </c>
       <c r="B553">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="B554">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B555">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="B556">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="B557">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B558">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44491</v>
+        <v>44490</v>
       </c>
       <c r="B559">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B560">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B561">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B562">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B563">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44496</v>
+        <v>44495</v>
       </c>
       <c r="B564">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="B565">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44498</v>
+        <v>44497</v>
       </c>
       <c r="B566">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B567">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B568">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44501</v>
+        <v>44500</v>
       </c>
       <c r="B569">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44502</v>
+        <v>44501</v>
       </c>
       <c r="B570">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44503</v>
+        <v>44502</v>
       </c>
       <c r="B571">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44504</v>
+        <v>44503</v>
       </c>
       <c r="B572">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="B573">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44506</v>
+        <v>44505</v>
       </c>
       <c r="B574">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44508</v>
+        <v>44506</v>
       </c>
       <c r="B575">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="B576">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B577">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44511</v>
+        <v>44510</v>
       </c>
       <c r="B578">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44512</v>
+        <v>44511</v>
       </c>
       <c r="B579">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B580">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="B581">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44515</v>
+        <v>44514</v>
       </c>
       <c r="B582">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44516</v>
+        <v>44515</v>
       </c>
       <c r="B583">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44517</v>
+        <v>44516</v>
       </c>
       <c r="B584">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44518</v>
+        <v>44517</v>
       </c>
       <c r="B585">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44519</v>
+        <v>44518</v>
       </c>
       <c r="B586">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44520</v>
+        <v>44519</v>
       </c>
       <c r="B587">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44522</v>
+        <v>44520</v>
       </c>
       <c r="B588">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44523</v>
+        <v>44522</v>
       </c>
       <c r="B589">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="B590">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B591">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44526</v>
+        <v>44525</v>
       </c>
       <c r="B592">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44527</v>
+        <v>44526</v>
       </c>
       <c r="B593">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B594">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B595">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B596">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B597">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B598">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44533</v>
+        <v>44532</v>
       </c>
       <c r="B599">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44534</v>
+        <v>44533</v>
       </c>
       <c r="B600">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44535</v>
+        <v>44534</v>
       </c>
       <c r="B601">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44536</v>
+        <v>44535</v>
       </c>
       <c r="B602">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B603">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B604">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B605">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44540</v>
+        <v>44539</v>
       </c>
       <c r="B606">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44541</v>
+        <v>44540</v>
       </c>
       <c r="B607">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44542</v>
+        <v>44541</v>
       </c>
       <c r="B608">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B609">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B610">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44545</v>
+        <v>44544</v>
       </c>
       <c r="B611">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B612">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="B613">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44548</v>
+        <v>44547</v>
       </c>
       <c r="B614">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44549</v>
+        <v>44548</v>
       </c>
       <c r="B615">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44550</v>
+        <v>44549</v>
       </c>
       <c r="B616">
-        <v>75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B617">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B618">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B619">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44554</v>
+        <v>44553</v>
       </c>
       <c r="B620">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44555</v>
+        <v>44554</v>
       </c>
       <c r="B621">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44556</v>
+        <v>44555</v>
       </c>
       <c r="B622">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B623">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44558</v>
+        <v>44557</v>
       </c>
       <c r="B624">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44559</v>
+        <v>44558</v>
       </c>
       <c r="B625">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B626">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B627">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44562</v>
+        <v>44561</v>
       </c>
       <c r="B628">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B629">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B630">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44565</v>
+        <v>44564</v>
       </c>
       <c r="B631">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44566</v>
+        <v>44565</v>
       </c>
       <c r="B632">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="B633">
-        <v>121</v>
+        <v>75</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B634">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44569</v>
+        <v>44568</v>
       </c>
       <c r="B635">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44570</v>
+        <v>44569</v>
       </c>
       <c r="B636">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B637">
-        <v>130</v>
+        <v>23</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B638">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B639">
-        <v>177</v>
+        <v>129</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B640">
-        <v>278</v>
+        <v>177</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B641">
-        <v>238</v>
+        <v>278</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B642">
-        <v>176</v>
+        <v>238</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B643">
-        <v>26</v>
+        <v>176</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B644">
-        <v>382</v>
+        <v>26</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B645">
-        <v>364</v>
+        <v>382</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B646">
-        <v>429</v>
+        <v>364</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B647">
-        <v>403</v>
+        <v>429</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B648">
-        <v>355</v>
+        <v>403</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B649">
-        <v>290</v>
+        <v>355</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B650">
-        <v>76</v>
+        <v>290</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B651">
-        <v>459</v>
+        <v>76</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B652">
-        <v>501</v>
+        <v>459</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B653">
-        <v>484</v>
+        <v>501</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B654">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B655">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B656">
-        <v>216</v>
+        <v>483</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B657">
-        <v>74</v>
+        <v>216</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B658">
-        <v>476</v>
+        <v>74</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B659">
-        <v>452</v>
+        <v>476</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B660">
-        <v>357</v>
+        <v>452</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B661">
-        <v>328</v>
+        <v>357</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B662">
-        <v>285</v>
+        <v>328</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B663">
-        <v>160</v>
+        <v>285</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B664">
-        <v>28</v>
+        <v>160</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B665">
-        <v>285</v>
+        <v>28</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B666">
-        <v>248</v>
+        <v>285</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B667">
-        <v>165</v>
+        <v>248</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B668">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B669">
-        <v>106</v>
+        <v>152</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B670">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B671">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B672">
-        <v>134</v>
+        <v>14</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B673">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B674">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B675">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B676">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B677">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B678">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B679">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B680">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B681">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B682">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="B683">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B684">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B685">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B686">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="B687">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B688">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B689">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B690">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B691">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B692">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B693">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B694">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44629</v>
+        <v>44628</v>
       </c>
       <c r="B695">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B696">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B697">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44632</v>
+        <v>44631</v>
       </c>
       <c r="B698">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44633</v>
+        <v>44632</v>
       </c>
       <c r="B699">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44634</v>
+        <v>44633</v>
       </c>
       <c r="B700">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B701">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="B702">
         <v>15</v>
@@ -6007,103 +6007,103 @@
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B703">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B704">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B705">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44640</v>
+        <v>44639</v>
       </c>
       <c r="B706">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44641</v>
+        <v>44640</v>
       </c>
       <c r="B707">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44642</v>
+        <v>44641</v>
       </c>
       <c r="B708">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="B709">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B710">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B711">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>44646</v>
+        <v>44645</v>
       </c>
       <c r="B712">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>44647</v>
+        <v>44646</v>
       </c>
       <c r="B713">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>44648</v>
+        <v>44647</v>
       </c>
       <c r="B714">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B715">
         <v>14</v>
@@ -6111,119 +6111,119 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2">
-        <v>44650</v>
+        <v>44649</v>
       </c>
       <c r="B716">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="B717">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="B718">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2">
-        <v>44653</v>
+        <v>44652</v>
       </c>
       <c r="B719">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2">
-        <v>44655</v>
+        <v>44653</v>
       </c>
       <c r="B720">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2">
-        <v>44656</v>
+        <v>44655</v>
       </c>
       <c r="B721">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2">
-        <v>44657</v>
+        <v>44656</v>
       </c>
       <c r="B722">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="2">
-        <v>44658</v>
+        <v>44657</v>
       </c>
       <c r="B723">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="2">
-        <v>44659</v>
+        <v>44658</v>
       </c>
       <c r="B724">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="2">
-        <v>44662</v>
+        <v>44659</v>
       </c>
       <c r="B725">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="2">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="B726">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="2">
-        <v>44664</v>
+        <v>44663</v>
       </c>
       <c r="B727">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2">
-        <v>44666</v>
+        <v>44664</v>
       </c>
       <c r="B728">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2">
-        <v>44669</v>
+        <v>44666</v>
       </c>
       <c r="B729">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2">
-        <v>44670</v>
+        <v>44669</v>
       </c>
       <c r="B730">
         <v>2</v>
@@ -6231,15 +6231,15 @@
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2">
-        <v>44671</v>
+        <v>44670</v>
       </c>
       <c r="B731">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="2">
-        <v>44672</v>
+        <v>44671</v>
       </c>
       <c r="B732">
         <v>1</v>
@@ -6247,31 +6247,31 @@
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="2">
-        <v>44673</v>
+        <v>44672</v>
       </c>
       <c r="B733">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="2">
-        <v>44676</v>
+        <v>44673</v>
       </c>
       <c r="B734">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="2">
-        <v>44678</v>
+        <v>44676</v>
       </c>
       <c r="B735">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="2">
-        <v>44679</v>
+        <v>44678</v>
       </c>
       <c r="B736">
         <v>4</v>
@@ -6279,23 +6279,23 @@
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="2">
-        <v>44680</v>
+        <v>44679</v>
       </c>
       <c r="B737">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2">
-        <v>44684</v>
+        <v>44680</v>
       </c>
       <c r="B738">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="2">
-        <v>44685</v>
+        <v>44684</v>
       </c>
       <c r="B739">
         <v>3</v>
@@ -6303,39 +6303,39 @@
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="2">
-        <v>44686</v>
+        <v>44685</v>
       </c>
       <c r="B740">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="2">
-        <v>44693</v>
+        <v>44686</v>
       </c>
       <c r="B741">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="2">
-        <v>44694</v>
+        <v>44693</v>
       </c>
       <c r="B742">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="2">
-        <v>44695</v>
+        <v>44694</v>
       </c>
       <c r="B743">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="2">
-        <v>44697</v>
+        <v>44695</v>
       </c>
       <c r="B744">
         <v>1</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="2">
-        <v>44699</v>
+        <v>44697</v>
       </c>
       <c r="B745">
         <v>1</v>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="2">
-        <v>44702</v>
+        <v>44699</v>
       </c>
       <c r="B746">
         <v>1</v>
@@ -6359,15 +6359,15 @@
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="2">
-        <v>44705</v>
+        <v>44702</v>
       </c>
       <c r="B747">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="2">
-        <v>44706</v>
+        <v>44705</v>
       </c>
       <c r="B748">
         <v>2</v>
@@ -6375,15 +6375,15 @@
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="2">
-        <v>44707</v>
+        <v>44706</v>
       </c>
       <c r="B749">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="2">
-        <v>44711</v>
+        <v>44707</v>
       </c>
       <c r="B750">
         <v>1</v>
@@ -6391,47 +6391,47 @@
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="2">
-        <v>44713</v>
+        <v>44711</v>
       </c>
       <c r="B751">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="2">
-        <v>44714</v>
+        <v>44713</v>
       </c>
       <c r="B752">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="2">
-        <v>44715</v>
+        <v>44714</v>
       </c>
       <c r="B753">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="2">
-        <v>44719</v>
+        <v>44715</v>
       </c>
       <c r="B754">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="2">
-        <v>44720</v>
+        <v>44719</v>
       </c>
       <c r="B755">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="2">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="B756">
         <v>1</v>
@@ -6439,7 +6439,7 @@
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="2">
-        <v>44723</v>
+        <v>44722</v>
       </c>
       <c r="B757">
         <v>1</v>
@@ -6447,23 +6447,23 @@
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="2">
-        <v>44725</v>
+        <v>44723</v>
       </c>
       <c r="B758">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="2">
-        <v>44726</v>
+        <v>44725</v>
       </c>
       <c r="B759">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="2">
-        <v>44727</v>
+        <v>44726</v>
       </c>
       <c r="B760">
         <v>2</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="2">
-        <v>44728</v>
+        <v>44727</v>
       </c>
       <c r="B761">
         <v>2</v>
@@ -6479,231 +6479,231 @@
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="2">
-        <v>44729</v>
+        <v>44728</v>
       </c>
       <c r="B762">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="2">
-        <v>44730</v>
+        <v>44729</v>
       </c>
       <c r="B763">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="2">
-        <v>44732</v>
+        <v>44730</v>
       </c>
       <c r="B764">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="2">
-        <v>44733</v>
+        <v>44732</v>
       </c>
       <c r="B765">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="2">
-        <v>44734</v>
+        <v>44733</v>
       </c>
       <c r="B766">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="2">
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="B767">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="2">
-        <v>44736</v>
+        <v>44735</v>
       </c>
       <c r="B768">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" s="2">
-        <v>44737</v>
+        <v>44736</v>
       </c>
       <c r="B769">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" s="2">
-        <v>44739</v>
+        <v>44737</v>
       </c>
       <c r="B770">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="2">
-        <v>44740</v>
+        <v>44739</v>
       </c>
       <c r="B771">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" s="2">
-        <v>44741</v>
+        <v>44740</v>
       </c>
       <c r="B772">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="2">
-        <v>44742</v>
+        <v>44741</v>
       </c>
       <c r="B773">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" s="2">
-        <v>44743</v>
+        <v>44742</v>
       </c>
       <c r="B774">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" s="2">
-        <v>44744</v>
+        <v>44743</v>
       </c>
       <c r="B775">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" s="2">
-        <v>44745</v>
+        <v>44744</v>
       </c>
       <c r="B776">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="2">
-        <v>44746</v>
+        <v>44745</v>
       </c>
       <c r="B777">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" s="2">
-        <v>44747</v>
+        <v>44746</v>
       </c>
       <c r="B778">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" s="2">
-        <v>44748</v>
+        <v>44747</v>
       </c>
       <c r="B779">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="2">
-        <v>44749</v>
+        <v>44748</v>
       </c>
       <c r="B780">
-        <v>156</v>
+        <v>110</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" s="2">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="B781">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" s="2">
-        <v>44751</v>
+        <v>44750</v>
       </c>
       <c r="B782">
-        <v>44</v>
+        <v>149</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" s="2">
-        <v>44752</v>
+        <v>44751</v>
       </c>
       <c r="B783">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" s="2">
-        <v>44753</v>
+        <v>44752</v>
       </c>
       <c r="B784">
-        <v>235</v>
+        <v>27</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" s="2">
-        <v>44754</v>
+        <v>44753</v>
       </c>
       <c r="B785">
-        <v>289</v>
+        <v>235</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="2">
-        <v>44755</v>
+        <v>44754</v>
       </c>
       <c r="B786">
-        <v>93</v>
+        <v>289</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" s="2">
-        <v>44756</v>
+        <v>44755</v>
       </c>
       <c r="B787">
-        <v>243</v>
+        <v>93</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" s="2">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="B788">
-        <v>567</v>
+        <v>243</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" s="2">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="B789">
-        <v>40</v>
+        <v>567</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="2">
-        <v>44759</v>
+        <v>44758</v>
       </c>
       <c r="B790">
         <v>40</v>
@@ -6711,247 +6711,247 @@
     </row>
     <row r="791" spans="1:2">
       <c r="A791" s="2">
-        <v>44760</v>
+        <v>44759</v>
       </c>
       <c r="B791">
-        <v>299</v>
+        <v>40</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="2">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="B792">
-        <v>228</v>
+        <v>299</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" s="2">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B793">
-        <v>142</v>
+        <v>228</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" s="2">
-        <v>44763</v>
+        <v>44762</v>
       </c>
       <c r="B794">
-        <v>238</v>
+        <v>142</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" s="2">
-        <v>44764</v>
+        <v>44763</v>
       </c>
       <c r="B795">
-        <v>185</v>
+        <v>238</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" s="2">
-        <v>44765</v>
+        <v>44764</v>
       </c>
       <c r="B796">
-        <v>61</v>
+        <v>185</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" s="2">
-        <v>44766</v>
+        <v>44765</v>
       </c>
       <c r="B797">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" s="2">
-        <v>44767</v>
+        <v>44766</v>
       </c>
       <c r="B798">
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" s="2">
-        <v>44768</v>
+        <v>44767</v>
       </c>
       <c r="B799">
-        <v>171</v>
+        <v>138</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" s="2">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="B800">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" s="2">
-        <v>44770</v>
+        <v>44769</v>
       </c>
       <c r="B801">
-        <v>21</v>
+        <v>150</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" s="2">
-        <v>44771</v>
+        <v>44770</v>
       </c>
       <c r="B802">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" s="2">
-        <v>44772</v>
+        <v>44771</v>
       </c>
       <c r="B803">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" s="2">
-        <v>44773</v>
+        <v>44772</v>
       </c>
       <c r="B804">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" s="2">
-        <v>44774</v>
+        <v>44773</v>
       </c>
       <c r="B805">
-        <v>120</v>
+        <v>11</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" s="2">
-        <v>44775</v>
+        <v>44774</v>
       </c>
       <c r="B806">
-        <v>54</v>
+        <v>120</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" s="2">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="B807">
-        <v>120</v>
+        <v>54</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" s="2">
-        <v>44777</v>
+        <v>44776</v>
       </c>
       <c r="B808">
-        <v>51</v>
+        <v>120</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" s="2">
-        <v>44778</v>
+        <v>44777</v>
       </c>
       <c r="B809">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" s="2">
-        <v>44779</v>
+        <v>44778</v>
       </c>
       <c r="B810">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" s="2">
-        <v>44780</v>
+        <v>44779</v>
       </c>
       <c r="B811">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" s="2">
-        <v>44781</v>
+        <v>44780</v>
       </c>
       <c r="B812">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" s="2">
-        <v>44782</v>
+        <v>44781</v>
       </c>
       <c r="B813">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" s="2">
-        <v>44783</v>
+        <v>44782</v>
       </c>
       <c r="B814">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" s="2">
-        <v>44784</v>
+        <v>44783</v>
       </c>
       <c r="B815">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" s="2">
-        <v>44785</v>
+        <v>44784</v>
       </c>
       <c r="B816">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" s="2">
-        <v>44786</v>
+        <v>44785</v>
       </c>
       <c r="B817">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" s="2">
-        <v>44787</v>
+        <v>44786</v>
       </c>
       <c r="B818">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" s="2">
-        <v>44788</v>
+        <v>44787</v>
       </c>
       <c r="B819">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" s="2">
-        <v>44789</v>
+        <v>44788</v>
       </c>
       <c r="B820">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" s="2">
-        <v>44790</v>
+        <v>44789</v>
       </c>
       <c r="B821">
         <v>37</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="822" spans="1:2">
       <c r="A822" s="2">
-        <v>44791</v>
+        <v>44790</v>
       </c>
       <c r="B822">
         <v>37</v>
@@ -6967,127 +6967,127 @@
     </row>
     <row r="823" spans="1:2">
       <c r="A823" s="2">
-        <v>44792</v>
+        <v>44791</v>
       </c>
       <c r="B823">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" s="2">
-        <v>44793</v>
+        <v>44792</v>
       </c>
       <c r="B824">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" s="2">
-        <v>44794</v>
+        <v>44793</v>
       </c>
       <c r="B825">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" s="2">
-        <v>44795</v>
+        <v>44794</v>
       </c>
       <c r="B826">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" s="2">
-        <v>44796</v>
+        <v>44795</v>
       </c>
       <c r="B827">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" s="2">
-        <v>44797</v>
+        <v>44796</v>
       </c>
       <c r="B828">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" s="2">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="B829">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" s="2">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="B830">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" s="2">
-        <v>44800</v>
+        <v>44799</v>
       </c>
       <c r="B831">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" s="2">
-        <v>44802</v>
+        <v>44800</v>
       </c>
       <c r="B832">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" s="2">
-        <v>44804</v>
+        <v>44802</v>
       </c>
       <c r="B833">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" s="2">
-        <v>44805</v>
+        <v>44804</v>
       </c>
       <c r="B834">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" s="2">
-        <v>44806</v>
+        <v>44805</v>
       </c>
       <c r="B835">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" s="2">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="B836">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" s="2">
-        <v>44809</v>
+        <v>44807</v>
       </c>
       <c r="B837">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" s="2">
-        <v>44810</v>
+        <v>44809</v>
       </c>
       <c r="B838">
         <v>6</v>
@@ -7095,63 +7095,63 @@
     </row>
     <row r="839" spans="1:2">
       <c r="A839" s="2">
-        <v>44811</v>
+        <v>44810</v>
       </c>
       <c r="B839">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" s="2">
-        <v>44812</v>
+        <v>44811</v>
       </c>
       <c r="B840">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" s="2">
-        <v>44813</v>
+        <v>44812</v>
       </c>
       <c r="B841">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" s="2">
-        <v>44814</v>
+        <v>44813</v>
       </c>
       <c r="B842">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" s="2">
-        <v>44816</v>
+        <v>44814</v>
       </c>
       <c r="B843">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" s="2">
-        <v>44817</v>
+        <v>44816</v>
       </c>
       <c r="B844">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" s="2">
-        <v>44818</v>
+        <v>44817</v>
       </c>
       <c r="B845">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" s="2">
-        <v>44819</v>
+        <v>44818</v>
       </c>
       <c r="B846">
         <v>2</v>
@@ -7159,15 +7159,15 @@
     </row>
     <row r="847" spans="1:2">
       <c r="A847" s="2">
-        <v>44820</v>
+        <v>44819</v>
       </c>
       <c r="B847">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" s="2">
-        <v>44821</v>
+        <v>44820</v>
       </c>
       <c r="B848">
         <v>1</v>
@@ -7175,39 +7175,39 @@
     </row>
     <row r="849" spans="1:2">
       <c r="A849" s="2">
-        <v>44823</v>
+        <v>44821</v>
       </c>
       <c r="B849">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" s="2">
-        <v>44824</v>
+        <v>44823</v>
       </c>
       <c r="B850">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" s="2">
-        <v>44825</v>
+        <v>44824</v>
       </c>
       <c r="B851">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" s="2">
-        <v>44826</v>
+        <v>44825</v>
       </c>
       <c r="B852">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" s="2">
-        <v>44830</v>
+        <v>44826</v>
       </c>
       <c r="B853">
         <v>1</v>
@@ -7215,7 +7215,7 @@
     </row>
     <row r="854" spans="1:2">
       <c r="A854" s="2">
-        <v>44831</v>
+        <v>44830</v>
       </c>
       <c r="B854">
         <v>1</v>
@@ -7223,23 +7223,23 @@
     </row>
     <row r="855" spans="1:2">
       <c r="A855" s="2">
-        <v>44832</v>
+        <v>44831</v>
       </c>
       <c r="B855">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" s="2">
-        <v>44833</v>
+        <v>44832</v>
       </c>
       <c r="B856">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" s="2">
-        <v>44834</v>
+        <v>44833</v>
       </c>
       <c r="B857">
         <v>1</v>
@@ -7247,7 +7247,7 @@
     </row>
     <row r="858" spans="1:2">
       <c r="A858" s="2">
-        <v>44835</v>
+        <v>44834</v>
       </c>
       <c r="B858">
         <v>1</v>
@@ -7255,7 +7255,7 @@
     </row>
     <row r="859" spans="1:2">
       <c r="A859" s="2">
-        <v>44836</v>
+        <v>44835</v>
       </c>
       <c r="B859">
         <v>1</v>
@@ -7263,31 +7263,31 @@
     </row>
     <row r="860" spans="1:2">
       <c r="A860" s="2">
-        <v>44837</v>
+        <v>44836</v>
       </c>
       <c r="B860">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" s="2">
-        <v>44838</v>
+        <v>44837</v>
       </c>
       <c r="B861">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" s="2">
-        <v>44840</v>
+        <v>44838</v>
       </c>
       <c r="B862">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" s="2">
-        <v>44844</v>
+        <v>44840</v>
       </c>
       <c r="B863">
         <v>2</v>
@@ -7295,15 +7295,15 @@
     </row>
     <row r="864" spans="1:2">
       <c r="A864" s="2">
-        <v>44845</v>
+        <v>44844</v>
       </c>
       <c r="B864">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" s="2">
-        <v>44849</v>
+        <v>44845</v>
       </c>
       <c r="B865">
         <v>1</v>
@@ -7311,10 +7311,66 @@
     </row>
     <row r="866" spans="1:2">
       <c r="A866" s="2">
+        <v>44849</v>
+      </c>
+      <c r="B866">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="A867" s="2">
         <v>44852</v>
       </c>
-      <c r="B866">
+      <c r="B867">
         <v>2</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" s="2">
+        <v>44859</v>
+      </c>
+      <c r="B868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="A869" s="2">
+        <v>44863</v>
+      </c>
+      <c r="B869">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="A870" s="2">
+        <v>44865</v>
+      </c>
+      <c r="B870">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="A871" s="2">
+        <v>44867</v>
+      </c>
+      <c r="B871">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2">
+      <c r="A872" s="2">
+        <v>44868</v>
+      </c>
+      <c r="B872">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="A873" s="2">
+        <v>44869</v>
+      </c>
+      <c r="B873">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B873"/>
+  <dimension ref="A1:B875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4906,7 +4906,7 @@
         <v>44496</v>
       </c>
       <c r="B565">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4914,7 +4914,7 @@
         <v>44497</v>
       </c>
       <c r="B566">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4922,7 +4922,7 @@
         <v>44498</v>
       </c>
       <c r="B567">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4930,7 +4930,7 @@
         <v>44499</v>
       </c>
       <c r="B568">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4938,7 +4938,7 @@
         <v>44500</v>
       </c>
       <c r="B569">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4946,7 +4946,7 @@
         <v>44501</v>
       </c>
       <c r="B570">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4954,7 +4954,7 @@
         <v>44502</v>
       </c>
       <c r="B571">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4962,7 +4962,7 @@
         <v>44503</v>
       </c>
       <c r="B572">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4970,7 +4970,7 @@
         <v>44504</v>
       </c>
       <c r="B573">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -7371,6 +7371,22 @@
       </c>
       <c r="B873">
         <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="A874" s="2">
+        <v>44870</v>
+      </c>
+      <c r="B874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2">
+      <c r="A875" s="2">
+        <v>44872</v>
+      </c>
+      <c r="B875">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B875"/>
+  <dimension ref="A1:B684"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,12 +402,12 @@
         <v>43926</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>43927</v>
+        <v>43930</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -415,55 +415,55 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>43928</v>
+        <v>43933</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>43929</v>
+        <v>43935</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>43930</v>
+        <v>43941</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>43933</v>
+        <v>43942</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>43935</v>
+        <v>43945</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>43936</v>
+        <v>43946</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>43937</v>
+        <v>43949</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>43938</v>
+        <v>43950</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -479,23 +479,23 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>43939</v>
+        <v>43951</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>43940</v>
+        <v>43952</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>43941</v>
+        <v>43953</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -503,183 +503,183 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>43942</v>
+        <v>43955</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>43943</v>
+        <v>43956</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>43944</v>
+        <v>43958</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>43945</v>
+        <v>43959</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>43946</v>
+        <v>43960</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>43947</v>
+        <v>43962</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>43948</v>
+        <v>43963</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>43949</v>
+        <v>43966</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>43950</v>
+        <v>43967</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>43951</v>
+        <v>43970</v>
       </c>
       <c r="B24">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>43952</v>
+        <v>43971</v>
       </c>
       <c r="B25">
-        <v>85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>43953</v>
+        <v>43972</v>
       </c>
       <c r="B26">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>43954</v>
+        <v>43973</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>43955</v>
+        <v>43975</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>43956</v>
+        <v>43976</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>43957</v>
+        <v>43977</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>43958</v>
+        <v>43978</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>43959</v>
+        <v>43979</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>43960</v>
+        <v>43980</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>43962</v>
+        <v>43981</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>43963</v>
+        <v>43982</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>43965</v>
+        <v>43984</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -687,71 +687,71 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>43966</v>
+        <v>43985</v>
       </c>
       <c r="B38">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>43967</v>
+        <v>43986</v>
       </c>
       <c r="B39">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>43968</v>
+        <v>43987</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>43969</v>
+        <v>43988</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>43970</v>
+        <v>43989</v>
       </c>
       <c r="B42">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>43971</v>
+        <v>43990</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>43972</v>
+        <v>43991</v>
       </c>
       <c r="B44">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>43973</v>
+        <v>43992</v>
       </c>
       <c r="B45">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>43974</v>
+        <v>43993</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -759,63 +759,63 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>43975</v>
+        <v>43994</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>43976</v>
+        <v>43995</v>
       </c>
       <c r="B48">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>43977</v>
+        <v>43996</v>
       </c>
       <c r="B49">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>43978</v>
+        <v>43997</v>
       </c>
       <c r="B50">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>43979</v>
+        <v>43998</v>
       </c>
       <c r="B51">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>43980</v>
+        <v>43999</v>
       </c>
       <c r="B52">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>43981</v>
+        <v>44000</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>43982</v>
+        <v>44001</v>
       </c>
       <c r="B54">
         <v>12</v>
@@ -823,1639 +823,1639 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>43983</v>
+        <v>44002</v>
       </c>
       <c r="B55">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>43984</v>
+        <v>44004</v>
       </c>
       <c r="B56">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>43985</v>
+        <v>44005</v>
       </c>
       <c r="B57">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>43986</v>
+        <v>44006</v>
       </c>
       <c r="B58">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>43987</v>
+        <v>44007</v>
       </c>
       <c r="B59">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>43988</v>
+        <v>44008</v>
       </c>
       <c r="B60">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>43989</v>
+        <v>44009</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>43990</v>
+        <v>44010</v>
       </c>
       <c r="B62">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>43991</v>
+        <v>44011</v>
       </c>
       <c r="B63">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>43992</v>
+        <v>44012</v>
       </c>
       <c r="B64">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>43993</v>
+        <v>44013</v>
       </c>
       <c r="B65">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>43994</v>
+        <v>44014</v>
       </c>
       <c r="B66">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>43995</v>
+        <v>44015</v>
       </c>
       <c r="B67">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>43996</v>
+        <v>44016</v>
       </c>
       <c r="B68">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>43997</v>
+        <v>44017</v>
       </c>
       <c r="B69">
-        <v>199</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>43998</v>
+        <v>44018</v>
       </c>
       <c r="B70">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>43999</v>
+        <v>44019</v>
       </c>
       <c r="B71">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>44000</v>
+        <v>44020</v>
       </c>
       <c r="B72">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>44001</v>
+        <v>44021</v>
       </c>
       <c r="B73">
-        <v>102</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>44002</v>
+        <v>44022</v>
       </c>
       <c r="B74">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>44003</v>
+        <v>44023</v>
       </c>
       <c r="B75">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>44004</v>
+        <v>44024</v>
       </c>
       <c r="B76">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>44005</v>
+        <v>44025</v>
       </c>
       <c r="B77">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>44006</v>
+        <v>44026</v>
       </c>
       <c r="B78">
-        <v>174</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>44007</v>
+        <v>44027</v>
       </c>
       <c r="B79">
-        <v>59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>44008</v>
+        <v>44028</v>
       </c>
       <c r="B80">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>44009</v>
+        <v>44029</v>
       </c>
       <c r="B81">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>44010</v>
+        <v>44030</v>
       </c>
       <c r="B82">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>44011</v>
+        <v>44031</v>
       </c>
       <c r="B83">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>44012</v>
+        <v>44032</v>
       </c>
       <c r="B84">
-        <v>113</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>44013</v>
+        <v>44033</v>
       </c>
       <c r="B85">
-        <v>91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>44014</v>
+        <v>44034</v>
       </c>
       <c r="B86">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>44015</v>
+        <v>44035</v>
       </c>
       <c r="B87">
-        <v>241</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>44016</v>
+        <v>44036</v>
       </c>
       <c r="B88">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>44017</v>
+        <v>44037</v>
       </c>
       <c r="B89">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>44018</v>
+        <v>44038</v>
       </c>
       <c r="B90">
-        <v>146</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>44019</v>
+        <v>44039</v>
       </c>
       <c r="B91">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>44020</v>
+        <v>44040</v>
       </c>
       <c r="B92">
-        <v>121</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>44021</v>
+        <v>44041</v>
       </c>
       <c r="B93">
-        <v>70</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>44022</v>
+        <v>44042</v>
       </c>
       <c r="B94">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>44023</v>
+        <v>44043</v>
       </c>
       <c r="B95">
-        <v>92</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>44024</v>
+        <v>44044</v>
       </c>
       <c r="B96">
-        <v>90</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>44025</v>
+        <v>44045</v>
       </c>
       <c r="B97">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>44026</v>
+        <v>44046</v>
       </c>
       <c r="B98">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>44027</v>
+        <v>44047</v>
       </c>
       <c r="B99">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44028</v>
+        <v>44048</v>
       </c>
       <c r="B100">
-        <v>116</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44029</v>
+        <v>44049</v>
       </c>
       <c r="B101">
-        <v>332</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44030</v>
+        <v>44050</v>
       </c>
       <c r="B102">
-        <v>157</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44031</v>
+        <v>44051</v>
       </c>
       <c r="B103">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44032</v>
+        <v>44052</v>
       </c>
       <c r="B104">
-        <v>148</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44033</v>
+        <v>44053</v>
       </c>
       <c r="B105">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44034</v>
+        <v>44054</v>
       </c>
       <c r="B106">
-        <v>168</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44035</v>
+        <v>44055</v>
       </c>
       <c r="B107">
-        <v>216</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44036</v>
+        <v>44056</v>
       </c>
       <c r="B108">
-        <v>324</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44037</v>
+        <v>44057</v>
       </c>
       <c r="B109">
-        <v>215</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44038</v>
+        <v>44058</v>
       </c>
       <c r="B110">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44039</v>
+        <v>44059</v>
       </c>
       <c r="B111">
-        <v>194</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44040</v>
+        <v>44060</v>
       </c>
       <c r="B112">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44041</v>
+        <v>44061</v>
       </c>
       <c r="B113">
-        <v>146</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44042</v>
+        <v>44062</v>
       </c>
       <c r="B114">
-        <v>142</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44043</v>
+        <v>44063</v>
       </c>
       <c r="B115">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44044</v>
+        <v>44064</v>
       </c>
       <c r="B116">
-        <v>262</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44045</v>
+        <v>44065</v>
       </c>
       <c r="B117">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44046</v>
+        <v>44066</v>
       </c>
       <c r="B118">
-        <v>155</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44047</v>
+        <v>44067</v>
       </c>
       <c r="B119">
-        <v>197</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44048</v>
+        <v>44068</v>
       </c>
       <c r="B120">
-        <v>165</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44049</v>
+        <v>44069</v>
       </c>
       <c r="B121">
-        <v>230</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44050</v>
+        <v>44070</v>
       </c>
       <c r="B122">
-        <v>166</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44051</v>
+        <v>44071</v>
       </c>
       <c r="B123">
-        <v>143</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44052</v>
+        <v>44072</v>
       </c>
       <c r="B124">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44053</v>
+        <v>44073</v>
       </c>
       <c r="B125">
-        <v>230</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44054</v>
+        <v>44074</v>
       </c>
       <c r="B126">
-        <v>183</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44055</v>
+        <v>44075</v>
       </c>
       <c r="B127">
-        <v>181</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44056</v>
+        <v>44076</v>
       </c>
       <c r="B128">
-        <v>273</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44057</v>
+        <v>44077</v>
       </c>
       <c r="B129">
-        <v>261</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44058</v>
+        <v>44078</v>
       </c>
       <c r="B130">
-        <v>96</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44059</v>
+        <v>44079</v>
       </c>
       <c r="B131">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44060</v>
+        <v>44080</v>
       </c>
       <c r="B132">
-        <v>199</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44061</v>
+        <v>44081</v>
       </c>
       <c r="B133">
-        <v>153</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44062</v>
+        <v>44082</v>
       </c>
       <c r="B134">
-        <v>230</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44063</v>
+        <v>44083</v>
       </c>
       <c r="B135">
-        <v>261</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44064</v>
+        <v>44084</v>
       </c>
       <c r="B136">
-        <v>214</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44065</v>
+        <v>44085</v>
       </c>
       <c r="B137">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44066</v>
+        <v>44086</v>
       </c>
       <c r="B138">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44067</v>
+        <v>44087</v>
       </c>
       <c r="B139">
-        <v>174</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44068</v>
+        <v>44088</v>
       </c>
       <c r="B140">
-        <v>317</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44069</v>
+        <v>44089</v>
       </c>
       <c r="B141">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44070</v>
+        <v>44090</v>
       </c>
       <c r="B142">
-        <v>208</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44071</v>
+        <v>44091</v>
       </c>
       <c r="B143">
-        <v>106</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44072</v>
+        <v>44092</v>
       </c>
       <c r="B144">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44073</v>
+        <v>44093</v>
       </c>
       <c r="B145">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44074</v>
+        <v>44094</v>
       </c>
       <c r="B146">
-        <v>102</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44075</v>
+        <v>44095</v>
       </c>
       <c r="B147">
-        <v>105</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44076</v>
+        <v>44096</v>
       </c>
       <c r="B148">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44077</v>
+        <v>44097</v>
       </c>
       <c r="B149">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44078</v>
+        <v>44098</v>
       </c>
       <c r="B150">
-        <v>256</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44079</v>
+        <v>44099</v>
       </c>
       <c r="B151">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44080</v>
+        <v>44100</v>
       </c>
       <c r="B152">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44081</v>
+        <v>44101</v>
       </c>
       <c r="B153">
-        <v>129</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44082</v>
+        <v>44102</v>
       </c>
       <c r="B154">
-        <v>178</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44083</v>
+        <v>44103</v>
       </c>
       <c r="B155">
-        <v>125</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44084</v>
+        <v>44104</v>
       </c>
       <c r="B156">
-        <v>108</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44085</v>
+        <v>44105</v>
       </c>
       <c r="B157">
-        <v>236</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44086</v>
+        <v>44106</v>
       </c>
       <c r="B158">
-        <v>255</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44087</v>
+        <v>44107</v>
       </c>
       <c r="B159">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44088</v>
+        <v>44108</v>
       </c>
       <c r="B160">
-        <v>126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44089</v>
+        <v>44109</v>
       </c>
       <c r="B161">
-        <v>129</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44090</v>
+        <v>44110</v>
       </c>
       <c r="B162">
-        <v>117</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44091</v>
+        <v>44111</v>
       </c>
       <c r="B163">
-        <v>157</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44092</v>
+        <v>44112</v>
       </c>
       <c r="B164">
-        <v>123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44093</v>
+        <v>44113</v>
       </c>
       <c r="B165">
-        <v>170</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44094</v>
+        <v>44114</v>
       </c>
       <c r="B166">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44095</v>
+        <v>44115</v>
       </c>
       <c r="B167">
-        <v>136</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44096</v>
+        <v>44116</v>
       </c>
       <c r="B168">
-        <v>251</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44097</v>
+        <v>44117</v>
       </c>
       <c r="B169">
-        <v>184</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44098</v>
+        <v>44118</v>
       </c>
       <c r="B170">
-        <v>215</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44099</v>
+        <v>44119</v>
       </c>
       <c r="B171">
-        <v>150</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44100</v>
+        <v>44120</v>
       </c>
       <c r="B172">
-        <v>92</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44101</v>
+        <v>44121</v>
       </c>
       <c r="B173">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44102</v>
+        <v>44123</v>
       </c>
       <c r="B174">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44103</v>
+        <v>44124</v>
       </c>
       <c r="B175">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44104</v>
+        <v>44125</v>
       </c>
       <c r="B176">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44105</v>
+        <v>44126</v>
       </c>
       <c r="B177">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44106</v>
+        <v>44127</v>
       </c>
       <c r="B178">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44107</v>
+        <v>44128</v>
       </c>
       <c r="B179">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44108</v>
+        <v>44129</v>
       </c>
       <c r="B180">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44109</v>
+        <v>44130</v>
       </c>
       <c r="B181">
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44110</v>
+        <v>44131</v>
       </c>
       <c r="B182">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44111</v>
+        <v>44132</v>
       </c>
       <c r="B183">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44112</v>
+        <v>44133</v>
       </c>
       <c r="B184">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44113</v>
+        <v>44134</v>
       </c>
       <c r="B185">
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44114</v>
+        <v>44135</v>
       </c>
       <c r="B186">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44115</v>
+        <v>44136</v>
       </c>
       <c r="B187">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44116</v>
+        <v>44137</v>
       </c>
       <c r="B188">
-        <v>153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44117</v>
+        <v>44138</v>
       </c>
       <c r="B189">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44118</v>
+        <v>44139</v>
       </c>
       <c r="B190">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44119</v>
+        <v>44140</v>
       </c>
       <c r="B191">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44120</v>
+        <v>44144</v>
       </c>
       <c r="B192">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44121</v>
+        <v>44145</v>
       </c>
       <c r="B193">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44122</v>
+        <v>44146</v>
       </c>
       <c r="B194">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44123</v>
+        <v>44147</v>
       </c>
       <c r="B195">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44124</v>
+        <v>44150</v>
       </c>
       <c r="B196">
-        <v>78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44125</v>
+        <v>44151</v>
       </c>
       <c r="B197">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44126</v>
+        <v>44152</v>
       </c>
       <c r="B198">
-        <v>136</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44127</v>
+        <v>44154</v>
       </c>
       <c r="B199">
-        <v>86</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44128</v>
+        <v>44155</v>
       </c>
       <c r="B200">
-        <v>120</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44129</v>
+        <v>44156</v>
       </c>
       <c r="B201">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44130</v>
+        <v>44157</v>
       </c>
       <c r="B202">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44131</v>
+        <v>44158</v>
       </c>
       <c r="B203">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44132</v>
+        <v>44159</v>
       </c>
       <c r="B204">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44133</v>
+        <v>44160</v>
       </c>
       <c r="B205">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44134</v>
+        <v>44161</v>
       </c>
       <c r="B206">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44135</v>
+        <v>44162</v>
       </c>
       <c r="B207">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44136</v>
+        <v>44163</v>
       </c>
       <c r="B208">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44137</v>
+        <v>44164</v>
       </c>
       <c r="B209">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44138</v>
+        <v>44165</v>
       </c>
       <c r="B210">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44139</v>
+        <v>44166</v>
       </c>
       <c r="B211">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44140</v>
+        <v>44167</v>
       </c>
       <c r="B212">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44142</v>
+        <v>44168</v>
       </c>
       <c r="B213">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44143</v>
+        <v>44170</v>
       </c>
       <c r="B214">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44144</v>
+        <v>44172</v>
       </c>
       <c r="B215">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44145</v>
+        <v>44173</v>
       </c>
       <c r="B216">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44146</v>
+        <v>44174</v>
       </c>
       <c r="B217">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44147</v>
+        <v>44175</v>
       </c>
       <c r="B218">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44148</v>
+        <v>44176</v>
       </c>
       <c r="B219">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44149</v>
+        <v>44178</v>
       </c>
       <c r="B220">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44150</v>
+        <v>44180</v>
       </c>
       <c r="B221">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44151</v>
+        <v>44181</v>
       </c>
       <c r="B222">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44152</v>
+        <v>44182</v>
       </c>
       <c r="B223">
-        <v>75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44153</v>
+        <v>44184</v>
       </c>
       <c r="B224">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44154</v>
+        <v>44186</v>
       </c>
       <c r="B225">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44155</v>
+        <v>44187</v>
       </c>
       <c r="B226">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44156</v>
+        <v>44189</v>
       </c>
       <c r="B227">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44157</v>
+        <v>44191</v>
       </c>
       <c r="B228">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44158</v>
+        <v>44192</v>
       </c>
       <c r="B229">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44159</v>
+        <v>44193</v>
       </c>
       <c r="B230">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44160</v>
+        <v>44194</v>
       </c>
       <c r="B231">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44161</v>
+        <v>44195</v>
       </c>
       <c r="B232">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44162</v>
+        <v>44200</v>
       </c>
       <c r="B233">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44163</v>
+        <v>44201</v>
       </c>
       <c r="B234">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44164</v>
+        <v>44203</v>
       </c>
       <c r="B235">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44165</v>
+        <v>44204</v>
       </c>
       <c r="B236">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44166</v>
+        <v>44205</v>
       </c>
       <c r="B237">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44167</v>
+        <v>44207</v>
       </c>
       <c r="B238">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44168</v>
+        <v>44208</v>
       </c>
       <c r="B239">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44169</v>
+        <v>44209</v>
       </c>
       <c r="B240">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44170</v>
+        <v>44210</v>
       </c>
       <c r="B241">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44172</v>
+        <v>44211</v>
       </c>
       <c r="B242">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44173</v>
+        <v>44214</v>
       </c>
       <c r="B243">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44174</v>
+        <v>44216</v>
       </c>
       <c r="B244">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44175</v>
+        <v>44217</v>
       </c>
       <c r="B245">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44176</v>
+        <v>44218</v>
       </c>
       <c r="B246">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44177</v>
+        <v>44219</v>
       </c>
       <c r="B247">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44178</v>
+        <v>44220</v>
       </c>
       <c r="B248">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44179</v>
+        <v>44221</v>
       </c>
       <c r="B249">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44180</v>
+        <v>44222</v>
       </c>
       <c r="B250">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44181</v>
+        <v>44223</v>
       </c>
       <c r="B251">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44182</v>
+        <v>44224</v>
       </c>
       <c r="B252">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44183</v>
+        <v>44225</v>
       </c>
       <c r="B253">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44184</v>
+        <v>44226</v>
       </c>
       <c r="B254">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44185</v>
+        <v>44228</v>
       </c>
       <c r="B255">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44186</v>
+        <v>44229</v>
       </c>
       <c r="B256">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44187</v>
+        <v>44230</v>
       </c>
       <c r="B257">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44189</v>
+        <v>44231</v>
       </c>
       <c r="B258">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44190</v>
+        <v>44232</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -2463,47 +2463,47 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44191</v>
+        <v>44233</v>
       </c>
       <c r="B260">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44192</v>
+        <v>44234</v>
       </c>
       <c r="B261">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44193</v>
+        <v>44235</v>
       </c>
       <c r="B262">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44194</v>
+        <v>44236</v>
       </c>
       <c r="B263">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44195</v>
+        <v>44237</v>
       </c>
       <c r="B264">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44196</v>
+        <v>44238</v>
       </c>
       <c r="B265">
         <v>4</v>
@@ -2511,303 +2511,303 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44197</v>
+        <v>44239</v>
       </c>
       <c r="B266">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44198</v>
+        <v>44240</v>
       </c>
       <c r="B267">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44199</v>
+        <v>44242</v>
       </c>
       <c r="B268">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44200</v>
+        <v>44243</v>
       </c>
       <c r="B269">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44201</v>
+        <v>44244</v>
       </c>
       <c r="B270">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="B271">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44203</v>
+        <v>44246</v>
       </c>
       <c r="B272">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44204</v>
+        <v>44247</v>
       </c>
       <c r="B273">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44205</v>
+        <v>44249</v>
       </c>
       <c r="B274">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44206</v>
+        <v>44250</v>
       </c>
       <c r="B275">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44207</v>
+        <v>44251</v>
       </c>
       <c r="B276">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44208</v>
+        <v>44252</v>
       </c>
       <c r="B277">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44209</v>
+        <v>44253</v>
       </c>
       <c r="B278">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44210</v>
+        <v>44255</v>
       </c>
       <c r="B279">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44211</v>
+        <v>44256</v>
       </c>
       <c r="B280">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44212</v>
+        <v>44257</v>
       </c>
       <c r="B281">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44213</v>
+        <v>44258</v>
       </c>
       <c r="B282">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44214</v>
+        <v>44259</v>
       </c>
       <c r="B283">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44215</v>
+        <v>44260</v>
       </c>
       <c r="B284">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44216</v>
+        <v>44261</v>
       </c>
       <c r="B285">
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44217</v>
+        <v>44263</v>
       </c>
       <c r="B286">
-        <v>81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44218</v>
+        <v>44264</v>
       </c>
       <c r="B287">
-        <v>88</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44219</v>
+        <v>44265</v>
       </c>
       <c r="B288">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44220</v>
+        <v>44266</v>
       </c>
       <c r="B289">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44221</v>
+        <v>44267</v>
       </c>
       <c r="B290">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44222</v>
+        <v>44268</v>
       </c>
       <c r="B291">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44223</v>
+        <v>44269</v>
       </c>
       <c r="B292">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44224</v>
+        <v>44270</v>
       </c>
       <c r="B293">
-        <v>115</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44225</v>
+        <v>44271</v>
       </c>
       <c r="B294">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44226</v>
+        <v>44272</v>
       </c>
       <c r="B295">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44227</v>
+        <v>44273</v>
       </c>
       <c r="B296">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44228</v>
+        <v>44274</v>
       </c>
       <c r="B297">
-        <v>97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44229</v>
+        <v>44275</v>
       </c>
       <c r="B298">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44230</v>
+        <v>44276</v>
       </c>
       <c r="B299">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44231</v>
+        <v>44277</v>
       </c>
       <c r="B300">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44232</v>
+        <v>44278</v>
       </c>
       <c r="B301">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44233</v>
+        <v>44279</v>
       </c>
       <c r="B302">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44234</v>
+        <v>44280</v>
       </c>
       <c r="B303">
         <v>9</v>
@@ -2815,199 +2815,199 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44235</v>
+        <v>44281</v>
       </c>
       <c r="B304">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44236</v>
+        <v>44282</v>
       </c>
       <c r="B305">
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44237</v>
+        <v>44284</v>
       </c>
       <c r="B306">
-        <v>78</v>
+        <v>6</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44238</v>
+        <v>44285</v>
       </c>
       <c r="B307">
-        <v>65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44239</v>
+        <v>44286</v>
       </c>
       <c r="B308">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44240</v>
+        <v>44287</v>
       </c>
       <c r="B309">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44241</v>
+        <v>44288</v>
       </c>
       <c r="B310">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44242</v>
+        <v>44289</v>
       </c>
       <c r="B311">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44243</v>
+        <v>44290</v>
       </c>
       <c r="B312">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44244</v>
+        <v>44291</v>
       </c>
       <c r="B313">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44245</v>
+        <v>44292</v>
       </c>
       <c r="B314">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44246</v>
+        <v>44293</v>
       </c>
       <c r="B315">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44247</v>
+        <v>44294</v>
       </c>
       <c r="B316">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44248</v>
+        <v>44295</v>
       </c>
       <c r="B317">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44249</v>
+        <v>44296</v>
       </c>
       <c r="B318">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44250</v>
+        <v>44297</v>
       </c>
       <c r="B319">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44251</v>
+        <v>44298</v>
       </c>
       <c r="B320">
-        <v>68</v>
+        <v>11</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44252</v>
+        <v>44299</v>
       </c>
       <c r="B321">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44253</v>
+        <v>44300</v>
       </c>
       <c r="B322">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44254</v>
+        <v>44301</v>
       </c>
       <c r="B323">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44255</v>
+        <v>44302</v>
       </c>
       <c r="B324">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44256</v>
+        <v>44303</v>
       </c>
       <c r="B325">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44257</v>
+        <v>44304</v>
       </c>
       <c r="B326">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44258</v>
+        <v>44305</v>
       </c>
       <c r="B327">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44259</v>
+        <v>44306</v>
       </c>
       <c r="B328">
         <v>19</v>
@@ -3015,1167 +3015,1167 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44260</v>
+        <v>44307</v>
       </c>
       <c r="B329">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44261</v>
+        <v>44308</v>
       </c>
       <c r="B330">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44262</v>
+        <v>44309</v>
       </c>
       <c r="B331">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44263</v>
+        <v>44310</v>
       </c>
       <c r="B332">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44264</v>
+        <v>44311</v>
       </c>
       <c r="B333">
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44265</v>
+        <v>44312</v>
       </c>
       <c r="B334">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44266</v>
+        <v>44313</v>
       </c>
       <c r="B335">
-        <v>110</v>
+        <v>17</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44267</v>
+        <v>44314</v>
       </c>
       <c r="B336">
-        <v>84</v>
+        <v>7</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44268</v>
+        <v>44315</v>
       </c>
       <c r="B337">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44269</v>
+        <v>44316</v>
       </c>
       <c r="B338">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44270</v>
+        <v>44317</v>
       </c>
       <c r="B339">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44271</v>
+        <v>44318</v>
       </c>
       <c r="B340">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44272</v>
+        <v>44319</v>
       </c>
       <c r="B341">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44273</v>
+        <v>44320</v>
       </c>
       <c r="B342">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44274</v>
+        <v>44321</v>
       </c>
       <c r="B343">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44275</v>
+        <v>44322</v>
       </c>
       <c r="B344">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44276</v>
+        <v>44323</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44277</v>
+        <v>44324</v>
       </c>
       <c r="B346">
-        <v>152</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44278</v>
+        <v>44326</v>
       </c>
       <c r="B347">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44279</v>
+        <v>44327</v>
       </c>
       <c r="B348">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44280</v>
+        <v>44328</v>
       </c>
       <c r="B349">
-        <v>99</v>
+        <v>14</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44281</v>
+        <v>44329</v>
       </c>
       <c r="B350">
-        <v>147</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44282</v>
+        <v>44330</v>
       </c>
       <c r="B351">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44283</v>
+        <v>44331</v>
       </c>
       <c r="B352">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44284</v>
+        <v>44332</v>
       </c>
       <c r="B353">
-        <v>75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44285</v>
+        <v>44333</v>
       </c>
       <c r="B354">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44286</v>
+        <v>44334</v>
       </c>
       <c r="B355">
-        <v>93</v>
+        <v>8</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44287</v>
+        <v>44335</v>
       </c>
       <c r="B356">
-        <v>77</v>
+        <v>9</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44288</v>
+        <v>44336</v>
       </c>
       <c r="B357">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44289</v>
+        <v>44337</v>
       </c>
       <c r="B358">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44290</v>
+        <v>44338</v>
       </c>
       <c r="B359">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44291</v>
+        <v>44339</v>
       </c>
       <c r="B360">
-        <v>142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44292</v>
+        <v>44340</v>
       </c>
       <c r="B361">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44293</v>
+        <v>44341</v>
       </c>
       <c r="B362">
-        <v>111</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="B363">
-        <v>126</v>
+        <v>12</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44295</v>
+        <v>44343</v>
       </c>
       <c r="B364">
-        <v>131</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44296</v>
+        <v>44344</v>
       </c>
       <c r="B365">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44297</v>
+        <v>44345</v>
       </c>
       <c r="B366">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44298</v>
+        <v>44346</v>
       </c>
       <c r="B367">
-        <v>127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44299</v>
+        <v>44347</v>
       </c>
       <c r="B368">
-        <v>140</v>
+        <v>9</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44300</v>
+        <v>44348</v>
       </c>
       <c r="B369">
-        <v>110</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44301</v>
+        <v>44349</v>
       </c>
       <c r="B370">
-        <v>150</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44302</v>
+        <v>44350</v>
       </c>
       <c r="B371">
-        <v>144</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44303</v>
+        <v>44351</v>
       </c>
       <c r="B372">
-        <v>121</v>
+        <v>8</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44304</v>
+        <v>44352</v>
       </c>
       <c r="B373">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44305</v>
+        <v>44354</v>
       </c>
       <c r="B374">
-        <v>190</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44306</v>
+        <v>44355</v>
       </c>
       <c r="B375">
-        <v>151</v>
+        <v>8</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44307</v>
+        <v>44356</v>
       </c>
       <c r="B376">
-        <v>127</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44308</v>
+        <v>44357</v>
       </c>
       <c r="B377">
-        <v>188</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44309</v>
+        <v>44358</v>
       </c>
       <c r="B378">
-        <v>149</v>
+        <v>7</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44310</v>
+        <v>44359</v>
       </c>
       <c r="B379">
-        <v>129</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44311</v>
+        <v>44360</v>
       </c>
       <c r="B380">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44312</v>
+        <v>44361</v>
       </c>
       <c r="B381">
-        <v>143</v>
+        <v>8</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44313</v>
+        <v>44362</v>
       </c>
       <c r="B382">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44314</v>
+        <v>44363</v>
       </c>
       <c r="B383">
-        <v>76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44315</v>
+        <v>44364</v>
       </c>
       <c r="B384">
-        <v>126</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44316</v>
+        <v>44365</v>
       </c>
       <c r="B385">
-        <v>116</v>
+        <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44317</v>
+        <v>44366</v>
       </c>
       <c r="B386">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44318</v>
+        <v>44367</v>
       </c>
       <c r="B387">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44319</v>
+        <v>44368</v>
       </c>
       <c r="B388">
-        <v>105</v>
+        <v>4</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44320</v>
+        <v>44369</v>
       </c>
       <c r="B389">
-        <v>80</v>
+        <v>6</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44321</v>
+        <v>44370</v>
       </c>
       <c r="B390">
-        <v>78</v>
+        <v>5</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44322</v>
+        <v>44371</v>
       </c>
       <c r="B391">
-        <v>127</v>
+        <v>3</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44323</v>
+        <v>44372</v>
       </c>
       <c r="B392">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44324</v>
+        <v>44373</v>
       </c>
       <c r="B393">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44325</v>
+        <v>44375</v>
       </c>
       <c r="B394">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44326</v>
+        <v>44376</v>
       </c>
       <c r="B395">
-        <v>127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44327</v>
+        <v>44377</v>
       </c>
       <c r="B396">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44328</v>
+        <v>44378</v>
       </c>
       <c r="B397">
-        <v>110</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44329</v>
+        <v>44379</v>
       </c>
       <c r="B398">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44330</v>
+        <v>44380</v>
       </c>
       <c r="B399">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44331</v>
+        <v>44381</v>
       </c>
       <c r="B400">
-        <v>67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44332</v>
+        <v>44382</v>
       </c>
       <c r="B401">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44333</v>
+        <v>44383</v>
       </c>
       <c r="B402">
-        <v>92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44334</v>
+        <v>44384</v>
       </c>
       <c r="B403">
-        <v>78</v>
+        <v>6</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44335</v>
+        <v>44385</v>
       </c>
       <c r="B404">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44336</v>
+        <v>44386</v>
       </c>
       <c r="B405">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44337</v>
+        <v>44387</v>
       </c>
       <c r="B406">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44338</v>
+        <v>44389</v>
       </c>
       <c r="B407">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44339</v>
+        <v>44390</v>
       </c>
       <c r="B408">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44340</v>
+        <v>44391</v>
       </c>
       <c r="B409">
-        <v>78</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44341</v>
+        <v>44392</v>
       </c>
       <c r="B410">
-        <v>84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44342</v>
+        <v>44393</v>
       </c>
       <c r="B411">
-        <v>85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44343</v>
+        <v>44394</v>
       </c>
       <c r="B412">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44344</v>
+        <v>44395</v>
       </c>
       <c r="B413">
-        <v>59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44345</v>
+        <v>44396</v>
       </c>
       <c r="B414">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44346</v>
+        <v>44397</v>
       </c>
       <c r="B415">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44347</v>
+        <v>44398</v>
       </c>
       <c r="B416">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44348</v>
+        <v>44399</v>
       </c>
       <c r="B417">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44349</v>
+        <v>44400</v>
       </c>
       <c r="B418">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44350</v>
+        <v>44403</v>
       </c>
       <c r="B419">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44351</v>
+        <v>44406</v>
       </c>
       <c r="B420">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44352</v>
+        <v>44407</v>
       </c>
       <c r="B421">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44353</v>
+        <v>44408</v>
       </c>
       <c r="B422">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44354</v>
+        <v>44410</v>
       </c>
       <c r="B423">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44355</v>
+        <v>44411</v>
       </c>
       <c r="B424">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44356</v>
+        <v>44412</v>
       </c>
       <c r="B425">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44357</v>
+        <v>44413</v>
       </c>
       <c r="B426">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44358</v>
+        <v>44414</v>
       </c>
       <c r="B427">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44359</v>
+        <v>44417</v>
       </c>
       <c r="B428">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44360</v>
+        <v>44418</v>
       </c>
       <c r="B429">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44361</v>
+        <v>44419</v>
       </c>
       <c r="B430">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44362</v>
+        <v>44421</v>
       </c>
       <c r="B431">
-        <v>142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44363</v>
+        <v>44422</v>
       </c>
       <c r="B432">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44364</v>
+        <v>44424</v>
       </c>
       <c r="B433">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44365</v>
+        <v>44425</v>
       </c>
       <c r="B434">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44366</v>
+        <v>44426</v>
       </c>
       <c r="B435">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44367</v>
+        <v>44427</v>
       </c>
       <c r="B436">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44368</v>
+        <v>44431</v>
       </c>
       <c r="B437">
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44369</v>
+        <v>44432</v>
       </c>
       <c r="B438">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44370</v>
+        <v>44433</v>
       </c>
       <c r="B439">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44371</v>
+        <v>44434</v>
       </c>
       <c r="B440">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44372</v>
+        <v>44436</v>
       </c>
       <c r="B441">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44373</v>
+        <v>44437</v>
       </c>
       <c r="B442">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44374</v>
+        <v>44440</v>
       </c>
       <c r="B443">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44375</v>
+        <v>44443</v>
       </c>
       <c r="B444">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44376</v>
+        <v>44445</v>
       </c>
       <c r="B445">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44377</v>
+        <v>44446</v>
       </c>
       <c r="B446">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44378</v>
+        <v>44447</v>
       </c>
       <c r="B447">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44379</v>
+        <v>44448</v>
       </c>
       <c r="B448">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44380</v>
+        <v>44449</v>
       </c>
       <c r="B449">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44381</v>
+        <v>44450</v>
       </c>
       <c r="B450">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44382</v>
+        <v>44453</v>
       </c>
       <c r="B451">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44383</v>
+        <v>44454</v>
       </c>
       <c r="B452">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44384</v>
+        <v>44455</v>
       </c>
       <c r="B453">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44385</v>
+        <v>44456</v>
       </c>
       <c r="B454">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44386</v>
+        <v>44460</v>
       </c>
       <c r="B455">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44387</v>
+        <v>44461</v>
       </c>
       <c r="B456">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44388</v>
+        <v>44462</v>
       </c>
       <c r="B457">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44389</v>
+        <v>44463</v>
       </c>
       <c r="B458">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44390</v>
+        <v>44464</v>
       </c>
       <c r="B459">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44391</v>
+        <v>44465</v>
       </c>
       <c r="B460">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44392</v>
+        <v>44466</v>
       </c>
       <c r="B461">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44393</v>
+        <v>44467</v>
       </c>
       <c r="B462">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44394</v>
+        <v>44468</v>
       </c>
       <c r="B463">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44395</v>
+        <v>44469</v>
       </c>
       <c r="B464">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44396</v>
+        <v>44470</v>
       </c>
       <c r="B465">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44397</v>
+        <v>44471</v>
       </c>
       <c r="B466">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="B467">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44399</v>
+        <v>44474</v>
       </c>
       <c r="B468">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44400</v>
+        <v>44475</v>
       </c>
       <c r="B469">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44401</v>
+        <v>44480</v>
       </c>
       <c r="B470">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44402</v>
+        <v>44482</v>
       </c>
       <c r="B471">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44403</v>
+        <v>44483</v>
       </c>
       <c r="B472">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44404</v>
+        <v>44484</v>
       </c>
       <c r="B473">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44405</v>
+        <v>44487</v>
       </c>
       <c r="B474">
         <v>5</v>
@@ -4183,263 +4183,263 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44406</v>
+        <v>44488</v>
       </c>
       <c r="B475">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44407</v>
+        <v>44490</v>
       </c>
       <c r="B476">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44408</v>
+        <v>44492</v>
       </c>
       <c r="B477">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44409</v>
+        <v>44494</v>
       </c>
       <c r="B478">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44410</v>
+        <v>44496</v>
       </c>
       <c r="B479">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44411</v>
+        <v>44497</v>
       </c>
       <c r="B480">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44412</v>
+        <v>44499</v>
       </c>
       <c r="B481">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44413</v>
+        <v>44502</v>
       </c>
       <c r="B482">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44414</v>
+        <v>44503</v>
       </c>
       <c r="B483">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44415</v>
+        <v>44505</v>
       </c>
       <c r="B484">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44416</v>
+        <v>44506</v>
       </c>
       <c r="B485">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44417</v>
+        <v>44508</v>
       </c>
       <c r="B486">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44418</v>
+        <v>44510</v>
       </c>
       <c r="B487">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44419</v>
+        <v>44511</v>
       </c>
       <c r="B488">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44420</v>
+        <v>44512</v>
       </c>
       <c r="B489">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44421</v>
+        <v>44513</v>
       </c>
       <c r="B490">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44422</v>
+        <v>44515</v>
       </c>
       <c r="B491">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44423</v>
+        <v>44517</v>
       </c>
       <c r="B492">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44424</v>
+        <v>44519</v>
       </c>
       <c r="B493">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44425</v>
+        <v>44522</v>
       </c>
       <c r="B494">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44426</v>
+        <v>44523</v>
       </c>
       <c r="B495">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44427</v>
+        <v>44524</v>
       </c>
       <c r="B496">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44428</v>
+        <v>44525</v>
       </c>
       <c r="B497">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44429</v>
+        <v>44526</v>
       </c>
       <c r="B498">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44430</v>
+        <v>44527</v>
       </c>
       <c r="B499">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44431</v>
+        <v>44529</v>
       </c>
       <c r="B500">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44432</v>
+        <v>44530</v>
       </c>
       <c r="B501">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44433</v>
+        <v>44531</v>
       </c>
       <c r="B502">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44434</v>
+        <v>44532</v>
       </c>
       <c r="B503">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44435</v>
+        <v>44533</v>
       </c>
       <c r="B504">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44436</v>
+        <v>44535</v>
       </c>
       <c r="B505">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44437</v>
+        <v>44536</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44438</v>
+        <v>44537</v>
       </c>
       <c r="B507">
         <v>2</v>
@@ -4447,47 +4447,47 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44439</v>
+        <v>44538</v>
       </c>
       <c r="B508">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44440</v>
+        <v>44539</v>
       </c>
       <c r="B509">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44441</v>
+        <v>44540</v>
       </c>
       <c r="B510">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44442</v>
+        <v>44541</v>
       </c>
       <c r="B511">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44443</v>
+        <v>44542</v>
       </c>
       <c r="B512">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44444</v>
+        <v>44543</v>
       </c>
       <c r="B513">
         <v>1</v>
@@ -4495,543 +4495,543 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44445</v>
+        <v>44544</v>
       </c>
       <c r="B514">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44446</v>
+        <v>44545</v>
       </c>
       <c r="B515">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44447</v>
+        <v>44546</v>
       </c>
       <c r="B516">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44448</v>
+        <v>44547</v>
       </c>
       <c r="B517">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44449</v>
+        <v>44548</v>
       </c>
       <c r="B518">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44450</v>
+        <v>44550</v>
       </c>
       <c r="B519">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44451</v>
+        <v>44551</v>
       </c>
       <c r="B520">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44452</v>
+        <v>44552</v>
       </c>
       <c r="B521">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44453</v>
+        <v>44553</v>
       </c>
       <c r="B522">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44454</v>
+        <v>44554</v>
       </c>
       <c r="B523">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44455</v>
+        <v>44555</v>
       </c>
       <c r="B524">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44456</v>
+        <v>44557</v>
       </c>
       <c r="B525">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44457</v>
+        <v>44558</v>
       </c>
       <c r="B526">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44458</v>
+        <v>44559</v>
       </c>
       <c r="B527">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44459</v>
+        <v>44560</v>
       </c>
       <c r="B528">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44460</v>
+        <v>44561</v>
       </c>
       <c r="B529">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44461</v>
+        <v>44562</v>
       </c>
       <c r="B530">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44462</v>
+        <v>44563</v>
       </c>
       <c r="B531">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44463</v>
+        <v>44564</v>
       </c>
       <c r="B532">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44464</v>
+        <v>44565</v>
       </c>
       <c r="B533">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44465</v>
+        <v>44566</v>
       </c>
       <c r="B534">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44466</v>
+        <v>44567</v>
       </c>
       <c r="B535">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44467</v>
+        <v>44568</v>
       </c>
       <c r="B536">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44468</v>
+        <v>44569</v>
       </c>
       <c r="B537">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44469</v>
+        <v>44570</v>
       </c>
       <c r="B538">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44470</v>
+        <v>44571</v>
       </c>
       <c r="B539">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44471</v>
+        <v>44572</v>
       </c>
       <c r="B540">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44472</v>
+        <v>44573</v>
       </c>
       <c r="B541">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44473</v>
+        <v>44574</v>
       </c>
       <c r="B542">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44474</v>
+        <v>44575</v>
       </c>
       <c r="B543">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44475</v>
+        <v>44576</v>
       </c>
       <c r="B544">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44476</v>
+        <v>44577</v>
       </c>
       <c r="B545">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44477</v>
+        <v>44578</v>
       </c>
       <c r="B546">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44478</v>
+        <v>44579</v>
       </c>
       <c r="B547">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44479</v>
+        <v>44580</v>
       </c>
       <c r="B548">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44480</v>
+        <v>44581</v>
       </c>
       <c r="B549">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44481</v>
+        <v>44582</v>
       </c>
       <c r="B550">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44482</v>
+        <v>44583</v>
       </c>
       <c r="B551">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44483</v>
+        <v>44584</v>
       </c>
       <c r="B552">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44484</v>
+        <v>44585</v>
       </c>
       <c r="B553">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44485</v>
+        <v>44586</v>
       </c>
       <c r="B554">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44486</v>
+        <v>44587</v>
       </c>
       <c r="B555">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44487</v>
+        <v>44588</v>
       </c>
       <c r="B556">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44488</v>
+        <v>44589</v>
       </c>
       <c r="B557">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44489</v>
+        <v>44590</v>
       </c>
       <c r="B558">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44490</v>
+        <v>44591</v>
       </c>
       <c r="B559">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44491</v>
+        <v>44592</v>
       </c>
       <c r="B560">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44492</v>
+        <v>44593</v>
       </c>
       <c r="B561">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44493</v>
+        <v>44594</v>
       </c>
       <c r="B562">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44494</v>
+        <v>44595</v>
       </c>
       <c r="B563">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44495</v>
+        <v>44596</v>
       </c>
       <c r="B564">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44496</v>
+        <v>44597</v>
       </c>
       <c r="B565">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44497</v>
+        <v>44598</v>
       </c>
       <c r="B566">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44498</v>
+        <v>44599</v>
       </c>
       <c r="B567">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44499</v>
+        <v>44600</v>
       </c>
       <c r="B568">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44500</v>
+        <v>44601</v>
       </c>
       <c r="B569">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44501</v>
+        <v>44602</v>
       </c>
       <c r="B570">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44502</v>
+        <v>44603</v>
       </c>
       <c r="B571">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44503</v>
+        <v>44604</v>
       </c>
       <c r="B572">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44504</v>
+        <v>44605</v>
       </c>
       <c r="B573">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44505</v>
+        <v>44606</v>
       </c>
       <c r="B574">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44506</v>
+        <v>44607</v>
       </c>
       <c r="B575">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44508</v>
+        <v>44608</v>
       </c>
       <c r="B576">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44509</v>
+        <v>44609</v>
       </c>
       <c r="B577">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44510</v>
+        <v>44610</v>
       </c>
       <c r="B578">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44511</v>
+        <v>44611</v>
       </c>
       <c r="B579">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44512</v>
+        <v>44613</v>
       </c>
       <c r="B580">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44513</v>
+        <v>44614</v>
       </c>
       <c r="B581">
         <v>7</v>
@@ -5039,2354 +5039,826 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44514</v>
+        <v>44615</v>
       </c>
       <c r="B582">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44515</v>
+        <v>44616</v>
       </c>
       <c r="B583">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44516</v>
+        <v>44617</v>
       </c>
       <c r="B584">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44517</v>
+        <v>44618</v>
       </c>
       <c r="B585">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44518</v>
+        <v>44619</v>
       </c>
       <c r="B586">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44519</v>
+        <v>44620</v>
       </c>
       <c r="B587">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44520</v>
+        <v>44621</v>
       </c>
       <c r="B588">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44522</v>
+        <v>44622</v>
       </c>
       <c r="B589">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44523</v>
+        <v>44623</v>
       </c>
       <c r="B590">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44524</v>
+        <v>44625</v>
       </c>
       <c r="B591">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44525</v>
+        <v>44626</v>
       </c>
       <c r="B592">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44526</v>
+        <v>44627</v>
       </c>
       <c r="B593">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44527</v>
+        <v>44628</v>
       </c>
       <c r="B594">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44528</v>
+        <v>44629</v>
       </c>
       <c r="B595">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44529</v>
+        <v>44630</v>
       </c>
       <c r="B596">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44530</v>
+        <v>44632</v>
       </c>
       <c r="B597">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44531</v>
+        <v>44633</v>
       </c>
       <c r="B598">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44532</v>
+        <v>44634</v>
       </c>
       <c r="B599">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44533</v>
+        <v>44635</v>
       </c>
       <c r="B600">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44534</v>
+        <v>44636</v>
       </c>
       <c r="B601">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44535</v>
+        <v>44637</v>
       </c>
       <c r="B602">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44536</v>
+        <v>44638</v>
       </c>
       <c r="B603">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44537</v>
+        <v>44639</v>
       </c>
       <c r="B604">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44538</v>
+        <v>44640</v>
       </c>
       <c r="B605">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44539</v>
+        <v>44641</v>
       </c>
       <c r="B606">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44540</v>
+        <v>44642</v>
       </c>
       <c r="B607">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44541</v>
+        <v>44643</v>
       </c>
       <c r="B608">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44542</v>
+        <v>44644</v>
       </c>
       <c r="B609">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44543</v>
+        <v>44645</v>
       </c>
       <c r="B610">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44544</v>
+        <v>44648</v>
       </c>
       <c r="B611">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44545</v>
+        <v>44649</v>
       </c>
       <c r="B612">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44546</v>
+        <v>44650</v>
       </c>
       <c r="B613">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44547</v>
+        <v>44651</v>
       </c>
       <c r="B614">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44548</v>
+        <v>44655</v>
       </c>
       <c r="B615">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44549</v>
+        <v>44659</v>
       </c>
       <c r="B616">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44550</v>
+        <v>44662</v>
       </c>
       <c r="B617">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44551</v>
+        <v>44664</v>
       </c>
       <c r="B618">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44552</v>
+        <v>44673</v>
       </c>
       <c r="B619">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44553</v>
+        <v>44694</v>
       </c>
       <c r="B620">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44554</v>
+        <v>44705</v>
       </c>
       <c r="B621">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44555</v>
+        <v>44706</v>
       </c>
       <c r="B622">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44556</v>
+        <v>44714</v>
       </c>
       <c r="B623">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44557</v>
+        <v>44719</v>
       </c>
       <c r="B624">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44558</v>
+        <v>44735</v>
       </c>
       <c r="B625">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44559</v>
+        <v>44736</v>
       </c>
       <c r="B626">
-        <v>78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44560</v>
+        <v>44740</v>
       </c>
       <c r="B627">
-        <v>84</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44561</v>
+        <v>44742</v>
       </c>
       <c r="B628">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44562</v>
+        <v>44743</v>
       </c>
       <c r="B629">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44563</v>
+        <v>44744</v>
       </c>
       <c r="B630">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44564</v>
+        <v>44745</v>
       </c>
       <c r="B631">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44565</v>
+        <v>44746</v>
       </c>
       <c r="B632">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44566</v>
+        <v>44747</v>
       </c>
       <c r="B633">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44567</v>
+        <v>44748</v>
       </c>
       <c r="B634">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44568</v>
+        <v>44749</v>
       </c>
       <c r="B635">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44569</v>
+        <v>44750</v>
       </c>
       <c r="B636">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44570</v>
+        <v>44751</v>
       </c>
       <c r="B637">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44571</v>
+        <v>44752</v>
       </c>
       <c r="B638">
-        <v>130</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44572</v>
+        <v>44753</v>
       </c>
       <c r="B639">
-        <v>129</v>
+        <v>23</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44573</v>
+        <v>44754</v>
       </c>
       <c r="B640">
-        <v>177</v>
+        <v>15</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44574</v>
+        <v>44755</v>
       </c>
       <c r="B641">
-        <v>278</v>
+        <v>6</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44575</v>
+        <v>44756</v>
       </c>
       <c r="B642">
-        <v>238</v>
+        <v>26</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44576</v>
+        <v>44757</v>
       </c>
       <c r="B643">
-        <v>176</v>
+        <v>40</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44577</v>
+        <v>44758</v>
       </c>
       <c r="B644">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44578</v>
+        <v>44759</v>
       </c>
       <c r="B645">
-        <v>382</v>
+        <v>6</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44579</v>
+        <v>44760</v>
       </c>
       <c r="B646">
-        <v>364</v>
+        <v>26</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44580</v>
+        <v>44761</v>
       </c>
       <c r="B647">
-        <v>429</v>
+        <v>21</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44581</v>
+        <v>44762</v>
       </c>
       <c r="B648">
-        <v>403</v>
+        <v>10</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44582</v>
+        <v>44763</v>
       </c>
       <c r="B649">
-        <v>355</v>
+        <v>21</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44583</v>
+        <v>44764</v>
       </c>
       <c r="B650">
-        <v>290</v>
+        <v>11</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44584</v>
+        <v>44765</v>
       </c>
       <c r="B651">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44585</v>
+        <v>44767</v>
       </c>
       <c r="B652">
-        <v>459</v>
+        <v>12</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44586</v>
+        <v>44768</v>
       </c>
       <c r="B653">
-        <v>501</v>
+        <v>14</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44587</v>
+        <v>44769</v>
       </c>
       <c r="B654">
-        <v>484</v>
+        <v>13</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44588</v>
+        <v>44770</v>
       </c>
       <c r="B655">
-        <v>485</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44589</v>
+        <v>44771</v>
       </c>
       <c r="B656">
-        <v>483</v>
+        <v>3</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44590</v>
+        <v>44772</v>
       </c>
       <c r="B657">
-        <v>216</v>
+        <v>8</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44591</v>
+        <v>44774</v>
       </c>
       <c r="B658">
-        <v>74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44592</v>
+        <v>44775</v>
       </c>
       <c r="B659">
-        <v>476</v>
+        <v>7</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44593</v>
+        <v>44776</v>
       </c>
       <c r="B660">
-        <v>452</v>
+        <v>11</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44594</v>
+        <v>44777</v>
       </c>
       <c r="B661">
-        <v>357</v>
+        <v>5</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44595</v>
+        <v>44778</v>
       </c>
       <c r="B662">
-        <v>328</v>
+        <v>10</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44596</v>
+        <v>44779</v>
       </c>
       <c r="B663">
-        <v>285</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44597</v>
+        <v>44780</v>
       </c>
       <c r="B664">
-        <v>160</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44598</v>
+        <v>44781</v>
       </c>
       <c r="B665">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44599</v>
+        <v>44782</v>
       </c>
       <c r="B666">
-        <v>285</v>
+        <v>4</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44600</v>
+        <v>44783</v>
       </c>
       <c r="B667">
-        <v>248</v>
+        <v>4</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44601</v>
+        <v>44784</v>
       </c>
       <c r="B668">
-        <v>165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44602</v>
+        <v>44785</v>
       </c>
       <c r="B669">
-        <v>152</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44603</v>
+        <v>44788</v>
       </c>
       <c r="B670">
-        <v>106</v>
+        <v>4</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44604</v>
+        <v>44789</v>
       </c>
       <c r="B671">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44605</v>
+        <v>44791</v>
       </c>
       <c r="B672">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44606</v>
+        <v>44795</v>
       </c>
       <c r="B673">
-        <v>134</v>
+        <v>3</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44607</v>
+        <v>44796</v>
       </c>
       <c r="B674">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44608</v>
+        <v>44798</v>
       </c>
       <c r="B675">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44609</v>
+        <v>44799</v>
       </c>
       <c r="B676">
-        <v>81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44610</v>
+        <v>44804</v>
       </c>
       <c r="B677">
-        <v>76</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44611</v>
+        <v>44810</v>
       </c>
       <c r="B678">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44612</v>
+        <v>44816</v>
       </c>
       <c r="B679">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44613</v>
+        <v>44818</v>
       </c>
       <c r="B680">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44614</v>
+        <v>44819</v>
       </c>
       <c r="B681">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44615</v>
+        <v>44824</v>
       </c>
       <c r="B682">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44616</v>
+        <v>44838</v>
       </c>
       <c r="B683">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44617</v>
+        <v>44844</v>
       </c>
       <c r="B684">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2">
-      <c r="A685" s="2">
-        <v>44618</v>
-      </c>
-      <c r="B685">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2">
-      <c r="A686" s="2">
-        <v>44619</v>
-      </c>
-      <c r="B686">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2">
-      <c r="A687" s="2">
-        <v>44620</v>
-      </c>
-      <c r="B687">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2">
-      <c r="A688" s="2">
-        <v>44621</v>
-      </c>
-      <c r="B688">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2">
-      <c r="A689" s="2">
-        <v>44622</v>
-      </c>
-      <c r="B689">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2">
-      <c r="A690" s="2">
-        <v>44623</v>
-      </c>
-      <c r="B690">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2">
-      <c r="A691" s="2">
-        <v>44624</v>
-      </c>
-      <c r="B691">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2">
-      <c r="A692" s="2">
-        <v>44625</v>
-      </c>
-      <c r="B692">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2">
-      <c r="A693" s="2">
-        <v>44626</v>
-      </c>
-      <c r="B693">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="694" spans="1:2">
-      <c r="A694" s="2">
-        <v>44627</v>
-      </c>
-      <c r="B694">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2">
-      <c r="A695" s="2">
-        <v>44628</v>
-      </c>
-      <c r="B695">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2">
-      <c r="A696" s="2">
-        <v>44629</v>
-      </c>
-      <c r="B696">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2">
-      <c r="A697" s="2">
-        <v>44630</v>
-      </c>
-      <c r="B697">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2">
-      <c r="A698" s="2">
-        <v>44631</v>
-      </c>
-      <c r="B698">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2">
-      <c r="A699" s="2">
-        <v>44632</v>
-      </c>
-      <c r="B699">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2">
-      <c r="A700" s="2">
-        <v>44633</v>
-      </c>
-      <c r="B700">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2">
-      <c r="A701" s="2">
-        <v>44634</v>
-      </c>
-      <c r="B701">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2">
-      <c r="A702" s="2">
-        <v>44635</v>
-      </c>
-      <c r="B702">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2">
-      <c r="A703" s="2">
-        <v>44636</v>
-      </c>
-      <c r="B703">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2">
-      <c r="A704" s="2">
-        <v>44637</v>
-      </c>
-      <c r="B704">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2">
-      <c r="A705" s="2">
-        <v>44638</v>
-      </c>
-      <c r="B705">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2">
-      <c r="A706" s="2">
-        <v>44639</v>
-      </c>
-      <c r="B706">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2">
-      <c r="A707" s="2">
-        <v>44640</v>
-      </c>
-      <c r="B707">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2">
-      <c r="A708" s="2">
-        <v>44641</v>
-      </c>
-      <c r="B708">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2">
-      <c r="A709" s="2">
-        <v>44642</v>
-      </c>
-      <c r="B709">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="710" spans="1:2">
-      <c r="A710" s="2">
-        <v>44643</v>
-      </c>
-      <c r="B710">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="711" spans="1:2">
-      <c r="A711" s="2">
-        <v>44644</v>
-      </c>
-      <c r="B711">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="712" spans="1:2">
-      <c r="A712" s="2">
-        <v>44645</v>
-      </c>
-      <c r="B712">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="713" spans="1:2">
-      <c r="A713" s="2">
-        <v>44646</v>
-      </c>
-      <c r="B713">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2">
-      <c r="A714" s="2">
-        <v>44647</v>
-      </c>
-      <c r="B714">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2">
-      <c r="A715" s="2">
-        <v>44648</v>
-      </c>
-      <c r="B715">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="716" spans="1:2">
-      <c r="A716" s="2">
-        <v>44649</v>
-      </c>
-      <c r="B716">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="717" spans="1:2">
-      <c r="A717" s="2">
-        <v>44650</v>
-      </c>
-      <c r="B717">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2">
-      <c r="A718" s="2">
-        <v>44651</v>
-      </c>
-      <c r="B718">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="719" spans="1:2">
-      <c r="A719" s="2">
-        <v>44652</v>
-      </c>
-      <c r="B719">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="720" spans="1:2">
-      <c r="A720" s="2">
-        <v>44653</v>
-      </c>
-      <c r="B720">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="721" spans="1:2">
-      <c r="A721" s="2">
-        <v>44655</v>
-      </c>
-      <c r="B721">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="722" spans="1:2">
-      <c r="A722" s="2">
-        <v>44656</v>
-      </c>
-      <c r="B722">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="723" spans="1:2">
-      <c r="A723" s="2">
-        <v>44657</v>
-      </c>
-      <c r="B723">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2">
-      <c r="A724" s="2">
-        <v>44658</v>
-      </c>
-      <c r="B724">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="725" spans="1:2">
-      <c r="A725" s="2">
-        <v>44659</v>
-      </c>
-      <c r="B725">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="726" spans="1:2">
-      <c r="A726" s="2">
-        <v>44662</v>
-      </c>
-      <c r="B726">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="727" spans="1:2">
-      <c r="A727" s="2">
-        <v>44663</v>
-      </c>
-      <c r="B727">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="728" spans="1:2">
-      <c r="A728" s="2">
-        <v>44664</v>
-      </c>
-      <c r="B728">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2">
-      <c r="A729" s="2">
-        <v>44666</v>
-      </c>
-      <c r="B729">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="730" spans="1:2">
-      <c r="A730" s="2">
-        <v>44669</v>
-      </c>
-      <c r="B730">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="731" spans="1:2">
-      <c r="A731" s="2">
-        <v>44670</v>
-      </c>
-      <c r="B731">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2">
-      <c r="A732" s="2">
-        <v>44671</v>
-      </c>
-      <c r="B732">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2">
-      <c r="A733" s="2">
-        <v>44672</v>
-      </c>
-      <c r="B733">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2">
-      <c r="A734" s="2">
-        <v>44673</v>
-      </c>
-      <c r="B734">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2">
-      <c r="A735" s="2">
-        <v>44676</v>
-      </c>
-      <c r="B735">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2">
-      <c r="A736" s="2">
-        <v>44678</v>
-      </c>
-      <c r="B736">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2">
-      <c r="A737" s="2">
-        <v>44679</v>
-      </c>
-      <c r="B737">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="738" spans="1:2">
-      <c r="A738" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B738">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2">
-      <c r="A739" s="2">
-        <v>44684</v>
-      </c>
-      <c r="B739">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="740" spans="1:2">
-      <c r="A740" s="2">
-        <v>44685</v>
-      </c>
-      <c r="B740">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2">
-      <c r="A741" s="2">
-        <v>44686</v>
-      </c>
-      <c r="B741">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2">
-      <c r="A742" s="2">
-        <v>44693</v>
-      </c>
-      <c r="B742">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2">
-      <c r="A743" s="2">
-        <v>44694</v>
-      </c>
-      <c r="B743">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2">
-      <c r="A744" s="2">
-        <v>44695</v>
-      </c>
-      <c r="B744">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2">
-      <c r="A745" s="2">
-        <v>44697</v>
-      </c>
-      <c r="B745">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="746" spans="1:2">
-      <c r="A746" s="2">
-        <v>44699</v>
-      </c>
-      <c r="B746">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="747" spans="1:2">
-      <c r="A747" s="2">
-        <v>44702</v>
-      </c>
-      <c r="B747">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2">
-      <c r="A748" s="2">
-        <v>44705</v>
-      </c>
-      <c r="B748">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2">
-      <c r="A749" s="2">
-        <v>44706</v>
-      </c>
-      <c r="B749">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="750" spans="1:2">
-      <c r="A750" s="2">
-        <v>44707</v>
-      </c>
-      <c r="B750">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2">
-      <c r="A751" s="2">
-        <v>44711</v>
-      </c>
-      <c r="B751">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="752" spans="1:2">
-      <c r="A752" s="2">
-        <v>44713</v>
-      </c>
-      <c r="B752">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="753" spans="1:2">
-      <c r="A753" s="2">
-        <v>44714</v>
-      </c>
-      <c r="B753">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="754" spans="1:2">
-      <c r="A754" s="2">
-        <v>44715</v>
-      </c>
-      <c r="B754">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="755" spans="1:2">
-      <c r="A755" s="2">
-        <v>44719</v>
-      </c>
-      <c r="B755">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="756" spans="1:2">
-      <c r="A756" s="2">
-        <v>44720</v>
-      </c>
-      <c r="B756">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="757" spans="1:2">
-      <c r="A757" s="2">
-        <v>44722</v>
-      </c>
-      <c r="B757">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="758" spans="1:2">
-      <c r="A758" s="2">
-        <v>44723</v>
-      </c>
-      <c r="B758">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="759" spans="1:2">
-      <c r="A759" s="2">
-        <v>44725</v>
-      </c>
-      <c r="B759">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="760" spans="1:2">
-      <c r="A760" s="2">
-        <v>44726</v>
-      </c>
-      <c r="B760">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2">
-      <c r="A761" s="2">
-        <v>44727</v>
-      </c>
-      <c r="B761">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="762" spans="1:2">
-      <c r="A762" s="2">
-        <v>44728</v>
-      </c>
-      <c r="B762">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="763" spans="1:2">
-      <c r="A763" s="2">
-        <v>44729</v>
-      </c>
-      <c r="B763">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="764" spans="1:2">
-      <c r="A764" s="2">
-        <v>44730</v>
-      </c>
-      <c r="B764">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2">
-      <c r="A765" s="2">
-        <v>44732</v>
-      </c>
-      <c r="B765">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2">
-      <c r="A766" s="2">
-        <v>44733</v>
-      </c>
-      <c r="B766">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="767" spans="1:2">
-      <c r="A767" s="2">
-        <v>44734</v>
-      </c>
-      <c r="B767">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2">
-      <c r="A768" s="2">
-        <v>44735</v>
-      </c>
-      <c r="B768">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2">
-      <c r="A769" s="2">
-        <v>44736</v>
-      </c>
-      <c r="B769">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2">
-      <c r="A770" s="2">
-        <v>44737</v>
-      </c>
-      <c r="B770">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2">
-      <c r="A771" s="2">
-        <v>44739</v>
-      </c>
-      <c r="B771">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2">
-      <c r="A772" s="2">
-        <v>44740</v>
-      </c>
-      <c r="B772">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2">
-      <c r="A773" s="2">
-        <v>44741</v>
-      </c>
-      <c r="B773">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2">
-      <c r="A774" s="2">
-        <v>44742</v>
-      </c>
-      <c r="B774">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2">
-      <c r="A775" s="2">
-        <v>44743</v>
-      </c>
-      <c r="B775">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="776" spans="1:2">
-      <c r="A776" s="2">
-        <v>44744</v>
-      </c>
-      <c r="B776">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="777" spans="1:2">
-      <c r="A777" s="2">
-        <v>44745</v>
-      </c>
-      <c r="B777">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="778" spans="1:2">
-      <c r="A778" s="2">
-        <v>44746</v>
-      </c>
-      <c r="B778">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="779" spans="1:2">
-      <c r="A779" s="2">
-        <v>44747</v>
-      </c>
-      <c r="B779">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="780" spans="1:2">
-      <c r="A780" s="2">
-        <v>44748</v>
-      </c>
-      <c r="B780">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="781" spans="1:2">
-      <c r="A781" s="2">
-        <v>44749</v>
-      </c>
-      <c r="B781">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="782" spans="1:2">
-      <c r="A782" s="2">
-        <v>44750</v>
-      </c>
-      <c r="B782">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="783" spans="1:2">
-      <c r="A783" s="2">
-        <v>44751</v>
-      </c>
-      <c r="B783">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="784" spans="1:2">
-      <c r="A784" s="2">
-        <v>44752</v>
-      </c>
-      <c r="B784">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="785" spans="1:2">
-      <c r="A785" s="2">
-        <v>44753</v>
-      </c>
-      <c r="B785">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2">
-      <c r="A786" s="2">
-        <v>44754</v>
-      </c>
-      <c r="B786">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2">
-      <c r="A787" s="2">
-        <v>44755</v>
-      </c>
-      <c r="B787">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="788" spans="1:2">
-      <c r="A788" s="2">
-        <v>44756</v>
-      </c>
-      <c r="B788">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="789" spans="1:2">
-      <c r="A789" s="2">
-        <v>44757</v>
-      </c>
-      <c r="B789">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2">
-      <c r="A790" s="2">
-        <v>44758</v>
-      </c>
-      <c r="B790">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2">
-      <c r="A791" s="2">
-        <v>44759</v>
-      </c>
-      <c r="B791">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="792" spans="1:2">
-      <c r="A792" s="2">
-        <v>44760</v>
-      </c>
-      <c r="B792">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="793" spans="1:2">
-      <c r="A793" s="2">
-        <v>44761</v>
-      </c>
-      <c r="B793">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="794" spans="1:2">
-      <c r="A794" s="2">
-        <v>44762</v>
-      </c>
-      <c r="B794">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2">
-      <c r="A795" s="2">
-        <v>44763</v>
-      </c>
-      <c r="B795">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="796" spans="1:2">
-      <c r="A796" s="2">
-        <v>44764</v>
-      </c>
-      <c r="B796">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="797" spans="1:2">
-      <c r="A797" s="2">
-        <v>44765</v>
-      </c>
-      <c r="B797">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2">
-      <c r="A798" s="2">
-        <v>44766</v>
-      </c>
-      <c r="B798">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="799" spans="1:2">
-      <c r="A799" s="2">
-        <v>44767</v>
-      </c>
-      <c r="B799">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="800" spans="1:2">
-      <c r="A800" s="2">
-        <v>44768</v>
-      </c>
-      <c r="B800">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="801" spans="1:2">
-      <c r="A801" s="2">
-        <v>44769</v>
-      </c>
-      <c r="B801">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="802" spans="1:2">
-      <c r="A802" s="2">
-        <v>44770</v>
-      </c>
-      <c r="B802">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="803" spans="1:2">
-      <c r="A803" s="2">
-        <v>44771</v>
-      </c>
-      <c r="B803">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="804" spans="1:2">
-      <c r="A804" s="2">
-        <v>44772</v>
-      </c>
-      <c r="B804">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="805" spans="1:2">
-      <c r="A805" s="2">
-        <v>44773</v>
-      </c>
-      <c r="B805">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="806" spans="1:2">
-      <c r="A806" s="2">
-        <v>44774</v>
-      </c>
-      <c r="B806">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="807" spans="1:2">
-      <c r="A807" s="2">
-        <v>44775</v>
-      </c>
-      <c r="B807">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="808" spans="1:2">
-      <c r="A808" s="2">
-        <v>44776</v>
-      </c>
-      <c r="B808">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="809" spans="1:2">
-      <c r="A809" s="2">
-        <v>44777</v>
-      </c>
-      <c r="B809">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="810" spans="1:2">
-      <c r="A810" s="2">
-        <v>44778</v>
-      </c>
-      <c r="B810">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="811" spans="1:2">
-      <c r="A811" s="2">
-        <v>44779</v>
-      </c>
-      <c r="B811">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="812" spans="1:2">
-      <c r="A812" s="2">
-        <v>44780</v>
-      </c>
-      <c r="B812">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="813" spans="1:2">
-      <c r="A813" s="2">
-        <v>44781</v>
-      </c>
-      <c r="B813">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="814" spans="1:2">
-      <c r="A814" s="2">
-        <v>44782</v>
-      </c>
-      <c r="B814">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="815" spans="1:2">
-      <c r="A815" s="2">
-        <v>44783</v>
-      </c>
-      <c r="B815">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="816" spans="1:2">
-      <c r="A816" s="2">
-        <v>44784</v>
-      </c>
-      <c r="B816">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="817" spans="1:2">
-      <c r="A817" s="2">
-        <v>44785</v>
-      </c>
-      <c r="B817">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="818" spans="1:2">
-      <c r="A818" s="2">
-        <v>44786</v>
-      </c>
-      <c r="B818">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="819" spans="1:2">
-      <c r="A819" s="2">
-        <v>44787</v>
-      </c>
-      <c r="B819">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="820" spans="1:2">
-      <c r="A820" s="2">
-        <v>44788</v>
-      </c>
-      <c r="B820">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="821" spans="1:2">
-      <c r="A821" s="2">
-        <v>44789</v>
-      </c>
-      <c r="B821">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="822" spans="1:2">
-      <c r="A822" s="2">
-        <v>44790</v>
-      </c>
-      <c r="B822">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="823" spans="1:2">
-      <c r="A823" s="2">
-        <v>44791</v>
-      </c>
-      <c r="B823">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="824" spans="1:2">
-      <c r="A824" s="2">
-        <v>44792</v>
-      </c>
-      <c r="B824">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="825" spans="1:2">
-      <c r="A825" s="2">
-        <v>44793</v>
-      </c>
-      <c r="B825">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="826" spans="1:2">
-      <c r="A826" s="2">
-        <v>44794</v>
-      </c>
-      <c r="B826">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="827" spans="1:2">
-      <c r="A827" s="2">
-        <v>44795</v>
-      </c>
-      <c r="B827">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="828" spans="1:2">
-      <c r="A828" s="2">
-        <v>44796</v>
-      </c>
-      <c r="B828">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="829" spans="1:2">
-      <c r="A829" s="2">
-        <v>44797</v>
-      </c>
-      <c r="B829">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="830" spans="1:2">
-      <c r="A830" s="2">
-        <v>44798</v>
-      </c>
-      <c r="B830">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="831" spans="1:2">
-      <c r="A831" s="2">
-        <v>44799</v>
-      </c>
-      <c r="B831">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="832" spans="1:2">
-      <c r="A832" s="2">
-        <v>44800</v>
-      </c>
-      <c r="B832">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="833" spans="1:2">
-      <c r="A833" s="2">
-        <v>44802</v>
-      </c>
-      <c r="B833">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="834" spans="1:2">
-      <c r="A834" s="2">
-        <v>44804</v>
-      </c>
-      <c r="B834">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="835" spans="1:2">
-      <c r="A835" s="2">
-        <v>44805</v>
-      </c>
-      <c r="B835">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="836" spans="1:2">
-      <c r="A836" s="2">
-        <v>44806</v>
-      </c>
-      <c r="B836">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="837" spans="1:2">
-      <c r="A837" s="2">
-        <v>44807</v>
-      </c>
-      <c r="B837">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="838" spans="1:2">
-      <c r="A838" s="2">
-        <v>44809</v>
-      </c>
-      <c r="B838">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="839" spans="1:2">
-      <c r="A839" s="2">
-        <v>44810</v>
-      </c>
-      <c r="B839">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="840" spans="1:2">
-      <c r="A840" s="2">
-        <v>44811</v>
-      </c>
-      <c r="B840">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="841" spans="1:2">
-      <c r="A841" s="2">
-        <v>44812</v>
-      </c>
-      <c r="B841">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="842" spans="1:2">
-      <c r="A842" s="2">
-        <v>44813</v>
-      </c>
-      <c r="B842">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="843" spans="1:2">
-      <c r="A843" s="2">
-        <v>44814</v>
-      </c>
-      <c r="B843">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="844" spans="1:2">
-      <c r="A844" s="2">
-        <v>44816</v>
-      </c>
-      <c r="B844">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="845" spans="1:2">
-      <c r="A845" s="2">
-        <v>44817</v>
-      </c>
-      <c r="B845">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="846" spans="1:2">
-      <c r="A846" s="2">
-        <v>44818</v>
-      </c>
-      <c r="B846">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="847" spans="1:2">
-      <c r="A847" s="2">
-        <v>44819</v>
-      </c>
-      <c r="B847">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="848" spans="1:2">
-      <c r="A848" s="2">
-        <v>44820</v>
-      </c>
-      <c r="B848">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="849" spans="1:2">
-      <c r="A849" s="2">
-        <v>44821</v>
-      </c>
-      <c r="B849">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="850" spans="1:2">
-      <c r="A850" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B850">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="851" spans="1:2">
-      <c r="A851" s="2">
-        <v>44824</v>
-      </c>
-      <c r="B851">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="852" spans="1:2">
-      <c r="A852" s="2">
-        <v>44825</v>
-      </c>
-      <c r="B852">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="853" spans="1:2">
-      <c r="A853" s="2">
-        <v>44826</v>
-      </c>
-      <c r="B853">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="854" spans="1:2">
-      <c r="A854" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B854">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="855" spans="1:2">
-      <c r="A855" s="2">
-        <v>44831</v>
-      </c>
-      <c r="B855">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="856" spans="1:2">
-      <c r="A856" s="2">
-        <v>44832</v>
-      </c>
-      <c r="B856">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="857" spans="1:2">
-      <c r="A857" s="2">
-        <v>44833</v>
-      </c>
-      <c r="B857">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="858" spans="1:2">
-      <c r="A858" s="2">
-        <v>44834</v>
-      </c>
-      <c r="B858">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="859" spans="1:2">
-      <c r="A859" s="2">
-        <v>44835</v>
-      </c>
-      <c r="B859">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="860" spans="1:2">
-      <c r="A860" s="2">
-        <v>44836</v>
-      </c>
-      <c r="B860">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="861" spans="1:2">
-      <c r="A861" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B861">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="862" spans="1:2">
-      <c r="A862" s="2">
-        <v>44838</v>
-      </c>
-      <c r="B862">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="863" spans="1:2">
-      <c r="A863" s="2">
-        <v>44840</v>
-      </c>
-      <c r="B863">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="864" spans="1:2">
-      <c r="A864" s="2">
-        <v>44844</v>
-      </c>
-      <c r="B864">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="865" spans="1:2">
-      <c r="A865" s="2">
-        <v>44845</v>
-      </c>
-      <c r="B865">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="866" spans="1:2">
-      <c r="A866" s="2">
-        <v>44849</v>
-      </c>
-      <c r="B866">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="867" spans="1:2">
-      <c r="A867" s="2">
-        <v>44852</v>
-      </c>
-      <c r="B867">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="868" spans="1:2">
-      <c r="A868" s="2">
-        <v>44859</v>
-      </c>
-      <c r="B868">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="869" spans="1:2">
-      <c r="A869" s="2">
-        <v>44863</v>
-      </c>
-      <c r="B869">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="870" spans="1:2">
-      <c r="A870" s="2">
-        <v>44865</v>
-      </c>
-      <c r="B870">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="871" spans="1:2">
-      <c r="A871" s="2">
-        <v>44867</v>
-      </c>
-      <c r="B871">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="872" spans="1:2">
-      <c r="A872" s="2">
-        <v>44868</v>
-      </c>
-      <c r="B872">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="873" spans="1:2">
-      <c r="A873" s="2">
-        <v>44869</v>
-      </c>
-      <c r="B873">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="874" spans="1:2">
-      <c r="A874" s="2">
-        <v>44870</v>
-      </c>
-      <c r="B874">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="875" spans="1:2">
-      <c r="A875" s="2">
-        <v>44872</v>
-      </c>
-      <c r="B875">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B684"/>
+  <dimension ref="A1:B875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,12 +402,12 @@
         <v>43926</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -415,55 +415,55 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>43933</v>
+        <v>43928</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>43935</v>
+        <v>43929</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>43941</v>
+        <v>43930</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>43942</v>
+        <v>43933</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>43945</v>
+        <v>43935</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>43946</v>
+        <v>43936</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>43949</v>
+        <v>43937</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>43950</v>
+        <v>43938</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -479,23 +479,23 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>43951</v>
+        <v>43939</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>43952</v>
+        <v>43940</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>43953</v>
+        <v>43941</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -503,183 +503,183 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>43955</v>
+        <v>43942</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>43956</v>
+        <v>43943</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>43958</v>
+        <v>43944</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>43959</v>
+        <v>43945</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>43960</v>
+        <v>43946</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>43962</v>
+        <v>43947</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>43963</v>
+        <v>43948</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>43966</v>
+        <v>43949</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>43967</v>
+        <v>43950</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>43970</v>
+        <v>43951</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>43971</v>
+        <v>43952</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>43972</v>
+        <v>43953</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>43973</v>
+        <v>43954</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>43975</v>
+        <v>43955</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>43976</v>
+        <v>43956</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>43977</v>
+        <v>43957</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>43978</v>
+        <v>43958</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>43979</v>
+        <v>43959</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>43980</v>
+        <v>43960</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>43981</v>
+        <v>43962</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>43982</v>
+        <v>43963</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>43983</v>
+        <v>43964</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>43984</v>
+        <v>43965</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -687,71 +687,71 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>43985</v>
+        <v>43966</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>43986</v>
+        <v>43967</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>43987</v>
+        <v>43968</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>43988</v>
+        <v>43969</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>43989</v>
+        <v>43970</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>43990</v>
+        <v>43971</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>43991</v>
+        <v>43972</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>43992</v>
+        <v>43973</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>43993</v>
+        <v>43974</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -759,63 +759,63 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>43994</v>
+        <v>43975</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>43995</v>
+        <v>43976</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>43996</v>
+        <v>43977</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>43997</v>
+        <v>43978</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>43998</v>
+        <v>43979</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>43999</v>
+        <v>43980</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>44000</v>
+        <v>43981</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>44001</v>
+        <v>43982</v>
       </c>
       <c r="B54">
         <v>12</v>
@@ -823,1639 +823,1639 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>44002</v>
+        <v>43983</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>44004</v>
+        <v>43984</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>44005</v>
+        <v>43985</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>44006</v>
+        <v>43986</v>
       </c>
       <c r="B58">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>44007</v>
+        <v>43987</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>44008</v>
+        <v>43988</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>44009</v>
+        <v>43989</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>44010</v>
+        <v>43990</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>44011</v>
+        <v>43991</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>44012</v>
+        <v>43992</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>44013</v>
+        <v>43993</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>44014</v>
+        <v>43994</v>
       </c>
       <c r="B66">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>44015</v>
+        <v>43995</v>
       </c>
       <c r="B67">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>44016</v>
+        <v>43996</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>44017</v>
+        <v>43997</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>44018</v>
+        <v>43998</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>44019</v>
+        <v>43999</v>
       </c>
       <c r="B71">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>44020</v>
+        <v>44000</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>44021</v>
+        <v>44001</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>44022</v>
+        <v>44002</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>44023</v>
+        <v>44003</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>44024</v>
+        <v>44004</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>44025</v>
+        <v>44005</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>44026</v>
+        <v>44006</v>
       </c>
       <c r="B78">
-        <v>19</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>44027</v>
+        <v>44007</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>44028</v>
+        <v>44008</v>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>44029</v>
+        <v>44009</v>
       </c>
       <c r="B81">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>44030</v>
+        <v>44010</v>
       </c>
       <c r="B82">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>44031</v>
+        <v>44011</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>44032</v>
+        <v>44012</v>
       </c>
       <c r="B84">
-        <v>15</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>44033</v>
+        <v>44013</v>
       </c>
       <c r="B85">
-        <v>9</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>44034</v>
+        <v>44014</v>
       </c>
       <c r="B86">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>44035</v>
+        <v>44015</v>
       </c>
       <c r="B87">
-        <v>20</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>44036</v>
+        <v>44016</v>
       </c>
       <c r="B88">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>44037</v>
+        <v>44017</v>
       </c>
       <c r="B89">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>44038</v>
+        <v>44018</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>44039</v>
+        <v>44019</v>
       </c>
       <c r="B91">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>44040</v>
+        <v>44020</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>44041</v>
+        <v>44021</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>44042</v>
+        <v>44022</v>
       </c>
       <c r="B94">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>44043</v>
+        <v>44023</v>
       </c>
       <c r="B95">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>44044</v>
+        <v>44024</v>
       </c>
       <c r="B96">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>44045</v>
+        <v>44025</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>44046</v>
+        <v>44026</v>
       </c>
       <c r="B98">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>44047</v>
+        <v>44027</v>
       </c>
       <c r="B99">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44048</v>
+        <v>44028</v>
       </c>
       <c r="B100">
-        <v>10</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44049</v>
+        <v>44029</v>
       </c>
       <c r="B101">
-        <v>19</v>
+        <v>332</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44050</v>
+        <v>44030</v>
       </c>
       <c r="B102">
-        <v>14</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44051</v>
+        <v>44031</v>
       </c>
       <c r="B103">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44052</v>
+        <v>44032</v>
       </c>
       <c r="B104">
-        <v>4</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44053</v>
+        <v>44033</v>
       </c>
       <c r="B105">
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44054</v>
+        <v>44034</v>
       </c>
       <c r="B106">
-        <v>24</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44055</v>
+        <v>44035</v>
       </c>
       <c r="B107">
-        <v>13</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44056</v>
+        <v>44036</v>
       </c>
       <c r="B108">
-        <v>29</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44057</v>
+        <v>44037</v>
       </c>
       <c r="B109">
-        <v>29</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44058</v>
+        <v>44038</v>
       </c>
       <c r="B110">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44059</v>
+        <v>44039</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44060</v>
+        <v>44040</v>
       </c>
       <c r="B112">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44061</v>
+        <v>44041</v>
       </c>
       <c r="B113">
-        <v>14</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44062</v>
+        <v>44042</v>
       </c>
       <c r="B114">
-        <v>19</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44063</v>
+        <v>44043</v>
       </c>
       <c r="B115">
-        <v>20</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44064</v>
+        <v>44044</v>
       </c>
       <c r="B116">
-        <v>20</v>
+        <v>262</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44065</v>
+        <v>44045</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44066</v>
+        <v>44046</v>
       </c>
       <c r="B118">
-        <v>4</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44067</v>
+        <v>44047</v>
       </c>
       <c r="B119">
-        <v>12</v>
+        <v>197</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44068</v>
+        <v>44048</v>
       </c>
       <c r="B120">
-        <v>30</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44069</v>
+        <v>44049</v>
       </c>
       <c r="B121">
-        <v>21</v>
+        <v>230</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44070</v>
+        <v>44050</v>
       </c>
       <c r="B122">
-        <v>20</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44071</v>
+        <v>44051</v>
       </c>
       <c r="B123">
-        <v>8</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44072</v>
+        <v>44052</v>
       </c>
       <c r="B124">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44073</v>
+        <v>44053</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>230</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44074</v>
+        <v>44054</v>
       </c>
       <c r="B126">
-        <v>7</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44075</v>
+        <v>44055</v>
       </c>
       <c r="B127">
-        <v>12</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44076</v>
+        <v>44056</v>
       </c>
       <c r="B128">
-        <v>5</v>
+        <v>273</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44077</v>
+        <v>44057</v>
       </c>
       <c r="B129">
-        <v>6</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44078</v>
+        <v>44058</v>
       </c>
       <c r="B130">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44079</v>
+        <v>44059</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44080</v>
+        <v>44060</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44081</v>
+        <v>44061</v>
       </c>
       <c r="B133">
-        <v>13</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44082</v>
+        <v>44062</v>
       </c>
       <c r="B134">
-        <v>8</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44083</v>
+        <v>44063</v>
       </c>
       <c r="B135">
-        <v>14</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44084</v>
+        <v>44064</v>
       </c>
       <c r="B136">
-        <v>9</v>
+        <v>214</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44085</v>
+        <v>44065</v>
       </c>
       <c r="B137">
-        <v>21</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44086</v>
+        <v>44066</v>
       </c>
       <c r="B138">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44087</v>
+        <v>44067</v>
       </c>
       <c r="B139">
-        <v>4</v>
+        <v>174</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44088</v>
+        <v>44068</v>
       </c>
       <c r="B140">
-        <v>14</v>
+        <v>317</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44089</v>
+        <v>44069</v>
       </c>
       <c r="B141">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44090</v>
+        <v>44070</v>
       </c>
       <c r="B142">
-        <v>6</v>
+        <v>208</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44091</v>
+        <v>44071</v>
       </c>
       <c r="B143">
-        <v>10</v>
+        <v>106</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44092</v>
+        <v>44072</v>
       </c>
       <c r="B144">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44093</v>
+        <v>44073</v>
       </c>
       <c r="B145">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44094</v>
+        <v>44074</v>
       </c>
       <c r="B146">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44095</v>
+        <v>44075</v>
       </c>
       <c r="B147">
-        <v>11</v>
+        <v>105</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44096</v>
+        <v>44076</v>
       </c>
       <c r="B148">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44097</v>
+        <v>44077</v>
       </c>
       <c r="B149">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44098</v>
+        <v>44078</v>
       </c>
       <c r="B150">
-        <v>14</v>
+        <v>256</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44099</v>
+        <v>44079</v>
       </c>
       <c r="B151">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44100</v>
+        <v>44080</v>
       </c>
       <c r="B152">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44101</v>
+        <v>44081</v>
       </c>
       <c r="B153">
-        <v>5</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44102</v>
+        <v>44082</v>
       </c>
       <c r="B154">
-        <v>3</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44103</v>
+        <v>44083</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>125</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44104</v>
+        <v>44084</v>
       </c>
       <c r="B156">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44105</v>
+        <v>44085</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>236</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44106</v>
+        <v>44086</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>255</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44107</v>
+        <v>44087</v>
       </c>
       <c r="B159">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44108</v>
+        <v>44088</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>126</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44109</v>
+        <v>44089</v>
       </c>
       <c r="B161">
-        <v>6</v>
+        <v>129</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44110</v>
+        <v>44090</v>
       </c>
       <c r="B162">
-        <v>6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44111</v>
+        <v>44091</v>
       </c>
       <c r="B163">
-        <v>5</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44112</v>
+        <v>44092</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44113</v>
+        <v>44093</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>170</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44114</v>
+        <v>44094</v>
       </c>
       <c r="B166">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44115</v>
+        <v>44095</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>136</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44116</v>
+        <v>44096</v>
       </c>
       <c r="B168">
-        <v>11</v>
+        <v>251</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44117</v>
+        <v>44097</v>
       </c>
       <c r="B169">
-        <v>6</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44118</v>
+        <v>44098</v>
       </c>
       <c r="B170">
-        <v>5</v>
+        <v>215</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44119</v>
+        <v>44099</v>
       </c>
       <c r="B171">
-        <v>8</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44120</v>
+        <v>44100</v>
       </c>
       <c r="B172">
-        <v>11</v>
+        <v>92</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44121</v>
+        <v>44101</v>
       </c>
       <c r="B173">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44123</v>
+        <v>44102</v>
       </c>
       <c r="B174">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44124</v>
+        <v>44103</v>
       </c>
       <c r="B175">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44125</v>
+        <v>44104</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44126</v>
+        <v>44105</v>
       </c>
       <c r="B177">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44127</v>
+        <v>44106</v>
       </c>
       <c r="B178">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44128</v>
+        <v>44107</v>
       </c>
       <c r="B179">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44129</v>
+        <v>44108</v>
       </c>
       <c r="B180">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44130</v>
+        <v>44109</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44131</v>
+        <v>44110</v>
       </c>
       <c r="B182">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44132</v>
+        <v>44111</v>
       </c>
       <c r="B183">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44133</v>
+        <v>44112</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44134</v>
+        <v>44113</v>
       </c>
       <c r="B185">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44135</v>
+        <v>44114</v>
       </c>
       <c r="B186">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44136</v>
+        <v>44115</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44137</v>
+        <v>44116</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>153</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44138</v>
+        <v>44117</v>
       </c>
       <c r="B189">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44139</v>
+        <v>44118</v>
       </c>
       <c r="B190">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44140</v>
+        <v>44119</v>
       </c>
       <c r="B191">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44144</v>
+        <v>44120</v>
       </c>
       <c r="B192">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44145</v>
+        <v>44121</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44146</v>
+        <v>44122</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44147</v>
+        <v>44123</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44150</v>
+        <v>44124</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44151</v>
+        <v>44125</v>
       </c>
       <c r="B197">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44152</v>
+        <v>44126</v>
       </c>
       <c r="B198">
-        <v>4</v>
+        <v>136</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44154</v>
+        <v>44127</v>
       </c>
       <c r="B199">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44155</v>
+        <v>44128</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44156</v>
+        <v>44129</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44157</v>
+        <v>44130</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44158</v>
+        <v>44131</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44159</v>
+        <v>44132</v>
       </c>
       <c r="B204">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44160</v>
+        <v>44133</v>
       </c>
       <c r="B205">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44161</v>
+        <v>44134</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44162</v>
+        <v>44135</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44163</v>
+        <v>44136</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44164</v>
+        <v>44137</v>
       </c>
       <c r="B209">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44165</v>
+        <v>44138</v>
       </c>
       <c r="B210">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44166</v>
+        <v>44139</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44167</v>
+        <v>44140</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44168</v>
+        <v>44142</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44170</v>
+        <v>44143</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44172</v>
+        <v>44144</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44173</v>
+        <v>44145</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44174</v>
+        <v>44146</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44175</v>
+        <v>44147</v>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44176</v>
+        <v>44148</v>
       </c>
       <c r="B219">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44178</v>
+        <v>44149</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44180</v>
+        <v>44150</v>
       </c>
       <c r="B221">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44181</v>
+        <v>44151</v>
       </c>
       <c r="B222">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44182</v>
+        <v>44152</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44184</v>
+        <v>44153</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44186</v>
+        <v>44154</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44187</v>
+        <v>44155</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44189</v>
+        <v>44156</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44191</v>
+        <v>44157</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44192</v>
+        <v>44158</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44193</v>
+        <v>44159</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44194</v>
+        <v>44160</v>
       </c>
       <c r="B231">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44200</v>
+        <v>44162</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44201</v>
+        <v>44163</v>
       </c>
       <c r="B234">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44203</v>
+        <v>44164</v>
       </c>
       <c r="B235">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44204</v>
+        <v>44165</v>
       </c>
       <c r="B236">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44205</v>
+        <v>44166</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44207</v>
+        <v>44167</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44208</v>
+        <v>44168</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44209</v>
+        <v>44169</v>
       </c>
       <c r="B240">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44210</v>
+        <v>44170</v>
       </c>
       <c r="B241">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44211</v>
+        <v>44172</v>
       </c>
       <c r="B242">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44214</v>
+        <v>44173</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44216</v>
+        <v>44174</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44217</v>
+        <v>44175</v>
       </c>
       <c r="B245">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44218</v>
+        <v>44176</v>
       </c>
       <c r="B246">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44219</v>
+        <v>44177</v>
       </c>
       <c r="B247">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44220</v>
+        <v>44178</v>
       </c>
       <c r="B248">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44221</v>
+        <v>44179</v>
       </c>
       <c r="B249">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44222</v>
+        <v>44180</v>
       </c>
       <c r="B250">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44223</v>
+        <v>44181</v>
       </c>
       <c r="B251">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44224</v>
+        <v>44182</v>
       </c>
       <c r="B252">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44225</v>
+        <v>44183</v>
       </c>
       <c r="B253">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44226</v>
+        <v>44184</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44228</v>
+        <v>44185</v>
       </c>
       <c r="B255">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44229</v>
+        <v>44186</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44230</v>
+        <v>44187</v>
       </c>
       <c r="B257">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44231</v>
+        <v>44189</v>
       </c>
       <c r="B258">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44232</v>
+        <v>44190</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -2463,47 +2463,47 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44233</v>
+        <v>44191</v>
       </c>
       <c r="B260">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44234</v>
+        <v>44192</v>
       </c>
       <c r="B261">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44235</v>
+        <v>44193</v>
       </c>
       <c r="B262">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="B263">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44237</v>
+        <v>44195</v>
       </c>
       <c r="B264">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44238</v>
+        <v>44196</v>
       </c>
       <c r="B265">
         <v>4</v>
@@ -2511,303 +2511,303 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44239</v>
+        <v>44197</v>
       </c>
       <c r="B266">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44240</v>
+        <v>44198</v>
       </c>
       <c r="B267">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44242</v>
+        <v>44199</v>
       </c>
       <c r="B268">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44243</v>
+        <v>44200</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44244</v>
+        <v>44201</v>
       </c>
       <c r="B270">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44245</v>
+        <v>44202</v>
       </c>
       <c r="B271">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44246</v>
+        <v>44203</v>
       </c>
       <c r="B272">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44247</v>
+        <v>44204</v>
       </c>
       <c r="B273">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44249</v>
+        <v>44205</v>
       </c>
       <c r="B274">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44250</v>
+        <v>44206</v>
       </c>
       <c r="B275">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44251</v>
+        <v>44207</v>
       </c>
       <c r="B276">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44252</v>
+        <v>44208</v>
       </c>
       <c r="B277">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44253</v>
+        <v>44209</v>
       </c>
       <c r="B278">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44255</v>
+        <v>44210</v>
       </c>
       <c r="B279">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44256</v>
+        <v>44211</v>
       </c>
       <c r="B280">
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44257</v>
+        <v>44212</v>
       </c>
       <c r="B281">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44258</v>
+        <v>44213</v>
       </c>
       <c r="B282">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44259</v>
+        <v>44214</v>
       </c>
       <c r="B283">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44260</v>
+        <v>44215</v>
       </c>
       <c r="B284">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44261</v>
+        <v>44216</v>
       </c>
       <c r="B285">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44263</v>
+        <v>44217</v>
       </c>
       <c r="B286">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44264</v>
+        <v>44218</v>
       </c>
       <c r="B287">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44265</v>
+        <v>44219</v>
       </c>
       <c r="B288">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44266</v>
+        <v>44220</v>
       </c>
       <c r="B289">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44267</v>
+        <v>44221</v>
       </c>
       <c r="B290">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44268</v>
+        <v>44222</v>
       </c>
       <c r="B291">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44269</v>
+        <v>44223</v>
       </c>
       <c r="B292">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="B293">
-        <v>4</v>
+        <v>115</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44271</v>
+        <v>44225</v>
       </c>
       <c r="B294">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44272</v>
+        <v>44226</v>
       </c>
       <c r="B295">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44273</v>
+        <v>44227</v>
       </c>
       <c r="B296">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44274</v>
+        <v>44228</v>
       </c>
       <c r="B297">
-        <v>4</v>
+        <v>97</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44275</v>
+        <v>44229</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44276</v>
+        <v>44230</v>
       </c>
       <c r="B299">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44277</v>
+        <v>44231</v>
       </c>
       <c r="B300">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44278</v>
+        <v>44232</v>
       </c>
       <c r="B301">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44279</v>
+        <v>44233</v>
       </c>
       <c r="B302">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44280</v>
+        <v>44234</v>
       </c>
       <c r="B303">
         <v>9</v>
@@ -2815,199 +2815,199 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44281</v>
+        <v>44235</v>
       </c>
       <c r="B304">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44282</v>
+        <v>44236</v>
       </c>
       <c r="B305">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44284</v>
+        <v>44237</v>
       </c>
       <c r="B306">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44285</v>
+        <v>44238</v>
       </c>
       <c r="B307">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44286</v>
+        <v>44239</v>
       </c>
       <c r="B308">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44287</v>
+        <v>44240</v>
       </c>
       <c r="B309">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44288</v>
+        <v>44241</v>
       </c>
       <c r="B310">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44289</v>
+        <v>44242</v>
       </c>
       <c r="B311">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44290</v>
+        <v>44243</v>
       </c>
       <c r="B312">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44291</v>
+        <v>44244</v>
       </c>
       <c r="B313">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44292</v>
+        <v>44245</v>
       </c>
       <c r="B314">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44293</v>
+        <v>44246</v>
       </c>
       <c r="B315">
-        <v>11</v>
+        <v>104</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44294</v>
+        <v>44247</v>
       </c>
       <c r="B316">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44295</v>
+        <v>44248</v>
       </c>
       <c r="B317">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44296</v>
+        <v>44249</v>
       </c>
       <c r="B318">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44297</v>
+        <v>44250</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44298</v>
+        <v>44251</v>
       </c>
       <c r="B320">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44299</v>
+        <v>44252</v>
       </c>
       <c r="B321">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44300</v>
+        <v>44253</v>
       </c>
       <c r="B322">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44301</v>
+        <v>44254</v>
       </c>
       <c r="B323">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44302</v>
+        <v>44255</v>
       </c>
       <c r="B324">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44303</v>
+        <v>44256</v>
       </c>
       <c r="B325">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44304</v>
+        <v>44257</v>
       </c>
       <c r="B326">
-        <v>3</v>
+        <v>72</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44305</v>
+        <v>44258</v>
       </c>
       <c r="B327">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44306</v>
+        <v>44259</v>
       </c>
       <c r="B328">
         <v>19</v>
@@ -3015,1167 +3015,1167 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44307</v>
+        <v>44260</v>
       </c>
       <c r="B329">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44308</v>
+        <v>44261</v>
       </c>
       <c r="B330">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44309</v>
+        <v>44262</v>
       </c>
       <c r="B331">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44310</v>
+        <v>44263</v>
       </c>
       <c r="B332">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44311</v>
+        <v>44264</v>
       </c>
       <c r="B333">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44312</v>
+        <v>44265</v>
       </c>
       <c r="B334">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44313</v>
+        <v>44266</v>
       </c>
       <c r="B335">
-        <v>17</v>
+        <v>110</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44314</v>
+        <v>44267</v>
       </c>
       <c r="B336">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44315</v>
+        <v>44268</v>
       </c>
       <c r="B337">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44316</v>
+        <v>44269</v>
       </c>
       <c r="B338">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44317</v>
+        <v>44270</v>
       </c>
       <c r="B339">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44318</v>
+        <v>44271</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44319</v>
+        <v>44272</v>
       </c>
       <c r="B341">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44320</v>
+        <v>44273</v>
       </c>
       <c r="B342">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="B343">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44322</v>
+        <v>44275</v>
       </c>
       <c r="B344">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44323</v>
+        <v>44276</v>
       </c>
       <c r="B345">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44324</v>
+        <v>44277</v>
       </c>
       <c r="B346">
-        <v>2</v>
+        <v>152</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44326</v>
+        <v>44278</v>
       </c>
       <c r="B347">
-        <v>7</v>
+        <v>74</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44327</v>
+        <v>44279</v>
       </c>
       <c r="B348">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44328</v>
+        <v>44280</v>
       </c>
       <c r="B349">
-        <v>14</v>
+        <v>99</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44329</v>
+        <v>44281</v>
       </c>
       <c r="B350">
-        <v>10</v>
+        <v>147</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44330</v>
+        <v>44282</v>
       </c>
       <c r="B351">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44331</v>
+        <v>44283</v>
       </c>
       <c r="B352">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44332</v>
+        <v>44284</v>
       </c>
       <c r="B353">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44333</v>
+        <v>44285</v>
       </c>
       <c r="B354">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44334</v>
+        <v>44286</v>
       </c>
       <c r="B355">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44335</v>
+        <v>44287</v>
       </c>
       <c r="B356">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44336</v>
+        <v>44288</v>
       </c>
       <c r="B357">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44337</v>
+        <v>44289</v>
       </c>
       <c r="B358">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44338</v>
+        <v>44290</v>
       </c>
       <c r="B359">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44339</v>
+        <v>44291</v>
       </c>
       <c r="B360">
-        <v>1</v>
+        <v>142</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44340</v>
+        <v>44292</v>
       </c>
       <c r="B361">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44341</v>
+        <v>44293</v>
       </c>
       <c r="B362">
-        <v>7</v>
+        <v>111</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44342</v>
+        <v>44294</v>
       </c>
       <c r="B363">
-        <v>12</v>
+        <v>126</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44343</v>
+        <v>44295</v>
       </c>
       <c r="B364">
-        <v>4</v>
+        <v>131</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44344</v>
+        <v>44296</v>
       </c>
       <c r="B365">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44345</v>
+        <v>44297</v>
       </c>
       <c r="B366">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44346</v>
+        <v>44298</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44347</v>
+        <v>44299</v>
       </c>
       <c r="B368">
-        <v>9</v>
+        <v>140</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44348</v>
+        <v>44300</v>
       </c>
       <c r="B369">
-        <v>7</v>
+        <v>110</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44349</v>
+        <v>44301</v>
       </c>
       <c r="B370">
-        <v>8</v>
+        <v>150</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44350</v>
+        <v>44302</v>
       </c>
       <c r="B371">
-        <v>4</v>
+        <v>144</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44351</v>
+        <v>44303</v>
       </c>
       <c r="B372">
-        <v>8</v>
+        <v>121</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44352</v>
+        <v>44304</v>
       </c>
       <c r="B373">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44354</v>
+        <v>44305</v>
       </c>
       <c r="B374">
-        <v>2</v>
+        <v>190</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44355</v>
+        <v>44306</v>
       </c>
       <c r="B375">
-        <v>8</v>
+        <v>151</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44356</v>
+        <v>44307</v>
       </c>
       <c r="B376">
-        <v>3</v>
+        <v>127</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44357</v>
+        <v>44308</v>
       </c>
       <c r="B377">
-        <v>3</v>
+        <v>188</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44358</v>
+        <v>44309</v>
       </c>
       <c r="B378">
-        <v>7</v>
+        <v>149</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44359</v>
+        <v>44310</v>
       </c>
       <c r="B379">
-        <v>2</v>
+        <v>129</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44360</v>
+        <v>44311</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44361</v>
+        <v>44312</v>
       </c>
       <c r="B381">
-        <v>8</v>
+        <v>143</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44362</v>
+        <v>44313</v>
       </c>
       <c r="B382">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44363</v>
+        <v>44314</v>
       </c>
       <c r="B383">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44364</v>
+        <v>44315</v>
       </c>
       <c r="B384">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44365</v>
+        <v>44316</v>
       </c>
       <c r="B385">
-        <v>5</v>
+        <v>116</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44366</v>
+        <v>44317</v>
       </c>
       <c r="B386">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44367</v>
+        <v>44318</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44368</v>
+        <v>44319</v>
       </c>
       <c r="B388">
-        <v>4</v>
+        <v>105</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44369</v>
+        <v>44320</v>
       </c>
       <c r="B389">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44370</v>
+        <v>44321</v>
       </c>
       <c r="B390">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44371</v>
+        <v>44322</v>
       </c>
       <c r="B391">
-        <v>3</v>
+        <v>127</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44372</v>
+        <v>44323</v>
       </c>
       <c r="B392">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44373</v>
+        <v>44324</v>
       </c>
       <c r="B393">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44375</v>
+        <v>44325</v>
       </c>
       <c r="B394">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44376</v>
+        <v>44326</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44377</v>
+        <v>44327</v>
       </c>
       <c r="B396">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44378</v>
+        <v>44328</v>
       </c>
       <c r="B397">
-        <v>3</v>
+        <v>110</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44379</v>
+        <v>44329</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44380</v>
+        <v>44330</v>
       </c>
       <c r="B399">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44381</v>
+        <v>44331</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44382</v>
+        <v>44332</v>
       </c>
       <c r="B401">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44383</v>
+        <v>44333</v>
       </c>
       <c r="B402">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44384</v>
+        <v>44334</v>
       </c>
       <c r="B403">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44385</v>
+        <v>44335</v>
       </c>
       <c r="B404">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44386</v>
+        <v>44336</v>
       </c>
       <c r="B405">
-        <v>4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44387</v>
+        <v>44337</v>
       </c>
       <c r="B406">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44389</v>
+        <v>44338</v>
       </c>
       <c r="B407">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44390</v>
+        <v>44339</v>
       </c>
       <c r="B408">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44391</v>
+        <v>44340</v>
       </c>
       <c r="B409">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44392</v>
+        <v>44341</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44393</v>
+        <v>44342</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44394</v>
+        <v>44343</v>
       </c>
       <c r="B412">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44395</v>
+        <v>44344</v>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44396</v>
+        <v>44345</v>
       </c>
       <c r="B414">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44397</v>
+        <v>44346</v>
       </c>
       <c r="B415">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44398</v>
+        <v>44347</v>
       </c>
       <c r="B416">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44399</v>
+        <v>44348</v>
       </c>
       <c r="B417">
-        <v>3</v>
+        <v>91</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44400</v>
+        <v>44349</v>
       </c>
       <c r="B418">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44403</v>
+        <v>44350</v>
       </c>
       <c r="B419">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44406</v>
+        <v>44351</v>
       </c>
       <c r="B420">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44407</v>
+        <v>44352</v>
       </c>
       <c r="B421">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44408</v>
+        <v>44353</v>
       </c>
       <c r="B422">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44411</v>
+        <v>44355</v>
       </c>
       <c r="B424">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44412</v>
+        <v>44356</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44413</v>
+        <v>44357</v>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44414</v>
+        <v>44358</v>
       </c>
       <c r="B427">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44417</v>
+        <v>44359</v>
       </c>
       <c r="B428">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44418</v>
+        <v>44360</v>
       </c>
       <c r="B429">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44419</v>
+        <v>44361</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44421</v>
+        <v>44362</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>142</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44422</v>
+        <v>44363</v>
       </c>
       <c r="B432">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44424</v>
+        <v>44364</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44425</v>
+        <v>44365</v>
       </c>
       <c r="B434">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44426</v>
+        <v>44366</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44427</v>
+        <v>44367</v>
       </c>
       <c r="B436">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44431</v>
+        <v>44368</v>
       </c>
       <c r="B437">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44432</v>
+        <v>44369</v>
       </c>
       <c r="B438">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44433</v>
+        <v>44370</v>
       </c>
       <c r="B439">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44434</v>
+        <v>44371</v>
       </c>
       <c r="B440">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44436</v>
+        <v>44372</v>
       </c>
       <c r="B441">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44437</v>
+        <v>44373</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44440</v>
+        <v>44374</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44443</v>
+        <v>44375</v>
       </c>
       <c r="B444">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44445</v>
+        <v>44376</v>
       </c>
       <c r="B445">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44446</v>
+        <v>44377</v>
       </c>
       <c r="B446">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44447</v>
+        <v>44378</v>
       </c>
       <c r="B447">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44448</v>
+        <v>44379</v>
       </c>
       <c r="B448">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44449</v>
+        <v>44380</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44450</v>
+        <v>44381</v>
       </c>
       <c r="B450">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44453</v>
+        <v>44382</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44454</v>
+        <v>44383</v>
       </c>
       <c r="B452">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44455</v>
+        <v>44384</v>
       </c>
       <c r="B453">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44456</v>
+        <v>44385</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44460</v>
+        <v>44386</v>
       </c>
       <c r="B455">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44461</v>
+        <v>44387</v>
       </c>
       <c r="B456">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44462</v>
+        <v>44388</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44463</v>
+        <v>44389</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44464</v>
+        <v>44390</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44465</v>
+        <v>44391</v>
       </c>
       <c r="B460">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44467</v>
+        <v>44393</v>
       </c>
       <c r="B462">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44468</v>
+        <v>44394</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44469</v>
+        <v>44395</v>
       </c>
       <c r="B464">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44470</v>
+        <v>44396</v>
       </c>
       <c r="B465">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44471</v>
+        <v>44397</v>
       </c>
       <c r="B466">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44473</v>
+        <v>44398</v>
       </c>
       <c r="B467">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44474</v>
+        <v>44399</v>
       </c>
       <c r="B468">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44475</v>
+        <v>44400</v>
       </c>
       <c r="B469">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44480</v>
+        <v>44401</v>
       </c>
       <c r="B470">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44482</v>
+        <v>44402</v>
       </c>
       <c r="B471">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44483</v>
+        <v>44403</v>
       </c>
       <c r="B472">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44484</v>
+        <v>44404</v>
       </c>
       <c r="B473">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44487</v>
+        <v>44405</v>
       </c>
       <c r="B474">
         <v>5</v>
@@ -4183,263 +4183,263 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44488</v>
+        <v>44406</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44490</v>
+        <v>44407</v>
       </c>
       <c r="B476">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44492</v>
+        <v>44408</v>
       </c>
       <c r="B477">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44494</v>
+        <v>44409</v>
       </c>
       <c r="B478">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44496</v>
+        <v>44410</v>
       </c>
       <c r="B479">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44497</v>
+        <v>44411</v>
       </c>
       <c r="B480">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44499</v>
+        <v>44412</v>
       </c>
       <c r="B481">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44502</v>
+        <v>44413</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44503</v>
+        <v>44414</v>
       </c>
       <c r="B483">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44505</v>
+        <v>44415</v>
       </c>
       <c r="B484">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44506</v>
+        <v>44416</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44508</v>
+        <v>44417</v>
       </c>
       <c r="B486">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44510</v>
+        <v>44418</v>
       </c>
       <c r="B487">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44511</v>
+        <v>44419</v>
       </c>
       <c r="B488">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44512</v>
+        <v>44420</v>
       </c>
       <c r="B489">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44513</v>
+        <v>44421</v>
       </c>
       <c r="B490">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44515</v>
+        <v>44422</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44517</v>
+        <v>44423</v>
       </c>
       <c r="B492">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44519</v>
+        <v>44424</v>
       </c>
       <c r="B493">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44522</v>
+        <v>44425</v>
       </c>
       <c r="B494">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44523</v>
+        <v>44426</v>
       </c>
       <c r="B495">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44524</v>
+        <v>44427</v>
       </c>
       <c r="B496">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44525</v>
+        <v>44428</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44526</v>
+        <v>44429</v>
       </c>
       <c r="B498">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44527</v>
+        <v>44430</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44529</v>
+        <v>44431</v>
       </c>
       <c r="B500">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44530</v>
+        <v>44432</v>
       </c>
       <c r="B501">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44531</v>
+        <v>44433</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44532</v>
+        <v>44434</v>
       </c>
       <c r="B503">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44533</v>
+        <v>44435</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44535</v>
+        <v>44436</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44536</v>
+        <v>44437</v>
       </c>
       <c r="B506">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44537</v>
+        <v>44438</v>
       </c>
       <c r="B507">
         <v>2</v>
@@ -4447,47 +4447,47 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44538</v>
+        <v>44439</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44539</v>
+        <v>44440</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44540</v>
+        <v>44441</v>
       </c>
       <c r="B510">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44541</v>
+        <v>44442</v>
       </c>
       <c r="B511">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44542</v>
+        <v>44443</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44543</v>
+        <v>44444</v>
       </c>
       <c r="B513">
         <v>1</v>
@@ -4495,543 +4495,543 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44544</v>
+        <v>44445</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44545</v>
+        <v>44446</v>
       </c>
       <c r="B515">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44546</v>
+        <v>44447</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44547</v>
+        <v>44448</v>
       </c>
       <c r="B517">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44548</v>
+        <v>44449</v>
       </c>
       <c r="B518">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44550</v>
+        <v>44450</v>
       </c>
       <c r="B519">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44551</v>
+        <v>44451</v>
       </c>
       <c r="B520">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44552</v>
+        <v>44452</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44553</v>
+        <v>44453</v>
       </c>
       <c r="B522">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44554</v>
+        <v>44454</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44555</v>
+        <v>44455</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44557</v>
+        <v>44456</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44558</v>
+        <v>44457</v>
       </c>
       <c r="B526">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44559</v>
+        <v>44458</v>
       </c>
       <c r="B527">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44560</v>
+        <v>44459</v>
       </c>
       <c r="B528">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44561</v>
+        <v>44460</v>
       </c>
       <c r="B529">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44562</v>
+        <v>44461</v>
       </c>
       <c r="B530">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44563</v>
+        <v>44462</v>
       </c>
       <c r="B531">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44564</v>
+        <v>44463</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44565</v>
+        <v>44464</v>
       </c>
       <c r="B533">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44566</v>
+        <v>44465</v>
       </c>
       <c r="B534">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44567</v>
+        <v>44466</v>
       </c>
       <c r="B535">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44568</v>
+        <v>44467</v>
       </c>
       <c r="B536">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44569</v>
+        <v>44468</v>
       </c>
       <c r="B537">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44570</v>
+        <v>44469</v>
       </c>
       <c r="B538">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44571</v>
+        <v>44470</v>
       </c>
       <c r="B539">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44572</v>
+        <v>44471</v>
       </c>
       <c r="B540">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44573</v>
+        <v>44472</v>
       </c>
       <c r="B541">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44574</v>
+        <v>44473</v>
       </c>
       <c r="B542">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44575</v>
+        <v>44474</v>
       </c>
       <c r="B543">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44576</v>
+        <v>44475</v>
       </c>
       <c r="B544">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44577</v>
+        <v>44476</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44578</v>
+        <v>44477</v>
       </c>
       <c r="B546">
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44579</v>
+        <v>44478</v>
       </c>
       <c r="B547">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44580</v>
+        <v>44479</v>
       </c>
       <c r="B548">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44581</v>
+        <v>44480</v>
       </c>
       <c r="B549">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44582</v>
+        <v>44481</v>
       </c>
       <c r="B550">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44583</v>
+        <v>44482</v>
       </c>
       <c r="B551">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44584</v>
+        <v>44483</v>
       </c>
       <c r="B552">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44585</v>
+        <v>44484</v>
       </c>
       <c r="B553">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44586</v>
+        <v>44485</v>
       </c>
       <c r="B554">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44587</v>
+        <v>44486</v>
       </c>
       <c r="B555">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44588</v>
+        <v>44487</v>
       </c>
       <c r="B556">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44589</v>
+        <v>44488</v>
       </c>
       <c r="B557">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44590</v>
+        <v>44489</v>
       </c>
       <c r="B558">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44591</v>
+        <v>44490</v>
       </c>
       <c r="B559">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44592</v>
+        <v>44491</v>
       </c>
       <c r="B560">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44593</v>
+        <v>44492</v>
       </c>
       <c r="B561">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44594</v>
+        <v>44493</v>
       </c>
       <c r="B562">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44595</v>
+        <v>44494</v>
       </c>
       <c r="B563">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44596</v>
+        <v>44495</v>
       </c>
       <c r="B564">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44597</v>
+        <v>44496</v>
       </c>
       <c r="B565">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44598</v>
+        <v>44497</v>
       </c>
       <c r="B566">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44599</v>
+        <v>44498</v>
       </c>
       <c r="B567">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44600</v>
+        <v>44499</v>
       </c>
       <c r="B568">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44601</v>
+        <v>44500</v>
       </c>
       <c r="B569">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44602</v>
+        <v>44501</v>
       </c>
       <c r="B570">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44603</v>
+        <v>44502</v>
       </c>
       <c r="B571">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44604</v>
+        <v>44503</v>
       </c>
       <c r="B572">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44605</v>
+        <v>44504</v>
       </c>
       <c r="B573">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44606</v>
+        <v>44505</v>
       </c>
       <c r="B574">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44607</v>
+        <v>44506</v>
       </c>
       <c r="B575">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44608</v>
+        <v>44508</v>
       </c>
       <c r="B576">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44609</v>
+        <v>44509</v>
       </c>
       <c r="B577">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44610</v>
+        <v>44510</v>
       </c>
       <c r="B578">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44611</v>
+        <v>44511</v>
       </c>
       <c r="B579">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44613</v>
+        <v>44512</v>
       </c>
       <c r="B580">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44614</v>
+        <v>44513</v>
       </c>
       <c r="B581">
         <v>7</v>
@@ -5039,826 +5039,2354 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44615</v>
+        <v>44514</v>
       </c>
       <c r="B582">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44616</v>
+        <v>44515</v>
       </c>
       <c r="B583">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44617</v>
+        <v>44516</v>
       </c>
       <c r="B584">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44618</v>
+        <v>44517</v>
       </c>
       <c r="B585">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44619</v>
+        <v>44518</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44620</v>
+        <v>44519</v>
       </c>
       <c r="B587">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44621</v>
+        <v>44520</v>
       </c>
       <c r="B588">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44622</v>
+        <v>44522</v>
       </c>
       <c r="B589">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44623</v>
+        <v>44523</v>
       </c>
       <c r="B590">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44625</v>
+        <v>44524</v>
       </c>
       <c r="B591">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44626</v>
+        <v>44525</v>
       </c>
       <c r="B592">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44627</v>
+        <v>44526</v>
       </c>
       <c r="B593">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44628</v>
+        <v>44527</v>
       </c>
       <c r="B594">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44629</v>
+        <v>44528</v>
       </c>
       <c r="B595">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44630</v>
+        <v>44529</v>
       </c>
       <c r="B596">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44632</v>
+        <v>44530</v>
       </c>
       <c r="B597">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44633</v>
+        <v>44531</v>
       </c>
       <c r="B598">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44634</v>
+        <v>44532</v>
       </c>
       <c r="B599">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44635</v>
+        <v>44533</v>
       </c>
       <c r="B600">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44636</v>
+        <v>44534</v>
       </c>
       <c r="B601">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44637</v>
+        <v>44535</v>
       </c>
       <c r="B602">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44638</v>
+        <v>44536</v>
       </c>
       <c r="B603">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44639</v>
+        <v>44537</v>
       </c>
       <c r="B604">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44640</v>
+        <v>44538</v>
       </c>
       <c r="B605">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44641</v>
+        <v>44539</v>
       </c>
       <c r="B606">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44642</v>
+        <v>44540</v>
       </c>
       <c r="B607">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44643</v>
+        <v>44541</v>
       </c>
       <c r="B608">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44644</v>
+        <v>44542</v>
       </c>
       <c r="B609">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44645</v>
+        <v>44543</v>
       </c>
       <c r="B610">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44648</v>
+        <v>44544</v>
       </c>
       <c r="B611">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44649</v>
+        <v>44545</v>
       </c>
       <c r="B612">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44650</v>
+        <v>44546</v>
       </c>
       <c r="B613">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44651</v>
+        <v>44547</v>
       </c>
       <c r="B614">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44655</v>
+        <v>44548</v>
       </c>
       <c r="B615">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44659</v>
+        <v>44549</v>
       </c>
       <c r="B616">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44662</v>
+        <v>44550</v>
       </c>
       <c r="B617">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44664</v>
+        <v>44551</v>
       </c>
       <c r="B618">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44673</v>
+        <v>44552</v>
       </c>
       <c r="B619">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44694</v>
+        <v>44553</v>
       </c>
       <c r="B620">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44705</v>
+        <v>44554</v>
       </c>
       <c r="B621">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44706</v>
+        <v>44555</v>
       </c>
       <c r="B622">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44714</v>
+        <v>44556</v>
       </c>
       <c r="B623">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44719</v>
+        <v>44557</v>
       </c>
       <c r="B624">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44735</v>
+        <v>44558</v>
       </c>
       <c r="B625">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44736</v>
+        <v>44559</v>
       </c>
       <c r="B626">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44740</v>
+        <v>44560</v>
       </c>
       <c r="B627">
-        <v>2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="B628">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44743</v>
+        <v>44562</v>
       </c>
       <c r="B629">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44744</v>
+        <v>44563</v>
       </c>
       <c r="B630">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44745</v>
+        <v>44564</v>
       </c>
       <c r="B631">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44746</v>
+        <v>44565</v>
       </c>
       <c r="B632">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44747</v>
+        <v>44566</v>
       </c>
       <c r="B633">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44748</v>
+        <v>44567</v>
       </c>
       <c r="B634">
-        <v>12</v>
+        <v>121</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44749</v>
+        <v>44568</v>
       </c>
       <c r="B635">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44750</v>
+        <v>44569</v>
       </c>
       <c r="B636">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44751</v>
+        <v>44570</v>
       </c>
       <c r="B637">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44752</v>
+        <v>44571</v>
       </c>
       <c r="B638">
-        <v>2</v>
+        <v>130</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44753</v>
+        <v>44572</v>
       </c>
       <c r="B639">
-        <v>23</v>
+        <v>129</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44754</v>
+        <v>44573</v>
       </c>
       <c r="B640">
-        <v>15</v>
+        <v>177</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44755</v>
+        <v>44574</v>
       </c>
       <c r="B641">
-        <v>6</v>
+        <v>278</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44756</v>
+        <v>44575</v>
       </c>
       <c r="B642">
-        <v>26</v>
+        <v>238</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44757</v>
+        <v>44576</v>
       </c>
       <c r="B643">
-        <v>40</v>
+        <v>176</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44758</v>
+        <v>44577</v>
       </c>
       <c r="B644">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44759</v>
+        <v>44578</v>
       </c>
       <c r="B645">
-        <v>6</v>
+        <v>382</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44760</v>
+        <v>44579</v>
       </c>
       <c r="B646">
-        <v>26</v>
+        <v>364</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44761</v>
+        <v>44580</v>
       </c>
       <c r="B647">
-        <v>21</v>
+        <v>429</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44762</v>
+        <v>44581</v>
       </c>
       <c r="B648">
-        <v>10</v>
+        <v>403</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44763</v>
+        <v>44582</v>
       </c>
       <c r="B649">
-        <v>21</v>
+        <v>355</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44764</v>
+        <v>44583</v>
       </c>
       <c r="B650">
-        <v>11</v>
+        <v>290</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44765</v>
+        <v>44584</v>
       </c>
       <c r="B651">
-        <v>3</v>
+        <v>76</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44767</v>
+        <v>44585</v>
       </c>
       <c r="B652">
-        <v>12</v>
+        <v>459</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44768</v>
+        <v>44586</v>
       </c>
       <c r="B653">
-        <v>14</v>
+        <v>501</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44769</v>
+        <v>44587</v>
       </c>
       <c r="B654">
-        <v>13</v>
+        <v>484</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44770</v>
+        <v>44588</v>
       </c>
       <c r="B655">
-        <v>1</v>
+        <v>485</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44771</v>
+        <v>44589</v>
       </c>
       <c r="B656">
-        <v>3</v>
+        <v>483</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44772</v>
+        <v>44590</v>
       </c>
       <c r="B657">
-        <v>8</v>
+        <v>216</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44774</v>
+        <v>44591</v>
       </c>
       <c r="B658">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44775</v>
+        <v>44592</v>
       </c>
       <c r="B659">
-        <v>7</v>
+        <v>476</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44776</v>
+        <v>44593</v>
       </c>
       <c r="B660">
-        <v>11</v>
+        <v>452</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44777</v>
+        <v>44594</v>
       </c>
       <c r="B661">
-        <v>5</v>
+        <v>357</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44778</v>
+        <v>44595</v>
       </c>
       <c r="B662">
-        <v>10</v>
+        <v>328</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44779</v>
+        <v>44596</v>
       </c>
       <c r="B663">
-        <v>2</v>
+        <v>285</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44780</v>
+        <v>44597</v>
       </c>
       <c r="B664">
-        <v>1</v>
+        <v>160</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44781</v>
+        <v>44598</v>
       </c>
       <c r="B665">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44782</v>
+        <v>44599</v>
       </c>
       <c r="B666">
-        <v>4</v>
+        <v>285</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44783</v>
+        <v>44600</v>
       </c>
       <c r="B667">
-        <v>4</v>
+        <v>248</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44784</v>
+        <v>44601</v>
       </c>
       <c r="B668">
-        <v>1</v>
+        <v>165</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44785</v>
+        <v>44602</v>
       </c>
       <c r="B669">
-        <v>2</v>
+        <v>152</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44788</v>
+        <v>44603</v>
       </c>
       <c r="B670">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44789</v>
+        <v>44604</v>
       </c>
       <c r="B671">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44791</v>
+        <v>44605</v>
       </c>
       <c r="B672">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44795</v>
+        <v>44606</v>
       </c>
       <c r="B673">
-        <v>3</v>
+        <v>134</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44796</v>
+        <v>44607</v>
       </c>
       <c r="B674">
-        <v>3</v>
+        <v>96</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44798</v>
+        <v>44608</v>
       </c>
       <c r="B675">
-        <v>3</v>
+        <v>97</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44799</v>
+        <v>44609</v>
       </c>
       <c r="B676">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44804</v>
+        <v>44610</v>
       </c>
       <c r="B677">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44810</v>
+        <v>44611</v>
       </c>
       <c r="B678">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44816</v>
+        <v>44612</v>
       </c>
       <c r="B679">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44818</v>
+        <v>44613</v>
       </c>
       <c r="B680">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44819</v>
+        <v>44614</v>
       </c>
       <c r="B681">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44824</v>
+        <v>44615</v>
       </c>
       <c r="B682">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44838</v>
+        <v>44616</v>
       </c>
       <c r="B683">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B684">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B685">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="2">
+        <v>44619</v>
+      </c>
+      <c r="B686">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B687">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B688">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="2">
+        <v>44622</v>
+      </c>
+      <c r="B689">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="2">
+        <v>44623</v>
+      </c>
+      <c r="B690">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="2">
+        <v>44624</v>
+      </c>
+      <c r="B691">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="2">
+        <v>44625</v>
+      </c>
+      <c r="B692">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="2">
+        <v>44626</v>
+      </c>
+      <c r="B693">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="2">
+        <v>44627</v>
+      </c>
+      <c r="B694">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="2">
+        <v>44628</v>
+      </c>
+      <c r="B695">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="2">
+        <v>44629</v>
+      </c>
+      <c r="B696">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="2">
+        <v>44630</v>
+      </c>
+      <c r="B697">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="2">
+        <v>44631</v>
+      </c>
+      <c r="B698">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="2">
+        <v>44632</v>
+      </c>
+      <c r="B699">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="2">
+        <v>44633</v>
+      </c>
+      <c r="B700">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="2">
+        <v>44634</v>
+      </c>
+      <c r="B701">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="2">
+        <v>44635</v>
+      </c>
+      <c r="B702">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="2">
+        <v>44636</v>
+      </c>
+      <c r="B703">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="2">
+        <v>44637</v>
+      </c>
+      <c r="B704">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="2">
+        <v>44638</v>
+      </c>
+      <c r="B705">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="2">
+        <v>44639</v>
+      </c>
+      <c r="B706">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="2">
+        <v>44640</v>
+      </c>
+      <c r="B707">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="2">
+        <v>44641</v>
+      </c>
+      <c r="B708">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="2">
+        <v>44642</v>
+      </c>
+      <c r="B709">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="2">
+        <v>44643</v>
+      </c>
+      <c r="B710">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="2">
+        <v>44644</v>
+      </c>
+      <c r="B711">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="2">
+        <v>44645</v>
+      </c>
+      <c r="B712">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="2">
+        <v>44646</v>
+      </c>
+      <c r="B713">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="2">
+        <v>44647</v>
+      </c>
+      <c r="B714">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="2">
+        <v>44648</v>
+      </c>
+      <c r="B715">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="2">
+        <v>44649</v>
+      </c>
+      <c r="B716">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="2">
+        <v>44650</v>
+      </c>
+      <c r="B717">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B718">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B719">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="2">
+        <v>44653</v>
+      </c>
+      <c r="B720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="2">
+        <v>44655</v>
+      </c>
+      <c r="B721">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="2">
+        <v>44656</v>
+      </c>
+      <c r="B722">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="2">
+        <v>44657</v>
+      </c>
+      <c r="B723">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="2">
+        <v>44658</v>
+      </c>
+      <c r="B724">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="2">
+        <v>44659</v>
+      </c>
+      <c r="B725">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="2">
+        <v>44662</v>
+      </c>
+      <c r="B726">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="2">
+        <v>44663</v>
+      </c>
+      <c r="B727">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="2">
+        <v>44664</v>
+      </c>
+      <c r="B728">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="2">
+        <v>44666</v>
+      </c>
+      <c r="B729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="2">
+        <v>44669</v>
+      </c>
+      <c r="B730">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="2">
+        <v>44670</v>
+      </c>
+      <c r="B731">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="2">
+        <v>44671</v>
+      </c>
+      <c r="B732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="2">
+        <v>44672</v>
+      </c>
+      <c r="B733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="2">
+        <v>44673</v>
+      </c>
+      <c r="B734">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="2">
+        <v>44676</v>
+      </c>
+      <c r="B735">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="2">
+        <v>44678</v>
+      </c>
+      <c r="B736">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="2">
+        <v>44679</v>
+      </c>
+      <c r="B737">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="2">
+        <v>44684</v>
+      </c>
+      <c r="B739">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="2">
+        <v>44685</v>
+      </c>
+      <c r="B740">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="2">
+        <v>44686</v>
+      </c>
+      <c r="B741">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="2">
+        <v>44693</v>
+      </c>
+      <c r="B742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="2">
+        <v>44694</v>
+      </c>
+      <c r="B743">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="2">
+        <v>44695</v>
+      </c>
+      <c r="B744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="2">
+        <v>44697</v>
+      </c>
+      <c r="B745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="2">
+        <v>44699</v>
+      </c>
+      <c r="B746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="2">
+        <v>44702</v>
+      </c>
+      <c r="B747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="2">
+        <v>44705</v>
+      </c>
+      <c r="B748">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B749">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="2">
+        <v>44707</v>
+      </c>
+      <c r="B750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="2">
+        <v>44711</v>
+      </c>
+      <c r="B751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="2">
+        <v>44713</v>
+      </c>
+      <c r="B752">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="2">
+        <v>44714</v>
+      </c>
+      <c r="B753">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="2">
+        <v>44715</v>
+      </c>
+      <c r="B754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="2">
+        <v>44719</v>
+      </c>
+      <c r="B755">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="2">
+        <v>44720</v>
+      </c>
+      <c r="B756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="2">
+        <v>44722</v>
+      </c>
+      <c r="B757">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="2">
+        <v>44723</v>
+      </c>
+      <c r="B758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="2">
+        <v>44725</v>
+      </c>
+      <c r="B759">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="2">
+        <v>44726</v>
+      </c>
+      <c r="B760">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="2">
+        <v>44727</v>
+      </c>
+      <c r="B761">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="2">
+        <v>44728</v>
+      </c>
+      <c r="B762">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="2">
+        <v>44729</v>
+      </c>
+      <c r="B763">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="2">
+        <v>44730</v>
+      </c>
+      <c r="B764">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="2">
+        <v>44732</v>
+      </c>
+      <c r="B765">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="2">
+        <v>44733</v>
+      </c>
+      <c r="B766">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="2">
+        <v>44734</v>
+      </c>
+      <c r="B767">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="2">
+        <v>44735</v>
+      </c>
+      <c r="B768">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="2">
+        <v>44736</v>
+      </c>
+      <c r="B769">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="2">
+        <v>44737</v>
+      </c>
+      <c r="B770">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="2">
+        <v>44739</v>
+      </c>
+      <c r="B771">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="2">
+        <v>44740</v>
+      </c>
+      <c r="B772">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="2">
+        <v>44741</v>
+      </c>
+      <c r="B773">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B774">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B775">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="2">
+        <v>44744</v>
+      </c>
+      <c r="B776">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="2">
+        <v>44745</v>
+      </c>
+      <c r="B777">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="2">
+        <v>44746</v>
+      </c>
+      <c r="B778">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="2">
+        <v>44747</v>
+      </c>
+      <c r="B779">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="2">
+        <v>44748</v>
+      </c>
+      <c r="B780">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="2">
+        <v>44749</v>
+      </c>
+      <c r="B781">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="2">
+        <v>44750</v>
+      </c>
+      <c r="B782">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="2">
+        <v>44751</v>
+      </c>
+      <c r="B783">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="2">
+        <v>44752</v>
+      </c>
+      <c r="B784">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="2">
+        <v>44753</v>
+      </c>
+      <c r="B785">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="2">
+        <v>44754</v>
+      </c>
+      <c r="B786">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B787">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="2">
+        <v>44756</v>
+      </c>
+      <c r="B788">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="2">
+        <v>44757</v>
+      </c>
+      <c r="B789">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="2">
+        <v>44758</v>
+      </c>
+      <c r="B790">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="2">
+        <v>44759</v>
+      </c>
+      <c r="B791">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="2">
+        <v>44760</v>
+      </c>
+      <c r="B792">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="2">
+        <v>44761</v>
+      </c>
+      <c r="B793">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="2">
+        <v>44762</v>
+      </c>
+      <c r="B794">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="2">
+        <v>44763</v>
+      </c>
+      <c r="B795">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B796">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="2">
+        <v>44765</v>
+      </c>
+      <c r="B797">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="2">
+        <v>44766</v>
+      </c>
+      <c r="B798">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="2">
+        <v>44767</v>
+      </c>
+      <c r="B799">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="2">
+        <v>44768</v>
+      </c>
+      <c r="B800">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B801">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B802">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B803">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="2">
+        <v>44772</v>
+      </c>
+      <c r="B804">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="2">
+        <v>44773</v>
+      </c>
+      <c r="B805">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B806">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B807">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="2">
+        <v>44776</v>
+      </c>
+      <c r="B808">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="2">
+        <v>44777</v>
+      </c>
+      <c r="B809">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="2">
+        <v>44778</v>
+      </c>
+      <c r="B810">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="2">
+        <v>44779</v>
+      </c>
+      <c r="B811">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="2">
+        <v>44780</v>
+      </c>
+      <c r="B812">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B813">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="2">
+        <v>44782</v>
+      </c>
+      <c r="B814">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="2">
+        <v>44783</v>
+      </c>
+      <c r="B815">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="2">
+        <v>44784</v>
+      </c>
+      <c r="B816">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="2">
+        <v>44785</v>
+      </c>
+      <c r="B817">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" s="2">
+        <v>44786</v>
+      </c>
+      <c r="B818">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="2">
+        <v>44787</v>
+      </c>
+      <c r="B819">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B820">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="2">
+        <v>44789</v>
+      </c>
+      <c r="B821">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="2">
+        <v>44790</v>
+      </c>
+      <c r="B822">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="2">
+        <v>44791</v>
+      </c>
+      <c r="B823">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="2">
+        <v>44792</v>
+      </c>
+      <c r="B824">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="2">
+        <v>44793</v>
+      </c>
+      <c r="B825">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="2">
+        <v>44794</v>
+      </c>
+      <c r="B826">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B827">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" s="2">
+        <v>44796</v>
+      </c>
+      <c r="B828">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" s="2">
+        <v>44797</v>
+      </c>
+      <c r="B829">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" s="2">
+        <v>44798</v>
+      </c>
+      <c r="B830">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" s="2">
+        <v>44799</v>
+      </c>
+      <c r="B831">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" s="2">
+        <v>44800</v>
+      </c>
+      <c r="B832">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="2">
+        <v>44802</v>
+      </c>
+      <c r="B833">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" s="2">
+        <v>44804</v>
+      </c>
+      <c r="B834">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B835">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="2">
+        <v>44806</v>
+      </c>
+      <c r="B836">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="2">
+        <v>44807</v>
+      </c>
+      <c r="B837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" s="2">
+        <v>44809</v>
+      </c>
+      <c r="B838">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" s="2">
+        <v>44810</v>
+      </c>
+      <c r="B839">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="2">
+        <v>44811</v>
+      </c>
+      <c r="B840">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="A841" s="2">
+        <v>44812</v>
+      </c>
+      <c r="B841">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" s="2">
+        <v>44813</v>
+      </c>
+      <c r="B842">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" s="2">
+        <v>44814</v>
+      </c>
+      <c r="B843">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" s="2">
+        <v>44816</v>
+      </c>
+      <c r="B844">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" s="2">
+        <v>44817</v>
+      </c>
+      <c r="B845">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" s="2">
+        <v>44818</v>
+      </c>
+      <c r="B846">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" s="2">
+        <v>44819</v>
+      </c>
+      <c r="B847">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" s="2">
+        <v>44820</v>
+      </c>
+      <c r="B848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" s="2">
+        <v>44821</v>
+      </c>
+      <c r="B849">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B850">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B851">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B852">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B853">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B854">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B855">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B856">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B857">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" s="2">
+        <v>44836</v>
+      </c>
+      <c r="B860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" s="2">
+        <v>44837</v>
+      </c>
+      <c r="B861">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" s="2">
+        <v>44838</v>
+      </c>
+      <c r="B862">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" s="2">
+        <v>44840</v>
+      </c>
+      <c r="B863">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" s="2">
         <v>44844</v>
       </c>
-      <c r="B684">
+      <c r="B864">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2">
+      <c r="A865" s="2">
+        <v>44845</v>
+      </c>
+      <c r="B865">
         <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="A866" s="2">
+        <v>44849</v>
+      </c>
+      <c r="B866">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="A867" s="2">
+        <v>44852</v>
+      </c>
+      <c r="B867">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" s="2">
+        <v>44859</v>
+      </c>
+      <c r="B868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="A869" s="2">
+        <v>44863</v>
+      </c>
+      <c r="B869">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="A870" s="2">
+        <v>44865</v>
+      </c>
+      <c r="B870">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="A871" s="2">
+        <v>44867</v>
+      </c>
+      <c r="B871">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2">
+      <c r="A872" s="2">
+        <v>44868</v>
+      </c>
+      <c r="B872">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="A873" s="2">
+        <v>44869</v>
+      </c>
+      <c r="B873">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="A874" s="2">
+        <v>44870</v>
+      </c>
+      <c r="B874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2">
+      <c r="A875" s="2">
+        <v>44872</v>
+      </c>
+      <c r="B875">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B875"/>
+  <dimension ref="A1:B882"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4986,1028 +4986,1028 @@
         <v>44506</v>
       </c>
       <c r="B575">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44508</v>
+        <v>44507</v>
       </c>
       <c r="B576">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="B577">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B578">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44511</v>
+        <v>44510</v>
       </c>
       <c r="B579">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44512</v>
+        <v>44511</v>
       </c>
       <c r="B580">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B581">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="B582">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44515</v>
+        <v>44514</v>
       </c>
       <c r="B583">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44516</v>
+        <v>44515</v>
       </c>
       <c r="B584">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44517</v>
+        <v>44516</v>
       </c>
       <c r="B585">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44518</v>
+        <v>44517</v>
       </c>
       <c r="B586">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44519</v>
+        <v>44518</v>
       </c>
       <c r="B587">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44520</v>
+        <v>44519</v>
       </c>
       <c r="B588">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44522</v>
+        <v>44520</v>
       </c>
       <c r="B589">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44523</v>
+        <v>44522</v>
       </c>
       <c r="B590">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="B591">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B592">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44526</v>
+        <v>44525</v>
       </c>
       <c r="B593">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44527</v>
+        <v>44526</v>
       </c>
       <c r="B594">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B595">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B596">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B597">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B598">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B599">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44533</v>
+        <v>44532</v>
       </c>
       <c r="B600">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44534</v>
+        <v>44533</v>
       </c>
       <c r="B601">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44535</v>
+        <v>44534</v>
       </c>
       <c r="B602">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44536</v>
+        <v>44535</v>
       </c>
       <c r="B603">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B604">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B605">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B606">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44540</v>
+        <v>44539</v>
       </c>
       <c r="B607">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44541</v>
+        <v>44540</v>
       </c>
       <c r="B608">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44542</v>
+        <v>44541</v>
       </c>
       <c r="B609">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B610">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B611">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44545</v>
+        <v>44544</v>
       </c>
       <c r="B612">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B613">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="B614">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44548</v>
+        <v>44547</v>
       </c>
       <c r="B615">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44549</v>
+        <v>44548</v>
       </c>
       <c r="B616">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44550</v>
+        <v>44549</v>
       </c>
       <c r="B617">
-        <v>75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B618">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B619">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B620">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44554</v>
+        <v>44553</v>
       </c>
       <c r="B621">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44555</v>
+        <v>44554</v>
       </c>
       <c r="B622">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44556</v>
+        <v>44555</v>
       </c>
       <c r="B623">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B624">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44558</v>
+        <v>44557</v>
       </c>
       <c r="B625">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44559</v>
+        <v>44558</v>
       </c>
       <c r="B626">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B627">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B628">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44562</v>
+        <v>44561</v>
       </c>
       <c r="B629">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B630">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B631">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44565</v>
+        <v>44564</v>
       </c>
       <c r="B632">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44566</v>
+        <v>44565</v>
       </c>
       <c r="B633">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="B634">
-        <v>121</v>
+        <v>75</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B635">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44569</v>
+        <v>44568</v>
       </c>
       <c r="B636">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44570</v>
+        <v>44569</v>
       </c>
       <c r="B637">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B638">
-        <v>130</v>
+        <v>23</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B639">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B640">
-        <v>177</v>
+        <v>129</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B641">
-        <v>278</v>
+        <v>177</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B642">
-        <v>238</v>
+        <v>278</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B643">
-        <v>176</v>
+        <v>238</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B644">
-        <v>26</v>
+        <v>176</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B645">
-        <v>382</v>
+        <v>26</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B646">
-        <v>364</v>
+        <v>382</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B647">
-        <v>429</v>
+        <v>364</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B648">
-        <v>403</v>
+        <v>429</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B649">
-        <v>355</v>
+        <v>403</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B650">
-        <v>290</v>
+        <v>355</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B651">
-        <v>76</v>
+        <v>290</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B652">
-        <v>459</v>
+        <v>76</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B653">
-        <v>501</v>
+        <v>459</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B654">
-        <v>484</v>
+        <v>501</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B655">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B656">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B657">
-        <v>216</v>
+        <v>483</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B658">
-        <v>74</v>
+        <v>216</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B659">
-        <v>476</v>
+        <v>74</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B660">
-        <v>452</v>
+        <v>476</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B661">
-        <v>357</v>
+        <v>452</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B662">
-        <v>328</v>
+        <v>357</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B663">
-        <v>285</v>
+        <v>328</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B664">
-        <v>160</v>
+        <v>285</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B665">
-        <v>28</v>
+        <v>160</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B666">
-        <v>285</v>
+        <v>28</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B667">
-        <v>248</v>
+        <v>285</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B668">
-        <v>165</v>
+        <v>248</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B669">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B670">
-        <v>106</v>
+        <v>152</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B671">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B672">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B673">
-        <v>134</v>
+        <v>14</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B674">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B675">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B676">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B677">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B678">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B679">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B680">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B681">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B682">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B683">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="B684">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B685">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B686">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B687">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="B688">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B689">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B690">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B691">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B692">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B693">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B694">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B695">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44629</v>
+        <v>44628</v>
       </c>
       <c r="B696">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B697">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B698">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44632</v>
+        <v>44631</v>
       </c>
       <c r="B699">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44633</v>
+        <v>44632</v>
       </c>
       <c r="B700">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44634</v>
+        <v>44633</v>
       </c>
       <c r="B701">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B702">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="B703">
         <v>15</v>
@@ -6015,103 +6015,103 @@
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B704">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B705">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B706">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44640</v>
+        <v>44639</v>
       </c>
       <c r="B707">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44641</v>
+        <v>44640</v>
       </c>
       <c r="B708">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44642</v>
+        <v>44641</v>
       </c>
       <c r="B709">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="B710">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B711">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B712">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>44646</v>
+        <v>44645</v>
       </c>
       <c r="B713">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>44647</v>
+        <v>44646</v>
       </c>
       <c r="B714">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2">
-        <v>44648</v>
+        <v>44647</v>
       </c>
       <c r="B715">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B716">
         <v>14</v>
@@ -6119,119 +6119,119 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2">
-        <v>44650</v>
+        <v>44649</v>
       </c>
       <c r="B717">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="B718">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="B719">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2">
-        <v>44653</v>
+        <v>44652</v>
       </c>
       <c r="B720">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2">
-        <v>44655</v>
+        <v>44653</v>
       </c>
       <c r="B721">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2">
-        <v>44656</v>
+        <v>44655</v>
       </c>
       <c r="B722">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="2">
-        <v>44657</v>
+        <v>44656</v>
       </c>
       <c r="B723">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="2">
-        <v>44658</v>
+        <v>44657</v>
       </c>
       <c r="B724">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="2">
-        <v>44659</v>
+        <v>44658</v>
       </c>
       <c r="B725">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="2">
-        <v>44662</v>
+        <v>44659</v>
       </c>
       <c r="B726">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="2">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="B727">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2">
-        <v>44664</v>
+        <v>44663</v>
       </c>
       <c r="B728">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2">
-        <v>44666</v>
+        <v>44664</v>
       </c>
       <c r="B729">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2">
-        <v>44669</v>
+        <v>44666</v>
       </c>
       <c r="B730">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2">
-        <v>44670</v>
+        <v>44669</v>
       </c>
       <c r="B731">
         <v>2</v>
@@ -6239,15 +6239,15 @@
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="2">
-        <v>44671</v>
+        <v>44670</v>
       </c>
       <c r="B732">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="2">
-        <v>44672</v>
+        <v>44671</v>
       </c>
       <c r="B733">
         <v>1</v>
@@ -6255,31 +6255,31 @@
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="2">
-        <v>44673</v>
+        <v>44672</v>
       </c>
       <c r="B734">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="2">
-        <v>44676</v>
+        <v>44673</v>
       </c>
       <c r="B735">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="2">
-        <v>44678</v>
+        <v>44676</v>
       </c>
       <c r="B736">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="2">
-        <v>44679</v>
+        <v>44678</v>
       </c>
       <c r="B737">
         <v>4</v>
@@ -6287,23 +6287,23 @@
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2">
-        <v>44680</v>
+        <v>44679</v>
       </c>
       <c r="B738">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="2">
-        <v>44684</v>
+        <v>44680</v>
       </c>
       <c r="B739">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="2">
-        <v>44685</v>
+        <v>44684</v>
       </c>
       <c r="B740">
         <v>3</v>
@@ -6311,39 +6311,39 @@
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="2">
-        <v>44686</v>
+        <v>44685</v>
       </c>
       <c r="B741">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="2">
-        <v>44693</v>
+        <v>44686</v>
       </c>
       <c r="B742">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="2">
-        <v>44694</v>
+        <v>44693</v>
       </c>
       <c r="B743">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="2">
-        <v>44695</v>
+        <v>44694</v>
       </c>
       <c r="B744">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="2">
-        <v>44697</v>
+        <v>44695</v>
       </c>
       <c r="B745">
         <v>1</v>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="2">
-        <v>44699</v>
+        <v>44697</v>
       </c>
       <c r="B746">
         <v>1</v>
@@ -6359,7 +6359,7 @@
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="2">
-        <v>44702</v>
+        <v>44699</v>
       </c>
       <c r="B747">
         <v>1</v>
@@ -6367,15 +6367,15 @@
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="2">
-        <v>44705</v>
+        <v>44702</v>
       </c>
       <c r="B748">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="2">
-        <v>44706</v>
+        <v>44705</v>
       </c>
       <c r="B749">
         <v>2</v>
@@ -6383,15 +6383,15 @@
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="2">
-        <v>44707</v>
+        <v>44706</v>
       </c>
       <c r="B750">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="2">
-        <v>44711</v>
+        <v>44707</v>
       </c>
       <c r="B751">
         <v>1</v>
@@ -6399,47 +6399,47 @@
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="2">
-        <v>44713</v>
+        <v>44711</v>
       </c>
       <c r="B752">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="2">
-        <v>44714</v>
+        <v>44713</v>
       </c>
       <c r="B753">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="2">
-        <v>44715</v>
+        <v>44714</v>
       </c>
       <c r="B754">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="2">
-        <v>44719</v>
+        <v>44715</v>
       </c>
       <c r="B755">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="2">
-        <v>44720</v>
+        <v>44719</v>
       </c>
       <c r="B756">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="2">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="B757">
         <v>1</v>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="2">
-        <v>44723</v>
+        <v>44722</v>
       </c>
       <c r="B758">
         <v>1</v>
@@ -6455,23 +6455,23 @@
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="2">
-        <v>44725</v>
+        <v>44723</v>
       </c>
       <c r="B759">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="2">
-        <v>44726</v>
+        <v>44725</v>
       </c>
       <c r="B760">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="2">
-        <v>44727</v>
+        <v>44726</v>
       </c>
       <c r="B761">
         <v>2</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="2">
-        <v>44728</v>
+        <v>44727</v>
       </c>
       <c r="B762">
         <v>2</v>
@@ -6487,231 +6487,231 @@
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="2">
-        <v>44729</v>
+        <v>44728</v>
       </c>
       <c r="B763">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="2">
-        <v>44730</v>
+        <v>44729</v>
       </c>
       <c r="B764">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="2">
-        <v>44732</v>
+        <v>44730</v>
       </c>
       <c r="B765">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="2">
-        <v>44733</v>
+        <v>44732</v>
       </c>
       <c r="B766">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="2">
-        <v>44734</v>
+        <v>44733</v>
       </c>
       <c r="B767">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="2">
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="B768">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" s="2">
-        <v>44736</v>
+        <v>44735</v>
       </c>
       <c r="B769">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" s="2">
-        <v>44737</v>
+        <v>44736</v>
       </c>
       <c r="B770">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="2">
-        <v>44739</v>
+        <v>44737</v>
       </c>
       <c r="B771">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" s="2">
-        <v>44740</v>
+        <v>44739</v>
       </c>
       <c r="B772">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="2">
-        <v>44741</v>
+        <v>44740</v>
       </c>
       <c r="B773">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" s="2">
-        <v>44742</v>
+        <v>44741</v>
       </c>
       <c r="B774">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" s="2">
-        <v>44743</v>
+        <v>44742</v>
       </c>
       <c r="B775">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" s="2">
-        <v>44744</v>
+        <v>44743</v>
       </c>
       <c r="B776">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="2">
-        <v>44745</v>
+        <v>44744</v>
       </c>
       <c r="B777">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" s="2">
-        <v>44746</v>
+        <v>44745</v>
       </c>
       <c r="B778">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" s="2">
-        <v>44747</v>
+        <v>44746</v>
       </c>
       <c r="B779">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="2">
-        <v>44748</v>
+        <v>44747</v>
       </c>
       <c r="B780">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" s="2">
-        <v>44749</v>
+        <v>44748</v>
       </c>
       <c r="B781">
-        <v>156</v>
+        <v>110</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" s="2">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="B782">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" s="2">
-        <v>44751</v>
+        <v>44750</v>
       </c>
       <c r="B783">
-        <v>44</v>
+        <v>149</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" s="2">
-        <v>44752</v>
+        <v>44751</v>
       </c>
       <c r="B784">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" s="2">
-        <v>44753</v>
+        <v>44752</v>
       </c>
       <c r="B785">
-        <v>235</v>
+        <v>27</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="2">
-        <v>44754</v>
+        <v>44753</v>
       </c>
       <c r="B786">
-        <v>289</v>
+        <v>235</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" s="2">
-        <v>44755</v>
+        <v>44754</v>
       </c>
       <c r="B787">
-        <v>93</v>
+        <v>289</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" s="2">
-        <v>44756</v>
+        <v>44755</v>
       </c>
       <c r="B788">
-        <v>243</v>
+        <v>93</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" s="2">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="B789">
-        <v>567</v>
+        <v>243</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="2">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="B790">
-        <v>40</v>
+        <v>567</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" s="2">
-        <v>44759</v>
+        <v>44758</v>
       </c>
       <c r="B791">
         <v>40</v>
@@ -6719,247 +6719,247 @@
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="2">
-        <v>44760</v>
+        <v>44759</v>
       </c>
       <c r="B792">
-        <v>299</v>
+        <v>40</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" s="2">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="B793">
-        <v>228</v>
+        <v>299</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" s="2">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B794">
-        <v>142</v>
+        <v>228</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" s="2">
-        <v>44763</v>
+        <v>44762</v>
       </c>
       <c r="B795">
-        <v>238</v>
+        <v>142</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" s="2">
-        <v>44764</v>
+        <v>44763</v>
       </c>
       <c r="B796">
-        <v>185</v>
+        <v>238</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" s="2">
-        <v>44765</v>
+        <v>44764</v>
       </c>
       <c r="B797">
-        <v>61</v>
+        <v>185</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" s="2">
-        <v>44766</v>
+        <v>44765</v>
       </c>
       <c r="B798">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" s="2">
-        <v>44767</v>
+        <v>44766</v>
       </c>
       <c r="B799">
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" s="2">
-        <v>44768</v>
+        <v>44767</v>
       </c>
       <c r="B800">
-        <v>171</v>
+        <v>138</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" s="2">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="B801">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" s="2">
-        <v>44770</v>
+        <v>44769</v>
       </c>
       <c r="B802">
-        <v>21</v>
+        <v>150</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" s="2">
-        <v>44771</v>
+        <v>44770</v>
       </c>
       <c r="B803">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" s="2">
-        <v>44772</v>
+        <v>44771</v>
       </c>
       <c r="B804">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" s="2">
-        <v>44773</v>
+        <v>44772</v>
       </c>
       <c r="B805">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" s="2">
-        <v>44774</v>
+        <v>44773</v>
       </c>
       <c r="B806">
-        <v>120</v>
+        <v>11</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" s="2">
-        <v>44775</v>
+        <v>44774</v>
       </c>
       <c r="B807">
-        <v>54</v>
+        <v>120</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" s="2">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="B808">
-        <v>120</v>
+        <v>54</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" s="2">
-        <v>44777</v>
+        <v>44776</v>
       </c>
       <c r="B809">
-        <v>51</v>
+        <v>120</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" s="2">
-        <v>44778</v>
+        <v>44777</v>
       </c>
       <c r="B810">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" s="2">
-        <v>44779</v>
+        <v>44778</v>
       </c>
       <c r="B811">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" s="2">
-        <v>44780</v>
+        <v>44779</v>
       </c>
       <c r="B812">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" s="2">
-        <v>44781</v>
+        <v>44780</v>
       </c>
       <c r="B813">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" s="2">
-        <v>44782</v>
+        <v>44781</v>
       </c>
       <c r="B814">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" s="2">
-        <v>44783</v>
+        <v>44782</v>
       </c>
       <c r="B815">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" s="2">
-        <v>44784</v>
+        <v>44783</v>
       </c>
       <c r="B816">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" s="2">
-        <v>44785</v>
+        <v>44784</v>
       </c>
       <c r="B817">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" s="2">
-        <v>44786</v>
+        <v>44785</v>
       </c>
       <c r="B818">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" s="2">
-        <v>44787</v>
+        <v>44786</v>
       </c>
       <c r="B819">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" s="2">
-        <v>44788</v>
+        <v>44787</v>
       </c>
       <c r="B820">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" s="2">
-        <v>44789</v>
+        <v>44788</v>
       </c>
       <c r="B821">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" s="2">
-        <v>44790</v>
+        <v>44789</v>
       </c>
       <c r="B822">
         <v>37</v>
@@ -6967,7 +6967,7 @@
     </row>
     <row r="823" spans="1:2">
       <c r="A823" s="2">
-        <v>44791</v>
+        <v>44790</v>
       </c>
       <c r="B823">
         <v>37</v>
@@ -6975,191 +6975,191 @@
     </row>
     <row r="824" spans="1:2">
       <c r="A824" s="2">
-        <v>44792</v>
+        <v>44791</v>
       </c>
       <c r="B824">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" s="2">
-        <v>44793</v>
+        <v>44792</v>
       </c>
       <c r="B825">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" s="2">
-        <v>44794</v>
+        <v>44793</v>
       </c>
       <c r="B826">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" s="2">
-        <v>44795</v>
+        <v>44794</v>
       </c>
       <c r="B827">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" s="2">
-        <v>44796</v>
+        <v>44795</v>
       </c>
       <c r="B828">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" s="2">
-        <v>44797</v>
+        <v>44796</v>
       </c>
       <c r="B829">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" s="2">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="B830">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" s="2">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="B831">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" s="2">
-        <v>44800</v>
+        <v>44799</v>
       </c>
       <c r="B832">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" s="2">
-        <v>44802</v>
+        <v>44800</v>
       </c>
       <c r="B833">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" s="2">
-        <v>44804</v>
+        <v>44802</v>
       </c>
       <c r="B834">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" s="2">
-        <v>44805</v>
+        <v>44804</v>
       </c>
       <c r="B835">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" s="2">
-        <v>44806</v>
+        <v>44805</v>
       </c>
       <c r="B836">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" s="2">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="B837">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" s="2">
-        <v>44809</v>
+        <v>44807</v>
       </c>
       <c r="B838">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" s="2">
-        <v>44810</v>
+        <v>44809</v>
       </c>
       <c r="B839">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" s="2">
-        <v>44811</v>
+        <v>44810</v>
       </c>
       <c r="B840">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" s="2">
-        <v>44812</v>
+        <v>44811</v>
       </c>
       <c r="B841">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" s="2">
-        <v>44813</v>
+        <v>44812</v>
       </c>
       <c r="B842">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" s="2">
-        <v>44814</v>
+        <v>44813</v>
       </c>
       <c r="B843">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" s="2">
-        <v>44816</v>
+        <v>44814</v>
       </c>
       <c r="B844">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" s="2">
-        <v>44817</v>
+        <v>44816</v>
       </c>
       <c r="B845">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" s="2">
-        <v>44818</v>
+        <v>44817</v>
       </c>
       <c r="B846">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" s="2">
-        <v>44819</v>
+        <v>44818</v>
       </c>
       <c r="B847">
         <v>2</v>
@@ -7167,15 +7167,15 @@
     </row>
     <row r="848" spans="1:2">
       <c r="A848" s="2">
-        <v>44820</v>
+        <v>44819</v>
       </c>
       <c r="B848">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" s="2">
-        <v>44821</v>
+        <v>44820</v>
       </c>
       <c r="B849">
         <v>1</v>
@@ -7183,39 +7183,39 @@
     </row>
     <row r="850" spans="1:2">
       <c r="A850" s="2">
-        <v>44823</v>
+        <v>44821</v>
       </c>
       <c r="B850">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" s="2">
-        <v>44824</v>
+        <v>44823</v>
       </c>
       <c r="B851">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" s="2">
-        <v>44825</v>
+        <v>44824</v>
       </c>
       <c r="B852">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" s="2">
-        <v>44826</v>
+        <v>44825</v>
       </c>
       <c r="B853">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" s="2">
-        <v>44830</v>
+        <v>44826</v>
       </c>
       <c r="B854">
         <v>1</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="855" spans="1:2">
       <c r="A855" s="2">
-        <v>44831</v>
+        <v>44830</v>
       </c>
       <c r="B855">
         <v>1</v>
@@ -7231,23 +7231,23 @@
     </row>
     <row r="856" spans="1:2">
       <c r="A856" s="2">
-        <v>44832</v>
+        <v>44831</v>
       </c>
       <c r="B856">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" s="2">
-        <v>44833</v>
+        <v>44832</v>
       </c>
       <c r="B857">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" s="2">
-        <v>44834</v>
+        <v>44833</v>
       </c>
       <c r="B858">
         <v>1</v>
@@ -7255,7 +7255,7 @@
     </row>
     <row r="859" spans="1:2">
       <c r="A859" s="2">
-        <v>44835</v>
+        <v>44834</v>
       </c>
       <c r="B859">
         <v>1</v>
@@ -7263,7 +7263,7 @@
     </row>
     <row r="860" spans="1:2">
       <c r="A860" s="2">
-        <v>44836</v>
+        <v>44835</v>
       </c>
       <c r="B860">
         <v>1</v>
@@ -7271,31 +7271,31 @@
     </row>
     <row r="861" spans="1:2">
       <c r="A861" s="2">
-        <v>44837</v>
+        <v>44836</v>
       </c>
       <c r="B861">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" s="2">
-        <v>44838</v>
+        <v>44837</v>
       </c>
       <c r="B862">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" s="2">
-        <v>44840</v>
+        <v>44838</v>
       </c>
       <c r="B863">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" s="2">
-        <v>44844</v>
+        <v>44840</v>
       </c>
       <c r="B864">
         <v>2</v>
@@ -7303,15 +7303,15 @@
     </row>
     <row r="865" spans="1:2">
       <c r="A865" s="2">
-        <v>44845</v>
+        <v>44844</v>
       </c>
       <c r="B865">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" s="2">
-        <v>44849</v>
+        <v>44845</v>
       </c>
       <c r="B866">
         <v>1</v>
@@ -7319,39 +7319,39 @@
     </row>
     <row r="867" spans="1:2">
       <c r="A867" s="2">
-        <v>44852</v>
+        <v>44849</v>
       </c>
       <c r="B867">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" s="2">
-        <v>44859</v>
+        <v>44852</v>
       </c>
       <c r="B868">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" s="2">
-        <v>44863</v>
+        <v>44859</v>
       </c>
       <c r="B869">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" s="2">
-        <v>44865</v>
+        <v>44863</v>
       </c>
       <c r="B870">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" s="2">
-        <v>44867</v>
+        <v>44865</v>
       </c>
       <c r="B871">
         <v>1</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="872" spans="1:2">
       <c r="A872" s="2">
-        <v>44868</v>
+        <v>44867</v>
       </c>
       <c r="B872">
         <v>1</v>
@@ -7367,7 +7367,7 @@
     </row>
     <row r="873" spans="1:2">
       <c r="A873" s="2">
-        <v>44869</v>
+        <v>44868</v>
       </c>
       <c r="B873">
         <v>1</v>
@@ -7375,7 +7375,7 @@
     </row>
     <row r="874" spans="1:2">
       <c r="A874" s="2">
-        <v>44870</v>
+        <v>44869</v>
       </c>
       <c r="B874">
         <v>1</v>
@@ -7383,9 +7383,65 @@
     </row>
     <row r="875" spans="1:2">
       <c r="A875" s="2">
+        <v>44870</v>
+      </c>
+      <c r="B875">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2">
+      <c r="A876" s="2">
         <v>44872</v>
       </c>
-      <c r="B875">
+      <c r="B876">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2">
+      <c r="A877" s="2">
+        <v>44873</v>
+      </c>
+      <c r="B877">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2">
+      <c r="A878" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B878">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2">
+      <c r="A879" s="2">
+        <v>44875</v>
+      </c>
+      <c r="B879">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2">
+      <c r="A880" s="2">
+        <v>44876</v>
+      </c>
+      <c r="B880">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2">
+      <c r="A881" s="2">
+        <v>44877</v>
+      </c>
+      <c r="B881">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2">
+      <c r="A882" s="2">
+        <v>44880</v>
+      </c>
+      <c r="B882">
         <v>2</v>
       </c>
     </row>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B882"/>
+  <dimension ref="A1:B889"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5098,924 +5098,924 @@
         <v>44520</v>
       </c>
       <c r="B589">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44522</v>
+        <v>44521</v>
       </c>
       <c r="B590">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44523</v>
+        <v>44522</v>
       </c>
       <c r="B591">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="B592">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B593">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44526</v>
+        <v>44525</v>
       </c>
       <c r="B594">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44527</v>
+        <v>44526</v>
       </c>
       <c r="B595">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B596">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B597">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B598">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B599">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B600">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44533</v>
+        <v>44532</v>
       </c>
       <c r="B601">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44534</v>
+        <v>44533</v>
       </c>
       <c r="B602">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44535</v>
+        <v>44534</v>
       </c>
       <c r="B603">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44536</v>
+        <v>44535</v>
       </c>
       <c r="B604">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B605">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B606">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B607">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44540</v>
+        <v>44539</v>
       </c>
       <c r="B608">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44541</v>
+        <v>44540</v>
       </c>
       <c r="B609">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44542</v>
+        <v>44541</v>
       </c>
       <c r="B610">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B611">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B612">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44545</v>
+        <v>44544</v>
       </c>
       <c r="B613">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B614">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="B615">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44548</v>
+        <v>44547</v>
       </c>
       <c r="B616">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44549</v>
+        <v>44548</v>
       </c>
       <c r="B617">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44550</v>
+        <v>44549</v>
       </c>
       <c r="B618">
-        <v>75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B619">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B620">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B621">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44554</v>
+        <v>44553</v>
       </c>
       <c r="B622">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44555</v>
+        <v>44554</v>
       </c>
       <c r="B623">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44556</v>
+        <v>44555</v>
       </c>
       <c r="B624">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B625">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44558</v>
+        <v>44557</v>
       </c>
       <c r="B626">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44559</v>
+        <v>44558</v>
       </c>
       <c r="B627">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B628">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B629">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44562</v>
+        <v>44561</v>
       </c>
       <c r="B630">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B631">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B632">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44565</v>
+        <v>44564</v>
       </c>
       <c r="B633">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44566</v>
+        <v>44565</v>
       </c>
       <c r="B634">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="B635">
-        <v>121</v>
+        <v>75</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B636">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44569</v>
+        <v>44568</v>
       </c>
       <c r="B637">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44570</v>
+        <v>44569</v>
       </c>
       <c r="B638">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B639">
-        <v>130</v>
+        <v>23</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B640">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B641">
-        <v>177</v>
+        <v>129</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B642">
-        <v>278</v>
+        <v>177</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B643">
-        <v>238</v>
+        <v>278</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B644">
-        <v>176</v>
+        <v>238</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B645">
-        <v>26</v>
+        <v>176</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B646">
-        <v>382</v>
+        <v>26</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B647">
-        <v>364</v>
+        <v>382</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B648">
-        <v>429</v>
+        <v>364</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B649">
-        <v>403</v>
+        <v>429</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B650">
-        <v>355</v>
+        <v>403</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B651">
-        <v>290</v>
+        <v>355</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B652">
-        <v>76</v>
+        <v>290</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B653">
-        <v>459</v>
+        <v>76</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B654">
-        <v>501</v>
+        <v>459</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B655">
-        <v>484</v>
+        <v>501</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B656">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B657">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B658">
-        <v>216</v>
+        <v>483</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B659">
-        <v>74</v>
+        <v>216</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B660">
-        <v>476</v>
+        <v>74</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B661">
-        <v>452</v>
+        <v>476</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B662">
-        <v>357</v>
+        <v>452</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B663">
-        <v>328</v>
+        <v>357</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B664">
-        <v>285</v>
+        <v>328</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B665">
-        <v>160</v>
+        <v>285</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B666">
-        <v>28</v>
+        <v>160</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B667">
-        <v>285</v>
+        <v>28</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B668">
-        <v>248</v>
+        <v>285</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B669">
-        <v>165</v>
+        <v>248</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B670">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B671">
-        <v>106</v>
+        <v>152</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B672">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B673">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B674">
-        <v>134</v>
+        <v>14</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B675">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B676">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B677">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B678">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B679">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B680">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B681">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B682">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B683">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B684">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="B685">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B686">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B687">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B688">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="B689">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B690">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B691">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B692">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B693">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B694">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B695">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B696">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44629</v>
+        <v>44628</v>
       </c>
       <c r="B697">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B698">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B699">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44632</v>
+        <v>44631</v>
       </c>
       <c r="B700">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44633</v>
+        <v>44632</v>
       </c>
       <c r="B701">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44634</v>
+        <v>44633</v>
       </c>
       <c r="B702">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B703">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="B704">
         <v>15</v>
@@ -6023,103 +6023,103 @@
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B705">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B706">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B707">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44640</v>
+        <v>44639</v>
       </c>
       <c r="B708">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44641</v>
+        <v>44640</v>
       </c>
       <c r="B709">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44642</v>
+        <v>44641</v>
       </c>
       <c r="B710">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="B711">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B712">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B713">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>44646</v>
+        <v>44645</v>
       </c>
       <c r="B714">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2">
-        <v>44647</v>
+        <v>44646</v>
       </c>
       <c r="B715">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2">
-        <v>44648</v>
+        <v>44647</v>
       </c>
       <c r="B716">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B717">
         <v>14</v>
@@ -6127,119 +6127,119 @@
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2">
-        <v>44650</v>
+        <v>44649</v>
       </c>
       <c r="B718">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="B719">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="B720">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2">
-        <v>44653</v>
+        <v>44652</v>
       </c>
       <c r="B721">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2">
-        <v>44655</v>
+        <v>44653</v>
       </c>
       <c r="B722">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="2">
-        <v>44656</v>
+        <v>44655</v>
       </c>
       <c r="B723">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="2">
-        <v>44657</v>
+        <v>44656</v>
       </c>
       <c r="B724">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="2">
-        <v>44658</v>
+        <v>44657</v>
       </c>
       <c r="B725">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="2">
-        <v>44659</v>
+        <v>44658</v>
       </c>
       <c r="B726">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="2">
-        <v>44662</v>
+        <v>44659</v>
       </c>
       <c r="B727">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="B728">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2">
-        <v>44664</v>
+        <v>44663</v>
       </c>
       <c r="B729">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2">
-        <v>44666</v>
+        <v>44664</v>
       </c>
       <c r="B730">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2">
-        <v>44669</v>
+        <v>44666</v>
       </c>
       <c r="B731">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="2">
-        <v>44670</v>
+        <v>44669</v>
       </c>
       <c r="B732">
         <v>2</v>
@@ -6247,15 +6247,15 @@
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="2">
-        <v>44671</v>
+        <v>44670</v>
       </c>
       <c r="B733">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="2">
-        <v>44672</v>
+        <v>44671</v>
       </c>
       <c r="B734">
         <v>1</v>
@@ -6263,31 +6263,31 @@
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="2">
-        <v>44673</v>
+        <v>44672</v>
       </c>
       <c r="B735">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="2">
-        <v>44676</v>
+        <v>44673</v>
       </c>
       <c r="B736">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="2">
-        <v>44678</v>
+        <v>44676</v>
       </c>
       <c r="B737">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2">
-        <v>44679</v>
+        <v>44678</v>
       </c>
       <c r="B738">
         <v>4</v>
@@ -6295,23 +6295,23 @@
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="2">
-        <v>44680</v>
+        <v>44679</v>
       </c>
       <c r="B739">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="2">
-        <v>44684</v>
+        <v>44680</v>
       </c>
       <c r="B740">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="2">
-        <v>44685</v>
+        <v>44684</v>
       </c>
       <c r="B741">
         <v>3</v>
@@ -6319,39 +6319,39 @@
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="2">
-        <v>44686</v>
+        <v>44685</v>
       </c>
       <c r="B742">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="2">
-        <v>44693</v>
+        <v>44686</v>
       </c>
       <c r="B743">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="2">
-        <v>44694</v>
+        <v>44693</v>
       </c>
       <c r="B744">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="2">
-        <v>44695</v>
+        <v>44694</v>
       </c>
       <c r="B745">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="2">
-        <v>44697</v>
+        <v>44695</v>
       </c>
       <c r="B746">
         <v>1</v>
@@ -6359,7 +6359,7 @@
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="2">
-        <v>44699</v>
+        <v>44697</v>
       </c>
       <c r="B747">
         <v>1</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="2">
-        <v>44702</v>
+        <v>44699</v>
       </c>
       <c r="B748">
         <v>1</v>
@@ -6375,15 +6375,15 @@
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="2">
-        <v>44705</v>
+        <v>44702</v>
       </c>
       <c r="B749">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="2">
-        <v>44706</v>
+        <v>44705</v>
       </c>
       <c r="B750">
         <v>2</v>
@@ -6391,15 +6391,15 @@
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="2">
-        <v>44707</v>
+        <v>44706</v>
       </c>
       <c r="B751">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="2">
-        <v>44711</v>
+        <v>44707</v>
       </c>
       <c r="B752">
         <v>1</v>
@@ -6407,47 +6407,47 @@
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="2">
-        <v>44713</v>
+        <v>44711</v>
       </c>
       <c r="B753">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="2">
-        <v>44714</v>
+        <v>44713</v>
       </c>
       <c r="B754">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="2">
-        <v>44715</v>
+        <v>44714</v>
       </c>
       <c r="B755">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="2">
-        <v>44719</v>
+        <v>44715</v>
       </c>
       <c r="B756">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="2">
-        <v>44720</v>
+        <v>44719</v>
       </c>
       <c r="B757">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="2">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="B758">
         <v>1</v>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="2">
-        <v>44723</v>
+        <v>44722</v>
       </c>
       <c r="B759">
         <v>1</v>
@@ -6463,23 +6463,23 @@
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="2">
-        <v>44725</v>
+        <v>44723</v>
       </c>
       <c r="B760">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="2">
-        <v>44726</v>
+        <v>44725</v>
       </c>
       <c r="B761">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="2">
-        <v>44727</v>
+        <v>44726</v>
       </c>
       <c r="B762">
         <v>2</v>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="2">
-        <v>44728</v>
+        <v>44727</v>
       </c>
       <c r="B763">
         <v>2</v>
@@ -6495,231 +6495,231 @@
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="2">
-        <v>44729</v>
+        <v>44728</v>
       </c>
       <c r="B764">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="2">
-        <v>44730</v>
+        <v>44729</v>
       </c>
       <c r="B765">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="2">
-        <v>44732</v>
+        <v>44730</v>
       </c>
       <c r="B766">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="2">
-        <v>44733</v>
+        <v>44732</v>
       </c>
       <c r="B767">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="2">
-        <v>44734</v>
+        <v>44733</v>
       </c>
       <c r="B768">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" s="2">
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="B769">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" s="2">
-        <v>44736</v>
+        <v>44735</v>
       </c>
       <c r="B770">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="2">
-        <v>44737</v>
+        <v>44736</v>
       </c>
       <c r="B771">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" s="2">
-        <v>44739</v>
+        <v>44737</v>
       </c>
       <c r="B772">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="2">
-        <v>44740</v>
+        <v>44739</v>
       </c>
       <c r="B773">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" s="2">
-        <v>44741</v>
+        <v>44740</v>
       </c>
       <c r="B774">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" s="2">
-        <v>44742</v>
+        <v>44741</v>
       </c>
       <c r="B775">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" s="2">
-        <v>44743</v>
+        <v>44742</v>
       </c>
       <c r="B776">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="2">
-        <v>44744</v>
+        <v>44743</v>
       </c>
       <c r="B777">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" s="2">
-        <v>44745</v>
+        <v>44744</v>
       </c>
       <c r="B778">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" s="2">
-        <v>44746</v>
+        <v>44745</v>
       </c>
       <c r="B779">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="2">
-        <v>44747</v>
+        <v>44746</v>
       </c>
       <c r="B780">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" s="2">
-        <v>44748</v>
+        <v>44747</v>
       </c>
       <c r="B781">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" s="2">
-        <v>44749</v>
+        <v>44748</v>
       </c>
       <c r="B782">
-        <v>156</v>
+        <v>110</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" s="2">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="B783">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" s="2">
-        <v>44751</v>
+        <v>44750</v>
       </c>
       <c r="B784">
-        <v>44</v>
+        <v>149</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" s="2">
-        <v>44752</v>
+        <v>44751</v>
       </c>
       <c r="B785">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="2">
-        <v>44753</v>
+        <v>44752</v>
       </c>
       <c r="B786">
-        <v>235</v>
+        <v>27</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" s="2">
-        <v>44754</v>
+        <v>44753</v>
       </c>
       <c r="B787">
-        <v>289</v>
+        <v>235</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" s="2">
-        <v>44755</v>
+        <v>44754</v>
       </c>
       <c r="B788">
-        <v>93</v>
+        <v>289</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" s="2">
-        <v>44756</v>
+        <v>44755</v>
       </c>
       <c r="B789">
-        <v>243</v>
+        <v>93</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="2">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="B790">
-        <v>567</v>
+        <v>243</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" s="2">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="B791">
-        <v>40</v>
+        <v>567</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="2">
-        <v>44759</v>
+        <v>44758</v>
       </c>
       <c r="B792">
         <v>40</v>
@@ -6727,247 +6727,247 @@
     </row>
     <row r="793" spans="1:2">
       <c r="A793" s="2">
-        <v>44760</v>
+        <v>44759</v>
       </c>
       <c r="B793">
-        <v>299</v>
+        <v>40</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" s="2">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="B794">
-        <v>228</v>
+        <v>299</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" s="2">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B795">
-        <v>142</v>
+        <v>228</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" s="2">
-        <v>44763</v>
+        <v>44762</v>
       </c>
       <c r="B796">
-        <v>238</v>
+        <v>142</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" s="2">
-        <v>44764</v>
+        <v>44763</v>
       </c>
       <c r="B797">
-        <v>185</v>
+        <v>238</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" s="2">
-        <v>44765</v>
+        <v>44764</v>
       </c>
       <c r="B798">
-        <v>61</v>
+        <v>185</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" s="2">
-        <v>44766</v>
+        <v>44765</v>
       </c>
       <c r="B799">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" s="2">
-        <v>44767</v>
+        <v>44766</v>
       </c>
       <c r="B800">
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" s="2">
-        <v>44768</v>
+        <v>44767</v>
       </c>
       <c r="B801">
-        <v>171</v>
+        <v>138</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" s="2">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="B802">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" s="2">
-        <v>44770</v>
+        <v>44769</v>
       </c>
       <c r="B803">
-        <v>21</v>
+        <v>150</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" s="2">
-        <v>44771</v>
+        <v>44770</v>
       </c>
       <c r="B804">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" s="2">
-        <v>44772</v>
+        <v>44771</v>
       </c>
       <c r="B805">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" s="2">
-        <v>44773</v>
+        <v>44772</v>
       </c>
       <c r="B806">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" s="2">
-        <v>44774</v>
+        <v>44773</v>
       </c>
       <c r="B807">
-        <v>120</v>
+        <v>11</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" s="2">
-        <v>44775</v>
+        <v>44774</v>
       </c>
       <c r="B808">
-        <v>54</v>
+        <v>120</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" s="2">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="B809">
-        <v>120</v>
+        <v>54</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" s="2">
-        <v>44777</v>
+        <v>44776</v>
       </c>
       <c r="B810">
-        <v>51</v>
+        <v>120</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" s="2">
-        <v>44778</v>
+        <v>44777</v>
       </c>
       <c r="B811">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" s="2">
-        <v>44779</v>
+        <v>44778</v>
       </c>
       <c r="B812">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" s="2">
-        <v>44780</v>
+        <v>44779</v>
       </c>
       <c r="B813">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" s="2">
-        <v>44781</v>
+        <v>44780</v>
       </c>
       <c r="B814">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" s="2">
-        <v>44782</v>
+        <v>44781</v>
       </c>
       <c r="B815">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" s="2">
-        <v>44783</v>
+        <v>44782</v>
       </c>
       <c r="B816">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" s="2">
-        <v>44784</v>
+        <v>44783</v>
       </c>
       <c r="B817">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" s="2">
-        <v>44785</v>
+        <v>44784</v>
       </c>
       <c r="B818">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" s="2">
-        <v>44786</v>
+        <v>44785</v>
       </c>
       <c r="B819">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" s="2">
-        <v>44787</v>
+        <v>44786</v>
       </c>
       <c r="B820">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" s="2">
-        <v>44788</v>
+        <v>44787</v>
       </c>
       <c r="B821">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" s="2">
-        <v>44789</v>
+        <v>44788</v>
       </c>
       <c r="B822">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" s="2">
-        <v>44790</v>
+        <v>44789</v>
       </c>
       <c r="B823">
         <v>37</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="824" spans="1:2">
       <c r="A824" s="2">
-        <v>44791</v>
+        <v>44790</v>
       </c>
       <c r="B824">
         <v>37</v>
@@ -6983,191 +6983,191 @@
     </row>
     <row r="825" spans="1:2">
       <c r="A825" s="2">
-        <v>44792</v>
+        <v>44791</v>
       </c>
       <c r="B825">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" s="2">
-        <v>44793</v>
+        <v>44792</v>
       </c>
       <c r="B826">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" s="2">
-        <v>44794</v>
+        <v>44793</v>
       </c>
       <c r="B827">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" s="2">
-        <v>44795</v>
+        <v>44794</v>
       </c>
       <c r="B828">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" s="2">
-        <v>44796</v>
+        <v>44795</v>
       </c>
       <c r="B829">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" s="2">
-        <v>44797</v>
+        <v>44796</v>
       </c>
       <c r="B830">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" s="2">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="B831">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" s="2">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="B832">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" s="2">
-        <v>44800</v>
+        <v>44799</v>
       </c>
       <c r="B833">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" s="2">
-        <v>44802</v>
+        <v>44800</v>
       </c>
       <c r="B834">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" s="2">
-        <v>44804</v>
+        <v>44802</v>
       </c>
       <c r="B835">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" s="2">
-        <v>44805</v>
+        <v>44804</v>
       </c>
       <c r="B836">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" s="2">
-        <v>44806</v>
+        <v>44805</v>
       </c>
       <c r="B837">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" s="2">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="B838">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" s="2">
-        <v>44809</v>
+        <v>44807</v>
       </c>
       <c r="B839">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" s="2">
-        <v>44810</v>
+        <v>44809</v>
       </c>
       <c r="B840">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" s="2">
-        <v>44811</v>
+        <v>44810</v>
       </c>
       <c r="B841">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" s="2">
-        <v>44812</v>
+        <v>44811</v>
       </c>
       <c r="B842">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" s="2">
-        <v>44813</v>
+        <v>44812</v>
       </c>
       <c r="B843">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" s="2">
-        <v>44814</v>
+        <v>44813</v>
       </c>
       <c r="B844">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" s="2">
-        <v>44816</v>
+        <v>44814</v>
       </c>
       <c r="B845">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" s="2">
-        <v>44817</v>
+        <v>44816</v>
       </c>
       <c r="B846">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" s="2">
-        <v>44818</v>
+        <v>44817</v>
       </c>
       <c r="B847">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" s="2">
-        <v>44819</v>
+        <v>44818</v>
       </c>
       <c r="B848">
         <v>2</v>
@@ -7175,15 +7175,15 @@
     </row>
     <row r="849" spans="1:2">
       <c r="A849" s="2">
-        <v>44820</v>
+        <v>44819</v>
       </c>
       <c r="B849">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" s="2">
-        <v>44821</v>
+        <v>44820</v>
       </c>
       <c r="B850">
         <v>1</v>
@@ -7191,39 +7191,39 @@
     </row>
     <row r="851" spans="1:2">
       <c r="A851" s="2">
-        <v>44823</v>
+        <v>44821</v>
       </c>
       <c r="B851">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" s="2">
-        <v>44824</v>
+        <v>44823</v>
       </c>
       <c r="B852">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" s="2">
-        <v>44825</v>
+        <v>44824</v>
       </c>
       <c r="B853">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" s="2">
-        <v>44826</v>
+        <v>44825</v>
       </c>
       <c r="B854">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" s="2">
-        <v>44830</v>
+        <v>44826</v>
       </c>
       <c r="B855">
         <v>1</v>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="856" spans="1:2">
       <c r="A856" s="2">
-        <v>44831</v>
+        <v>44830</v>
       </c>
       <c r="B856">
         <v>1</v>
@@ -7239,23 +7239,23 @@
     </row>
     <row r="857" spans="1:2">
       <c r="A857" s="2">
-        <v>44832</v>
+        <v>44831</v>
       </c>
       <c r="B857">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" s="2">
-        <v>44833</v>
+        <v>44832</v>
       </c>
       <c r="B858">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" s="2">
-        <v>44834</v>
+        <v>44833</v>
       </c>
       <c r="B859">
         <v>1</v>
@@ -7263,7 +7263,7 @@
     </row>
     <row r="860" spans="1:2">
       <c r="A860" s="2">
-        <v>44835</v>
+        <v>44834</v>
       </c>
       <c r="B860">
         <v>1</v>
@@ -7271,7 +7271,7 @@
     </row>
     <row r="861" spans="1:2">
       <c r="A861" s="2">
-        <v>44836</v>
+        <v>44835</v>
       </c>
       <c r="B861">
         <v>1</v>
@@ -7279,31 +7279,31 @@
     </row>
     <row r="862" spans="1:2">
       <c r="A862" s="2">
-        <v>44837</v>
+        <v>44836</v>
       </c>
       <c r="B862">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" s="2">
-        <v>44838</v>
+        <v>44837</v>
       </c>
       <c r="B863">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" s="2">
-        <v>44840</v>
+        <v>44838</v>
       </c>
       <c r="B864">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" s="2">
-        <v>44844</v>
+        <v>44840</v>
       </c>
       <c r="B865">
         <v>2</v>
@@ -7311,15 +7311,15 @@
     </row>
     <row r="866" spans="1:2">
       <c r="A866" s="2">
-        <v>44845</v>
+        <v>44844</v>
       </c>
       <c r="B866">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" s="2">
-        <v>44849</v>
+        <v>44845</v>
       </c>
       <c r="B867">
         <v>1</v>
@@ -7327,39 +7327,39 @@
     </row>
     <row r="868" spans="1:2">
       <c r="A868" s="2">
-        <v>44852</v>
+        <v>44849</v>
       </c>
       <c r="B868">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" s="2">
-        <v>44859</v>
+        <v>44852</v>
       </c>
       <c r="B869">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" s="2">
-        <v>44863</v>
+        <v>44859</v>
       </c>
       <c r="B870">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" s="2">
-        <v>44865</v>
+        <v>44863</v>
       </c>
       <c r="B871">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" s="2">
-        <v>44867</v>
+        <v>44865</v>
       </c>
       <c r="B872">
         <v>1</v>
@@ -7367,7 +7367,7 @@
     </row>
     <row r="873" spans="1:2">
       <c r="A873" s="2">
-        <v>44868</v>
+        <v>44867</v>
       </c>
       <c r="B873">
         <v>1</v>
@@ -7375,7 +7375,7 @@
     </row>
     <row r="874" spans="1:2">
       <c r="A874" s="2">
-        <v>44869</v>
+        <v>44868</v>
       </c>
       <c r="B874">
         <v>1</v>
@@ -7383,7 +7383,7 @@
     </row>
     <row r="875" spans="1:2">
       <c r="A875" s="2">
-        <v>44870</v>
+        <v>44869</v>
       </c>
       <c r="B875">
         <v>1</v>
@@ -7391,15 +7391,15 @@
     </row>
     <row r="876" spans="1:2">
       <c r="A876" s="2">
-        <v>44872</v>
+        <v>44870</v>
       </c>
       <c r="B876">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" s="2">
-        <v>44873</v>
+        <v>44872</v>
       </c>
       <c r="B877">
         <v>2</v>
@@ -7407,15 +7407,15 @@
     </row>
     <row r="878" spans="1:2">
       <c r="A878" s="2">
-        <v>44874</v>
+        <v>44873</v>
       </c>
       <c r="B878">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" s="2">
-        <v>44875</v>
+        <v>44874</v>
       </c>
       <c r="B879">
         <v>3</v>
@@ -7423,26 +7423,82 @@
     </row>
     <row r="880" spans="1:2">
       <c r="A880" s="2">
-        <v>44876</v>
+        <v>44875</v>
       </c>
       <c r="B880">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" s="2">
-        <v>44877</v>
+        <v>44876</v>
       </c>
       <c r="B881">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" s="2">
+        <v>44877</v>
+      </c>
+      <c r="B882">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2">
+      <c r="A883" s="2">
         <v>44880</v>
       </c>
-      <c r="B882">
+      <c r="B883">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2">
+      <c r="A884" s="2">
+        <v>44881</v>
+      </c>
+      <c r="B884">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2">
+      <c r="A885" s="2">
+        <v>44882</v>
+      </c>
+      <c r="B885">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2">
+      <c r="A886" s="2">
+        <v>44883</v>
+      </c>
+      <c r="B886">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2">
+      <c r="A887" s="2">
+        <v>44884</v>
+      </c>
+      <c r="B887">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2">
+      <c r="A888" s="2">
+        <v>44886</v>
+      </c>
+      <c r="B888">
         <v>2</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2">
+      <c r="A889" s="2">
+        <v>44887</v>
+      </c>
+      <c r="B889">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B889"/>
+  <dimension ref="A1:B892"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7474,7 +7474,7 @@
         <v>44883</v>
       </c>
       <c r="B886">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7482,7 +7482,7 @@
         <v>44884</v>
       </c>
       <c r="B887">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7490,7 +7490,7 @@
         <v>44886</v>
       </c>
       <c r="B888">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7498,6 +7498,30 @@
         <v>44887</v>
       </c>
       <c r="B889">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2">
+      <c r="A890" s="2">
+        <v>44888</v>
+      </c>
+      <c r="B890">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2">
+      <c r="A891" s="2">
+        <v>44889</v>
+      </c>
+      <c r="B891">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2">
+      <c r="A892" s="2">
+        <v>44890</v>
+      </c>
+      <c r="B892">
         <v>9</v>
       </c>
     </row>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C893"/>
+  <dimension ref="A1:C894"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10191,10 +10191,21 @@
         <v>44893</v>
       </c>
       <c r="B893">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C893">
-        <v>10.28571428571429</v>
+        <v>12.42857142857143</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3">
+      <c r="A894" s="2">
+        <v>44894</v>
+      </c>
+      <c r="B894">
+        <v>15</v>
+      </c>
+      <c r="C894">
+        <v>13.71428571428571</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C894"/>
+  <dimension ref="A1:C900"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10092,10 +10092,10 @@
         <v>44881</v>
       </c>
       <c r="B884">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C884">
-        <v>3</v>
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="885" spans="1:3">
@@ -10106,7 +10106,7 @@
         <v>10</v>
       </c>
       <c r="C885">
-        <v>4.142857142857143</v>
+        <v>4.285714285714286</v>
       </c>
     </row>
     <row r="886" spans="1:3">
@@ -10117,7 +10117,7 @@
         <v>11</v>
       </c>
       <c r="C886">
-        <v>5.285714285714286</v>
+        <v>5.428571428571429</v>
       </c>
     </row>
     <row r="887" spans="1:3">
@@ -10128,7 +10128,7 @@
         <v>6</v>
       </c>
       <c r="C887">
-        <v>5.714285714285714</v>
+        <v>5.857142857142857</v>
       </c>
     </row>
     <row r="888" spans="1:3">
@@ -10139,7 +10139,7 @@
         <v>3</v>
       </c>
       <c r="C888">
-        <v>5.857142857142857</v>
+        <v>6</v>
       </c>
     </row>
     <row r="889" spans="1:3">
@@ -10147,10 +10147,10 @@
         <v>44887</v>
       </c>
       <c r="B889">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C889">
-        <v>7</v>
+        <v>7.428571428571429</v>
       </c>
     </row>
     <row r="890" spans="1:3">
@@ -10161,7 +10161,7 @@
         <v>14</v>
       </c>
       <c r="C890">
-        <v>8.571428571428571</v>
+        <v>9</v>
       </c>
     </row>
     <row r="891" spans="1:3">
@@ -10172,7 +10172,7 @@
         <v>21</v>
       </c>
       <c r="C891">
-        <v>10.85714285714286</v>
+        <v>11.14285714285714</v>
       </c>
     </row>
     <row r="892" spans="1:3">
@@ -10183,29 +10183,95 @@
         <v>10</v>
       </c>
       <c r="C892">
-        <v>10.85714285714286</v>
+        <v>11.14285714285714</v>
       </c>
     </row>
     <row r="893" spans="1:3">
       <c r="A893" s="2">
-        <v>44893</v>
+        <v>44891</v>
       </c>
       <c r="B893">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C893">
-        <v>12.42857142857143</v>
+        <v>9.714285714285714</v>
       </c>
     </row>
     <row r="894" spans="1:3">
       <c r="A894" s="2">
+        <v>44892</v>
+      </c>
+      <c r="B894">
+        <v>1</v>
+      </c>
+      <c r="C894">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3">
+      <c r="A895" s="2">
+        <v>44893</v>
+      </c>
+      <c r="B895">
+        <v>24</v>
+      </c>
+      <c r="C895">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3">
+      <c r="A896" s="2">
         <v>44894</v>
       </c>
-      <c r="B894">
-        <v>15</v>
-      </c>
-      <c r="C894">
-        <v>13.71428571428571</v>
+      <c r="B896">
+        <v>24</v>
+      </c>
+      <c r="C896">
+        <v>13.57142857142857</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3">
+      <c r="A897" s="2">
+        <v>44895</v>
+      </c>
+      <c r="B897">
+        <v>22</v>
+      </c>
+      <c r="C897">
+        <v>14.71428571428571</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3">
+      <c r="A898" s="2">
+        <v>44896</v>
+      </c>
+      <c r="B898">
+        <v>24</v>
+      </c>
+      <c r="C898">
+        <v>15.14285714285714</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3">
+      <c r="A899" s="2">
+        <v>44897</v>
+      </c>
+      <c r="B899">
+        <v>25</v>
+      </c>
+      <c r="C899">
+        <v>17.28571428571428</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3">
+      <c r="A900" s="2">
+        <v>44898</v>
+      </c>
+      <c r="B900">
+        <v>2</v>
+      </c>
+      <c r="C900">
+        <v>17.42857142857143</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C900"/>
+  <dimension ref="A1:C902"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6121,10 +6121,10 @@
         <v>44454</v>
       </c>
       <c r="B523">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C523">
-        <v>15.71428571428571</v>
+        <v>15.85714285714286</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6135,7 +6135,7 @@
         <v>16</v>
       </c>
       <c r="C524">
-        <v>15.85714285714286</v>
+        <v>16</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6146,7 +6146,7 @@
         <v>12</v>
       </c>
       <c r="C525">
-        <v>14.85714285714286</v>
+        <v>15</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6157,7 +6157,7 @@
         <v>5</v>
       </c>
       <c r="C526">
-        <v>14.14285714285714</v>
+        <v>14.28571428571429</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6168,7 +6168,7 @@
         <v>6</v>
       </c>
       <c r="C527">
-        <v>14.14285714285714</v>
+        <v>14.28571428571429</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6179,7 +6179,7 @@
         <v>15</v>
       </c>
       <c r="C528">
-        <v>14.71428571428571</v>
+        <v>14.85714285714286</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6190,7 +6190,7 @@
         <v>26</v>
       </c>
       <c r="C529">
-        <v>15</v>
+        <v>15.14285714285714</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -10246,10 +10246,10 @@
         <v>44896</v>
       </c>
       <c r="B898">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C898">
-        <v>15.14285714285714</v>
+        <v>15.28571428571429</v>
       </c>
     </row>
     <row r="899" spans="1:3">
@@ -10257,10 +10257,10 @@
         <v>44897</v>
       </c>
       <c r="B899">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C899">
-        <v>17.28571428571428</v>
+        <v>18.57142857142857</v>
       </c>
     </row>
     <row r="900" spans="1:3">
@@ -10268,10 +10268,32 @@
         <v>44898</v>
       </c>
       <c r="B900">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C900">
-        <v>17.42857142857143</v>
+        <v>19.28571428571428</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3">
+      <c r="A901" s="2">
+        <v>44899</v>
+      </c>
+      <c r="B901">
+        <v>1</v>
+      </c>
+      <c r="C901">
+        <v>19.28571428571428</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3">
+      <c r="A902" s="2">
+        <v>44900</v>
+      </c>
+      <c r="B902">
+        <v>13</v>
+      </c>
+      <c r="C902">
+        <v>17.71428571428572</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C902"/>
+  <dimension ref="A1:C908"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10114,10 +10114,10 @@
         <v>44883</v>
       </c>
       <c r="B886">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C886">
-        <v>5.428571428571429</v>
+        <v>5.571428571428571</v>
       </c>
     </row>
     <row r="887" spans="1:3">
@@ -10128,7 +10128,7 @@
         <v>6</v>
       </c>
       <c r="C887">
-        <v>5.857142857142857</v>
+        <v>6</v>
       </c>
     </row>
     <row r="888" spans="1:3">
@@ -10139,7 +10139,7 @@
         <v>3</v>
       </c>
       <c r="C888">
-        <v>6</v>
+        <v>6.142857142857143</v>
       </c>
     </row>
     <row r="889" spans="1:3">
@@ -10147,10 +10147,10 @@
         <v>44887</v>
       </c>
       <c r="B889">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C889">
-        <v>7.428571428571429</v>
+        <v>7.714285714285714</v>
       </c>
     </row>
     <row r="890" spans="1:3">
@@ -10161,7 +10161,7 @@
         <v>14</v>
       </c>
       <c r="C890">
-        <v>9</v>
+        <v>9.285714285714286</v>
       </c>
     </row>
     <row r="891" spans="1:3">
@@ -10169,10 +10169,10 @@
         <v>44889</v>
       </c>
       <c r="B891">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C891">
-        <v>11.14285714285714</v>
+        <v>11.57142857142857</v>
       </c>
     </row>
     <row r="892" spans="1:3">
@@ -10183,7 +10183,7 @@
         <v>10</v>
       </c>
       <c r="C892">
-        <v>11.14285714285714</v>
+        <v>11.57142857142857</v>
       </c>
     </row>
     <row r="893" spans="1:3">
@@ -10194,7 +10194,7 @@
         <v>1</v>
       </c>
       <c r="C893">
-        <v>9.714285714285714</v>
+        <v>10</v>
       </c>
     </row>
     <row r="894" spans="1:3">
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="C894">
-        <v>9</v>
+        <v>9.285714285714286</v>
       </c>
     </row>
     <row r="895" spans="1:3">
@@ -10216,7 +10216,7 @@
         <v>24</v>
       </c>
       <c r="C895">
-        <v>12</v>
+        <v>12.28571428571429</v>
       </c>
     </row>
     <row r="896" spans="1:3">
@@ -10224,10 +10224,10 @@
         <v>44894</v>
       </c>
       <c r="B896">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C896">
-        <v>13.57142857142857</v>
+        <v>13.85714285714286</v>
       </c>
     </row>
     <row r="897" spans="1:3">
@@ -10238,7 +10238,7 @@
         <v>22</v>
       </c>
       <c r="C897">
-        <v>14.71428571428571</v>
+        <v>15</v>
       </c>
     </row>
     <row r="898" spans="1:3">
@@ -10249,7 +10249,7 @@
         <v>25</v>
       </c>
       <c r="C898">
-        <v>15.28571428571429</v>
+        <v>15.42857142857143</v>
       </c>
     </row>
     <row r="899" spans="1:3">
@@ -10257,10 +10257,10 @@
         <v>44897</v>
       </c>
       <c r="B899">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C899">
-        <v>18.57142857142857</v>
+        <v>18.85714285714286</v>
       </c>
     </row>
     <row r="900" spans="1:3">
@@ -10268,10 +10268,10 @@
         <v>44898</v>
       </c>
       <c r="B900">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C900">
-        <v>19.28571428571428</v>
+        <v>19.85714285714286</v>
       </c>
     </row>
     <row r="901" spans="1:3">
@@ -10279,10 +10279,10 @@
         <v>44899</v>
       </c>
       <c r="B901">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C901">
-        <v>19.28571428571428</v>
+        <v>20.85714285714286</v>
       </c>
     </row>
     <row r="902" spans="1:3">
@@ -10290,10 +10290,76 @@
         <v>44900</v>
       </c>
       <c r="B902">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C902">
-        <v>17.71428571428572</v>
+        <v>20.14285714285714</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3">
+      <c r="A903" s="2">
+        <v>44901</v>
+      </c>
+      <c r="B903">
+        <v>26</v>
+      </c>
+      <c r="C903">
+        <v>20.28571428571428</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3">
+      <c r="A904" s="2">
+        <v>44902</v>
+      </c>
+      <c r="B904">
+        <v>19</v>
+      </c>
+      <c r="C904">
+        <v>19.85714285714286</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3">
+      <c r="A905" s="2">
+        <v>44903</v>
+      </c>
+      <c r="B905">
+        <v>7</v>
+      </c>
+      <c r="C905">
+        <v>17.28571428571428</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3">
+      <c r="A906" s="2">
+        <v>44904</v>
+      </c>
+      <c r="B906">
+        <v>2</v>
+      </c>
+      <c r="C906">
+        <v>12.71428571428571</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3">
+      <c r="A907" s="2">
+        <v>44905</v>
+      </c>
+      <c r="B907">
+        <v>2</v>
+      </c>
+      <c r="C907">
+        <v>11.85714285714286</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3">
+      <c r="A908" s="2">
+        <v>44906</v>
+      </c>
+      <c r="B908">
+        <v>2</v>
+      </c>
+      <c r="C908">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C908"/>
+  <dimension ref="A1:C909"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10312,10 +10312,10 @@
         <v>44902</v>
       </c>
       <c r="B904">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C904">
-        <v>19.85714285714286</v>
+        <v>20.14285714285714</v>
       </c>
     </row>
     <row r="905" spans="1:3">
@@ -10323,10 +10323,10 @@
         <v>44903</v>
       </c>
       <c r="B905">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C905">
-        <v>17.28571428571428</v>
+        <v>18.71428571428572</v>
       </c>
     </row>
     <row r="906" spans="1:3">
@@ -10334,10 +10334,10 @@
         <v>44904</v>
       </c>
       <c r="B906">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C906">
-        <v>12.71428571428571</v>
+        <v>15.14285714285714</v>
       </c>
     </row>
     <row r="907" spans="1:3">
@@ -10345,10 +10345,10 @@
         <v>44905</v>
       </c>
       <c r="B907">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C907">
-        <v>11.85714285714286</v>
+        <v>16.71428571428572</v>
       </c>
     </row>
     <row r="908" spans="1:3">
@@ -10356,10 +10356,21 @@
         <v>44906</v>
       </c>
       <c r="B908">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C908">
-        <v>11</v>
+        <v>16.28571428571428</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3">
+      <c r="A909" s="2">
+        <v>44907</v>
+      </c>
+      <c r="B909">
+        <v>22</v>
+      </c>
+      <c r="C909">
+        <v>16.71428571428572</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C909"/>
+  <dimension ref="A1:C911"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10246,10 +10246,10 @@
         <v>44896</v>
       </c>
       <c r="B898">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C898">
-        <v>15.42857142857143</v>
+        <v>15.57142857142857</v>
       </c>
     </row>
     <row r="899" spans="1:3">
@@ -10257,10 +10257,10 @@
         <v>44897</v>
       </c>
       <c r="B899">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C899">
-        <v>18.85714285714286</v>
+        <v>19.14285714285714</v>
       </c>
     </row>
     <row r="900" spans="1:3">
@@ -10268,10 +10268,10 @@
         <v>44898</v>
       </c>
       <c r="B900">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C900">
-        <v>19.85714285714286</v>
+        <v>22.28571428571428</v>
       </c>
     </row>
     <row r="901" spans="1:3">
@@ -10282,7 +10282,7 @@
         <v>8</v>
       </c>
       <c r="C901">
-        <v>20.85714285714286</v>
+        <v>23.28571428571428</v>
       </c>
     </row>
     <row r="902" spans="1:3">
@@ -10290,10 +10290,10 @@
         <v>44900</v>
       </c>
       <c r="B902">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C902">
-        <v>20.14285714285714</v>
+        <v>25.14285714285714</v>
       </c>
     </row>
     <row r="903" spans="1:3">
@@ -10301,10 +10301,10 @@
         <v>44901</v>
       </c>
       <c r="B903">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C903">
-        <v>20.28571428571428</v>
+        <v>27.28571428571428</v>
       </c>
     </row>
     <row r="904" spans="1:3">
@@ -10312,10 +10312,10 @@
         <v>44902</v>
       </c>
       <c r="B904">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C904">
-        <v>20.14285714285714</v>
+        <v>28.71428571428572</v>
       </c>
     </row>
     <row r="905" spans="1:3">
@@ -10323,10 +10323,10 @@
         <v>44903</v>
       </c>
       <c r="B905">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C905">
-        <v>18.71428571428572</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="906" spans="1:3">
@@ -10334,10 +10334,10 @@
         <v>44904</v>
       </c>
       <c r="B906">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C906">
-        <v>15.14285714285714</v>
+        <v>26.85714285714286</v>
       </c>
     </row>
     <row r="907" spans="1:3">
@@ -10345,10 +10345,10 @@
         <v>44905</v>
       </c>
       <c r="B907">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C907">
-        <v>16.71428571428572</v>
+        <v>28.28571428571428</v>
       </c>
     </row>
     <row r="908" spans="1:3">
@@ -10356,10 +10356,10 @@
         <v>44906</v>
       </c>
       <c r="B908">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C908">
-        <v>16.28571428571428</v>
+        <v>28</v>
       </c>
     </row>
     <row r="909" spans="1:3">
@@ -10367,10 +10367,32 @@
         <v>44907</v>
       </c>
       <c r="B909">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C909">
-        <v>16.71428571428572</v>
+        <v>28.42857142857143</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3">
+      <c r="A910" s="2">
+        <v>44908</v>
+      </c>
+      <c r="B910">
+        <v>38</v>
+      </c>
+      <c r="C910">
+        <v>28.14285714285714</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3">
+      <c r="A911" s="2">
+        <v>44909</v>
+      </c>
+      <c r="B911">
+        <v>24</v>
+      </c>
+      <c r="C911">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C911"/>
+  <dimension ref="A1:C917"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10147,10 +10147,10 @@
         <v>44887</v>
       </c>
       <c r="B889">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C889">
-        <v>7.714285714285714</v>
+        <v>7.857142857142857</v>
       </c>
     </row>
     <row r="890" spans="1:3">
@@ -10161,7 +10161,7 @@
         <v>14</v>
       </c>
       <c r="C890">
-        <v>9.285714285714286</v>
+        <v>9.428571428571429</v>
       </c>
     </row>
     <row r="891" spans="1:3">
@@ -10172,7 +10172,7 @@
         <v>22</v>
       </c>
       <c r="C891">
-        <v>11.57142857142857</v>
+        <v>11.71428571428571</v>
       </c>
     </row>
     <row r="892" spans="1:3">
@@ -10183,7 +10183,7 @@
         <v>10</v>
       </c>
       <c r="C892">
-        <v>11.57142857142857</v>
+        <v>11.71428571428571</v>
       </c>
     </row>
     <row r="893" spans="1:3">
@@ -10194,7 +10194,7 @@
         <v>1</v>
       </c>
       <c r="C893">
-        <v>10</v>
+        <v>10.14285714285714</v>
       </c>
     </row>
     <row r="894" spans="1:3">
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="C894">
-        <v>9.285714285714286</v>
+        <v>9.428571428571429</v>
       </c>
     </row>
     <row r="895" spans="1:3">
@@ -10216,7 +10216,7 @@
         <v>24</v>
       </c>
       <c r="C895">
-        <v>12.28571428571429</v>
+        <v>12.42857142857143</v>
       </c>
     </row>
     <row r="896" spans="1:3">
@@ -10301,10 +10301,10 @@
         <v>44901</v>
       </c>
       <c r="B903">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C903">
-        <v>27.28571428571428</v>
+        <v>27.42857142857143</v>
       </c>
     </row>
     <row r="904" spans="1:3">
@@ -10312,10 +10312,10 @@
         <v>44902</v>
       </c>
       <c r="B904">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C904">
-        <v>28.71428571428572</v>
+        <v>29.28571428571428</v>
       </c>
     </row>
     <row r="905" spans="1:3">
@@ -10326,7 +10326,7 @@
         <v>25</v>
       </c>
       <c r="C905">
-        <v>28.57142857142857</v>
+        <v>29.14285714285714</v>
       </c>
     </row>
     <row r="906" spans="1:3">
@@ -10334,10 +10334,10 @@
         <v>44904</v>
       </c>
       <c r="B906">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C906">
-        <v>26.85714285714286</v>
+        <v>27.57142857142857</v>
       </c>
     </row>
     <row r="907" spans="1:3">
@@ -10348,7 +10348,7 @@
         <v>33</v>
       </c>
       <c r="C907">
-        <v>28.28571428571428</v>
+        <v>29</v>
       </c>
     </row>
     <row r="908" spans="1:3">
@@ -10356,10 +10356,10 @@
         <v>44906</v>
       </c>
       <c r="B908">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C908">
-        <v>28</v>
+        <v>28.85714285714286</v>
       </c>
     </row>
     <row r="909" spans="1:3">
@@ -10370,7 +10370,7 @@
         <v>40</v>
       </c>
       <c r="C909">
-        <v>28.42857142857143</v>
+        <v>29.28571428571428</v>
       </c>
     </row>
     <row r="910" spans="1:3">
@@ -10378,10 +10378,10 @@
         <v>44908</v>
       </c>
       <c r="B910">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C910">
-        <v>28.14285714285714</v>
+        <v>29.28571428571428</v>
       </c>
     </row>
     <row r="911" spans="1:3">
@@ -10389,10 +10389,76 @@
         <v>44909</v>
       </c>
       <c r="B911">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C911">
-        <v>27</v>
+        <v>29.57142857142857</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3">
+      <c r="A912" s="2">
+        <v>44910</v>
+      </c>
+      <c r="B912">
+        <v>20</v>
+      </c>
+      <c r="C912">
+        <v>28.85714285714286</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3">
+      <c r="A913" s="2">
+        <v>44911</v>
+      </c>
+      <c r="B913">
+        <v>20</v>
+      </c>
+      <c r="C913">
+        <v>28.28571428571428</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3">
+      <c r="A914" s="2">
+        <v>44912</v>
+      </c>
+      <c r="B914">
+        <v>22</v>
+      </c>
+      <c r="C914">
+        <v>26.71428571428572</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3">
+      <c r="A915" s="2">
+        <v>44913</v>
+      </c>
+      <c r="B915">
+        <v>7</v>
+      </c>
+      <c r="C915">
+        <v>26.71428571428572</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3">
+      <c r="A916" s="2">
+        <v>44914</v>
+      </c>
+      <c r="B916">
+        <v>37</v>
+      </c>
+      <c r="C916">
+        <v>26.28571428571428</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3">
+      <c r="A917" s="2">
+        <v>44915</v>
+      </c>
+      <c r="B917">
+        <v>29</v>
+      </c>
+      <c r="C917">
+        <v>24.57142857142857</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C917"/>
+  <dimension ref="A1:C918"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10378,10 +10378,10 @@
         <v>44908</v>
       </c>
       <c r="B910">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C910">
-        <v>29.28571428571428</v>
+        <v>29.42857142857143</v>
       </c>
     </row>
     <row r="911" spans="1:3">
@@ -10392,7 +10392,7 @@
         <v>37</v>
       </c>
       <c r="C911">
-        <v>29.57142857142857</v>
+        <v>29.71428571428572</v>
       </c>
     </row>
     <row r="912" spans="1:3">
@@ -10400,10 +10400,10 @@
         <v>44910</v>
       </c>
       <c r="B912">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C912">
-        <v>28.85714285714286</v>
+        <v>29.14285714285714</v>
       </c>
     </row>
     <row r="913" spans="1:3">
@@ -10414,7 +10414,7 @@
         <v>20</v>
       </c>
       <c r="C913">
-        <v>28.28571428571428</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="914" spans="1:3">
@@ -10425,7 +10425,7 @@
         <v>22</v>
       </c>
       <c r="C914">
-        <v>26.71428571428572</v>
+        <v>27</v>
       </c>
     </row>
     <row r="915" spans="1:3">
@@ -10436,7 +10436,7 @@
         <v>7</v>
       </c>
       <c r="C915">
-        <v>26.71428571428572</v>
+        <v>27</v>
       </c>
     </row>
     <row r="916" spans="1:3">
@@ -10447,7 +10447,7 @@
         <v>37</v>
       </c>
       <c r="C916">
-        <v>26.28571428571428</v>
+        <v>26.57142857142857</v>
       </c>
     </row>
     <row r="917" spans="1:3">
@@ -10455,10 +10455,21 @@
         <v>44915</v>
       </c>
       <c r="B917">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C917">
-        <v>24.57142857142857</v>
+        <v>25.71428571428572</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3">
+      <c r="A918" s="2">
+        <v>44916</v>
+      </c>
+      <c r="B918">
+        <v>23</v>
+      </c>
+      <c r="C918">
+        <v>23.71428571428572</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C918"/>
+  <dimension ref="A1:C923"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10037,10 +10037,10 @@
         <v>44874</v>
       </c>
       <c r="B879">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C879">
-        <v>1.571428571428571</v>
+        <v>1.714285714285714</v>
       </c>
     </row>
     <row r="880" spans="1:3">
@@ -10051,7 +10051,7 @@
         <v>3</v>
       </c>
       <c r="C880">
-        <v>1.857142857142857</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:3">
@@ -10062,7 +10062,7 @@
         <v>2</v>
       </c>
       <c r="C881">
-        <v>2</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="882" spans="1:3">
@@ -10073,7 +10073,7 @@
         <v>3</v>
       </c>
       <c r="C882">
-        <v>2.285714285714286</v>
+        <v>2.428571428571428</v>
       </c>
     </row>
     <row r="883" spans="1:3">
@@ -10084,7 +10084,7 @@
         <v>3</v>
       </c>
       <c r="C883">
-        <v>2.571428571428572</v>
+        <v>2.714285714285714</v>
       </c>
     </row>
     <row r="884" spans="1:3">
@@ -10095,7 +10095,7 @@
         <v>6</v>
       </c>
       <c r="C884">
-        <v>3.142857142857143</v>
+        <v>3.285714285714286</v>
       </c>
     </row>
     <row r="885" spans="1:3">
@@ -10106,7 +10106,7 @@
         <v>10</v>
       </c>
       <c r="C885">
-        <v>4.285714285714286</v>
+        <v>4.428571428571429</v>
       </c>
     </row>
     <row r="886" spans="1:3">
@@ -10389,10 +10389,10 @@
         <v>44909</v>
       </c>
       <c r="B911">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C911">
-        <v>29.71428571428572</v>
+        <v>29.85714285714286</v>
       </c>
     </row>
     <row r="912" spans="1:3">
@@ -10403,7 +10403,7 @@
         <v>21</v>
       </c>
       <c r="C912">
-        <v>29.14285714285714</v>
+        <v>29.28571428571428</v>
       </c>
     </row>
     <row r="913" spans="1:3">
@@ -10414,7 +10414,7 @@
         <v>20</v>
       </c>
       <c r="C913">
-        <v>28.57142857142857</v>
+        <v>28.71428571428572</v>
       </c>
     </row>
     <row r="914" spans="1:3">
@@ -10425,7 +10425,7 @@
         <v>22</v>
       </c>
       <c r="C914">
-        <v>27</v>
+        <v>27.14285714285714</v>
       </c>
     </row>
     <row r="915" spans="1:3">
@@ -10436,7 +10436,7 @@
         <v>7</v>
       </c>
       <c r="C915">
-        <v>27</v>
+        <v>27.14285714285714</v>
       </c>
     </row>
     <row r="916" spans="1:3">
@@ -10447,7 +10447,7 @@
         <v>37</v>
       </c>
       <c r="C916">
-        <v>26.57142857142857</v>
+        <v>26.71428571428572</v>
       </c>
     </row>
     <row r="917" spans="1:3">
@@ -10458,7 +10458,7 @@
         <v>36</v>
       </c>
       <c r="C917">
-        <v>25.71428571428572</v>
+        <v>25.85714285714286</v>
       </c>
     </row>
     <row r="918" spans="1:3">
@@ -10466,10 +10466,65 @@
         <v>44916</v>
       </c>
       <c r="B918">
+        <v>29</v>
+      </c>
+      <c r="C918">
+        <v>24.57142857142857</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3">
+      <c r="A919" s="2">
+        <v>44917</v>
+      </c>
+      <c r="B919">
+        <v>105</v>
+      </c>
+      <c r="C919">
+        <v>36.57142857142857</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3">
+      <c r="A920" s="2">
+        <v>44918</v>
+      </c>
+      <c r="B920">
         <v>23</v>
       </c>
-      <c r="C918">
-        <v>23.71428571428572</v>
+      <c r="C920">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3">
+      <c r="A921" s="2">
+        <v>44919</v>
+      </c>
+      <c r="B921">
+        <v>14</v>
+      </c>
+      <c r="C921">
+        <v>35.85714285714285</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3">
+      <c r="A922" s="2">
+        <v>44921</v>
+      </c>
+      <c r="B922">
+        <v>14</v>
+      </c>
+      <c r="C922">
+        <v>36.85714285714285</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3">
+      <c r="A923" s="2">
+        <v>44922</v>
+      </c>
+      <c r="B923">
+        <v>22</v>
+      </c>
+      <c r="C923">
+        <v>34.71428571428572</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C923"/>
+  <dimension ref="A1:C927"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10444,10 +10444,10 @@
         <v>44914</v>
       </c>
       <c r="B916">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C916">
-        <v>26.71428571428572</v>
+        <v>26.85714285714286</v>
       </c>
     </row>
     <row r="917" spans="1:3">
@@ -10458,7 +10458,7 @@
         <v>36</v>
       </c>
       <c r="C917">
-        <v>25.85714285714286</v>
+        <v>26</v>
       </c>
     </row>
     <row r="918" spans="1:3">
@@ -10469,7 +10469,7 @@
         <v>29</v>
       </c>
       <c r="C918">
-        <v>24.57142857142857</v>
+        <v>24.71428571428572</v>
       </c>
     </row>
     <row r="919" spans="1:3">
@@ -10477,10 +10477,10 @@
         <v>44917</v>
       </c>
       <c r="B919">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C919">
-        <v>36.57142857142857</v>
+        <v>39.57142857142857</v>
       </c>
     </row>
     <row r="920" spans="1:3">
@@ -10491,7 +10491,7 @@
         <v>23</v>
       </c>
       <c r="C920">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="921" spans="1:3">
@@ -10502,7 +10502,7 @@
         <v>14</v>
       </c>
       <c r="C921">
-        <v>35.85714285714285</v>
+        <v>38.85714285714285</v>
       </c>
     </row>
     <row r="922" spans="1:3">
@@ -10510,10 +10510,10 @@
         <v>44921</v>
       </c>
       <c r="B922">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C922">
-        <v>36.85714285714285</v>
+        <v>40</v>
       </c>
     </row>
     <row r="923" spans="1:3">
@@ -10521,10 +10521,54 @@
         <v>44922</v>
       </c>
       <c r="B923">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C923">
-        <v>34.71428571428572</v>
+        <v>38.57142857142857</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3">
+      <c r="A924" s="2">
+        <v>44923</v>
+      </c>
+      <c r="B924">
+        <v>17</v>
+      </c>
+      <c r="C924">
+        <v>35.85714285714285</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3">
+      <c r="A925" s="2">
+        <v>44924</v>
+      </c>
+      <c r="B925">
+        <v>23</v>
+      </c>
+      <c r="C925">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3">
+      <c r="A926" s="2">
+        <v>44925</v>
+      </c>
+      <c r="B926">
+        <v>6</v>
+      </c>
+      <c r="C926">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3">
+      <c r="A927" s="2">
+        <v>44926</v>
+      </c>
+      <c r="B927">
+        <v>2</v>
+      </c>
+      <c r="C927">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C927"/>
+  <dimension ref="A1:C928"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10455,10 +10455,10 @@
         <v>44915</v>
       </c>
       <c r="B917">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C917">
-        <v>26</v>
+        <v>26.14285714285714</v>
       </c>
     </row>
     <row r="918" spans="1:3">
@@ -10469,7 +10469,7 @@
         <v>29</v>
       </c>
       <c r="C918">
-        <v>24.71428571428572</v>
+        <v>24.85714285714286</v>
       </c>
     </row>
     <row r="919" spans="1:3">
@@ -10477,10 +10477,10 @@
         <v>44917</v>
       </c>
       <c r="B919">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C919">
-        <v>39.57142857142857</v>
+        <v>39.85714285714285</v>
       </c>
     </row>
     <row r="920" spans="1:3">
@@ -10491,7 +10491,7 @@
         <v>23</v>
       </c>
       <c r="C920">
-        <v>40</v>
+        <v>40.28571428571428</v>
       </c>
     </row>
     <row r="921" spans="1:3">
@@ -10502,7 +10502,7 @@
         <v>14</v>
       </c>
       <c r="C921">
-        <v>38.85714285714285</v>
+        <v>39.14285714285715</v>
       </c>
     </row>
     <row r="922" spans="1:3">
@@ -10513,7 +10513,7 @@
         <v>15</v>
       </c>
       <c r="C922">
-        <v>40</v>
+        <v>40.28571428571428</v>
       </c>
     </row>
     <row r="923" spans="1:3">
@@ -10524,7 +10524,7 @@
         <v>28</v>
       </c>
       <c r="C923">
-        <v>38.57142857142857</v>
+        <v>38.85714285714285</v>
       </c>
     </row>
     <row r="924" spans="1:3">
@@ -10532,10 +10532,10 @@
         <v>44923</v>
       </c>
       <c r="B924">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C924">
-        <v>35.85714285714285</v>
+        <v>36.14285714285715</v>
       </c>
     </row>
     <row r="925" spans="1:3">
@@ -10546,7 +10546,7 @@
         <v>23</v>
       </c>
       <c r="C925">
-        <v>35</v>
+        <v>35.28571428571428</v>
       </c>
     </row>
     <row r="926" spans="1:3">
@@ -10554,10 +10554,10 @@
         <v>44925</v>
       </c>
       <c r="B926">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C926">
-        <v>18</v>
+        <v>19.14285714285714</v>
       </c>
     </row>
     <row r="927" spans="1:3">
@@ -10565,10 +10565,21 @@
         <v>44926</v>
       </c>
       <c r="B927">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C927">
-        <v>15</v>
+        <v>16.28571428571428</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3">
+      <c r="A928" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B928">
+        <v>1</v>
+      </c>
+      <c r="C928">
+        <v>14.42857142857143</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C928"/>
+  <dimension ref="A1:C946"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10477,10 +10477,10 @@
         <v>44917</v>
       </c>
       <c r="B919">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C919">
-        <v>39.85714285714285</v>
+        <v>40.28571428571428</v>
       </c>
     </row>
     <row r="920" spans="1:3">
@@ -10491,7 +10491,7 @@
         <v>23</v>
       </c>
       <c r="C920">
-        <v>40.28571428571428</v>
+        <v>40.71428571428572</v>
       </c>
     </row>
     <row r="921" spans="1:3">
@@ -10502,7 +10502,7 @@
         <v>14</v>
       </c>
       <c r="C921">
-        <v>39.14285714285715</v>
+        <v>39.57142857142857</v>
       </c>
     </row>
     <row r="922" spans="1:3">
@@ -10513,7 +10513,7 @@
         <v>15</v>
       </c>
       <c r="C922">
-        <v>40.28571428571428</v>
+        <v>40.71428571428572</v>
       </c>
     </row>
     <row r="923" spans="1:3">
@@ -10524,7 +10524,7 @@
         <v>28</v>
       </c>
       <c r="C923">
-        <v>38.85714285714285</v>
+        <v>39.28571428571428</v>
       </c>
     </row>
     <row r="924" spans="1:3">
@@ -10535,7 +10535,7 @@
         <v>18</v>
       </c>
       <c r="C924">
-        <v>36.14285714285715</v>
+        <v>36.57142857142857</v>
       </c>
     </row>
     <row r="925" spans="1:3">
@@ -10546,7 +10546,7 @@
         <v>23</v>
       </c>
       <c r="C925">
-        <v>35.28571428571428</v>
+        <v>35.71428571428572</v>
       </c>
     </row>
     <row r="926" spans="1:3">
@@ -10554,10 +10554,10 @@
         <v>44925</v>
       </c>
       <c r="B926">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C926">
-        <v>19.14285714285714</v>
+        <v>19.28571428571428</v>
       </c>
     </row>
     <row r="927" spans="1:3">
@@ -10568,18 +10568,216 @@
         <v>3</v>
       </c>
       <c r="C927">
-        <v>16.28571428571428</v>
+        <v>16.42857142857143</v>
       </c>
     </row>
     <row r="928" spans="1:3">
       <c r="A928" s="2">
+        <v>44928</v>
+      </c>
+      <c r="B928">
+        <v>5</v>
+      </c>
+      <c r="C928">
+        <v>15.14285714285714</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3">
+      <c r="A929" s="2">
         <v>44929</v>
       </c>
-      <c r="B928">
+      <c r="B929">
+        <v>5</v>
+      </c>
+      <c r="C929">
+        <v>13.71428571428571</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3">
+      <c r="A930" s="2">
+        <v>44930</v>
+      </c>
+      <c r="B930">
+        <v>7</v>
+      </c>
+      <c r="C930">
+        <v>10.71428571428571</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3">
+      <c r="A931" s="2">
+        <v>44931</v>
+      </c>
+      <c r="B931">
+        <v>16</v>
+      </c>
+      <c r="C931">
+        <v>10.42857142857143</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3">
+      <c r="A932" s="2">
+        <v>44932</v>
+      </c>
+      <c r="B932">
+        <v>8</v>
+      </c>
+      <c r="C932">
+        <v>8.285714285714286</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3">
+      <c r="A933" s="2">
+        <v>44933</v>
+      </c>
+      <c r="B933">
         <v>1</v>
       </c>
-      <c r="C928">
-        <v>14.42857142857143</v>
+      <c r="C933">
+        <v>6.428571428571429</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3">
+      <c r="A934" s="2">
+        <v>44935</v>
+      </c>
+      <c r="B934">
+        <v>4</v>
+      </c>
+      <c r="C934">
+        <v>6.571428571428571</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3">
+      <c r="A935" s="2">
+        <v>44936</v>
+      </c>
+      <c r="B935">
+        <v>4</v>
+      </c>
+      <c r="C935">
+        <v>6.428571428571429</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3">
+      <c r="A936" s="2">
+        <v>44937</v>
+      </c>
+      <c r="B936">
+        <v>3</v>
+      </c>
+      <c r="C936">
+        <v>6.142857142857143</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3">
+      <c r="A937" s="2">
+        <v>44938</v>
+      </c>
+      <c r="B937">
+        <v>7</v>
+      </c>
+      <c r="C937">
+        <v>6.142857142857143</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3">
+      <c r="A938" s="2">
+        <v>44939</v>
+      </c>
+      <c r="B938">
+        <v>3</v>
+      </c>
+      <c r="C938">
+        <v>4.285714285714286</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3">
+      <c r="A939" s="2">
+        <v>44940</v>
+      </c>
+      <c r="B939">
+        <v>1</v>
+      </c>
+      <c r="C939">
+        <v>3.285714285714286</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3">
+      <c r="A940" s="2">
+        <v>44942</v>
+      </c>
+      <c r="B940">
+        <v>2</v>
+      </c>
+      <c r="C940">
+        <v>3.428571428571428</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3">
+      <c r="A941" s="2">
+        <v>44943</v>
+      </c>
+      <c r="B941">
+        <v>2</v>
+      </c>
+      <c r="C941">
+        <v>3.142857142857143</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3">
+      <c r="A942" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B942">
+        <v>7</v>
+      </c>
+      <c r="C942">
+        <v>3.571428571428572</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3">
+      <c r="A943" s="2">
+        <v>44945</v>
+      </c>
+      <c r="B943">
+        <v>2</v>
+      </c>
+      <c r="C943">
+        <v>3.428571428571428</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3">
+      <c r="A944" s="2">
+        <v>44946</v>
+      </c>
+      <c r="B944">
+        <v>2</v>
+      </c>
+      <c r="C944">
+        <v>2.714285714285714</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3">
+      <c r="A945" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B945">
+        <v>1</v>
+      </c>
+      <c r="C945">
+        <v>2.428571428571428</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3">
+      <c r="A946" s="2">
+        <v>44950</v>
+      </c>
+      <c r="B946">
+        <v>1</v>
+      </c>
+      <c r="C946">
+        <v>2.428571428571428</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C946"/>
+  <dimension ref="A1:C911"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7298,10 +7298,10 @@
         <v>44561</v>
       </c>
       <c r="B630">
-        <v>47</v>
+        <v>804</v>
       </c>
       <c r="C630">
-        <v>42</v>
+        <v>150.1428571428571</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7312,7 +7312,7 @@
         <v>13</v>
       </c>
       <c r="C631">
-        <v>43</v>
+        <v>151.1428571428571</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7323,7 +7323,7 @@
         <v>14</v>
       </c>
       <c r="C632">
-        <v>44.57142857142857</v>
+        <v>152.7142857142857</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7334,7 +7334,7 @@
         <v>68</v>
       </c>
       <c r="C633">
-        <v>50.14285714285715</v>
+        <v>158.2857142857143</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7345,7 +7345,7 @@
         <v>58</v>
       </c>
       <c r="C634">
-        <v>51.71428571428572</v>
+        <v>159.8571428571429</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7356,7 +7356,7 @@
         <v>75</v>
       </c>
       <c r="C635">
-        <v>51.28571428571428</v>
+        <v>159.4285714285714</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7367,7 +7367,7 @@
         <v>121</v>
       </c>
       <c r="C636">
-        <v>56.57142857142857</v>
+        <v>164.7142857142857</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -10037,10 +10037,10 @@
         <v>44874</v>
       </c>
       <c r="B879">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C879">
-        <v>1.714285714285714</v>
+        <v>1.571428571428571</v>
       </c>
     </row>
     <row r="880" spans="1:3">
@@ -10051,7 +10051,7 @@
         <v>3</v>
       </c>
       <c r="C880">
-        <v>2</v>
+        <v>1.857142857142857</v>
       </c>
     </row>
     <row r="881" spans="1:3">
@@ -10062,7 +10062,7 @@
         <v>2</v>
       </c>
       <c r="C881">
-        <v>2.142857142857143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:3">
@@ -10073,7 +10073,7 @@
         <v>3</v>
       </c>
       <c r="C882">
-        <v>2.428571428571428</v>
+        <v>2.285714285714286</v>
       </c>
     </row>
     <row r="883" spans="1:3">
@@ -10084,7 +10084,7 @@
         <v>3</v>
       </c>
       <c r="C883">
-        <v>2.714285714285714</v>
+        <v>2.571428571428572</v>
       </c>
     </row>
     <row r="884" spans="1:3">
@@ -10095,7 +10095,7 @@
         <v>6</v>
       </c>
       <c r="C884">
-        <v>3.285714285714286</v>
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="885" spans="1:3">
@@ -10106,7 +10106,7 @@
         <v>10</v>
       </c>
       <c r="C885">
-        <v>4.428571428571429</v>
+        <v>4.285714285714286</v>
       </c>
     </row>
     <row r="886" spans="1:3">
@@ -10114,10 +10114,10 @@
         <v>44883</v>
       </c>
       <c r="B886">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C886">
-        <v>5.571428571428571</v>
+        <v>5.428571428571429</v>
       </c>
     </row>
     <row r="887" spans="1:3">
@@ -10128,7 +10128,7 @@
         <v>6</v>
       </c>
       <c r="C887">
-        <v>6</v>
+        <v>5.857142857142857</v>
       </c>
     </row>
     <row r="888" spans="1:3">
@@ -10139,7 +10139,7 @@
         <v>3</v>
       </c>
       <c r="C888">
-        <v>6.142857142857143</v>
+        <v>6</v>
       </c>
     </row>
     <row r="889" spans="1:3">
@@ -10147,10 +10147,10 @@
         <v>44887</v>
       </c>
       <c r="B889">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C889">
-        <v>7.857142857142857</v>
+        <v>7.428571428571429</v>
       </c>
     </row>
     <row r="890" spans="1:3">
@@ -10161,7 +10161,7 @@
         <v>14</v>
       </c>
       <c r="C890">
-        <v>9.428571428571429</v>
+        <v>9</v>
       </c>
     </row>
     <row r="891" spans="1:3">
@@ -10169,10 +10169,10 @@
         <v>44889</v>
       </c>
       <c r="B891">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C891">
-        <v>11.71428571428571</v>
+        <v>11.14285714285714</v>
       </c>
     </row>
     <row r="892" spans="1:3">
@@ -10183,7 +10183,7 @@
         <v>10</v>
       </c>
       <c r="C892">
-        <v>11.71428571428571</v>
+        <v>11.14285714285714</v>
       </c>
     </row>
     <row r="893" spans="1:3">
@@ -10194,7 +10194,7 @@
         <v>1</v>
       </c>
       <c r="C893">
-        <v>10.14285714285714</v>
+        <v>9.714285714285714</v>
       </c>
     </row>
     <row r="894" spans="1:3">
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="C894">
-        <v>9.428571428571429</v>
+        <v>9</v>
       </c>
     </row>
     <row r="895" spans="1:3">
@@ -10216,7 +10216,7 @@
         <v>24</v>
       </c>
       <c r="C895">
-        <v>12.42857142857143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="896" spans="1:3">
@@ -10224,10 +10224,10 @@
         <v>44894</v>
       </c>
       <c r="B896">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C896">
-        <v>13.85714285714286</v>
+        <v>13.57142857142857</v>
       </c>
     </row>
     <row r="897" spans="1:3">
@@ -10238,7 +10238,7 @@
         <v>22</v>
       </c>
       <c r="C897">
-        <v>15</v>
+        <v>14.71428571428571</v>
       </c>
     </row>
     <row r="898" spans="1:3">
@@ -10246,10 +10246,10 @@
         <v>44896</v>
       </c>
       <c r="B898">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C898">
-        <v>15.57142857142857</v>
+        <v>15.14285714285714</v>
       </c>
     </row>
     <row r="899" spans="1:3">
@@ -10257,10 +10257,10 @@
         <v>44897</v>
       </c>
       <c r="B899">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C899">
-        <v>19.14285714285714</v>
+        <v>17.28571428571428</v>
       </c>
     </row>
     <row r="900" spans="1:3">
@@ -10268,516 +10268,131 @@
         <v>44898</v>
       </c>
       <c r="B900">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C900">
-        <v>22.28571428571428</v>
+        <v>17.42857142857143</v>
       </c>
     </row>
     <row r="901" spans="1:3">
       <c r="A901" s="2">
-        <v>44899</v>
+        <v>44901</v>
       </c>
       <c r="B901">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C901">
-        <v>23.28571428571428</v>
+        <v>17.42857142857143</v>
       </c>
     </row>
     <row r="902" spans="1:3">
       <c r="A902" s="2">
-        <v>44900</v>
+        <v>44902</v>
       </c>
       <c r="B902">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C902">
-        <v>25.14285714285714</v>
+        <v>14.57142857142857</v>
       </c>
     </row>
     <row r="903" spans="1:3">
       <c r="A903" s="2">
-        <v>44901</v>
+        <v>44909</v>
       </c>
       <c r="B903">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C903">
-        <v>27.42857142857143</v>
+        <v>11.28571428571429</v>
       </c>
     </row>
     <row r="904" spans="1:3">
       <c r="A904" s="2">
-        <v>44902</v>
+        <v>44910</v>
       </c>
       <c r="B904">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C904">
-        <v>29.28571428571428</v>
+        <v>8.571428571428571</v>
       </c>
     </row>
     <row r="905" spans="1:3">
       <c r="A905" s="2">
-        <v>44903</v>
+        <v>44917</v>
       </c>
       <c r="B905">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C905">
-        <v>29.14285714285714</v>
+        <v>20.57142857142857</v>
       </c>
     </row>
     <row r="906" spans="1:3">
       <c r="A906" s="2">
-        <v>44904</v>
+        <v>44922</v>
       </c>
       <c r="B906">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C906">
-        <v>27.57142857142857</v>
+        <v>18.57142857142857</v>
       </c>
     </row>
     <row r="907" spans="1:3">
       <c r="A907" s="2">
-        <v>44905</v>
+        <v>44924</v>
       </c>
       <c r="B907">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C907">
-        <v>29</v>
+        <v>19.14285714285714</v>
       </c>
     </row>
     <row r="908" spans="1:3">
       <c r="A908" s="2">
-        <v>44906</v>
+        <v>44931</v>
       </c>
       <c r="B908">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C908">
-        <v>28.85714285714286</v>
+        <v>19.71428571428572</v>
       </c>
     </row>
     <row r="909" spans="1:3">
       <c r="A909" s="2">
-        <v>44907</v>
+        <v>44932</v>
       </c>
       <c r="B909">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C909">
-        <v>29.28571428571428</v>
+        <v>19.28571428571428</v>
       </c>
     </row>
     <row r="910" spans="1:3">
       <c r="A910" s="2">
-        <v>44908</v>
+        <v>44938</v>
       </c>
       <c r="B910">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C910">
-        <v>29.42857142857143</v>
+        <v>19.85714285714286</v>
       </c>
     </row>
     <row r="911" spans="1:3">
       <c r="A911" s="2">
-        <v>44909</v>
+        <v>44944</v>
       </c>
       <c r="B911">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C911">
-        <v>29.85714285714286</v>
-      </c>
-    </row>
-    <row r="912" spans="1:3">
-      <c r="A912" s="2">
-        <v>44910</v>
-      </c>
-      <c r="B912">
-        <v>21</v>
-      </c>
-      <c r="C912">
-        <v>29.28571428571428</v>
-      </c>
-    </row>
-    <row r="913" spans="1:3">
-      <c r="A913" s="2">
-        <v>44911</v>
-      </c>
-      <c r="B913">
-        <v>20</v>
-      </c>
-      <c r="C913">
-        <v>28.71428571428572</v>
-      </c>
-    </row>
-    <row r="914" spans="1:3">
-      <c r="A914" s="2">
-        <v>44912</v>
-      </c>
-      <c r="B914">
-        <v>22</v>
-      </c>
-      <c r="C914">
-        <v>27.14285714285714</v>
-      </c>
-    </row>
-    <row r="915" spans="1:3">
-      <c r="A915" s="2">
-        <v>44913</v>
-      </c>
-      <c r="B915">
-        <v>7</v>
-      </c>
-      <c r="C915">
-        <v>27.14285714285714</v>
-      </c>
-    </row>
-    <row r="916" spans="1:3">
-      <c r="A916" s="2">
-        <v>44914</v>
-      </c>
-      <c r="B916">
-        <v>38</v>
-      </c>
-      <c r="C916">
-        <v>26.85714285714286</v>
-      </c>
-    </row>
-    <row r="917" spans="1:3">
-      <c r="A917" s="2">
-        <v>44915</v>
-      </c>
-      <c r="B917">
-        <v>37</v>
-      </c>
-      <c r="C917">
-        <v>26.14285714285714</v>
-      </c>
-    </row>
-    <row r="918" spans="1:3">
-      <c r="A918" s="2">
-        <v>44916</v>
-      </c>
-      <c r="B918">
-        <v>29</v>
-      </c>
-      <c r="C918">
-        <v>24.85714285714286</v>
-      </c>
-    </row>
-    <row r="919" spans="1:3">
-      <c r="A919" s="2">
-        <v>44917</v>
-      </c>
-      <c r="B919">
-        <v>129</v>
-      </c>
-      <c r="C919">
-        <v>40.28571428571428</v>
-      </c>
-    </row>
-    <row r="920" spans="1:3">
-      <c r="A920" s="2">
-        <v>44918</v>
-      </c>
-      <c r="B920">
-        <v>23</v>
-      </c>
-      <c r="C920">
-        <v>40.71428571428572</v>
-      </c>
-    </row>
-    <row r="921" spans="1:3">
-      <c r="A921" s="2">
-        <v>44919</v>
-      </c>
-      <c r="B921">
-        <v>14</v>
-      </c>
-      <c r="C921">
-        <v>39.57142857142857</v>
-      </c>
-    </row>
-    <row r="922" spans="1:3">
-      <c r="A922" s="2">
-        <v>44921</v>
-      </c>
-      <c r="B922">
-        <v>15</v>
-      </c>
-      <c r="C922">
-        <v>40.71428571428572</v>
-      </c>
-    </row>
-    <row r="923" spans="1:3">
-      <c r="A923" s="2">
-        <v>44922</v>
-      </c>
-      <c r="B923">
-        <v>28</v>
-      </c>
-      <c r="C923">
-        <v>39.28571428571428</v>
-      </c>
-    </row>
-    <row r="924" spans="1:3">
-      <c r="A924" s="2">
-        <v>44923</v>
-      </c>
-      <c r="B924">
-        <v>18</v>
-      </c>
-      <c r="C924">
-        <v>36.57142857142857</v>
-      </c>
-    </row>
-    <row r="925" spans="1:3">
-      <c r="A925" s="2">
-        <v>44924</v>
-      </c>
-      <c r="B925">
-        <v>23</v>
-      </c>
-      <c r="C925">
-        <v>35.71428571428572</v>
-      </c>
-    </row>
-    <row r="926" spans="1:3">
-      <c r="A926" s="2">
-        <v>44925</v>
-      </c>
-      <c r="B926">
-        <v>14</v>
-      </c>
-      <c r="C926">
-        <v>19.28571428571428</v>
-      </c>
-    </row>
-    <row r="927" spans="1:3">
-      <c r="A927" s="2">
-        <v>44926</v>
-      </c>
-      <c r="B927">
-        <v>3</v>
-      </c>
-      <c r="C927">
-        <v>16.42857142857143</v>
-      </c>
-    </row>
-    <row r="928" spans="1:3">
-      <c r="A928" s="2">
-        <v>44928</v>
-      </c>
-      <c r="B928">
-        <v>5</v>
-      </c>
-      <c r="C928">
-        <v>15.14285714285714</v>
-      </c>
-    </row>
-    <row r="929" spans="1:3">
-      <c r="A929" s="2">
-        <v>44929</v>
-      </c>
-      <c r="B929">
-        <v>5</v>
-      </c>
-      <c r="C929">
-        <v>13.71428571428571</v>
-      </c>
-    </row>
-    <row r="930" spans="1:3">
-      <c r="A930" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B930">
-        <v>7</v>
-      </c>
-      <c r="C930">
-        <v>10.71428571428571</v>
-      </c>
-    </row>
-    <row r="931" spans="1:3">
-      <c r="A931" s="2">
-        <v>44931</v>
-      </c>
-      <c r="B931">
-        <v>16</v>
-      </c>
-      <c r="C931">
-        <v>10.42857142857143</v>
-      </c>
-    </row>
-    <row r="932" spans="1:3">
-      <c r="A932" s="2">
-        <v>44932</v>
-      </c>
-      <c r="B932">
-        <v>8</v>
-      </c>
-      <c r="C932">
-        <v>8.285714285714286</v>
-      </c>
-    </row>
-    <row r="933" spans="1:3">
-      <c r="A933" s="2">
-        <v>44933</v>
-      </c>
-      <c r="B933">
-        <v>1</v>
-      </c>
-      <c r="C933">
-        <v>6.428571428571429</v>
-      </c>
-    </row>
-    <row r="934" spans="1:3">
-      <c r="A934" s="2">
-        <v>44935</v>
-      </c>
-      <c r="B934">
-        <v>4</v>
-      </c>
-      <c r="C934">
-        <v>6.571428571428571</v>
-      </c>
-    </row>
-    <row r="935" spans="1:3">
-      <c r="A935" s="2">
-        <v>44936</v>
-      </c>
-      <c r="B935">
-        <v>4</v>
-      </c>
-      <c r="C935">
-        <v>6.428571428571429</v>
-      </c>
-    </row>
-    <row r="936" spans="1:3">
-      <c r="A936" s="2">
-        <v>44937</v>
-      </c>
-      <c r="B936">
-        <v>3</v>
-      </c>
-      <c r="C936">
-        <v>6.142857142857143</v>
-      </c>
-    </row>
-    <row r="937" spans="1:3">
-      <c r="A937" s="2">
-        <v>44938</v>
-      </c>
-      <c r="B937">
-        <v>7</v>
-      </c>
-      <c r="C937">
-        <v>6.142857142857143</v>
-      </c>
-    </row>
-    <row r="938" spans="1:3">
-      <c r="A938" s="2">
-        <v>44939</v>
-      </c>
-      <c r="B938">
-        <v>3</v>
-      </c>
-      <c r="C938">
-        <v>4.285714285714286</v>
-      </c>
-    </row>
-    <row r="939" spans="1:3">
-      <c r="A939" s="2">
-        <v>44940</v>
-      </c>
-      <c r="B939">
-        <v>1</v>
-      </c>
-      <c r="C939">
-        <v>3.285714285714286</v>
-      </c>
-    </row>
-    <row r="940" spans="1:3">
-      <c r="A940" s="2">
-        <v>44942</v>
-      </c>
-      <c r="B940">
-        <v>2</v>
-      </c>
-      <c r="C940">
-        <v>3.428571428571428</v>
-      </c>
-    </row>
-    <row r="941" spans="1:3">
-      <c r="A941" s="2">
-        <v>44943</v>
-      </c>
-      <c r="B941">
-        <v>2</v>
-      </c>
-      <c r="C941">
-        <v>3.142857142857143</v>
-      </c>
-    </row>
-    <row r="942" spans="1:3">
-      <c r="A942" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B942">
-        <v>7</v>
-      </c>
-      <c r="C942">
-        <v>3.571428571428572</v>
-      </c>
-    </row>
-    <row r="943" spans="1:3">
-      <c r="A943" s="2">
-        <v>44945</v>
-      </c>
-      <c r="B943">
-        <v>2</v>
-      </c>
-      <c r="C943">
-        <v>3.428571428571428</v>
-      </c>
-    </row>
-    <row r="944" spans="1:3">
-      <c r="A944" s="2">
-        <v>44946</v>
-      </c>
-      <c r="B944">
-        <v>2</v>
-      </c>
-      <c r="C944">
-        <v>2.714285714285714</v>
-      </c>
-    </row>
-    <row r="945" spans="1:3">
-      <c r="A945" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B945">
-        <v>1</v>
-      </c>
-      <c r="C945">
-        <v>2.428571428571428</v>
-      </c>
-    </row>
-    <row r="946" spans="1:3">
-      <c r="A946" s="2">
-        <v>44950</v>
-      </c>
-      <c r="B946">
-        <v>1</v>
-      </c>
-      <c r="C946">
-        <v>2.428571428571428</v>
+        <v>19.71428571428572</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C911"/>
+  <dimension ref="A1:C968"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7298,10 +7298,10 @@
         <v>44561</v>
       </c>
       <c r="B630">
-        <v>804</v>
+        <v>47</v>
       </c>
       <c r="C630">
-        <v>150.1428571428571</v>
+        <v>42</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7312,7 +7312,7 @@
         <v>13</v>
       </c>
       <c r="C631">
-        <v>151.1428571428571</v>
+        <v>43</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7323,7 +7323,7 @@
         <v>14</v>
       </c>
       <c r="C632">
-        <v>152.7142857142857</v>
+        <v>44.57142857142857</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7334,7 +7334,7 @@
         <v>68</v>
       </c>
       <c r="C633">
-        <v>158.2857142857143</v>
+        <v>50.14285714285715</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7345,7 +7345,7 @@
         <v>58</v>
       </c>
       <c r="C634">
-        <v>159.8571428571429</v>
+        <v>51.71428571428572</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7356,7 +7356,7 @@
         <v>75</v>
       </c>
       <c r="C635">
-        <v>159.4285714285714</v>
+        <v>51.28571428571428</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7367,7 +7367,7 @@
         <v>121</v>
       </c>
       <c r="C636">
-        <v>164.7142857142857</v>
+        <v>56.57142857142857</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -10037,10 +10037,10 @@
         <v>44874</v>
       </c>
       <c r="B879">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C879">
-        <v>1.571428571428571</v>
+        <v>1.714285714285714</v>
       </c>
     </row>
     <row r="880" spans="1:3">
@@ -10051,7 +10051,7 @@
         <v>3</v>
       </c>
       <c r="C880">
-        <v>1.857142857142857</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:3">
@@ -10062,7 +10062,7 @@
         <v>2</v>
       </c>
       <c r="C881">
-        <v>2</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="882" spans="1:3">
@@ -10073,7 +10073,7 @@
         <v>3</v>
       </c>
       <c r="C882">
-        <v>2.285714285714286</v>
+        <v>2.428571428571428</v>
       </c>
     </row>
     <row r="883" spans="1:3">
@@ -10084,7 +10084,7 @@
         <v>3</v>
       </c>
       <c r="C883">
-        <v>2.571428571428572</v>
+        <v>2.714285714285714</v>
       </c>
     </row>
     <row r="884" spans="1:3">
@@ -10095,7 +10095,7 @@
         <v>6</v>
       </c>
       <c r="C884">
-        <v>3.142857142857143</v>
+        <v>3.285714285714286</v>
       </c>
     </row>
     <row r="885" spans="1:3">
@@ -10106,7 +10106,7 @@
         <v>10</v>
       </c>
       <c r="C885">
-        <v>4.285714285714286</v>
+        <v>4.428571428571429</v>
       </c>
     </row>
     <row r="886" spans="1:3">
@@ -10114,10 +10114,10 @@
         <v>44883</v>
       </c>
       <c r="B886">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C886">
-        <v>5.428571428571429</v>
+        <v>5.571428571428571</v>
       </c>
     </row>
     <row r="887" spans="1:3">
@@ -10128,7 +10128,7 @@
         <v>6</v>
       </c>
       <c r="C887">
-        <v>5.857142857142857</v>
+        <v>6</v>
       </c>
     </row>
     <row r="888" spans="1:3">
@@ -10139,7 +10139,7 @@
         <v>3</v>
       </c>
       <c r="C888">
-        <v>6</v>
+        <v>6.142857142857143</v>
       </c>
     </row>
     <row r="889" spans="1:3">
@@ -10147,10 +10147,10 @@
         <v>44887</v>
       </c>
       <c r="B889">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C889">
-        <v>7.428571428571429</v>
+        <v>7.857142857142857</v>
       </c>
     </row>
     <row r="890" spans="1:3">
@@ -10161,7 +10161,7 @@
         <v>14</v>
       </c>
       <c r="C890">
-        <v>9</v>
+        <v>9.428571428571429</v>
       </c>
     </row>
     <row r="891" spans="1:3">
@@ -10169,10 +10169,10 @@
         <v>44889</v>
       </c>
       <c r="B891">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C891">
-        <v>11.14285714285714</v>
+        <v>11.71428571428571</v>
       </c>
     </row>
     <row r="892" spans="1:3">
@@ -10183,7 +10183,7 @@
         <v>10</v>
       </c>
       <c r="C892">
-        <v>11.14285714285714</v>
+        <v>11.71428571428571</v>
       </c>
     </row>
     <row r="893" spans="1:3">
@@ -10194,7 +10194,7 @@
         <v>1</v>
       </c>
       <c r="C893">
-        <v>9.714285714285714</v>
+        <v>10.14285714285714</v>
       </c>
     </row>
     <row r="894" spans="1:3">
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="C894">
-        <v>9</v>
+        <v>9.428571428571429</v>
       </c>
     </row>
     <row r="895" spans="1:3">
@@ -10216,7 +10216,7 @@
         <v>24</v>
       </c>
       <c r="C895">
-        <v>12</v>
+        <v>12.42857142857143</v>
       </c>
     </row>
     <row r="896" spans="1:3">
@@ -10224,10 +10224,10 @@
         <v>44894</v>
       </c>
       <c r="B896">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C896">
-        <v>13.57142857142857</v>
+        <v>13.85714285714286</v>
       </c>
     </row>
     <row r="897" spans="1:3">
@@ -10238,7 +10238,7 @@
         <v>22</v>
       </c>
       <c r="C897">
-        <v>14.71428571428571</v>
+        <v>15</v>
       </c>
     </row>
     <row r="898" spans="1:3">
@@ -10246,10 +10246,10 @@
         <v>44896</v>
       </c>
       <c r="B898">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C898">
-        <v>15.14285714285714</v>
+        <v>15.57142857142857</v>
       </c>
     </row>
     <row r="899" spans="1:3">
@@ -10257,10 +10257,10 @@
         <v>44897</v>
       </c>
       <c r="B899">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C899">
-        <v>17.28571428571428</v>
+        <v>19.14285714285714</v>
       </c>
     </row>
     <row r="900" spans="1:3">
@@ -10268,131 +10268,758 @@
         <v>44898</v>
       </c>
       <c r="B900">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C900">
-        <v>17.42857142857143</v>
+        <v>22.28571428571428</v>
       </c>
     </row>
     <row r="901" spans="1:3">
       <c r="A901" s="2">
-        <v>44901</v>
+        <v>44899</v>
       </c>
       <c r="B901">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C901">
-        <v>17.42857142857143</v>
+        <v>23.28571428571428</v>
       </c>
     </row>
     <row r="902" spans="1:3">
       <c r="A902" s="2">
-        <v>44902</v>
+        <v>44900</v>
       </c>
       <c r="B902">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C902">
-        <v>14.57142857142857</v>
+        <v>25.14285714285714</v>
       </c>
     </row>
     <row r="903" spans="1:3">
       <c r="A903" s="2">
-        <v>44909</v>
+        <v>44901</v>
       </c>
       <c r="B903">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C903">
-        <v>11.28571428571429</v>
+        <v>27.42857142857143</v>
       </c>
     </row>
     <row r="904" spans="1:3">
       <c r="A904" s="2">
-        <v>44910</v>
+        <v>44902</v>
       </c>
       <c r="B904">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C904">
-        <v>8.571428571428571</v>
+        <v>29.28571428571428</v>
       </c>
     </row>
     <row r="905" spans="1:3">
       <c r="A905" s="2">
-        <v>44917</v>
+        <v>44903</v>
       </c>
       <c r="B905">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="C905">
-        <v>20.57142857142857</v>
+        <v>29.14285714285714</v>
       </c>
     </row>
     <row r="906" spans="1:3">
       <c r="A906" s="2">
-        <v>44922</v>
+        <v>44904</v>
       </c>
       <c r="B906">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C906">
-        <v>18.57142857142857</v>
+        <v>27.57142857142857</v>
       </c>
     </row>
     <row r="907" spans="1:3">
       <c r="A907" s="2">
-        <v>44924</v>
+        <v>44905</v>
       </c>
       <c r="B907">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C907">
-        <v>19.14285714285714</v>
+        <v>29</v>
       </c>
     </row>
     <row r="908" spans="1:3">
       <c r="A908" s="2">
-        <v>44931</v>
+        <v>44906</v>
       </c>
       <c r="B908">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C908">
-        <v>19.71428571428572</v>
+        <v>28.85714285714286</v>
       </c>
     </row>
     <row r="909" spans="1:3">
       <c r="A909" s="2">
-        <v>44932</v>
+        <v>44907</v>
       </c>
       <c r="B909">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C909">
-        <v>19.28571428571428</v>
+        <v>29.28571428571428</v>
       </c>
     </row>
     <row r="910" spans="1:3">
       <c r="A910" s="2">
-        <v>44938</v>
+        <v>44908</v>
       </c>
       <c r="B910">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C910">
-        <v>19.85714285714286</v>
+        <v>29.42857142857143</v>
       </c>
     </row>
     <row r="911" spans="1:3">
       <c r="A911" s="2">
+        <v>44909</v>
+      </c>
+      <c r="B911">
+        <v>38</v>
+      </c>
+      <c r="C911">
+        <v>29.85714285714286</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3">
+      <c r="A912" s="2">
+        <v>44910</v>
+      </c>
+      <c r="B912">
+        <v>21</v>
+      </c>
+      <c r="C912">
+        <v>29.28571428571428</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3">
+      <c r="A913" s="2">
+        <v>44911</v>
+      </c>
+      <c r="B913">
+        <v>20</v>
+      </c>
+      <c r="C913">
+        <v>28.71428571428572</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3">
+      <c r="A914" s="2">
+        <v>44912</v>
+      </c>
+      <c r="B914">
+        <v>22</v>
+      </c>
+      <c r="C914">
+        <v>27.14285714285714</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3">
+      <c r="A915" s="2">
+        <v>44913</v>
+      </c>
+      <c r="B915">
+        <v>7</v>
+      </c>
+      <c r="C915">
+        <v>27.14285714285714</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3">
+      <c r="A916" s="2">
+        <v>44914</v>
+      </c>
+      <c r="B916">
+        <v>38</v>
+      </c>
+      <c r="C916">
+        <v>26.85714285714286</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3">
+      <c r="A917" s="2">
+        <v>44915</v>
+      </c>
+      <c r="B917">
+        <v>37</v>
+      </c>
+      <c r="C917">
+        <v>26.14285714285714</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3">
+      <c r="A918" s="2">
+        <v>44916</v>
+      </c>
+      <c r="B918">
+        <v>29</v>
+      </c>
+      <c r="C918">
+        <v>24.85714285714286</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3">
+      <c r="A919" s="2">
+        <v>44917</v>
+      </c>
+      <c r="B919">
+        <v>129</v>
+      </c>
+      <c r="C919">
+        <v>40.28571428571428</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3">
+      <c r="A920" s="2">
+        <v>44918</v>
+      </c>
+      <c r="B920">
+        <v>23</v>
+      </c>
+      <c r="C920">
+        <v>40.71428571428572</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3">
+      <c r="A921" s="2">
+        <v>44919</v>
+      </c>
+      <c r="B921">
+        <v>14</v>
+      </c>
+      <c r="C921">
+        <v>39.57142857142857</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3">
+      <c r="A922" s="2">
+        <v>44921</v>
+      </c>
+      <c r="B922">
+        <v>15</v>
+      </c>
+      <c r="C922">
+        <v>40.71428571428572</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3">
+      <c r="A923" s="2">
+        <v>44922</v>
+      </c>
+      <c r="B923">
+        <v>28</v>
+      </c>
+      <c r="C923">
+        <v>39.28571428571428</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3">
+      <c r="A924" s="2">
+        <v>44923</v>
+      </c>
+      <c r="B924">
+        <v>18</v>
+      </c>
+      <c r="C924">
+        <v>36.57142857142857</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3">
+      <c r="A925" s="2">
+        <v>44924</v>
+      </c>
+      <c r="B925">
+        <v>23</v>
+      </c>
+      <c r="C925">
+        <v>35.71428571428572</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3">
+      <c r="A926" s="2">
+        <v>44925</v>
+      </c>
+      <c r="B926">
+        <v>14</v>
+      </c>
+      <c r="C926">
+        <v>19.28571428571428</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3">
+      <c r="A927" s="2">
+        <v>44926</v>
+      </c>
+      <c r="B927">
+        <v>3</v>
+      </c>
+      <c r="C927">
+        <v>16.42857142857143</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3">
+      <c r="A928" s="2">
+        <v>44928</v>
+      </c>
+      <c r="B928">
+        <v>5</v>
+      </c>
+      <c r="C928">
+        <v>15.14285714285714</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3">
+      <c r="A929" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B929">
+        <v>5</v>
+      </c>
+      <c r="C929">
+        <v>13.71428571428571</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3">
+      <c r="A930" s="2">
+        <v>44930</v>
+      </c>
+      <c r="B930">
+        <v>7</v>
+      </c>
+      <c r="C930">
+        <v>10.71428571428571</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3">
+      <c r="A931" s="2">
+        <v>44931</v>
+      </c>
+      <c r="B931">
+        <v>16</v>
+      </c>
+      <c r="C931">
+        <v>10.42857142857143</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3">
+      <c r="A932" s="2">
+        <v>44932</v>
+      </c>
+      <c r="B932">
+        <v>8</v>
+      </c>
+      <c r="C932">
+        <v>8.285714285714286</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3">
+      <c r="A933" s="2">
+        <v>44933</v>
+      </c>
+      <c r="B933">
+        <v>1</v>
+      </c>
+      <c r="C933">
+        <v>6.428571428571429</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3">
+      <c r="A934" s="2">
+        <v>44935</v>
+      </c>
+      <c r="B934">
+        <v>4</v>
+      </c>
+      <c r="C934">
+        <v>6.571428571428571</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3">
+      <c r="A935" s="2">
+        <v>44936</v>
+      </c>
+      <c r="B935">
+        <v>4</v>
+      </c>
+      <c r="C935">
+        <v>6.428571428571429</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3">
+      <c r="A936" s="2">
+        <v>44937</v>
+      </c>
+      <c r="B936">
+        <v>3</v>
+      </c>
+      <c r="C936">
+        <v>6.142857142857143</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3">
+      <c r="A937" s="2">
+        <v>44938</v>
+      </c>
+      <c r="B937">
+        <v>7</v>
+      </c>
+      <c r="C937">
+        <v>6.142857142857143</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3">
+      <c r="A938" s="2">
+        <v>44939</v>
+      </c>
+      <c r="B938">
+        <v>3</v>
+      </c>
+      <c r="C938">
+        <v>4.285714285714286</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3">
+      <c r="A939" s="2">
+        <v>44940</v>
+      </c>
+      <c r="B939">
+        <v>1</v>
+      </c>
+      <c r="C939">
+        <v>3.285714285714286</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3">
+      <c r="A940" s="2">
+        <v>44942</v>
+      </c>
+      <c r="B940">
+        <v>2</v>
+      </c>
+      <c r="C940">
+        <v>3.428571428571428</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3">
+      <c r="A941" s="2">
+        <v>44943</v>
+      </c>
+      <c r="B941">
+        <v>2</v>
+      </c>
+      <c r="C941">
+        <v>3.142857142857143</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3">
+      <c r="A942" s="2">
         <v>44944</v>
       </c>
-      <c r="B911">
+      <c r="B942">
+        <v>7</v>
+      </c>
+      <c r="C942">
+        <v>3.571428571428572</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3">
+      <c r="A943" s="2">
+        <v>44945</v>
+      </c>
+      <c r="B943">
         <v>2</v>
       </c>
-      <c r="C911">
-        <v>19.71428571428572</v>
+      <c r="C943">
+        <v>3.428571428571428</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3">
+      <c r="A944" s="2">
+        <v>44946</v>
+      </c>
+      <c r="B944">
+        <v>2</v>
+      </c>
+      <c r="C944">
+        <v>2.714285714285714</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3">
+      <c r="A945" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B945">
+        <v>1</v>
+      </c>
+      <c r="C945">
+        <v>2.428571428571428</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3">
+      <c r="A946" s="2">
+        <v>44950</v>
+      </c>
+      <c r="B946">
+        <v>1</v>
+      </c>
+      <c r="C946">
+        <v>2.428571428571428</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3">
+      <c r="A947" s="2">
+        <v>44951</v>
+      </c>
+      <c r="B947">
+        <v>1</v>
+      </c>
+      <c r="C947">
+        <v>2.285714285714286</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3">
+      <c r="A948" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B948">
+        <v>1</v>
+      </c>
+      <c r="C948">
+        <v>2.142857142857143</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3">
+      <c r="A949" s="2">
+        <v>44954</v>
+      </c>
+      <c r="B949">
+        <v>1</v>
+      </c>
+      <c r="C949">
+        <v>1.285714285714286</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3">
+      <c r="A950" s="2">
+        <v>44957</v>
+      </c>
+      <c r="B950">
+        <v>2</v>
+      </c>
+      <c r="C950">
+        <v>1.285714285714286</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3">
+      <c r="A951" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B951">
+        <v>3</v>
+      </c>
+      <c r="C951">
+        <v>1.428571428571429</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3">
+      <c r="A952" s="2">
+        <v>44962</v>
+      </c>
+      <c r="B952">
+        <v>1</v>
+      </c>
+      <c r="C952">
+        <v>1.428571428571429</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3">
+      <c r="A953" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B953">
+        <v>1</v>
+      </c>
+      <c r="C953">
+        <v>1.428571428571429</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3">
+      <c r="A954" s="2">
+        <v>44965</v>
+      </c>
+      <c r="B954">
+        <v>1</v>
+      </c>
+      <c r="C954">
+        <v>1.428571428571429</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3">
+      <c r="A955" s="2">
+        <v>44967</v>
+      </c>
+      <c r="B955">
+        <v>1</v>
+      </c>
+      <c r="C955">
+        <v>1.428571428571429</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3">
+      <c r="A956" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B956">
+        <v>1</v>
+      </c>
+      <c r="C956">
+        <v>1.428571428571429</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3">
+      <c r="A957" s="2">
+        <v>44975</v>
+      </c>
+      <c r="B957">
+        <v>1</v>
+      </c>
+      <c r="C957">
+        <v>1.285714285714286</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3">
+      <c r="A958" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B958">
+        <v>2</v>
+      </c>
+      <c r="C958">
+        <v>1.142857142857143</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3">
+      <c r="A959" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B959">
+        <v>1</v>
+      </c>
+      <c r="C959">
+        <v>1.142857142857143</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3">
+      <c r="A960" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B960">
+        <v>1</v>
+      </c>
+      <c r="C960">
+        <v>1.142857142857143</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3">
+      <c r="A961" s="2">
+        <v>44983</v>
+      </c>
+      <c r="B961">
+        <v>1</v>
+      </c>
+      <c r="C961">
+        <v>1.142857142857143</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3">
+      <c r="A962" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B962">
+        <v>1</v>
+      </c>
+      <c r="C962">
+        <v>1.142857142857143</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3">
+      <c r="A963" s="2">
+        <v>44992</v>
+      </c>
+      <c r="B963">
+        <v>1</v>
+      </c>
+      <c r="C963">
+        <v>1.142857142857143</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3">
+      <c r="A964" s="2">
+        <v>44994</v>
+      </c>
+      <c r="B964">
+        <v>2</v>
+      </c>
+      <c r="C964">
+        <v>1.285714285714286</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3">
+      <c r="A965" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B965">
+        <v>2</v>
+      </c>
+      <c r="C965">
+        <v>1.285714285714286</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3">
+      <c r="A966" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B966">
+        <v>4</v>
+      </c>
+      <c r="C966">
+        <v>1.714285714285714</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3">
+      <c r="A967" s="2">
+        <v>45003</v>
+      </c>
+      <c r="B967">
+        <v>1</v>
+      </c>
+      <c r="C967">
+        <v>1.714285714285714</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3">
+      <c r="A968" s="2">
+        <v>45005</v>
+      </c>
+      <c r="B968">
+        <v>1</v>
+      </c>
+      <c r="C968">
+        <v>1.714285714285714</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_amazonas.xlsx
+++ b/regiones/casos_amazonas.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C968"/>
+  <dimension ref="A1:C971"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11002,7 +11002,7 @@
     </row>
     <row r="967" spans="1:3">
       <c r="A967" s="2">
-        <v>45003</v>
+        <v>45002</v>
       </c>
       <c r="B967">
         <v>1</v>
@@ -11013,13 +11013,46 @@
     </row>
     <row r="968" spans="1:3">
       <c r="A968" s="2">
-        <v>45005</v>
+        <v>45003</v>
       </c>
       <c r="B968">
         <v>1</v>
       </c>
       <c r="C968">
         <v>1.714285714285714</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3">
+      <c r="A969" s="2">
+        <v>45005</v>
+      </c>
+      <c r="B969">
+        <v>1</v>
+      </c>
+      <c r="C969">
+        <v>1.714285714285714</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3">
+      <c r="A970" s="2">
+        <v>45009</v>
+      </c>
+      <c r="B970">
+        <v>1</v>
+      </c>
+      <c r="C970">
+        <v>1.714285714285714</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3">
+      <c r="A971" s="2">
+        <v>45010</v>
+      </c>
+      <c r="B971">
+        <v>1</v>
+      </c>
+      <c r="C971">
+        <v>1.571428571428571</v>
       </c>
     </row>
   </sheetData>
